--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kotov\Desktop\diplom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AADEBC7-D934-4297-B006-83F572719B96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09693CFF-B6B2-4754-9B6D-26ACB730EA11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -982,9 +982,6 @@
     <t>Валидация поля "Заголовок" в форме добавления новости</t>
   </si>
   <si>
-    <t>9.Ввести в поле "Заголово"  256 символов (буквы и цифры)</t>
-  </si>
-  <si>
     <t>9. Сообщение об ошибке "Поле заголовок не может содержать  более 255 символов"</t>
   </si>
   <si>
@@ -1027,9 +1024,6 @@
     <t>1. В заголовке поп-апа отображается выбранное значение минут</t>
   </si>
   <si>
-    <t>9. Ввести в поле "Описание" сиволы кириллицы, латиницы, спецсимволы</t>
-  </si>
-  <si>
     <t>Сохранение формы "Редактирование новости" после внесенных изменений</t>
   </si>
   <si>
@@ -1250,6 +1244,12 @@
   </si>
   <si>
     <t>9. Появляется push-уведомление о входящем звонке</t>
+  </si>
+  <si>
+    <t>9.Ввести в поле "Заголовок"  256 символов (буквы и цифры)</t>
+  </si>
+  <si>
+    <t>9. Ввести в поле "Описание" символы кириллицы, латиницы, спецсимволы</t>
   </si>
 </sst>
 </file>
@@ -1267,16 +1267,22 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1484,19 +1490,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1505,18 +1499,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1737,8 +1743,8 @@
   </sheetPr>
   <dimension ref="A1:H458"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A391" workbookViewId="0">
-      <selection activeCell="H409" sqref="H409"/>
+    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
+      <selection activeCell="G231" sqref="G231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1780,19 +1786,19 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23">
+      <c r="A2" s="33">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="33" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="12" t="s">
@@ -1806,11 +1812,11 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
       <c r="F3" s="12" t="s">
         <v>140</v>
       </c>
@@ -1822,11 +1828,11 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="12" t="s">
         <v>141</v>
       </c>
@@ -1838,11 +1844,11 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
       <c r="F5" s="13" t="s">
         <v>144</v>
       </c>
@@ -1854,11 +1860,11 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
       <c r="F6" s="13" t="s">
         <v>146</v>
       </c>
@@ -1870,15 +1876,15 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="18" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="10" t="s">
         <v>149</v>
       </c>
       <c r="H7" s="14" t="s">
@@ -1886,11 +1892,11 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
       <c r="F8" s="13" t="s">
         <v>150</v>
       </c>
@@ -1902,15 +1908,15 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="18" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="20" t="s">
         <v>152</v>
       </c>
       <c r="H9" s="18" t="s">
@@ -1918,11 +1924,11 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
       <c r="F10" s="13" t="s">
         <v>155</v>
       </c>
@@ -1934,11 +1940,11 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="13" t="s">
         <v>161</v>
       </c>
@@ -1950,19 +1956,19 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
+      <c r="A12" s="33">
         <v>2</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="33" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="12" t="s">
@@ -1976,11 +1982,11 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
       <c r="F13" s="12" t="s">
         <v>162</v>
       </c>
@@ -1992,11 +1998,11 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
       <c r="F14" s="12" t="s">
         <v>163</v>
       </c>
@@ -2008,11 +2014,11 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
       <c r="F15" s="12" t="s">
         <v>166</v>
       </c>
@@ -2024,11 +2030,11 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
       <c r="F16" s="12" t="s">
         <v>167</v>
       </c>
@@ -2040,19 +2046,19 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23">
+      <c r="A17" s="33">
         <v>3</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="33" t="s">
         <v>7</v>
       </c>
       <c r="F17" s="12" t="s">
@@ -2066,11 +2072,11 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="13" t="s">
         <v>169</v>
       </c>
@@ -2082,11 +2088,11 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
       <c r="F19" s="13" t="s">
         <v>177</v>
       </c>
@@ -2098,11 +2104,11 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
       <c r="F20" s="13" t="s">
         <v>173</v>
       </c>
@@ -2114,19 +2120,19 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="26">
+      <c r="A21" s="23">
         <v>4</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="13" t="s">
@@ -2140,11 +2146,11 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
       <c r="F22" s="21" t="s">
         <v>172</v>
       </c>
@@ -2156,11 +2162,11 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
       <c r="F23" s="13" t="s">
         <v>178</v>
       </c>
@@ -2172,11 +2178,11 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
       <c r="F24" s="13" t="s">
         <v>173</v>
       </c>
@@ -2188,19 +2194,19 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A25" s="26">
+      <c r="A25" s="23">
         <v>5</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="13" t="s">
@@ -2214,11 +2220,11 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
       <c r="F26" s="21" t="s">
         <v>172</v>
       </c>
@@ -2230,11 +2236,11 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
       <c r="F27" s="13" t="s">
         <v>179</v>
       </c>
@@ -2246,11 +2252,11 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
       <c r="F28" s="21" t="s">
         <v>173</v>
       </c>
@@ -2262,11 +2268,11 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
       <c r="F29" s="15" t="s">
         <v>17</v>
       </c>
@@ -2278,11 +2284,11 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
       <c r="F30" s="21" t="s">
         <v>19</v>
       </c>
@@ -2294,19 +2300,19 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="26">
+      <c r="A31" s="23">
         <v>6</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="E31" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F31" s="13" t="s">
@@ -2320,11 +2326,11 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
       <c r="F32" s="21" t="s">
         <v>204</v>
       </c>
@@ -2336,19 +2342,19 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="26">
+      <c r="A33" s="23">
         <v>7</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E33" s="26" t="s">
+      <c r="E33" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F33" s="13" t="s">
@@ -2362,11 +2368,11 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
       <c r="F34" s="21" t="s">
         <v>182</v>
       </c>
@@ -2378,11 +2384,11 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
       <c r="F35" s="21" t="s">
         <v>177</v>
       </c>
@@ -2394,11 +2400,11 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
       <c r="F36" s="21" t="s">
         <v>173</v>
       </c>
@@ -2410,11 +2416,11 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
+      <c r="A37" s="30"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
       <c r="F37" s="21" t="s">
         <v>183</v>
       </c>
@@ -2426,11 +2432,11 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
       <c r="F38" s="21" t="s">
         <v>202</v>
       </c>
@@ -2442,19 +2448,19 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A39" s="26">
+      <c r="A39" s="23">
         <v>8</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="D39" s="26" t="s">
+      <c r="D39" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="E39" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F39" s="13" t="s">
@@ -2468,11 +2474,11 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
       <c r="F40" s="15" t="s">
         <v>172</v>
       </c>
@@ -2484,11 +2490,11 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
+      <c r="A41" s="30"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
       <c r="F41" s="15" t="s">
         <v>259</v>
       </c>
@@ -2500,11 +2506,11 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
+      <c r="A42" s="30"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
       <c r="F42" s="15" t="s">
         <v>14</v>
       </c>
@@ -2516,11 +2522,11 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
+      <c r="A43" s="30"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
       <c r="F43" s="21" t="s">
         <v>260</v>
       </c>
@@ -2532,11 +2538,11 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
+      <c r="A44" s="31"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
       <c r="F44" s="21" t="s">
         <v>202</v>
       </c>
@@ -2548,19 +2554,19 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A45" s="26">
+      <c r="A45" s="23">
         <v>9</v>
       </c>
-      <c r="B45" s="27" t="s">
+      <c r="B45" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="26" t="s">
+      <c r="C45" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="D45" s="26" t="s">
+      <c r="D45" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E45" s="26" t="s">
+      <c r="E45" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F45" s="15" t="s">
@@ -2574,11 +2580,11 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A46" s="24"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
+      <c r="A46" s="30"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
       <c r="F46" s="21" t="s">
         <v>185</v>
       </c>
@@ -2590,11 +2596,11 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A47" s="24"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
+      <c r="A47" s="30"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
       <c r="F47" s="21" t="s">
         <v>186</v>
       </c>
@@ -2606,11 +2612,11 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A48" s="24"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
+      <c r="A48" s="30"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
       <c r="F48" s="21" t="s">
         <v>187</v>
       </c>
@@ -2622,11 +2628,11 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A49" s="24"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
+      <c r="A49" s="30"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
       <c r="F49" s="21" t="s">
         <v>201</v>
       </c>
@@ -2638,11 +2644,11 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
+      <c r="A50" s="31"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
       <c r="F50" s="21" t="s">
         <v>189</v>
       </c>
@@ -2654,19 +2660,19 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A51" s="26">
-        <v>10</v>
-      </c>
-      <c r="B51" s="26" t="s">
+      <c r="A51" s="23">
+        <v>10</v>
+      </c>
+      <c r="B51" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C51" s="26" t="s">
+      <c r="C51" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="D51" s="26" t="s">
+      <c r="D51" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E51" s="26" t="s">
+      <c r="E51" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F51" s="15" t="s">
@@ -2680,11 +2686,11 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
+      <c r="A52" s="30"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
       <c r="F52" s="21" t="s">
         <v>185</v>
       </c>
@@ -2696,11 +2702,11 @@
       </c>
     </row>
     <row r="53" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A53" s="24"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
+      <c r="A53" s="30"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
       <c r="F53" s="21" t="s">
         <v>186</v>
       </c>
@@ -2712,11 +2718,11 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A54" s="24"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
+      <c r="A54" s="30"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
       <c r="F54" s="21" t="s">
         <v>190</v>
       </c>
@@ -2728,11 +2734,11 @@
       </c>
     </row>
     <row r="55" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A55" s="24"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
+      <c r="A55" s="30"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
       <c r="F55" s="21" t="s">
         <v>201</v>
       </c>
@@ -2744,12 +2750,12 @@
       </c>
     </row>
     <row r="56" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A56" s="25"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="22" t="s">
+      <c r="A56" s="31"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="11" t="s">
         <v>189</v>
       </c>
       <c r="G56" s="11" t="s">
@@ -2760,19 +2766,19 @@
       </c>
     </row>
     <row r="57" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A57" s="26">
+      <c r="A57" s="23">
         <v>11</v>
       </c>
-      <c r="B57" s="27" t="s">
+      <c r="B57" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="C57" s="27" t="s">
+      <c r="C57" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="D57" s="27" t="s">
+      <c r="D57" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E57" s="26" t="s">
+      <c r="E57" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F57" s="21" t="s">
@@ -2786,11 +2792,11 @@
       </c>
     </row>
     <row r="58" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A58" s="24"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
+      <c r="A58" s="30"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
       <c r="F58" s="21" t="s">
         <v>185</v>
       </c>
@@ -2802,11 +2808,11 @@
       </c>
     </row>
     <row r="59" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A59" s="24"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
+      <c r="A59" s="30"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
       <c r="F59" s="21" t="s">
         <v>186</v>
       </c>
@@ -2818,11 +2824,11 @@
       </c>
     </row>
     <row r="60" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A60" s="24"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
+      <c r="A60" s="30"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
       <c r="F60" s="21" t="s">
         <v>194</v>
       </c>
@@ -2834,11 +2840,11 @@
       </c>
     </row>
     <row r="61" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A61" s="24"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
+      <c r="A61" s="30"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
       <c r="F61" s="15" t="s">
         <v>33</v>
       </c>
@@ -2850,11 +2856,11 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A62" s="24"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
+      <c r="A62" s="30"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
       <c r="F62" s="21" t="s">
         <v>197</v>
       </c>
@@ -2866,11 +2872,11 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A63" s="25"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
+      <c r="A63" s="31"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
       <c r="F63" s="21" t="s">
         <v>198</v>
       </c>
@@ -2882,19 +2888,19 @@
       </c>
     </row>
     <row r="64" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A64" s="26">
+      <c r="A64" s="23">
         <v>12</v>
       </c>
-      <c r="B64" s="26" t="s">
+      <c r="B64" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C64" s="26" t="s">
+      <c r="C64" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D64" s="27" t="s">
+      <c r="D64" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E64" s="26" t="s">
+      <c r="E64" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F64" s="13" t="s">
@@ -2908,11 +2914,11 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A65" s="24"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="24"/>
+      <c r="A65" s="30"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
       <c r="F65" s="21" t="s">
         <v>172</v>
       </c>
@@ -2924,11 +2930,11 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A66" s="24"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
+      <c r="A66" s="30"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
       <c r="F66" s="13" t="s">
         <v>205</v>
       </c>
@@ -2940,11 +2946,11 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A67" s="24"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="24"/>
+      <c r="A67" s="30"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
       <c r="F67" s="21" t="s">
         <v>173</v>
       </c>
@@ -2956,11 +2962,11 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A68" s="24"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="24"/>
+      <c r="A68" s="30"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
       <c r="F68" s="15" t="s">
         <v>41</v>
       </c>
@@ -2972,11 +2978,11 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A69" s="24"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="24"/>
+      <c r="A69" s="30"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
       <c r="F69" s="21" t="s">
         <v>206</v>
       </c>
@@ -2988,11 +2994,11 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="24"/>
-      <c r="B70" s="24"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="24"/>
+      <c r="A70" s="30"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="30"/>
       <c r="F70" s="22" t="s">
         <v>208</v>
       </c>
@@ -3004,11 +3010,11 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A71" s="25"/>
-      <c r="B71" s="25"/>
-      <c r="C71" s="29"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
+      <c r="A71" s="31"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
       <c r="F71" s="21" t="s">
         <v>210</v>
       </c>
@@ -3020,19 +3026,19 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A72" s="26">
+      <c r="A72" s="23">
         <v>13</v>
       </c>
-      <c r="B72" s="27" t="s">
+      <c r="B72" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="C72" s="26" t="s">
+      <c r="C72" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="D72" s="27" t="s">
+      <c r="D72" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="E72" s="26" t="s">
+      <c r="E72" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F72" s="13" t="s">
@@ -3046,11 +3052,11 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A73" s="24"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="24"/>
-      <c r="E73" s="24"/>
+      <c r="A73" s="30"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="30"/>
       <c r="F73" s="21" t="s">
         <v>172</v>
       </c>
@@ -3062,11 +3068,11 @@
       </c>
     </row>
     <row r="74" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A74" s="24"/>
-      <c r="B74" s="24"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="24"/>
-      <c r="E74" s="24"/>
+      <c r="A74" s="30"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="30"/>
       <c r="F74" s="13" t="s">
         <v>205</v>
       </c>
@@ -3078,11 +3084,11 @@
       </c>
     </row>
     <row r="75" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A75" s="24"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="24"/>
-      <c r="E75" s="24"/>
+      <c r="A75" s="30"/>
+      <c r="B75" s="30"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="30"/>
       <c r="F75" s="21" t="s">
         <v>173</v>
       </c>
@@ -3094,11 +3100,11 @@
       </c>
     </row>
     <row r="76" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A76" s="25"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="29"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
+      <c r="A76" s="31"/>
+      <c r="B76" s="31"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="31"/>
       <c r="F76" s="21" t="s">
         <v>214</v>
       </c>
@@ -3110,19 +3116,19 @@
       </c>
     </row>
     <row r="77" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A77" s="26">
+      <c r="A77" s="23">
         <v>14</v>
       </c>
-      <c r="B77" s="27" t="s">
+      <c r="B77" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C77" s="26" t="s">
+      <c r="C77" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="D77" s="26" t="s">
+      <c r="D77" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E77" s="26" t="s">
+      <c r="E77" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F77" s="15" t="s">
@@ -3136,11 +3142,11 @@
       </c>
     </row>
     <row r="78" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A78" s="24"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="24"/>
+      <c r="A78" s="30"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="30"/>
       <c r="F78" s="21" t="s">
         <v>185</v>
       </c>
@@ -3152,11 +3158,11 @@
       </c>
     </row>
     <row r="79" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A79" s="24"/>
-      <c r="B79" s="24"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="24"/>
-      <c r="E79" s="24"/>
+      <c r="A79" s="30"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="30"/>
       <c r="F79" s="21" t="s">
         <v>218</v>
       </c>
@@ -3168,11 +3174,11 @@
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A80" s="24"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="24"/>
+      <c r="A80" s="30"/>
+      <c r="B80" s="30"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="30"/>
       <c r="F80" s="21" t="s">
         <v>216</v>
       </c>
@@ -3184,11 +3190,11 @@
       </c>
     </row>
     <row r="81" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A81" s="24"/>
-      <c r="B81" s="24"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="24"/>
-      <c r="E81" s="24"/>
+      <c r="A81" s="30"/>
+      <c r="B81" s="30"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="30"/>
       <c r="F81" s="21" t="s">
         <v>217</v>
       </c>
@@ -3200,11 +3206,11 @@
       </c>
     </row>
     <row r="82" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A82" s="24"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="24"/>
+      <c r="A82" s="30"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="30"/>
       <c r="F82" s="21" t="s">
         <v>219</v>
       </c>
@@ -3216,11 +3222,11 @@
       </c>
     </row>
     <row r="83" spans="1:8" ht="66" x14ac:dyDescent="0.25">
-      <c r="A83" s="25"/>
-      <c r="B83" s="25"/>
-      <c r="C83" s="29"/>
-      <c r="D83" s="25"/>
-      <c r="E83" s="25"/>
+      <c r="A83" s="31"/>
+      <c r="B83" s="31"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
       <c r="F83" s="21" t="s">
         <v>223</v>
       </c>
@@ -3232,19 +3238,19 @@
       </c>
     </row>
     <row r="84" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A84" s="26">
+      <c r="A84" s="23">
         <v>15</v>
       </c>
-      <c r="B84" s="27" t="s">
+      <c r="B84" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="C84" s="26" t="s">
+      <c r="C84" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="D84" s="27" t="s">
+      <c r="D84" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="E84" s="27" t="s">
+      <c r="E84" s="26" t="s">
         <v>7</v>
       </c>
       <c r="F84" s="13" t="s">
@@ -3258,11 +3264,11 @@
       </c>
     </row>
     <row r="85" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A85" s="24"/>
-      <c r="B85" s="24"/>
-      <c r="C85" s="28"/>
-      <c r="D85" s="24"/>
-      <c r="E85" s="24"/>
+      <c r="A85" s="30"/>
+      <c r="B85" s="30"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="30"/>
       <c r="F85" s="21" t="s">
         <v>172</v>
       </c>
@@ -3274,11 +3280,11 @@
       </c>
     </row>
     <row r="86" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A86" s="24"/>
-      <c r="B86" s="24"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="24"/>
-      <c r="E86" s="24"/>
+      <c r="A86" s="30"/>
+      <c r="B86" s="30"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="30"/>
       <c r="F86" s="13" t="s">
         <v>205</v>
       </c>
@@ -3290,11 +3296,11 @@
       </c>
     </row>
     <row r="87" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A87" s="24"/>
-      <c r="B87" s="24"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="24"/>
-      <c r="E87" s="24"/>
+      <c r="A87" s="30"/>
+      <c r="B87" s="30"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="30"/>
       <c r="F87" s="21" t="s">
         <v>173</v>
       </c>
@@ -3306,11 +3312,11 @@
       </c>
     </row>
     <row r="88" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A88" s="24"/>
-      <c r="B88" s="24"/>
-      <c r="C88" s="28"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="24"/>
+      <c r="A88" s="30"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="30"/>
+      <c r="E88" s="30"/>
       <c r="F88" s="21" t="s">
         <v>227</v>
       </c>
@@ -3322,11 +3328,11 @@
       </c>
     </row>
     <row r="89" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A89" s="24"/>
-      <c r="B89" s="24"/>
-      <c r="C89" s="28"/>
-      <c r="D89" s="24"/>
-      <c r="E89" s="24"/>
+      <c r="A89" s="30"/>
+      <c r="B89" s="30"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="30"/>
+      <c r="E89" s="30"/>
       <c r="F89" s="21" t="s">
         <v>45</v>
       </c>
@@ -3338,11 +3344,11 @@
       </c>
     </row>
     <row r="90" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A90" s="24"/>
-      <c r="B90" s="24"/>
-      <c r="C90" s="28"/>
-      <c r="D90" s="24"/>
-      <c r="E90" s="24"/>
+      <c r="A90" s="30"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="30"/>
       <c r="F90" s="21" t="s">
         <v>47</v>
       </c>
@@ -3354,11 +3360,11 @@
       </c>
     </row>
     <row r="91" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A91" s="25"/>
-      <c r="B91" s="25"/>
-      <c r="C91" s="29"/>
-      <c r="D91" s="25"/>
-      <c r="E91" s="25"/>
+      <c r="A91" s="31"/>
+      <c r="B91" s="31"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="31"/>
       <c r="F91" s="21" t="s">
         <v>229</v>
       </c>
@@ -3370,19 +3376,19 @@
       </c>
     </row>
     <row r="92" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A92" s="26">
+      <c r="A92" s="23">
         <v>16</v>
       </c>
-      <c r="B92" s="26" t="s">
+      <c r="B92" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C92" s="26" t="s">
+      <c r="C92" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="D92" s="26" t="s">
+      <c r="D92" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="E92" s="26" t="s">
+      <c r="E92" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F92" s="15" t="s">
@@ -3396,11 +3402,11 @@
       </c>
     </row>
     <row r="93" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A93" s="24"/>
-      <c r="B93" s="24"/>
-      <c r="C93" s="28"/>
-      <c r="D93" s="24"/>
-      <c r="E93" s="24"/>
+      <c r="A93" s="30"/>
+      <c r="B93" s="30"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="30"/>
+      <c r="E93" s="30"/>
       <c r="F93" s="15" t="s">
         <v>185</v>
       </c>
@@ -3412,11 +3418,11 @@
       </c>
     </row>
     <row r="94" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A94" s="24"/>
-      <c r="B94" s="24"/>
-      <c r="C94" s="28"/>
-      <c r="D94" s="24"/>
-      <c r="E94" s="24"/>
+      <c r="A94" s="30"/>
+      <c r="B94" s="30"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="30"/>
+      <c r="E94" s="30"/>
       <c r="F94" s="15" t="s">
         <v>232</v>
       </c>
@@ -3428,11 +3434,11 @@
       </c>
     </row>
     <row r="95" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A95" s="24"/>
-      <c r="B95" s="24"/>
-      <c r="C95" s="28"/>
-      <c r="D95" s="24"/>
-      <c r="E95" s="24"/>
+      <c r="A95" s="30"/>
+      <c r="B95" s="30"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="30"/>
+      <c r="E95" s="30"/>
       <c r="F95" s="15" t="s">
         <v>233</v>
       </c>
@@ -3444,11 +3450,11 @@
       </c>
     </row>
     <row r="96" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A96" s="24"/>
-      <c r="B96" s="24"/>
-      <c r="C96" s="28"/>
-      <c r="D96" s="24"/>
-      <c r="E96" s="24"/>
+      <c r="A96" s="30"/>
+      <c r="B96" s="30"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="30"/>
       <c r="F96" s="15" t="s">
         <v>237</v>
       </c>
@@ -3460,11 +3466,11 @@
       </c>
     </row>
     <row r="97" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A97" s="24"/>
-      <c r="B97" s="24"/>
-      <c r="C97" s="28"/>
-      <c r="D97" s="24"/>
-      <c r="E97" s="24"/>
+      <c r="A97" s="30"/>
+      <c r="B97" s="30"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="30"/>
+      <c r="E97" s="30"/>
       <c r="F97" s="15" t="s">
         <v>51</v>
       </c>
@@ -3476,11 +3482,11 @@
       </c>
     </row>
     <row r="98" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A98" s="24"/>
-      <c r="B98" s="24"/>
-      <c r="C98" s="28"/>
-      <c r="D98" s="24"/>
-      <c r="E98" s="24"/>
+      <c r="A98" s="30"/>
+      <c r="B98" s="30"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="30"/>
+      <c r="E98" s="30"/>
       <c r="F98" s="15" t="s">
         <v>223</v>
       </c>
@@ -3492,11 +3498,11 @@
       </c>
     </row>
     <row r="99" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A99" s="25"/>
-      <c r="B99" s="25"/>
-      <c r="C99" s="29"/>
-      <c r="D99" s="25"/>
-      <c r="E99" s="25"/>
+      <c r="A99" s="31"/>
+      <c r="B99" s="31"/>
+      <c r="C99" s="25"/>
+      <c r="D99" s="31"/>
+      <c r="E99" s="31"/>
       <c r="F99" s="15" t="s">
         <v>240</v>
       </c>
@@ -3508,19 +3514,19 @@
       </c>
     </row>
     <row r="100" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A100" s="26">
+      <c r="A100" s="23">
         <v>17</v>
       </c>
-      <c r="B100" s="26" t="s">
+      <c r="B100" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C100" s="26" t="s">
+      <c r="C100" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D100" s="26" t="s">
+      <c r="D100" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="E100" s="26" t="s">
+      <c r="E100" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F100" s="15" t="s">
@@ -3534,11 +3540,11 @@
       </c>
     </row>
     <row r="101" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A101" s="24"/>
-      <c r="B101" s="24"/>
-      <c r="C101" s="28"/>
-      <c r="D101" s="24"/>
-      <c r="E101" s="24"/>
+      <c r="A101" s="30"/>
+      <c r="B101" s="30"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="30"/>
+      <c r="E101" s="30"/>
       <c r="F101" s="15" t="s">
         <v>185</v>
       </c>
@@ -3550,11 +3556,11 @@
       </c>
     </row>
     <row r="102" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A102" s="24"/>
-      <c r="B102" s="24"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="24"/>
-      <c r="E102" s="24"/>
+      <c r="A102" s="30"/>
+      <c r="B102" s="30"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="30"/>
+      <c r="E102" s="30"/>
       <c r="F102" s="15" t="s">
         <v>232</v>
       </c>
@@ -3566,11 +3572,11 @@
       </c>
     </row>
     <row r="103" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A103" s="24"/>
-      <c r="B103" s="24"/>
-      <c r="C103" s="28"/>
-      <c r="D103" s="24"/>
-      <c r="E103" s="24"/>
+      <c r="A103" s="30"/>
+      <c r="B103" s="30"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="30"/>
+      <c r="E103" s="30"/>
       <c r="F103" s="15" t="s">
         <v>233</v>
       </c>
@@ -3582,11 +3588,11 @@
       </c>
     </row>
     <row r="104" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A104" s="24"/>
-      <c r="B104" s="24"/>
-      <c r="C104" s="28"/>
-      <c r="D104" s="24"/>
-      <c r="E104" s="24"/>
+      <c r="A104" s="30"/>
+      <c r="B104" s="30"/>
+      <c r="C104" s="24"/>
+      <c r="D104" s="30"/>
+      <c r="E104" s="30"/>
       <c r="F104" s="15" t="s">
         <v>237</v>
       </c>
@@ -3598,11 +3604,11 @@
       </c>
     </row>
     <row r="105" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A105" s="24"/>
-      <c r="B105" s="24"/>
-      <c r="C105" s="28"/>
-      <c r="D105" s="24"/>
-      <c r="E105" s="24"/>
+      <c r="A105" s="30"/>
+      <c r="B105" s="30"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="30"/>
+      <c r="E105" s="30"/>
       <c r="F105" s="15" t="s">
         <v>55</v>
       </c>
@@ -3614,11 +3620,11 @@
       </c>
     </row>
     <row r="106" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A106" s="24"/>
-      <c r="B106" s="24"/>
-      <c r="C106" s="28"/>
-      <c r="D106" s="24"/>
-      <c r="E106" s="24"/>
+      <c r="A106" s="30"/>
+      <c r="B106" s="30"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="30"/>
+      <c r="E106" s="30"/>
       <c r="F106" s="15" t="s">
         <v>223</v>
       </c>
@@ -3630,11 +3636,11 @@
       </c>
     </row>
     <row r="107" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A107" s="25"/>
-      <c r="B107" s="25"/>
-      <c r="C107" s="29"/>
-      <c r="D107" s="25"/>
-      <c r="E107" s="25"/>
+      <c r="A107" s="31"/>
+      <c r="B107" s="31"/>
+      <c r="C107" s="25"/>
+      <c r="D107" s="31"/>
+      <c r="E107" s="31"/>
       <c r="F107" s="15" t="s">
         <v>240</v>
       </c>
@@ -3646,19 +3652,19 @@
       </c>
     </row>
     <row r="108" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A108" s="26">
+      <c r="A108" s="23">
         <v>18</v>
       </c>
-      <c r="B108" s="26" t="s">
+      <c r="B108" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C108" s="26" t="s">
+      <c r="C108" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D108" s="26" t="s">
+      <c r="D108" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="E108" s="26" t="s">
+      <c r="E108" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F108" s="15" t="s">
@@ -3672,11 +3678,11 @@
       </c>
     </row>
     <row r="109" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A109" s="24"/>
-      <c r="B109" s="24"/>
-      <c r="C109" s="28"/>
-      <c r="D109" s="24"/>
-      <c r="E109" s="24"/>
+      <c r="A109" s="30"/>
+      <c r="B109" s="30"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="30"/>
+      <c r="E109" s="30"/>
       <c r="F109" s="15" t="s">
         <v>185</v>
       </c>
@@ -3688,11 +3694,11 @@
       </c>
     </row>
     <row r="110" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A110" s="24"/>
-      <c r="B110" s="24"/>
-      <c r="C110" s="28"/>
-      <c r="D110" s="24"/>
-      <c r="E110" s="24"/>
+      <c r="A110" s="30"/>
+      <c r="B110" s="30"/>
+      <c r="C110" s="24"/>
+      <c r="D110" s="30"/>
+      <c r="E110" s="30"/>
       <c r="F110" s="15" t="s">
         <v>232</v>
       </c>
@@ -3704,11 +3710,11 @@
       </c>
     </row>
     <row r="111" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A111" s="24"/>
-      <c r="B111" s="24"/>
-      <c r="C111" s="28"/>
-      <c r="D111" s="24"/>
-      <c r="E111" s="24"/>
+      <c r="A111" s="30"/>
+      <c r="B111" s="30"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="30"/>
+      <c r="E111" s="30"/>
       <c r="F111" s="15" t="s">
         <v>233</v>
       </c>
@@ -3720,11 +3726,11 @@
       </c>
     </row>
     <row r="112" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A112" s="24"/>
-      <c r="B112" s="24"/>
-      <c r="C112" s="28"/>
-      <c r="D112" s="24"/>
-      <c r="E112" s="24"/>
+      <c r="A112" s="30"/>
+      <c r="B112" s="30"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="30"/>
+      <c r="E112" s="30"/>
       <c r="F112" s="15" t="s">
         <v>237</v>
       </c>
@@ -3736,11 +3742,11 @@
       </c>
     </row>
     <row r="113" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A113" s="24"/>
-      <c r="B113" s="24"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="24"/>
-      <c r="E113" s="24"/>
+      <c r="A113" s="30"/>
+      <c r="B113" s="30"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="30"/>
       <c r="F113" s="15" t="s">
         <v>58</v>
       </c>
@@ -3752,11 +3758,11 @@
       </c>
     </row>
     <row r="114" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A114" s="24"/>
-      <c r="B114" s="24"/>
-      <c r="C114" s="28"/>
-      <c r="D114" s="24"/>
-      <c r="E114" s="24"/>
+      <c r="A114" s="30"/>
+      <c r="B114" s="30"/>
+      <c r="C114" s="24"/>
+      <c r="D114" s="30"/>
+      <c r="E114" s="30"/>
       <c r="F114" s="15" t="s">
         <v>223</v>
       </c>
@@ -3768,11 +3774,11 @@
       </c>
     </row>
     <row r="115" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A115" s="25"/>
-      <c r="B115" s="25"/>
-      <c r="C115" s="29"/>
-      <c r="D115" s="25"/>
-      <c r="E115" s="25"/>
+      <c r="A115" s="31"/>
+      <c r="B115" s="31"/>
+      <c r="C115" s="25"/>
+      <c r="D115" s="31"/>
+      <c r="E115" s="31"/>
       <c r="F115" s="15" t="s">
         <v>240</v>
       </c>
@@ -3784,19 +3790,19 @@
       </c>
     </row>
     <row r="116" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A116" s="26">
+      <c r="A116" s="23">
         <v>19</v>
       </c>
-      <c r="B116" s="26" t="s">
+      <c r="B116" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C116" s="26" t="s">
+      <c r="C116" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D116" s="26" t="s">
+      <c r="D116" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E116" s="26" t="s">
+      <c r="E116" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F116" s="15" t="s">
@@ -3810,11 +3816,11 @@
       </c>
     </row>
     <row r="117" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A117" s="24"/>
-      <c r="B117" s="24"/>
-      <c r="C117" s="28"/>
-      <c r="D117" s="24"/>
-      <c r="E117" s="24"/>
+      <c r="A117" s="30"/>
+      <c r="B117" s="30"/>
+      <c r="C117" s="24"/>
+      <c r="D117" s="30"/>
+      <c r="E117" s="30"/>
       <c r="F117" s="15" t="s">
         <v>185</v>
       </c>
@@ -3826,11 +3832,11 @@
       </c>
     </row>
     <row r="118" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A118" s="24"/>
-      <c r="B118" s="24"/>
-      <c r="C118" s="28"/>
-      <c r="D118" s="24"/>
-      <c r="E118" s="24"/>
+      <c r="A118" s="30"/>
+      <c r="B118" s="30"/>
+      <c r="C118" s="24"/>
+      <c r="D118" s="30"/>
+      <c r="E118" s="30"/>
       <c r="F118" s="15" t="s">
         <v>232</v>
       </c>
@@ -3842,11 +3848,11 @@
       </c>
     </row>
     <row r="119" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A119" s="24"/>
-      <c r="B119" s="24"/>
-      <c r="C119" s="28"/>
-      <c r="D119" s="24"/>
-      <c r="E119" s="24"/>
+      <c r="A119" s="30"/>
+      <c r="B119" s="30"/>
+      <c r="C119" s="24"/>
+      <c r="D119" s="30"/>
+      <c r="E119" s="30"/>
       <c r="F119" s="15" t="s">
         <v>61</v>
       </c>
@@ -3858,11 +3864,11 @@
       </c>
     </row>
     <row r="120" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A120" s="24"/>
-      <c r="B120" s="24"/>
-      <c r="C120" s="28"/>
-      <c r="D120" s="24"/>
-      <c r="E120" s="24"/>
+      <c r="A120" s="30"/>
+      <c r="B120" s="30"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="30"/>
+      <c r="E120" s="30"/>
       <c r="F120" s="15" t="s">
         <v>33</v>
       </c>
@@ -3874,11 +3880,11 @@
       </c>
     </row>
     <row r="121" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A121" s="25"/>
-      <c r="B121" s="25"/>
-      <c r="C121" s="29"/>
-      <c r="D121" s="25"/>
-      <c r="E121" s="25"/>
+      <c r="A121" s="31"/>
+      <c r="B121" s="31"/>
+      <c r="C121" s="25"/>
+      <c r="D121" s="31"/>
+      <c r="E121" s="31"/>
       <c r="F121" s="15" t="s">
         <v>245</v>
       </c>
@@ -3890,19 +3896,19 @@
       </c>
     </row>
     <row r="122" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A122" s="26">
+      <c r="A122" s="23">
         <v>20</v>
       </c>
-      <c r="B122" s="26" t="s">
+      <c r="B122" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="C122" s="26" t="s">
+      <c r="C122" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D122" s="26" t="s">
+      <c r="D122" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="E122" s="26" t="s">
+      <c r="E122" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F122" s="15" t="s">
@@ -3916,11 +3922,11 @@
       </c>
     </row>
     <row r="123" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A123" s="24"/>
-      <c r="B123" s="24"/>
-      <c r="C123" s="28"/>
-      <c r="D123" s="24"/>
-      <c r="E123" s="24"/>
+      <c r="A123" s="30"/>
+      <c r="B123" s="30"/>
+      <c r="C123" s="24"/>
+      <c r="D123" s="30"/>
+      <c r="E123" s="30"/>
       <c r="F123" s="15" t="s">
         <v>185</v>
       </c>
@@ -3932,11 +3938,11 @@
       </c>
     </row>
     <row r="124" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A124" s="24"/>
-      <c r="B124" s="24"/>
-      <c r="C124" s="28"/>
-      <c r="D124" s="24"/>
-      <c r="E124" s="24"/>
+      <c r="A124" s="30"/>
+      <c r="B124" s="30"/>
+      <c r="C124" s="24"/>
+      <c r="D124" s="30"/>
+      <c r="E124" s="30"/>
       <c r="F124" s="15" t="s">
         <v>232</v>
       </c>
@@ -3948,11 +3954,11 @@
       </c>
     </row>
     <row r="125" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A125" s="24"/>
-      <c r="B125" s="24"/>
-      <c r="C125" s="28"/>
-      <c r="D125" s="24"/>
-      <c r="E125" s="24"/>
+      <c r="A125" s="30"/>
+      <c r="B125" s="30"/>
+      <c r="C125" s="24"/>
+      <c r="D125" s="30"/>
+      <c r="E125" s="30"/>
       <c r="F125" s="15" t="s">
         <v>248</v>
       </c>
@@ -3964,11 +3970,11 @@
       </c>
     </row>
     <row r="126" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A126" s="24"/>
-      <c r="B126" s="24"/>
-      <c r="C126" s="28"/>
-      <c r="D126" s="24"/>
-      <c r="E126" s="24"/>
+      <c r="A126" s="30"/>
+      <c r="B126" s="30"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="30"/>
+      <c r="E126" s="30"/>
       <c r="F126" s="15" t="s">
         <v>251</v>
       </c>
@@ -3980,11 +3986,11 @@
       </c>
     </row>
     <row r="127" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A127" s="24"/>
-      <c r="B127" s="24"/>
-      <c r="C127" s="28"/>
-      <c r="D127" s="24"/>
-      <c r="E127" s="24"/>
+      <c r="A127" s="30"/>
+      <c r="B127" s="30"/>
+      <c r="C127" s="24"/>
+      <c r="D127" s="30"/>
+      <c r="E127" s="30"/>
       <c r="F127" s="15" t="s">
         <v>252</v>
       </c>
@@ -3996,11 +4002,11 @@
       </c>
     </row>
     <row r="128" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A128" s="25"/>
-      <c r="B128" s="25"/>
-      <c r="C128" s="29"/>
-      <c r="D128" s="25"/>
-      <c r="E128" s="25"/>
+      <c r="A128" s="31"/>
+      <c r="B128" s="31"/>
+      <c r="C128" s="25"/>
+      <c r="D128" s="31"/>
+      <c r="E128" s="31"/>
       <c r="F128" s="15" t="s">
         <v>223</v>
       </c>
@@ -4012,19 +4018,19 @@
       </c>
     </row>
     <row r="129" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A129" s="26">
+      <c r="A129" s="23">
         <v>21</v>
       </c>
-      <c r="B129" s="26" t="s">
+      <c r="B129" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C129" s="26" t="s">
+      <c r="C129" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D129" s="26" t="s">
+      <c r="D129" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E129" s="26" t="s">
+      <c r="E129" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F129" s="15" t="s">
@@ -4038,11 +4044,11 @@
       </c>
     </row>
     <row r="130" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A130" s="24"/>
-      <c r="B130" s="24"/>
-      <c r="C130" s="28"/>
-      <c r="D130" s="24"/>
-      <c r="E130" s="24"/>
+      <c r="A130" s="30"/>
+      <c r="B130" s="30"/>
+      <c r="C130" s="24"/>
+      <c r="D130" s="30"/>
+      <c r="E130" s="30"/>
       <c r="F130" s="15" t="s">
         <v>185</v>
       </c>
@@ -4054,11 +4060,11 @@
       </c>
     </row>
     <row r="131" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A131" s="24"/>
-      <c r="B131" s="24"/>
-      <c r="C131" s="28"/>
-      <c r="D131" s="24"/>
-      <c r="E131" s="24"/>
+      <c r="A131" s="30"/>
+      <c r="B131" s="30"/>
+      <c r="C131" s="24"/>
+      <c r="D131" s="30"/>
+      <c r="E131" s="30"/>
       <c r="F131" s="15" t="s">
         <v>232</v>
       </c>
@@ -4070,11 +4076,11 @@
       </c>
     </row>
     <row r="132" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A132" s="24"/>
-      <c r="B132" s="24"/>
-      <c r="C132" s="28"/>
-      <c r="D132" s="24"/>
-      <c r="E132" s="24"/>
+      <c r="A132" s="30"/>
+      <c r="B132" s="30"/>
+      <c r="C132" s="24"/>
+      <c r="D132" s="30"/>
+      <c r="E132" s="30"/>
       <c r="F132" s="15" t="s">
         <v>255</v>
       </c>
@@ -4086,11 +4092,11 @@
       </c>
     </row>
     <row r="133" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A133" s="25"/>
-      <c r="B133" s="25"/>
-      <c r="C133" s="29"/>
-      <c r="D133" s="25"/>
-      <c r="E133" s="25"/>
+      <c r="A133" s="31"/>
+      <c r="B133" s="31"/>
+      <c r="C133" s="25"/>
+      <c r="D133" s="31"/>
+      <c r="E133" s="31"/>
       <c r="F133" s="15" t="s">
         <v>201</v>
       </c>
@@ -4102,19 +4108,19 @@
       </c>
     </row>
     <row r="134" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A134" s="26">
+      <c r="A134" s="23">
         <v>22</v>
       </c>
-      <c r="B134" s="26" t="s">
+      <c r="B134" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="C134" s="26" t="s">
+      <c r="C134" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="D134" s="26" t="s">
+      <c r="D134" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="E134" s="26" t="s">
+      <c r="E134" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F134" s="12" t="s">
@@ -4128,11 +4134,11 @@
       </c>
     </row>
     <row r="135" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A135" s="24"/>
-      <c r="B135" s="24"/>
-      <c r="C135" s="28"/>
-      <c r="D135" s="24"/>
-      <c r="E135" s="24"/>
+      <c r="A135" s="30"/>
+      <c r="B135" s="30"/>
+      <c r="C135" s="24"/>
+      <c r="D135" s="30"/>
+      <c r="E135" s="30"/>
       <c r="F135" s="15" t="s">
         <v>172</v>
       </c>
@@ -4144,11 +4150,11 @@
       </c>
     </row>
     <row r="136" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A136" s="24"/>
-      <c r="B136" s="24"/>
-      <c r="C136" s="28"/>
-      <c r="D136" s="24"/>
-      <c r="E136" s="24"/>
+      <c r="A136" s="30"/>
+      <c r="B136" s="30"/>
+      <c r="C136" s="24"/>
+      <c r="D136" s="30"/>
+      <c r="E136" s="30"/>
       <c r="F136" s="12" t="s">
         <v>258</v>
       </c>
@@ -4160,11 +4166,11 @@
       </c>
     </row>
     <row r="137" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A137" s="24"/>
-      <c r="B137" s="24"/>
-      <c r="C137" s="28"/>
-      <c r="D137" s="24"/>
-      <c r="E137" s="24"/>
+      <c r="A137" s="30"/>
+      <c r="B137" s="30"/>
+      <c r="C137" s="24"/>
+      <c r="D137" s="30"/>
+      <c r="E137" s="30"/>
       <c r="F137" s="15" t="s">
         <v>173</v>
       </c>
@@ -4176,11 +4182,11 @@
       </c>
     </row>
     <row r="138" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A138" s="24"/>
-      <c r="B138" s="24"/>
-      <c r="C138" s="28"/>
-      <c r="D138" s="24"/>
-      <c r="E138" s="24"/>
+      <c r="A138" s="30"/>
+      <c r="B138" s="30"/>
+      <c r="C138" s="24"/>
+      <c r="D138" s="30"/>
+      <c r="E138" s="30"/>
       <c r="F138" s="15" t="s">
         <v>227</v>
       </c>
@@ -4192,11 +4198,11 @@
       </c>
     </row>
     <row r="139" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A139" s="24"/>
-      <c r="B139" s="24"/>
-      <c r="C139" s="28"/>
-      <c r="D139" s="24"/>
-      <c r="E139" s="24"/>
+      <c r="A139" s="30"/>
+      <c r="B139" s="30"/>
+      <c r="C139" s="24"/>
+      <c r="D139" s="30"/>
+      <c r="E139" s="30"/>
       <c r="F139" s="15" t="s">
         <v>263</v>
       </c>
@@ -4208,11 +4214,11 @@
       </c>
     </row>
     <row r="140" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A140" s="25"/>
-      <c r="B140" s="25"/>
-      <c r="C140" s="29"/>
-      <c r="D140" s="25"/>
-      <c r="E140" s="25"/>
+      <c r="A140" s="31"/>
+      <c r="B140" s="31"/>
+      <c r="C140" s="25"/>
+      <c r="D140" s="31"/>
+      <c r="E140" s="31"/>
       <c r="F140" s="15" t="s">
         <v>265</v>
       </c>
@@ -4224,19 +4230,19 @@
       </c>
     </row>
     <row r="141" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A141" s="26">
+      <c r="A141" s="23">
         <v>23</v>
       </c>
-      <c r="B141" s="26" t="s">
+      <c r="B141" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="C141" s="26" t="s">
+      <c r="C141" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="D141" s="26" t="s">
+      <c r="D141" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="E141" s="26" t="s">
+      <c r="E141" s="23" t="s">
         <v>66</v>
       </c>
       <c r="F141" s="12" t="s">
@@ -4250,11 +4256,11 @@
       </c>
     </row>
     <row r="142" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A142" s="24"/>
-      <c r="B142" s="24"/>
-      <c r="C142" s="28"/>
-      <c r="D142" s="24"/>
-      <c r="E142" s="24"/>
+      <c r="A142" s="30"/>
+      <c r="B142" s="30"/>
+      <c r="C142" s="24"/>
+      <c r="D142" s="30"/>
+      <c r="E142" s="30"/>
       <c r="F142" s="15" t="s">
         <v>172</v>
       </c>
@@ -4266,11 +4272,11 @@
       </c>
     </row>
     <row r="143" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A143" s="24"/>
-      <c r="B143" s="24"/>
-      <c r="C143" s="28"/>
-      <c r="D143" s="24"/>
-      <c r="E143" s="24"/>
+      <c r="A143" s="30"/>
+      <c r="B143" s="30"/>
+      <c r="C143" s="24"/>
+      <c r="D143" s="30"/>
+      <c r="E143" s="30"/>
       <c r="F143" s="12" t="s">
         <v>258</v>
       </c>
@@ -4282,11 +4288,11 @@
       </c>
     </row>
     <row r="144" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A144" s="24"/>
-      <c r="B144" s="24"/>
-      <c r="C144" s="28"/>
-      <c r="D144" s="24"/>
-      <c r="E144" s="24"/>
+      <c r="A144" s="30"/>
+      <c r="B144" s="30"/>
+      <c r="C144" s="24"/>
+      <c r="D144" s="30"/>
+      <c r="E144" s="30"/>
       <c r="F144" s="15" t="s">
         <v>173</v>
       </c>
@@ -4298,11 +4304,11 @@
       </c>
     </row>
     <row r="145" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A145" s="24"/>
-      <c r="B145" s="24"/>
-      <c r="C145" s="28"/>
-      <c r="D145" s="24"/>
-      <c r="E145" s="24"/>
+      <c r="A145" s="30"/>
+      <c r="B145" s="30"/>
+      <c r="C145" s="24"/>
+      <c r="D145" s="30"/>
+      <c r="E145" s="30"/>
       <c r="F145" s="15" t="s">
         <v>227</v>
       </c>
@@ -4314,11 +4320,11 @@
       </c>
     </row>
     <row r="146" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A146" s="24"/>
-      <c r="B146" s="24"/>
-      <c r="C146" s="28"/>
-      <c r="D146" s="24"/>
-      <c r="E146" s="24"/>
+      <c r="A146" s="30"/>
+      <c r="B146" s="30"/>
+      <c r="C146" s="24"/>
+      <c r="D146" s="30"/>
+      <c r="E146" s="30"/>
       <c r="F146" s="15" t="s">
         <v>269</v>
       </c>
@@ -4330,11 +4336,11 @@
       </c>
     </row>
     <row r="147" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A147" s="25"/>
-      <c r="B147" s="25"/>
-      <c r="C147" s="29"/>
-      <c r="D147" s="25"/>
-      <c r="E147" s="25"/>
+      <c r="A147" s="31"/>
+      <c r="B147" s="31"/>
+      <c r="C147" s="25"/>
+      <c r="D147" s="31"/>
+      <c r="E147" s="31"/>
       <c r="F147" s="15" t="s">
         <v>271</v>
       </c>
@@ -4346,19 +4352,19 @@
       </c>
     </row>
     <row r="148" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A148" s="26">
+      <c r="A148" s="23">
         <v>24</v>
       </c>
-      <c r="B148" s="26" t="s">
+      <c r="B148" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C148" s="26" t="s">
+      <c r="C148" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="D148" s="26" t="s">
+      <c r="D148" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="E148" s="26" t="s">
+      <c r="E148" s="23" t="s">
         <v>66</v>
       </c>
       <c r="F148" s="12" t="s">
@@ -4372,11 +4378,11 @@
       </c>
     </row>
     <row r="149" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A149" s="24"/>
-      <c r="B149" s="24"/>
-      <c r="C149" s="28"/>
-      <c r="D149" s="24"/>
-      <c r="E149" s="24"/>
+      <c r="A149" s="30"/>
+      <c r="B149" s="30"/>
+      <c r="C149" s="24"/>
+      <c r="D149" s="30"/>
+      <c r="E149" s="30"/>
       <c r="F149" s="15" t="s">
         <v>172</v>
       </c>
@@ -4388,11 +4394,11 @@
       </c>
     </row>
     <row r="150" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A150" s="24"/>
-      <c r="B150" s="24"/>
-      <c r="C150" s="28"/>
-      <c r="D150" s="24"/>
-      <c r="E150" s="24"/>
+      <c r="A150" s="30"/>
+      <c r="B150" s="30"/>
+      <c r="C150" s="24"/>
+      <c r="D150" s="30"/>
+      <c r="E150" s="30"/>
       <c r="F150" s="12" t="s">
         <v>258</v>
       </c>
@@ -4404,11 +4410,11 @@
       </c>
     </row>
     <row r="151" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A151" s="24"/>
-      <c r="B151" s="24"/>
-      <c r="C151" s="28"/>
-      <c r="D151" s="24"/>
-      <c r="E151" s="24"/>
+      <c r="A151" s="30"/>
+      <c r="B151" s="30"/>
+      <c r="C151" s="24"/>
+      <c r="D151" s="30"/>
+      <c r="E151" s="30"/>
       <c r="F151" s="15" t="s">
         <v>173</v>
       </c>
@@ -4420,11 +4426,11 @@
       </c>
     </row>
     <row r="152" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A152" s="24"/>
-      <c r="B152" s="24"/>
-      <c r="C152" s="28"/>
-      <c r="D152" s="24"/>
-      <c r="E152" s="24"/>
+      <c r="A152" s="30"/>
+      <c r="B152" s="30"/>
+      <c r="C152" s="24"/>
+      <c r="D152" s="30"/>
+      <c r="E152" s="30"/>
       <c r="F152" s="15" t="s">
         <v>273</v>
       </c>
@@ -4436,11 +4442,11 @@
       </c>
     </row>
     <row r="153" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A153" s="25"/>
-      <c r="B153" s="25"/>
-      <c r="C153" s="29"/>
-      <c r="D153" s="25"/>
-      <c r="E153" s="25"/>
+      <c r="A153" s="31"/>
+      <c r="B153" s="31"/>
+      <c r="C153" s="25"/>
+      <c r="D153" s="31"/>
+      <c r="E153" s="31"/>
       <c r="F153" s="11" t="s">
         <v>275</v>
       </c>
@@ -4452,19 +4458,19 @@
       </c>
     </row>
     <row r="154" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A154" s="26">
+      <c r="A154" s="23">
         <v>25</v>
       </c>
-      <c r="B154" s="26" t="s">
+      <c r="B154" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C154" s="26" t="s">
+      <c r="C154" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="D154" s="26" t="s">
+      <c r="D154" s="23" t="s">
         <v>276</v>
       </c>
-      <c r="E154" s="26" t="s">
+      <c r="E154" s="23" t="s">
         <v>66</v>
       </c>
       <c r="F154" s="12" t="s">
@@ -4478,11 +4484,11 @@
       </c>
     </row>
     <row r="155" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A155" s="24"/>
-      <c r="B155" s="24"/>
-      <c r="C155" s="28"/>
-      <c r="D155" s="24"/>
-      <c r="E155" s="24"/>
+      <c r="A155" s="30"/>
+      <c r="B155" s="30"/>
+      <c r="C155" s="24"/>
+      <c r="D155" s="30"/>
+      <c r="E155" s="30"/>
       <c r="F155" s="15" t="s">
         <v>172</v>
       </c>
@@ -4494,11 +4500,11 @@
       </c>
     </row>
     <row r="156" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A156" s="24"/>
-      <c r="B156" s="24"/>
-      <c r="C156" s="28"/>
-      <c r="D156" s="24"/>
-      <c r="E156" s="24"/>
+      <c r="A156" s="30"/>
+      <c r="B156" s="30"/>
+      <c r="C156" s="24"/>
+      <c r="D156" s="30"/>
+      <c r="E156" s="30"/>
       <c r="F156" s="12" t="s">
         <v>258</v>
       </c>
@@ -4510,11 +4516,11 @@
       </c>
     </row>
     <row r="157" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A157" s="24"/>
-      <c r="B157" s="24"/>
-      <c r="C157" s="28"/>
-      <c r="D157" s="24"/>
-      <c r="E157" s="24"/>
+      <c r="A157" s="30"/>
+      <c r="B157" s="30"/>
+      <c r="C157" s="24"/>
+      <c r="D157" s="30"/>
+      <c r="E157" s="30"/>
       <c r="F157" s="15" t="s">
         <v>173</v>
       </c>
@@ -4526,11 +4532,11 @@
       </c>
     </row>
     <row r="158" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A158" s="24"/>
-      <c r="B158" s="24"/>
-      <c r="C158" s="28"/>
-      <c r="D158" s="24"/>
-      <c r="E158" s="24"/>
+      <c r="A158" s="30"/>
+      <c r="B158" s="30"/>
+      <c r="C158" s="24"/>
+      <c r="D158" s="30"/>
+      <c r="E158" s="30"/>
       <c r="F158" s="15" t="s">
         <v>273</v>
       </c>
@@ -4542,11 +4548,11 @@
       </c>
     </row>
     <row r="159" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A159" s="24"/>
-      <c r="B159" s="24"/>
-      <c r="C159" s="28"/>
-      <c r="D159" s="24"/>
-      <c r="E159" s="24"/>
+      <c r="A159" s="30"/>
+      <c r="B159" s="30"/>
+      <c r="C159" s="24"/>
+      <c r="D159" s="30"/>
+      <c r="E159" s="30"/>
       <c r="F159" s="15" t="s">
         <v>277</v>
       </c>
@@ -4558,11 +4564,11 @@
       </c>
     </row>
     <row r="160" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A160" s="25"/>
-      <c r="B160" s="25"/>
-      <c r="C160" s="29"/>
-      <c r="D160" s="25"/>
-      <c r="E160" s="25"/>
+      <c r="A160" s="31"/>
+      <c r="B160" s="31"/>
+      <c r="C160" s="25"/>
+      <c r="D160" s="31"/>
+      <c r="E160" s="31"/>
       <c r="F160" s="15" t="s">
         <v>278</v>
       </c>
@@ -4574,19 +4580,19 @@
       </c>
     </row>
     <row r="161" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A161" s="26">
+      <c r="A161" s="23">
         <v>26</v>
       </c>
-      <c r="B161" s="26" t="s">
+      <c r="B161" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C161" s="26" t="s">
+      <c r="C161" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="D161" s="26" t="s">
+      <c r="D161" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="E161" s="26" t="s">
+      <c r="E161" s="23" t="s">
         <v>66</v>
       </c>
       <c r="F161" s="12" t="s">
@@ -4600,11 +4606,11 @@
       </c>
     </row>
     <row r="162" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A162" s="24"/>
-      <c r="B162" s="24"/>
-      <c r="C162" s="28"/>
-      <c r="D162" s="24"/>
-      <c r="E162" s="24"/>
+      <c r="A162" s="30"/>
+      <c r="B162" s="30"/>
+      <c r="C162" s="24"/>
+      <c r="D162" s="30"/>
+      <c r="E162" s="30"/>
       <c r="F162" s="15" t="s">
         <v>172</v>
       </c>
@@ -4616,11 +4622,11 @@
       </c>
     </row>
     <row r="163" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A163" s="24"/>
-      <c r="B163" s="24"/>
-      <c r="C163" s="28"/>
-      <c r="D163" s="24"/>
-      <c r="E163" s="24"/>
+      <c r="A163" s="30"/>
+      <c r="B163" s="30"/>
+      <c r="C163" s="24"/>
+      <c r="D163" s="30"/>
+      <c r="E163" s="30"/>
       <c r="F163" s="12" t="s">
         <v>258</v>
       </c>
@@ -4632,11 +4638,11 @@
       </c>
     </row>
     <row r="164" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A164" s="24"/>
-      <c r="B164" s="24"/>
-      <c r="C164" s="28"/>
-      <c r="D164" s="24"/>
-      <c r="E164" s="24"/>
+      <c r="A164" s="30"/>
+      <c r="B164" s="30"/>
+      <c r="C164" s="24"/>
+      <c r="D164" s="30"/>
+      <c r="E164" s="30"/>
       <c r="F164" s="15" t="s">
         <v>173</v>
       </c>
@@ -4648,11 +4654,11 @@
       </c>
     </row>
     <row r="165" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A165" s="24"/>
-      <c r="B165" s="24"/>
-      <c r="C165" s="28"/>
-      <c r="D165" s="24"/>
-      <c r="E165" s="24"/>
+      <c r="A165" s="30"/>
+      <c r="B165" s="30"/>
+      <c r="C165" s="24"/>
+      <c r="D165" s="30"/>
+      <c r="E165" s="30"/>
       <c r="F165" s="15" t="s">
         <v>279</v>
       </c>
@@ -4664,11 +4670,11 @@
       </c>
     </row>
     <row r="166" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A166" s="25"/>
-      <c r="B166" s="25"/>
-      <c r="C166" s="29"/>
-      <c r="D166" s="25"/>
-      <c r="E166" s="25"/>
+      <c r="A166" s="31"/>
+      <c r="B166" s="31"/>
+      <c r="C166" s="25"/>
+      <c r="D166" s="31"/>
+      <c r="E166" s="31"/>
       <c r="F166" s="15" t="s">
         <v>74</v>
       </c>
@@ -4680,19 +4686,19 @@
       </c>
     </row>
     <row r="167" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A167" s="26">
+      <c r="A167" s="23">
         <v>27</v>
       </c>
-      <c r="B167" s="26" t="s">
+      <c r="B167" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C167" s="26" t="s">
+      <c r="C167" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="D167" s="26" t="s">
+      <c r="D167" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="E167" s="26" t="s">
+      <c r="E167" s="23" t="s">
         <v>66</v>
       </c>
       <c r="F167" s="12" t="s">
@@ -4706,11 +4712,11 @@
       </c>
     </row>
     <row r="168" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A168" s="24"/>
-      <c r="B168" s="24"/>
-      <c r="C168" s="28"/>
-      <c r="D168" s="24"/>
-      <c r="E168" s="24"/>
+      <c r="A168" s="30"/>
+      <c r="B168" s="30"/>
+      <c r="C168" s="24"/>
+      <c r="D168" s="30"/>
+      <c r="E168" s="30"/>
       <c r="F168" s="15" t="s">
         <v>172</v>
       </c>
@@ -4722,11 +4728,11 @@
       </c>
     </row>
     <row r="169" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A169" s="24"/>
-      <c r="B169" s="24"/>
-      <c r="C169" s="28"/>
-      <c r="D169" s="24"/>
-      <c r="E169" s="24"/>
+      <c r="A169" s="30"/>
+      <c r="B169" s="30"/>
+      <c r="C169" s="24"/>
+      <c r="D169" s="30"/>
+      <c r="E169" s="30"/>
       <c r="F169" s="12" t="s">
         <v>258</v>
       </c>
@@ -4738,11 +4744,11 @@
       </c>
     </row>
     <row r="170" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A170" s="24"/>
-      <c r="B170" s="24"/>
-      <c r="C170" s="28"/>
-      <c r="D170" s="24"/>
-      <c r="E170" s="24"/>
+      <c r="A170" s="30"/>
+      <c r="B170" s="30"/>
+      <c r="C170" s="24"/>
+      <c r="D170" s="30"/>
+      <c r="E170" s="30"/>
       <c r="F170" s="15" t="s">
         <v>173</v>
       </c>
@@ -4754,11 +4760,11 @@
       </c>
     </row>
     <row r="171" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A171" s="24"/>
-      <c r="B171" s="24"/>
-      <c r="C171" s="28"/>
-      <c r="D171" s="24"/>
-      <c r="E171" s="24"/>
+      <c r="A171" s="30"/>
+      <c r="B171" s="30"/>
+      <c r="C171" s="24"/>
+      <c r="D171" s="30"/>
+      <c r="E171" s="30"/>
       <c r="F171" s="15" t="s">
         <v>273</v>
       </c>
@@ -4770,11 +4776,11 @@
       </c>
     </row>
     <row r="172" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A172" s="24"/>
-      <c r="B172" s="24"/>
-      <c r="C172" s="28"/>
-      <c r="D172" s="24"/>
-      <c r="E172" s="24"/>
+      <c r="A172" s="30"/>
+      <c r="B172" s="30"/>
+      <c r="C172" s="24"/>
+      <c r="D172" s="30"/>
+      <c r="E172" s="30"/>
       <c r="F172" s="15" t="s">
         <v>206</v>
       </c>
@@ -4786,11 +4792,11 @@
       </c>
     </row>
     <row r="173" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A173" s="24"/>
-      <c r="B173" s="24"/>
-      <c r="C173" s="28"/>
-      <c r="D173" s="24"/>
-      <c r="E173" s="24"/>
+      <c r="A173" s="30"/>
+      <c r="B173" s="30"/>
+      <c r="C173" s="24"/>
+      <c r="D173" s="30"/>
+      <c r="E173" s="30"/>
       <c r="F173" s="15" t="s">
         <v>285</v>
       </c>
@@ -4802,11 +4808,11 @@
       </c>
     </row>
     <row r="174" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A174" s="25"/>
-      <c r="B174" s="25"/>
-      <c r="C174" s="29"/>
-      <c r="D174" s="25"/>
-      <c r="E174" s="25"/>
+      <c r="A174" s="31"/>
+      <c r="B174" s="31"/>
+      <c r="C174" s="25"/>
+      <c r="D174" s="31"/>
+      <c r="E174" s="31"/>
       <c r="F174" s="15" t="s">
         <v>286</v>
       </c>
@@ -4818,19 +4824,19 @@
       </c>
     </row>
     <row r="175" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A175" s="26">
+      <c r="A175" s="23">
         <v>28</v>
       </c>
-      <c r="B175" s="26" t="s">
+      <c r="B175" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C175" s="26" t="s">
+      <c r="C175" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="D175" s="26" t="s">
+      <c r="D175" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="E175" s="26" t="s">
+      <c r="E175" s="23" t="s">
         <v>66</v>
       </c>
       <c r="F175" s="12" t="s">
@@ -4844,11 +4850,11 @@
       </c>
     </row>
     <row r="176" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A176" s="24"/>
-      <c r="B176" s="24"/>
-      <c r="C176" s="28"/>
-      <c r="D176" s="24"/>
-      <c r="E176" s="24"/>
+      <c r="A176" s="30"/>
+      <c r="B176" s="30"/>
+      <c r="C176" s="24"/>
+      <c r="D176" s="30"/>
+      <c r="E176" s="30"/>
       <c r="F176" s="15" t="s">
         <v>172</v>
       </c>
@@ -4860,11 +4866,11 @@
       </c>
     </row>
     <row r="177" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A177" s="24"/>
-      <c r="B177" s="24"/>
-      <c r="C177" s="28"/>
-      <c r="D177" s="24"/>
-      <c r="E177" s="24"/>
+      <c r="A177" s="30"/>
+      <c r="B177" s="30"/>
+      <c r="C177" s="24"/>
+      <c r="D177" s="30"/>
+      <c r="E177" s="30"/>
       <c r="F177" s="12" t="s">
         <v>258</v>
       </c>
@@ -4876,11 +4882,11 @@
       </c>
     </row>
     <row r="178" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A178" s="24"/>
-      <c r="B178" s="24"/>
-      <c r="C178" s="28"/>
-      <c r="D178" s="24"/>
-      <c r="E178" s="24"/>
+      <c r="A178" s="30"/>
+      <c r="B178" s="30"/>
+      <c r="C178" s="24"/>
+      <c r="D178" s="30"/>
+      <c r="E178" s="30"/>
       <c r="F178" s="15" t="s">
         <v>173</v>
       </c>
@@ -4892,11 +4898,11 @@
       </c>
     </row>
     <row r="179" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A179" s="24"/>
-      <c r="B179" s="24"/>
-      <c r="C179" s="28"/>
-      <c r="D179" s="24"/>
-      <c r="E179" s="24"/>
+      <c r="A179" s="30"/>
+      <c r="B179" s="30"/>
+      <c r="C179" s="24"/>
+      <c r="D179" s="30"/>
+      <c r="E179" s="30"/>
       <c r="F179" s="15" t="s">
         <v>273</v>
       </c>
@@ -4908,11 +4914,11 @@
       </c>
     </row>
     <row r="180" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A180" s="24"/>
-      <c r="B180" s="24"/>
-      <c r="C180" s="28"/>
-      <c r="D180" s="24"/>
-      <c r="E180" s="24"/>
+      <c r="A180" s="30"/>
+      <c r="B180" s="30"/>
+      <c r="C180" s="24"/>
+      <c r="D180" s="30"/>
+      <c r="E180" s="30"/>
       <c r="F180" s="15" t="s">
         <v>206</v>
       </c>
@@ -4924,11 +4930,11 @@
       </c>
     </row>
     <row r="181" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A181" s="25"/>
-      <c r="B181" s="25"/>
-      <c r="C181" s="29"/>
-      <c r="D181" s="25"/>
-      <c r="E181" s="25"/>
+      <c r="A181" s="31"/>
+      <c r="B181" s="31"/>
+      <c r="C181" s="25"/>
+      <c r="D181" s="31"/>
+      <c r="E181" s="31"/>
       <c r="F181" s="15" t="s">
         <v>290</v>
       </c>
@@ -4940,19 +4946,19 @@
       </c>
     </row>
     <row r="182" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A182" s="26">
+      <c r="A182" s="23">
         <v>29</v>
       </c>
-      <c r="B182" s="26" t="s">
+      <c r="B182" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C182" s="26" t="s">
+      <c r="C182" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D182" s="26" t="s">
+      <c r="D182" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="E182" s="26" t="s">
+      <c r="E182" s="23" t="s">
         <v>66</v>
       </c>
       <c r="F182" s="12" t="s">
@@ -4966,11 +4972,11 @@
       </c>
     </row>
     <row r="183" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A183" s="24"/>
-      <c r="B183" s="24"/>
-      <c r="C183" s="28"/>
-      <c r="D183" s="24"/>
-      <c r="E183" s="24"/>
+      <c r="A183" s="30"/>
+      <c r="B183" s="30"/>
+      <c r="C183" s="24"/>
+      <c r="D183" s="30"/>
+      <c r="E183" s="30"/>
       <c r="F183" s="15" t="s">
         <v>172</v>
       </c>
@@ -4982,11 +4988,11 @@
       </c>
     </row>
     <row r="184" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A184" s="24"/>
-      <c r="B184" s="24"/>
-      <c r="C184" s="28"/>
-      <c r="D184" s="24"/>
-      <c r="E184" s="24"/>
+      <c r="A184" s="30"/>
+      <c r="B184" s="30"/>
+      <c r="C184" s="24"/>
+      <c r="D184" s="30"/>
+      <c r="E184" s="30"/>
       <c r="F184" s="12" t="s">
         <v>258</v>
       </c>
@@ -4998,11 +5004,11 @@
       </c>
     </row>
     <row r="185" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A185" s="24"/>
-      <c r="B185" s="24"/>
-      <c r="C185" s="28"/>
-      <c r="D185" s="24"/>
-      <c r="E185" s="24"/>
+      <c r="A185" s="30"/>
+      <c r="B185" s="30"/>
+      <c r="C185" s="24"/>
+      <c r="D185" s="30"/>
+      <c r="E185" s="30"/>
       <c r="F185" s="15" t="s">
         <v>173</v>
       </c>
@@ -5014,11 +5020,11 @@
       </c>
     </row>
     <row r="186" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A186" s="24"/>
-      <c r="B186" s="24"/>
-      <c r="C186" s="28"/>
-      <c r="D186" s="24"/>
-      <c r="E186" s="24"/>
+      <c r="A186" s="30"/>
+      <c r="B186" s="30"/>
+      <c r="C186" s="24"/>
+      <c r="D186" s="30"/>
+      <c r="E186" s="30"/>
       <c r="F186" s="15" t="s">
         <v>273</v>
       </c>
@@ -5030,11 +5036,11 @@
       </c>
     </row>
     <row r="187" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A187" s="24"/>
-      <c r="B187" s="24"/>
-      <c r="C187" s="28"/>
-      <c r="D187" s="24"/>
-      <c r="E187" s="24"/>
+      <c r="A187" s="30"/>
+      <c r="B187" s="30"/>
+      <c r="C187" s="24"/>
+      <c r="D187" s="30"/>
+      <c r="E187" s="30"/>
       <c r="F187" s="15" t="s">
         <v>206</v>
       </c>
@@ -5046,11 +5052,11 @@
       </c>
     </row>
     <row r="188" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A188" s="24"/>
-      <c r="B188" s="24"/>
-      <c r="C188" s="28"/>
-      <c r="D188" s="24"/>
-      <c r="E188" s="24"/>
+      <c r="A188" s="30"/>
+      <c r="B188" s="30"/>
+      <c r="C188" s="24"/>
+      <c r="D188" s="30"/>
+      <c r="E188" s="30"/>
       <c r="F188" s="15" t="s">
         <v>79</v>
       </c>
@@ -5062,11 +5068,11 @@
       </c>
     </row>
     <row r="189" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A189" s="24"/>
-      <c r="B189" s="24"/>
-      <c r="C189" s="28"/>
-      <c r="D189" s="24"/>
-      <c r="E189" s="24"/>
+      <c r="A189" s="30"/>
+      <c r="B189" s="30"/>
+      <c r="C189" s="24"/>
+      <c r="D189" s="30"/>
+      <c r="E189" s="30"/>
       <c r="F189" s="15" t="s">
         <v>293</v>
       </c>
@@ -5078,11 +5084,11 @@
       </c>
     </row>
     <row r="190" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A190" s="24"/>
-      <c r="B190" s="24"/>
-      <c r="C190" s="28"/>
-      <c r="D190" s="24"/>
-      <c r="E190" s="24"/>
+      <c r="A190" s="30"/>
+      <c r="B190" s="30"/>
+      <c r="C190" s="24"/>
+      <c r="D190" s="30"/>
+      <c r="E190" s="30"/>
       <c r="F190" s="15" t="s">
         <v>295</v>
       </c>
@@ -5094,11 +5100,11 @@
       </c>
     </row>
     <row r="191" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A191" s="24"/>
-      <c r="B191" s="24"/>
-      <c r="C191" s="28"/>
-      <c r="D191" s="24"/>
-      <c r="E191" s="24"/>
+      <c r="A191" s="30"/>
+      <c r="B191" s="30"/>
+      <c r="C191" s="24"/>
+      <c r="D191" s="30"/>
+      <c r="E191" s="30"/>
       <c r="F191" s="15" t="s">
         <v>82</v>
       </c>
@@ -5110,11 +5116,11 @@
       </c>
     </row>
     <row r="192" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A192" s="24"/>
-      <c r="B192" s="24"/>
-      <c r="C192" s="28"/>
-      <c r="D192" s="24"/>
-      <c r="E192" s="24"/>
+      <c r="A192" s="30"/>
+      <c r="B192" s="30"/>
+      <c r="C192" s="24"/>
+      <c r="D192" s="30"/>
+      <c r="E192" s="30"/>
       <c r="F192" s="15" t="s">
         <v>309</v>
       </c>
@@ -5126,11 +5132,11 @@
       </c>
     </row>
     <row r="193" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A193" s="24"/>
-      <c r="B193" s="24"/>
-      <c r="C193" s="28"/>
-      <c r="D193" s="24"/>
-      <c r="E193" s="24"/>
+      <c r="A193" s="30"/>
+      <c r="B193" s="30"/>
+      <c r="C193" s="24"/>
+      <c r="D193" s="30"/>
+      <c r="E193" s="30"/>
       <c r="F193" s="15" t="s">
         <v>297</v>
       </c>
@@ -5142,11 +5148,11 @@
       </c>
     </row>
     <row r="194" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A194" s="24"/>
-      <c r="B194" s="24"/>
-      <c r="C194" s="28"/>
-      <c r="D194" s="24"/>
-      <c r="E194" s="24"/>
+      <c r="A194" s="30"/>
+      <c r="B194" s="30"/>
+      <c r="C194" s="24"/>
+      <c r="D194" s="30"/>
+      <c r="E194" s="30"/>
       <c r="F194" s="15" t="s">
         <v>115</v>
       </c>
@@ -5158,11 +5164,11 @@
       </c>
     </row>
     <row r="195" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A195" s="24"/>
-      <c r="B195" s="24"/>
-      <c r="C195" s="28"/>
-      <c r="D195" s="24"/>
-      <c r="E195" s="24"/>
+      <c r="A195" s="30"/>
+      <c r="B195" s="30"/>
+      <c r="C195" s="24"/>
+      <c r="D195" s="30"/>
+      <c r="E195" s="30"/>
       <c r="F195" s="15" t="s">
         <v>300</v>
       </c>
@@ -5174,11 +5180,11 @@
       </c>
     </row>
     <row r="196" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A196" s="24"/>
-      <c r="B196" s="24"/>
-      <c r="C196" s="28"/>
-      <c r="D196" s="24"/>
-      <c r="E196" s="24"/>
+      <c r="A196" s="30"/>
+      <c r="B196" s="30"/>
+      <c r="C196" s="24"/>
+      <c r="D196" s="30"/>
+      <c r="E196" s="30"/>
       <c r="F196" s="15" t="s">
         <v>302</v>
       </c>
@@ -5190,11 +5196,11 @@
       </c>
     </row>
     <row r="197" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A197" s="24"/>
-      <c r="B197" s="24"/>
-      <c r="C197" s="28"/>
-      <c r="D197" s="24"/>
-      <c r="E197" s="24"/>
+      <c r="A197" s="30"/>
+      <c r="B197" s="30"/>
+      <c r="C197" s="24"/>
+      <c r="D197" s="30"/>
+      <c r="E197" s="30"/>
       <c r="F197" s="15" t="s">
         <v>305</v>
       </c>
@@ -5206,11 +5212,11 @@
       </c>
     </row>
     <row r="198" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A198" s="24"/>
-      <c r="B198" s="24"/>
-      <c r="C198" s="28"/>
-      <c r="D198" s="24"/>
-      <c r="E198" s="24"/>
+      <c r="A198" s="30"/>
+      <c r="B198" s="30"/>
+      <c r="C198" s="24"/>
+      <c r="D198" s="30"/>
+      <c r="E198" s="30"/>
       <c r="F198" s="15" t="s">
         <v>84</v>
       </c>
@@ -5222,27 +5228,27 @@
       </c>
     </row>
     <row r="199" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A199" s="24"/>
-      <c r="B199" s="24"/>
-      <c r="C199" s="28"/>
-      <c r="D199" s="24"/>
-      <c r="E199" s="24"/>
+      <c r="A199" s="30"/>
+      <c r="B199" s="30"/>
+      <c r="C199" s="24"/>
+      <c r="D199" s="30"/>
+      <c r="E199" s="30"/>
       <c r="F199" s="15" t="s">
         <v>308</v>
       </c>
       <c r="G199" s="15" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H199" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A200" s="24"/>
-      <c r="B200" s="24"/>
-      <c r="C200" s="28"/>
-      <c r="D200" s="24"/>
-      <c r="E200" s="24"/>
+      <c r="A200" s="30"/>
+      <c r="B200" s="30"/>
+      <c r="C200" s="24"/>
+      <c r="D200" s="30"/>
+      <c r="E200" s="30"/>
       <c r="F200" s="15" t="s">
         <v>310</v>
       </c>
@@ -5254,11 +5260,11 @@
       </c>
     </row>
     <row r="201" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A201" s="25"/>
-      <c r="B201" s="25"/>
-      <c r="C201" s="29"/>
-      <c r="D201" s="25"/>
-      <c r="E201" s="25"/>
+      <c r="A201" s="31"/>
+      <c r="B201" s="31"/>
+      <c r="C201" s="25"/>
+      <c r="D201" s="31"/>
+      <c r="E201" s="31"/>
       <c r="F201" s="15" t="s">
         <v>311</v>
       </c>
@@ -5270,19 +5276,19 @@
       </c>
     </row>
     <row r="202" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A202" s="26">
+      <c r="A202" s="23">
         <v>30</v>
       </c>
-      <c r="B202" s="26" t="s">
+      <c r="B202" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="C202" s="26" t="s">
+      <c r="C202" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="D202" s="26" t="s">
+      <c r="D202" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="E202" s="26" t="s">
+      <c r="E202" s="23" t="s">
         <v>66</v>
       </c>
       <c r="F202" s="12" t="s">
@@ -5296,11 +5302,11 @@
       </c>
     </row>
     <row r="203" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A203" s="24"/>
-      <c r="B203" s="24"/>
-      <c r="C203" s="28"/>
-      <c r="D203" s="24"/>
-      <c r="E203" s="24"/>
+      <c r="A203" s="30"/>
+      <c r="B203" s="30"/>
+      <c r="C203" s="24"/>
+      <c r="D203" s="30"/>
+      <c r="E203" s="30"/>
       <c r="F203" s="15" t="s">
         <v>172</v>
       </c>
@@ -5312,11 +5318,11 @@
       </c>
     </row>
     <row r="204" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A204" s="24"/>
-      <c r="B204" s="24"/>
-      <c r="C204" s="28"/>
-      <c r="D204" s="24"/>
-      <c r="E204" s="24"/>
+      <c r="A204" s="30"/>
+      <c r="B204" s="30"/>
+      <c r="C204" s="24"/>
+      <c r="D204" s="30"/>
+      <c r="E204" s="30"/>
       <c r="F204" s="12" t="s">
         <v>258</v>
       </c>
@@ -5328,11 +5334,11 @@
       </c>
     </row>
     <row r="205" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A205" s="24"/>
-      <c r="B205" s="24"/>
-      <c r="C205" s="28"/>
-      <c r="D205" s="24"/>
-      <c r="E205" s="24"/>
+      <c r="A205" s="30"/>
+      <c r="B205" s="30"/>
+      <c r="C205" s="24"/>
+      <c r="D205" s="30"/>
+      <c r="E205" s="30"/>
       <c r="F205" s="15" t="s">
         <v>173</v>
       </c>
@@ -5344,11 +5350,11 @@
       </c>
     </row>
     <row r="206" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A206" s="24"/>
-      <c r="B206" s="24"/>
-      <c r="C206" s="28"/>
-      <c r="D206" s="24"/>
-      <c r="E206" s="24"/>
+      <c r="A206" s="30"/>
+      <c r="B206" s="30"/>
+      <c r="C206" s="24"/>
+      <c r="D206" s="30"/>
+      <c r="E206" s="30"/>
       <c r="F206" s="15" t="s">
         <v>273</v>
       </c>
@@ -5360,11 +5366,11 @@
       </c>
     </row>
     <row r="207" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A207" s="24"/>
-      <c r="B207" s="24"/>
-      <c r="C207" s="28"/>
-      <c r="D207" s="24"/>
-      <c r="E207" s="24"/>
+      <c r="A207" s="30"/>
+      <c r="B207" s="30"/>
+      <c r="C207" s="24"/>
+      <c r="D207" s="30"/>
+      <c r="E207" s="30"/>
       <c r="F207" s="15" t="s">
         <v>206</v>
       </c>
@@ -5376,11 +5382,11 @@
       </c>
     </row>
     <row r="208" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A208" s="24"/>
-      <c r="B208" s="24"/>
-      <c r="C208" s="28"/>
-      <c r="D208" s="24"/>
-      <c r="E208" s="24"/>
+      <c r="A208" s="30"/>
+      <c r="B208" s="30"/>
+      <c r="C208" s="24"/>
+      <c r="D208" s="30"/>
+      <c r="E208" s="30"/>
       <c r="F208" s="15" t="s">
         <v>79</v>
       </c>
@@ -5392,11 +5398,11 @@
       </c>
     </row>
     <row r="209" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A209" s="24"/>
-      <c r="B209" s="24"/>
-      <c r="C209" s="28"/>
-      <c r="D209" s="24"/>
-      <c r="E209" s="24"/>
+      <c r="A209" s="30"/>
+      <c r="B209" s="30"/>
+      <c r="C209" s="24"/>
+      <c r="D209" s="30"/>
+      <c r="E209" s="30"/>
       <c r="F209" s="15" t="s">
         <v>293</v>
       </c>
@@ -5408,11 +5414,11 @@
       </c>
     </row>
     <row r="210" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A210" s="24"/>
-      <c r="B210" s="24"/>
-      <c r="C210" s="28"/>
-      <c r="D210" s="24"/>
-      <c r="E210" s="24"/>
+      <c r="A210" s="30"/>
+      <c r="B210" s="30"/>
+      <c r="C210" s="24"/>
+      <c r="D210" s="30"/>
+      <c r="E210" s="30"/>
       <c r="F210" s="15" t="s">
         <v>313</v>
       </c>
@@ -5424,19 +5430,19 @@
       </c>
     </row>
     <row r="211" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A211" s="26">
+      <c r="A211" s="23">
         <v>31</v>
       </c>
-      <c r="B211" s="26" t="s">
+      <c r="B211" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="C211" s="26" t="s">
+      <c r="C211" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="D211" s="26" t="s">
+      <c r="D211" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="E211" s="26" t="s">
+      <c r="E211" s="23" t="s">
         <v>66</v>
       </c>
       <c r="F211" s="12" t="s">
@@ -5450,11 +5456,11 @@
       </c>
     </row>
     <row r="212" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A212" s="24"/>
-      <c r="B212" s="24"/>
-      <c r="C212" s="28"/>
-      <c r="D212" s="24"/>
-      <c r="E212" s="24"/>
+      <c r="A212" s="30"/>
+      <c r="B212" s="30"/>
+      <c r="C212" s="24"/>
+      <c r="D212" s="30"/>
+      <c r="E212" s="30"/>
       <c r="F212" s="15" t="s">
         <v>172</v>
       </c>
@@ -5466,11 +5472,11 @@
       </c>
     </row>
     <row r="213" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A213" s="24"/>
-      <c r="B213" s="24"/>
-      <c r="C213" s="28"/>
-      <c r="D213" s="24"/>
-      <c r="E213" s="24"/>
+      <c r="A213" s="30"/>
+      <c r="B213" s="30"/>
+      <c r="C213" s="24"/>
+      <c r="D213" s="30"/>
+      <c r="E213" s="30"/>
       <c r="F213" s="12" t="s">
         <v>258</v>
       </c>
@@ -5482,11 +5488,11 @@
       </c>
     </row>
     <row r="214" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A214" s="24"/>
-      <c r="B214" s="24"/>
-      <c r="C214" s="28"/>
-      <c r="D214" s="24"/>
-      <c r="E214" s="24"/>
+      <c r="A214" s="30"/>
+      <c r="B214" s="30"/>
+      <c r="C214" s="24"/>
+      <c r="D214" s="30"/>
+      <c r="E214" s="30"/>
       <c r="F214" s="15" t="s">
         <v>173</v>
       </c>
@@ -5498,11 +5504,11 @@
       </c>
     </row>
     <row r="215" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A215" s="24"/>
-      <c r="B215" s="24"/>
-      <c r="C215" s="28"/>
-      <c r="D215" s="24"/>
-      <c r="E215" s="24"/>
+      <c r="A215" s="30"/>
+      <c r="B215" s="30"/>
+      <c r="C215" s="24"/>
+      <c r="D215" s="30"/>
+      <c r="E215" s="30"/>
       <c r="F215" s="15" t="s">
         <v>273</v>
       </c>
@@ -5514,11 +5520,11 @@
       </c>
     </row>
     <row r="216" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A216" s="24"/>
-      <c r="B216" s="24"/>
-      <c r="C216" s="28"/>
-      <c r="D216" s="24"/>
-      <c r="E216" s="24"/>
+      <c r="A216" s="30"/>
+      <c r="B216" s="30"/>
+      <c r="C216" s="24"/>
+      <c r="D216" s="30"/>
+      <c r="E216" s="30"/>
       <c r="F216" s="15" t="s">
         <v>206</v>
       </c>
@@ -5530,11 +5536,11 @@
       </c>
     </row>
     <row r="217" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A217" s="24"/>
-      <c r="B217" s="24"/>
-      <c r="C217" s="28"/>
-      <c r="D217" s="24"/>
-      <c r="E217" s="24"/>
+      <c r="A217" s="30"/>
+      <c r="B217" s="30"/>
+      <c r="C217" s="24"/>
+      <c r="D217" s="30"/>
+      <c r="E217" s="30"/>
       <c r="F217" s="15" t="s">
         <v>79</v>
       </c>
@@ -5546,11 +5552,11 @@
       </c>
     </row>
     <row r="218" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A218" s="24"/>
-      <c r="B218" s="24"/>
-      <c r="C218" s="28"/>
-      <c r="D218" s="24"/>
-      <c r="E218" s="24"/>
+      <c r="A218" s="30"/>
+      <c r="B218" s="30"/>
+      <c r="C218" s="24"/>
+      <c r="D218" s="30"/>
+      <c r="E218" s="30"/>
       <c r="F218" s="15" t="s">
         <v>293</v>
       </c>
@@ -5562,11 +5568,11 @@
       </c>
     </row>
     <row r="219" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A219" s="24"/>
-      <c r="B219" s="24"/>
-      <c r="C219" s="28"/>
-      <c r="D219" s="24"/>
-      <c r="E219" s="24"/>
+      <c r="A219" s="30"/>
+      <c r="B219" s="30"/>
+      <c r="C219" s="24"/>
+      <c r="D219" s="30"/>
+      <c r="E219" s="30"/>
       <c r="F219" s="15" t="s">
         <v>317</v>
       </c>
@@ -5578,11 +5584,11 @@
       </c>
     </row>
     <row r="220" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A220" s="24"/>
-      <c r="B220" s="24"/>
-      <c r="C220" s="28"/>
-      <c r="D220" s="24"/>
-      <c r="E220" s="24"/>
+      <c r="A220" s="30"/>
+      <c r="B220" s="30"/>
+      <c r="C220" s="24"/>
+      <c r="D220" s="30"/>
+      <c r="E220" s="30"/>
       <c r="F220" s="15" t="s">
         <v>88</v>
       </c>
@@ -5594,11 +5600,11 @@
       </c>
     </row>
     <row r="221" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A221" s="24"/>
-      <c r="B221" s="24"/>
-      <c r="C221" s="28"/>
-      <c r="D221" s="24"/>
-      <c r="E221" s="24"/>
+      <c r="A221" s="30"/>
+      <c r="B221" s="30"/>
+      <c r="C221" s="24"/>
+      <c r="D221" s="30"/>
+      <c r="E221" s="30"/>
       <c r="F221" s="15" t="s">
         <v>89</v>
       </c>
@@ -5610,35 +5616,35 @@
       </c>
     </row>
     <row r="222" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A222" s="25"/>
-      <c r="B222" s="25"/>
-      <c r="C222" s="29"/>
-      <c r="D222" s="25"/>
-      <c r="E222" s="25"/>
+      <c r="A222" s="31"/>
+      <c r="B222" s="31"/>
+      <c r="C222" s="25"/>
+      <c r="D222" s="31"/>
+      <c r="E222" s="31"/>
       <c r="F222" s="11" t="s">
         <v>316</v>
       </c>
       <c r="G222" s="11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H222" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A223" s="26">
+      <c r="A223" s="23">
         <v>32</v>
       </c>
-      <c r="B223" s="26" t="s">
+      <c r="B223" s="23" t="s">
         <v>319</v>
       </c>
-      <c r="C223" s="26" t="s">
+      <c r="C223" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D223" s="26" t="s">
+      <c r="D223" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="E223" s="26" t="s">
+      <c r="E223" s="23" t="s">
         <v>66</v>
       </c>
       <c r="F223" s="12" t="s">
@@ -5652,11 +5658,11 @@
       </c>
     </row>
     <row r="224" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A224" s="24"/>
-      <c r="B224" s="24"/>
-      <c r="C224" s="28"/>
-      <c r="D224" s="24"/>
-      <c r="E224" s="24"/>
+      <c r="A224" s="30"/>
+      <c r="B224" s="30"/>
+      <c r="C224" s="24"/>
+      <c r="D224" s="30"/>
+      <c r="E224" s="30"/>
       <c r="F224" s="15" t="s">
         <v>172</v>
       </c>
@@ -5668,11 +5674,11 @@
       </c>
     </row>
     <row r="225" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A225" s="24"/>
-      <c r="B225" s="24"/>
-      <c r="C225" s="28"/>
-      <c r="D225" s="24"/>
-      <c r="E225" s="24"/>
+      <c r="A225" s="30"/>
+      <c r="B225" s="30"/>
+      <c r="C225" s="24"/>
+      <c r="D225" s="30"/>
+      <c r="E225" s="30"/>
       <c r="F225" s="12" t="s">
         <v>258</v>
       </c>
@@ -5684,11 +5690,11 @@
       </c>
     </row>
     <row r="226" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A226" s="24"/>
-      <c r="B226" s="24"/>
-      <c r="C226" s="28"/>
-      <c r="D226" s="24"/>
-      <c r="E226" s="24"/>
+      <c r="A226" s="30"/>
+      <c r="B226" s="30"/>
+      <c r="C226" s="24"/>
+      <c r="D226" s="30"/>
+      <c r="E226" s="30"/>
       <c r="F226" s="15" t="s">
         <v>173</v>
       </c>
@@ -5700,11 +5706,11 @@
       </c>
     </row>
     <row r="227" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A227" s="24"/>
-      <c r="B227" s="24"/>
-      <c r="C227" s="28"/>
-      <c r="D227" s="24"/>
-      <c r="E227" s="24"/>
+      <c r="A227" s="30"/>
+      <c r="B227" s="30"/>
+      <c r="C227" s="24"/>
+      <c r="D227" s="30"/>
+      <c r="E227" s="30"/>
       <c r="F227" s="15" t="s">
         <v>273</v>
       </c>
@@ -5716,11 +5722,11 @@
       </c>
     </row>
     <row r="228" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A228" s="24"/>
-      <c r="B228" s="24"/>
-      <c r="C228" s="28"/>
-      <c r="D228" s="24"/>
-      <c r="E228" s="24"/>
+      <c r="A228" s="30"/>
+      <c r="B228" s="30"/>
+      <c r="C228" s="24"/>
+      <c r="D228" s="30"/>
+      <c r="E228" s="30"/>
       <c r="F228" s="15" t="s">
         <v>206</v>
       </c>
@@ -5732,11 +5738,11 @@
       </c>
     </row>
     <row r="229" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A229" s="24"/>
-      <c r="B229" s="24"/>
-      <c r="C229" s="28"/>
-      <c r="D229" s="24"/>
-      <c r="E229" s="24"/>
+      <c r="A229" s="30"/>
+      <c r="B229" s="30"/>
+      <c r="C229" s="24"/>
+      <c r="D229" s="30"/>
+      <c r="E229" s="30"/>
       <c r="F229" s="15" t="s">
         <v>79</v>
       </c>
@@ -5748,11 +5754,11 @@
       </c>
     </row>
     <row r="230" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A230" s="24"/>
-      <c r="B230" s="24"/>
-      <c r="C230" s="28"/>
-      <c r="D230" s="24"/>
-      <c r="E230" s="24"/>
+      <c r="A230" s="30"/>
+      <c r="B230" s="30"/>
+      <c r="C230" s="24"/>
+      <c r="D230" s="30"/>
+      <c r="E230" s="30"/>
       <c r="F230" s="15" t="s">
         <v>293</v>
       </c>
@@ -5764,27 +5770,27 @@
       </c>
     </row>
     <row r="231" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A231" s="24"/>
-      <c r="B231" s="24"/>
-      <c r="C231" s="28"/>
-      <c r="D231" s="24"/>
-      <c r="E231" s="24"/>
+      <c r="A231" s="30"/>
+      <c r="B231" s="30"/>
+      <c r="C231" s="24"/>
+      <c r="D231" s="30"/>
+      <c r="E231" s="30"/>
       <c r="F231" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="G231" s="19" t="s">
         <v>320</v>
-      </c>
-      <c r="G231" s="19" t="s">
-        <v>321</v>
       </c>
       <c r="H231" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="232" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A232" s="25"/>
-      <c r="B232" s="25"/>
-      <c r="C232" s="29"/>
-      <c r="D232" s="25"/>
-      <c r="E232" s="25"/>
+      <c r="A232" s="31"/>
+      <c r="B232" s="31"/>
+      <c r="C232" s="25"/>
+      <c r="D232" s="31"/>
+      <c r="E232" s="31"/>
       <c r="F232" s="15" t="s">
         <v>92</v>
       </c>
@@ -5796,19 +5802,19 @@
       </c>
     </row>
     <row r="233" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A233" s="26">
+      <c r="A233" s="23">
         <v>33</v>
       </c>
-      <c r="B233" s="26" t="s">
+      <c r="B233" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C233" s="26" t="s">
+      <c r="C233" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D233" s="26" t="s">
+      <c r="D233" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="E233" s="26" t="s">
+      <c r="E233" s="23" t="s">
         <v>66</v>
       </c>
       <c r="F233" s="12" t="s">
@@ -5822,11 +5828,11 @@
       </c>
     </row>
     <row r="234" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A234" s="24"/>
-      <c r="B234" s="24"/>
-      <c r="C234" s="28"/>
-      <c r="D234" s="24"/>
-      <c r="E234" s="24"/>
+      <c r="A234" s="30"/>
+      <c r="B234" s="30"/>
+      <c r="C234" s="24"/>
+      <c r="D234" s="30"/>
+      <c r="E234" s="30"/>
       <c r="F234" s="15" t="s">
         <v>172</v>
       </c>
@@ -5838,11 +5844,11 @@
       </c>
     </row>
     <row r="235" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A235" s="24"/>
-      <c r="B235" s="24"/>
-      <c r="C235" s="28"/>
-      <c r="D235" s="24"/>
-      <c r="E235" s="24"/>
+      <c r="A235" s="30"/>
+      <c r="B235" s="30"/>
+      <c r="C235" s="24"/>
+      <c r="D235" s="30"/>
+      <c r="E235" s="30"/>
       <c r="F235" s="12" t="s">
         <v>258</v>
       </c>
@@ -5854,11 +5860,11 @@
       </c>
     </row>
     <row r="236" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A236" s="24"/>
-      <c r="B236" s="24"/>
-      <c r="C236" s="28"/>
-      <c r="D236" s="24"/>
-      <c r="E236" s="24"/>
+      <c r="A236" s="30"/>
+      <c r="B236" s="30"/>
+      <c r="C236" s="24"/>
+      <c r="D236" s="30"/>
+      <c r="E236" s="30"/>
       <c r="F236" s="15" t="s">
         <v>173</v>
       </c>
@@ -5870,11 +5876,11 @@
       </c>
     </row>
     <row r="237" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A237" s="24"/>
-      <c r="B237" s="24"/>
-      <c r="C237" s="28"/>
-      <c r="D237" s="24"/>
-      <c r="E237" s="24"/>
+      <c r="A237" s="30"/>
+      <c r="B237" s="30"/>
+      <c r="C237" s="24"/>
+      <c r="D237" s="30"/>
+      <c r="E237" s="30"/>
       <c r="F237" s="15" t="s">
         <v>273</v>
       </c>
@@ -5886,11 +5892,11 @@
       </c>
     </row>
     <row r="238" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A238" s="24"/>
-      <c r="B238" s="24"/>
-      <c r="C238" s="28"/>
-      <c r="D238" s="24"/>
-      <c r="E238" s="24"/>
+      <c r="A238" s="30"/>
+      <c r="B238" s="30"/>
+      <c r="C238" s="24"/>
+      <c r="D238" s="30"/>
+      <c r="E238" s="30"/>
       <c r="F238" s="15" t="s">
         <v>206</v>
       </c>
@@ -5902,11 +5908,11 @@
       </c>
     </row>
     <row r="239" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A239" s="24"/>
-      <c r="B239" s="24"/>
-      <c r="C239" s="28"/>
-      <c r="D239" s="24"/>
-      <c r="E239" s="24"/>
+      <c r="A239" s="30"/>
+      <c r="B239" s="30"/>
+      <c r="C239" s="24"/>
+      <c r="D239" s="30"/>
+      <c r="E239" s="30"/>
       <c r="F239" s="15" t="s">
         <v>79</v>
       </c>
@@ -5918,11 +5924,11 @@
       </c>
     </row>
     <row r="240" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A240" s="24"/>
-      <c r="B240" s="24"/>
-      <c r="C240" s="28"/>
-      <c r="D240" s="24"/>
-      <c r="E240" s="24"/>
+      <c r="A240" s="30"/>
+      <c r="B240" s="30"/>
+      <c r="C240" s="24"/>
+      <c r="D240" s="30"/>
+      <c r="E240" s="30"/>
       <c r="F240" s="15" t="s">
         <v>293</v>
       </c>
@@ -5934,29 +5940,29 @@
       </c>
     </row>
     <row r="241" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A241" s="24"/>
-      <c r="B241" s="24"/>
-      <c r="C241" s="28"/>
-      <c r="D241" s="24"/>
-      <c r="E241" s="24"/>
+      <c r="A241" s="30"/>
+      <c r="B241" s="30"/>
+      <c r="C241" s="24"/>
+      <c r="D241" s="30"/>
+      <c r="E241" s="30"/>
       <c r="F241" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="G241" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="H241" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A242" s="30"/>
+      <c r="B242" s="30"/>
+      <c r="C242" s="24"/>
+      <c r="D242" s="30"/>
+      <c r="E242" s="30"/>
+      <c r="F242" s="15" t="s">
         <v>322</v>
-      </c>
-      <c r="G241" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="H241" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A242" s="24"/>
-      <c r="B242" s="24"/>
-      <c r="C242" s="28"/>
-      <c r="D242" s="24"/>
-      <c r="E242" s="24"/>
-      <c r="F242" s="15" t="s">
-        <v>323</v>
       </c>
       <c r="G242" s="15" t="s">
         <v>96</v>
@@ -5966,33 +5972,33 @@
       </c>
     </row>
     <row r="243" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A243" s="25"/>
-      <c r="B243" s="25"/>
-      <c r="C243" s="29"/>
-      <c r="D243" s="25"/>
-      <c r="E243" s="25"/>
+      <c r="A243" s="31"/>
+      <c r="B243" s="31"/>
+      <c r="C243" s="25"/>
+      <c r="D243" s="31"/>
+      <c r="E243" s="31"/>
       <c r="F243" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="G243" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="H243" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="32">
+        <v>34</v>
+      </c>
+      <c r="B244" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C244" s="27"/>
+      <c r="D244" s="27" t="s">
         <v>326</v>
       </c>
-      <c r="G243" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="H243" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="35">
-        <v>34</v>
-      </c>
-      <c r="B244" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="C244" s="32"/>
-      <c r="D244" s="32" t="s">
-        <v>327</v>
-      </c>
-      <c r="E244" s="24" t="s">
+      <c r="E244" s="30" t="s">
         <v>66</v>
       </c>
       <c r="F244" s="12" t="s">
@@ -6006,11 +6012,11 @@
       </c>
     </row>
     <row r="245" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A245" s="24"/>
-      <c r="B245" s="33"/>
-      <c r="C245" s="33"/>
-      <c r="D245" s="33"/>
-      <c r="E245" s="24"/>
+      <c r="A245" s="30"/>
+      <c r="B245" s="28"/>
+      <c r="C245" s="28"/>
+      <c r="D245" s="28"/>
+      <c r="E245" s="30"/>
       <c r="F245" s="15" t="s">
         <v>172</v>
       </c>
@@ -6022,11 +6028,11 @@
       </c>
     </row>
     <row r="246" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A246" s="24"/>
-      <c r="B246" s="33"/>
-      <c r="C246" s="33"/>
-      <c r="D246" s="33"/>
-      <c r="E246" s="24"/>
+      <c r="A246" s="30"/>
+      <c r="B246" s="28"/>
+      <c r="C246" s="28"/>
+      <c r="D246" s="28"/>
+      <c r="E246" s="30"/>
       <c r="F246" s="12" t="s">
         <v>258</v>
       </c>
@@ -6038,11 +6044,11 @@
       </c>
     </row>
     <row r="247" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A247" s="24"/>
-      <c r="B247" s="33"/>
-      <c r="C247" s="33"/>
-      <c r="D247" s="33"/>
-      <c r="E247" s="24"/>
+      <c r="A247" s="30"/>
+      <c r="B247" s="28"/>
+      <c r="C247" s="28"/>
+      <c r="D247" s="28"/>
+      <c r="E247" s="30"/>
       <c r="F247" s="15" t="s">
         <v>173</v>
       </c>
@@ -6054,11 +6060,11 @@
       </c>
     </row>
     <row r="248" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A248" s="24"/>
-      <c r="B248" s="33"/>
-      <c r="C248" s="33"/>
-      <c r="D248" s="33"/>
-      <c r="E248" s="24"/>
+      <c r="A248" s="30"/>
+      <c r="B248" s="28"/>
+      <c r="C248" s="28"/>
+      <c r="D248" s="28"/>
+      <c r="E248" s="30"/>
       <c r="F248" s="15" t="s">
         <v>273</v>
       </c>
@@ -6070,11 +6076,11 @@
       </c>
     </row>
     <row r="249" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A249" s="24"/>
-      <c r="B249" s="33"/>
-      <c r="C249" s="33"/>
-      <c r="D249" s="33"/>
-      <c r="E249" s="24"/>
+      <c r="A249" s="30"/>
+      <c r="B249" s="28"/>
+      <c r="C249" s="28"/>
+      <c r="D249" s="28"/>
+      <c r="E249" s="30"/>
       <c r="F249" s="15" t="s">
         <v>206</v>
       </c>
@@ -6086,11 +6092,11 @@
       </c>
     </row>
     <row r="250" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A250" s="24"/>
-      <c r="B250" s="33"/>
-      <c r="C250" s="33"/>
-      <c r="D250" s="33"/>
-      <c r="E250" s="24"/>
+      <c r="A250" s="30"/>
+      <c r="B250" s="28"/>
+      <c r="C250" s="28"/>
+      <c r="D250" s="28"/>
+      <c r="E250" s="30"/>
       <c r="F250" s="15" t="s">
         <v>79</v>
       </c>
@@ -6102,11 +6108,11 @@
       </c>
     </row>
     <row r="251" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A251" s="24"/>
-      <c r="B251" s="33"/>
-      <c r="C251" s="33"/>
-      <c r="D251" s="33"/>
-      <c r="E251" s="24"/>
+      <c r="A251" s="30"/>
+      <c r="B251" s="28"/>
+      <c r="C251" s="28"/>
+      <c r="D251" s="28"/>
+      <c r="E251" s="30"/>
       <c r="F251" s="15" t="s">
         <v>293</v>
       </c>
@@ -6118,11 +6124,11 @@
       </c>
     </row>
     <row r="252" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A252" s="24"/>
-      <c r="B252" s="33"/>
-      <c r="C252" s="33"/>
-      <c r="D252" s="33"/>
-      <c r="E252" s="24"/>
+      <c r="A252" s="30"/>
+      <c r="B252" s="28"/>
+      <c r="C252" s="28"/>
+      <c r="D252" s="28"/>
+      <c r="E252" s="30"/>
       <c r="F252" s="15" t="s">
         <v>302</v>
       </c>
@@ -6134,11 +6140,11 @@
       </c>
     </row>
     <row r="253" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A253" s="24"/>
-      <c r="B253" s="33"/>
-      <c r="C253" s="33"/>
-      <c r="D253" s="33"/>
-      <c r="E253" s="24"/>
+      <c r="A253" s="30"/>
+      <c r="B253" s="28"/>
+      <c r="C253" s="28"/>
+      <c r="D253" s="28"/>
+      <c r="E253" s="30"/>
       <c r="F253" s="15" t="s">
         <v>98</v>
       </c>
@@ -6150,11 +6156,11 @@
       </c>
     </row>
     <row r="254" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A254" s="24"/>
-      <c r="B254" s="33"/>
-      <c r="C254" s="33"/>
-      <c r="D254" s="33"/>
-      <c r="E254" s="24"/>
+      <c r="A254" s="30"/>
+      <c r="B254" s="28"/>
+      <c r="C254" s="28"/>
+      <c r="D254" s="28"/>
+      <c r="E254" s="30"/>
       <c r="F254" s="15" t="s">
         <v>100</v>
       </c>
@@ -6166,67 +6172,67 @@
       </c>
     </row>
     <row r="255" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A255" s="24"/>
-      <c r="B255" s="33"/>
-      <c r="C255" s="33"/>
-      <c r="D255" s="33"/>
-      <c r="E255" s="24"/>
+      <c r="A255" s="30"/>
+      <c r="B255" s="28"/>
+      <c r="C255" s="28"/>
+      <c r="D255" s="28"/>
+      <c r="E255" s="30"/>
       <c r="F255" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="G255" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="H255" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A256" s="30"/>
+      <c r="B256" s="28"/>
+      <c r="C256" s="28"/>
+      <c r="D256" s="28"/>
+      <c r="E256" s="30"/>
+      <c r="F256" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="G255" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="H255" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A256" s="24"/>
-      <c r="B256" s="33"/>
-      <c r="C256" s="33"/>
-      <c r="D256" s="33"/>
-      <c r="E256" s="24"/>
-      <c r="F256" s="15" t="s">
-        <v>330</v>
-      </c>
       <c r="G256" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H256" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="257" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A257" s="25"/>
-      <c r="B257" s="34"/>
-      <c r="C257" s="34"/>
-      <c r="D257" s="34"/>
-      <c r="E257" s="25"/>
+      <c r="A257" s="31"/>
+      <c r="B257" s="29"/>
+      <c r="C257" s="29"/>
+      <c r="D257" s="29"/>
+      <c r="E257" s="31"/>
       <c r="F257" s="15" t="s">
         <v>300</v>
       </c>
       <c r="G257" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H257" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="258" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A258" s="26">
+      <c r="A258" s="23">
         <v>35</v>
       </c>
-      <c r="B258" s="26" t="s">
+      <c r="B258" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="C258" s="26" t="s">
+      <c r="C258" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D258" s="26" t="s">
+      <c r="D258" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="E258" s="26" t="s">
+      <c r="E258" s="23" t="s">
         <v>66</v>
       </c>
       <c r="F258" s="12" t="s">
@@ -6240,11 +6246,11 @@
       </c>
     </row>
     <row r="259" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A259" s="24"/>
-      <c r="B259" s="24"/>
-      <c r="C259" s="28"/>
-      <c r="D259" s="24"/>
-      <c r="E259" s="24"/>
+      <c r="A259" s="30"/>
+      <c r="B259" s="30"/>
+      <c r="C259" s="24"/>
+      <c r="D259" s="30"/>
+      <c r="E259" s="30"/>
       <c r="F259" s="15" t="s">
         <v>172</v>
       </c>
@@ -6256,11 +6262,11 @@
       </c>
     </row>
     <row r="260" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A260" s="24"/>
-      <c r="B260" s="24"/>
-      <c r="C260" s="28"/>
-      <c r="D260" s="24"/>
-      <c r="E260" s="24"/>
+      <c r="A260" s="30"/>
+      <c r="B260" s="30"/>
+      <c r="C260" s="24"/>
+      <c r="D260" s="30"/>
+      <c r="E260" s="30"/>
       <c r="F260" s="12" t="s">
         <v>258</v>
       </c>
@@ -6272,11 +6278,11 @@
       </c>
     </row>
     <row r="261" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A261" s="24"/>
-      <c r="B261" s="24"/>
-      <c r="C261" s="28"/>
-      <c r="D261" s="24"/>
-      <c r="E261" s="24"/>
+      <c r="A261" s="30"/>
+      <c r="B261" s="30"/>
+      <c r="C261" s="24"/>
+      <c r="D261" s="30"/>
+      <c r="E261" s="30"/>
       <c r="F261" s="15" t="s">
         <v>173</v>
       </c>
@@ -6288,11 +6294,11 @@
       </c>
     </row>
     <row r="262" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A262" s="24"/>
-      <c r="B262" s="24"/>
-      <c r="C262" s="28"/>
-      <c r="D262" s="24"/>
-      <c r="E262" s="24"/>
+      <c r="A262" s="30"/>
+      <c r="B262" s="30"/>
+      <c r="C262" s="24"/>
+      <c r="D262" s="30"/>
+      <c r="E262" s="30"/>
       <c r="F262" s="15" t="s">
         <v>273</v>
       </c>
@@ -6304,11 +6310,11 @@
       </c>
     </row>
     <row r="263" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A263" s="24"/>
-      <c r="B263" s="24"/>
-      <c r="C263" s="28"/>
-      <c r="D263" s="24"/>
-      <c r="E263" s="24"/>
+      <c r="A263" s="30"/>
+      <c r="B263" s="30"/>
+      <c r="C263" s="24"/>
+      <c r="D263" s="30"/>
+      <c r="E263" s="30"/>
       <c r="F263" s="15" t="s">
         <v>206</v>
       </c>
@@ -6320,11 +6326,11 @@
       </c>
     </row>
     <row r="264" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A264" s="24"/>
-      <c r="B264" s="24"/>
-      <c r="C264" s="28"/>
-      <c r="D264" s="24"/>
-      <c r="E264" s="24"/>
+      <c r="A264" s="30"/>
+      <c r="B264" s="30"/>
+      <c r="C264" s="24"/>
+      <c r="D264" s="30"/>
+      <c r="E264" s="30"/>
       <c r="F264" s="15" t="s">
         <v>79</v>
       </c>
@@ -6336,11 +6342,11 @@
       </c>
     </row>
     <row r="265" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A265" s="24"/>
-      <c r="B265" s="24"/>
-      <c r="C265" s="28"/>
-      <c r="D265" s="24"/>
-      <c r="E265" s="24"/>
+      <c r="A265" s="30"/>
+      <c r="B265" s="30"/>
+      <c r="C265" s="24"/>
+      <c r="D265" s="30"/>
+      <c r="E265" s="30"/>
       <c r="F265" s="15" t="s">
         <v>293</v>
       </c>
@@ -6352,11 +6358,11 @@
       </c>
     </row>
     <row r="266" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A266" s="24"/>
-      <c r="B266" s="24"/>
-      <c r="C266" s="28"/>
-      <c r="D266" s="24"/>
-      <c r="E266" s="24"/>
+      <c r="A266" s="30"/>
+      <c r="B266" s="30"/>
+      <c r="C266" s="24"/>
+      <c r="D266" s="30"/>
+      <c r="E266" s="30"/>
       <c r="F266" s="15" t="s">
         <v>302</v>
       </c>
@@ -6368,51 +6374,51 @@
       </c>
     </row>
     <row r="267" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A267" s="24"/>
-      <c r="B267" s="24"/>
-      <c r="C267" s="28"/>
-      <c r="D267" s="24"/>
-      <c r="E267" s="24"/>
+      <c r="A267" s="30"/>
+      <c r="B267" s="30"/>
+      <c r="C267" s="24"/>
+      <c r="D267" s="30"/>
+      <c r="E267" s="30"/>
       <c r="F267" s="15" t="s">
         <v>104</v>
       </c>
       <c r="G267" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H267" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="268" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A268" s="25"/>
-      <c r="B268" s="25"/>
-      <c r="C268" s="29"/>
-      <c r="D268" s="25"/>
-      <c r="E268" s="25"/>
+      <c r="A268" s="31"/>
+      <c r="B268" s="31"/>
+      <c r="C268" s="25"/>
+      <c r="D268" s="31"/>
+      <c r="E268" s="31"/>
       <c r="F268" s="15" t="s">
         <v>105</v>
       </c>
       <c r="G268" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H268" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="269" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A269" s="26">
+      <c r="A269" s="23">
         <v>36</v>
       </c>
-      <c r="B269" s="26" t="s">
+      <c r="B269" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="C269" s="26" t="s">
+      <c r="C269" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D269" s="26" t="s">
+      <c r="D269" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="E269" s="26" t="s">
+      <c r="E269" s="23" t="s">
         <v>66</v>
       </c>
       <c r="F269" s="12" t="s">
@@ -6426,11 +6432,11 @@
       </c>
     </row>
     <row r="270" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A270" s="24"/>
-      <c r="B270" s="24"/>
-      <c r="C270" s="28"/>
-      <c r="D270" s="24"/>
-      <c r="E270" s="24"/>
+      <c r="A270" s="30"/>
+      <c r="B270" s="30"/>
+      <c r="C270" s="24"/>
+      <c r="D270" s="30"/>
+      <c r="E270" s="30"/>
       <c r="F270" s="15" t="s">
         <v>172</v>
       </c>
@@ -6442,11 +6448,11 @@
       </c>
     </row>
     <row r="271" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A271" s="24"/>
-      <c r="B271" s="24"/>
-      <c r="C271" s="28"/>
-      <c r="D271" s="24"/>
-      <c r="E271" s="24"/>
+      <c r="A271" s="30"/>
+      <c r="B271" s="30"/>
+      <c r="C271" s="24"/>
+      <c r="D271" s="30"/>
+      <c r="E271" s="30"/>
       <c r="F271" s="12" t="s">
         <v>258</v>
       </c>
@@ -6458,11 +6464,11 @@
       </c>
     </row>
     <row r="272" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A272" s="24"/>
-      <c r="B272" s="24"/>
-      <c r="C272" s="28"/>
-      <c r="D272" s="24"/>
-      <c r="E272" s="24"/>
+      <c r="A272" s="30"/>
+      <c r="B272" s="30"/>
+      <c r="C272" s="24"/>
+      <c r="D272" s="30"/>
+      <c r="E272" s="30"/>
       <c r="F272" s="15" t="s">
         <v>173</v>
       </c>
@@ -6474,11 +6480,11 @@
       </c>
     </row>
     <row r="273" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A273" s="24"/>
-      <c r="B273" s="24"/>
-      <c r="C273" s="28"/>
-      <c r="D273" s="24"/>
-      <c r="E273" s="24"/>
+      <c r="A273" s="30"/>
+      <c r="B273" s="30"/>
+      <c r="C273" s="24"/>
+      <c r="D273" s="30"/>
+      <c r="E273" s="30"/>
       <c r="F273" s="15" t="s">
         <v>273</v>
       </c>
@@ -6490,11 +6496,11 @@
       </c>
     </row>
     <row r="274" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A274" s="24"/>
-      <c r="B274" s="24"/>
-      <c r="C274" s="28"/>
-      <c r="D274" s="24"/>
-      <c r="E274" s="24"/>
+      <c r="A274" s="30"/>
+      <c r="B274" s="30"/>
+      <c r="C274" s="24"/>
+      <c r="D274" s="30"/>
+      <c r="E274" s="30"/>
       <c r="F274" s="15" t="s">
         <v>206</v>
       </c>
@@ -6506,11 +6512,11 @@
       </c>
     </row>
     <row r="275" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A275" s="24"/>
-      <c r="B275" s="24"/>
-      <c r="C275" s="28"/>
-      <c r="D275" s="24"/>
-      <c r="E275" s="24"/>
+      <c r="A275" s="30"/>
+      <c r="B275" s="30"/>
+      <c r="C275" s="24"/>
+      <c r="D275" s="30"/>
+      <c r="E275" s="30"/>
       <c r="F275" s="15" t="s">
         <v>79</v>
       </c>
@@ -6522,11 +6528,11 @@
       </c>
     </row>
     <row r="276" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A276" s="24"/>
-      <c r="B276" s="24"/>
-      <c r="C276" s="28"/>
-      <c r="D276" s="24"/>
-      <c r="E276" s="24"/>
+      <c r="A276" s="30"/>
+      <c r="B276" s="30"/>
+      <c r="C276" s="24"/>
+      <c r="D276" s="30"/>
+      <c r="E276" s="30"/>
       <c r="F276" s="15" t="s">
         <v>293</v>
       </c>
@@ -6538,13 +6544,13 @@
       </c>
     </row>
     <row r="277" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A277" s="25"/>
-      <c r="B277" s="25"/>
-      <c r="C277" s="29"/>
-      <c r="D277" s="25"/>
-      <c r="E277" s="25"/>
+      <c r="A277" s="31"/>
+      <c r="B277" s="31"/>
+      <c r="C277" s="25"/>
+      <c r="D277" s="31"/>
+      <c r="E277" s="31"/>
       <c r="F277" s="15" t="s">
-        <v>335</v>
+        <v>409</v>
       </c>
       <c r="G277" s="15" t="s">
         <v>12</v>
@@ -6554,19 +6560,19 @@
       </c>
     </row>
     <row r="278" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A278" s="26">
+      <c r="A278" s="23">
         <v>37</v>
       </c>
-      <c r="B278" s="26" t="s">
-        <v>336</v>
-      </c>
-      <c r="C278" s="26" t="s">
+      <c r="B278" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="C278" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D278" s="26" t="s">
+      <c r="D278" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="E278" s="26" t="s">
+      <c r="E278" s="23" t="s">
         <v>66</v>
       </c>
       <c r="F278" s="12" t="s">
@@ -6580,11 +6586,11 @@
       </c>
     </row>
     <row r="279" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A279" s="24"/>
-      <c r="B279" s="24"/>
-      <c r="C279" s="28"/>
-      <c r="D279" s="24"/>
-      <c r="E279" s="24"/>
+      <c r="A279" s="30"/>
+      <c r="B279" s="30"/>
+      <c r="C279" s="24"/>
+      <c r="D279" s="30"/>
+      <c r="E279" s="30"/>
       <c r="F279" s="15" t="s">
         <v>172</v>
       </c>
@@ -6596,11 +6602,11 @@
       </c>
     </row>
     <row r="280" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A280" s="24"/>
-      <c r="B280" s="24"/>
-      <c r="C280" s="28"/>
-      <c r="D280" s="24"/>
-      <c r="E280" s="24"/>
+      <c r="A280" s="30"/>
+      <c r="B280" s="30"/>
+      <c r="C280" s="24"/>
+      <c r="D280" s="30"/>
+      <c r="E280" s="30"/>
       <c r="F280" s="12" t="s">
         <v>258</v>
       </c>
@@ -6612,11 +6618,11 @@
       </c>
     </row>
     <row r="281" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A281" s="24"/>
-      <c r="B281" s="24"/>
-      <c r="C281" s="28"/>
-      <c r="D281" s="24"/>
-      <c r="E281" s="24"/>
+      <c r="A281" s="30"/>
+      <c r="B281" s="30"/>
+      <c r="C281" s="24"/>
+      <c r="D281" s="30"/>
+      <c r="E281" s="30"/>
       <c r="F281" s="15" t="s">
         <v>173</v>
       </c>
@@ -6628,11 +6634,11 @@
       </c>
     </row>
     <row r="282" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A282" s="24"/>
-      <c r="B282" s="24"/>
-      <c r="C282" s="28"/>
-      <c r="D282" s="24"/>
-      <c r="E282" s="24"/>
+      <c r="A282" s="30"/>
+      <c r="B282" s="30"/>
+      <c r="C282" s="24"/>
+      <c r="D282" s="30"/>
+      <c r="E282" s="30"/>
       <c r="F282" s="15" t="s">
         <v>273</v>
       </c>
@@ -6644,11 +6650,11 @@
       </c>
     </row>
     <row r="283" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A283" s="24"/>
-      <c r="B283" s="24"/>
-      <c r="C283" s="28"/>
-      <c r="D283" s="24"/>
-      <c r="E283" s="24"/>
+      <c r="A283" s="30"/>
+      <c r="B283" s="30"/>
+      <c r="C283" s="24"/>
+      <c r="D283" s="30"/>
+      <c r="E283" s="30"/>
       <c r="F283" s="15" t="s">
         <v>206</v>
       </c>
@@ -6660,11 +6666,11 @@
       </c>
     </row>
     <row r="284" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A284" s="24"/>
-      <c r="B284" s="24"/>
-      <c r="C284" s="28"/>
-      <c r="D284" s="24"/>
-      <c r="E284" s="24"/>
+      <c r="A284" s="30"/>
+      <c r="B284" s="30"/>
+      <c r="C284" s="24"/>
+      <c r="D284" s="30"/>
+      <c r="E284" s="30"/>
       <c r="F284" s="15" t="s">
         <v>79</v>
       </c>
@@ -6676,11 +6682,11 @@
       </c>
     </row>
     <row r="285" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A285" s="24"/>
-      <c r="B285" s="24"/>
-      <c r="C285" s="28"/>
-      <c r="D285" s="24"/>
-      <c r="E285" s="24"/>
+      <c r="A285" s="30"/>
+      <c r="B285" s="30"/>
+      <c r="C285" s="24"/>
+      <c r="D285" s="30"/>
+      <c r="E285" s="30"/>
       <c r="F285" s="15" t="s">
         <v>293</v>
       </c>
@@ -6692,11 +6698,11 @@
       </c>
     </row>
     <row r="286" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A286" s="24"/>
-      <c r="B286" s="24"/>
-      <c r="C286" s="28"/>
-      <c r="D286" s="24"/>
-      <c r="E286" s="24"/>
+      <c r="A286" s="30"/>
+      <c r="B286" s="30"/>
+      <c r="C286" s="24"/>
+      <c r="D286" s="30"/>
+      <c r="E286" s="30"/>
       <c r="F286" s="15" t="s">
         <v>317</v>
       </c>
@@ -6708,29 +6714,29 @@
       </c>
     </row>
     <row r="287" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A287" s="24"/>
-      <c r="B287" s="24"/>
-      <c r="C287" s="28"/>
-      <c r="D287" s="24"/>
-      <c r="E287" s="24"/>
+      <c r="A287" s="30"/>
+      <c r="B287" s="30"/>
+      <c r="C287" s="24"/>
+      <c r="D287" s="30"/>
+      <c r="E287" s="30"/>
       <c r="F287" s="15" t="s">
         <v>109</v>
       </c>
       <c r="G287" s="15" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H287" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="288" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A288" s="24"/>
-      <c r="B288" s="24"/>
-      <c r="C288" s="28"/>
-      <c r="D288" s="24"/>
-      <c r="E288" s="24"/>
+      <c r="A288" s="30"/>
+      <c r="B288" s="30"/>
+      <c r="C288" s="24"/>
+      <c r="D288" s="30"/>
+      <c r="E288" s="30"/>
       <c r="F288" s="15" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G288" s="15" t="s">
         <v>83</v>
@@ -6740,11 +6746,11 @@
       </c>
     </row>
     <row r="289" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A289" s="24"/>
-      <c r="B289" s="24"/>
-      <c r="C289" s="28"/>
-      <c r="D289" s="24"/>
-      <c r="E289" s="24"/>
+      <c r="A289" s="30"/>
+      <c r="B289" s="30"/>
+      <c r="C289" s="24"/>
+      <c r="D289" s="30"/>
+      <c r="E289" s="30"/>
       <c r="F289" s="15" t="s">
         <v>297</v>
       </c>
@@ -6756,27 +6762,27 @@
       </c>
     </row>
     <row r="290" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A290" s="24"/>
-      <c r="B290" s="24"/>
-      <c r="C290" s="28"/>
-      <c r="D290" s="24"/>
-      <c r="E290" s="24"/>
+      <c r="A290" s="30"/>
+      <c r="B290" s="30"/>
+      <c r="C290" s="24"/>
+      <c r="D290" s="30"/>
+      <c r="E290" s="30"/>
       <c r="F290" s="15" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G290" s="15" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H290" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="291" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A291" s="24"/>
-      <c r="B291" s="24"/>
-      <c r="C291" s="28"/>
-      <c r="D291" s="24"/>
-      <c r="E291" s="24"/>
+      <c r="A291" s="30"/>
+      <c r="B291" s="30"/>
+      <c r="C291" s="24"/>
+      <c r="D291" s="30"/>
+      <c r="E291" s="30"/>
       <c r="F291" s="15" t="s">
         <v>300</v>
       </c>
@@ -6788,29 +6794,29 @@
       </c>
     </row>
     <row r="292" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A292" s="24"/>
-      <c r="B292" s="24"/>
-      <c r="C292" s="28"/>
-      <c r="D292" s="24"/>
-      <c r="E292" s="24"/>
+      <c r="A292" s="30"/>
+      <c r="B292" s="30"/>
+      <c r="C292" s="24"/>
+      <c r="D292" s="30"/>
+      <c r="E292" s="30"/>
       <c r="F292" s="15" t="s">
         <v>302</v>
       </c>
       <c r="G292" s="15" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H292" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="293" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A293" s="24"/>
-      <c r="B293" s="24"/>
-      <c r="C293" s="28"/>
-      <c r="D293" s="24"/>
-      <c r="E293" s="24"/>
+      <c r="A293" s="30"/>
+      <c r="B293" s="30"/>
+      <c r="C293" s="24"/>
+      <c r="D293" s="30"/>
+      <c r="E293" s="30"/>
       <c r="F293" s="15" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G293" s="15" t="s">
         <v>304</v>
@@ -6820,13 +6826,13 @@
       </c>
     </row>
     <row r="294" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A294" s="24"/>
-      <c r="B294" s="24"/>
-      <c r="C294" s="28"/>
-      <c r="D294" s="24"/>
-      <c r="E294" s="24"/>
+      <c r="A294" s="30"/>
+      <c r="B294" s="30"/>
+      <c r="C294" s="24"/>
+      <c r="D294" s="30"/>
+      <c r="E294" s="30"/>
       <c r="F294" s="15" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G294" s="15" t="s">
         <v>307</v>
@@ -6836,29 +6842,29 @@
       </c>
     </row>
     <row r="295" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A295" s="24"/>
-      <c r="B295" s="24"/>
-      <c r="C295" s="28"/>
-      <c r="D295" s="24"/>
-      <c r="E295" s="24"/>
+      <c r="A295" s="30"/>
+      <c r="B295" s="30"/>
+      <c r="C295" s="24"/>
+      <c r="D295" s="30"/>
+      <c r="E295" s="30"/>
       <c r="F295" s="15" t="s">
         <v>308</v>
       </c>
       <c r="G295" s="15" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H295" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="296" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A296" s="24"/>
-      <c r="B296" s="24"/>
-      <c r="C296" s="28"/>
-      <c r="D296" s="24"/>
-      <c r="E296" s="24"/>
+      <c r="A296" s="30"/>
+      <c r="B296" s="30"/>
+      <c r="C296" s="24"/>
+      <c r="D296" s="30"/>
+      <c r="E296" s="30"/>
       <c r="F296" s="15" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G296" s="15" t="s">
         <v>85</v>
@@ -6868,35 +6874,35 @@
       </c>
     </row>
     <row r="297" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A297" s="25"/>
-      <c r="B297" s="25"/>
-      <c r="C297" s="29"/>
-      <c r="D297" s="25"/>
-      <c r="E297" s="25"/>
+      <c r="A297" s="31"/>
+      <c r="B297" s="31"/>
+      <c r="C297" s="25"/>
+      <c r="D297" s="31"/>
+      <c r="E297" s="31"/>
       <c r="F297" s="12" t="s">
         <v>311</v>
       </c>
       <c r="G297" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="H297" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A298" s="23">
+        <v>38</v>
+      </c>
+      <c r="B298" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="C298" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="D298" s="23" t="s">
         <v>346</v>
       </c>
-      <c r="H297" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A298" s="26">
-        <v>38</v>
-      </c>
-      <c r="B298" s="26" t="s">
-        <v>347</v>
-      </c>
-      <c r="C298" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="D298" s="26" t="s">
-        <v>348</v>
-      </c>
-      <c r="E298" s="26" t="s">
+      <c r="E298" s="23" t="s">
         <v>66</v>
       </c>
       <c r="F298" s="12" t="s">
@@ -6910,11 +6916,11 @@
       </c>
     </row>
     <row r="299" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A299" s="24"/>
-      <c r="B299" s="24"/>
-      <c r="C299" s="28"/>
-      <c r="D299" s="24"/>
-      <c r="E299" s="24"/>
+      <c r="A299" s="30"/>
+      <c r="B299" s="30"/>
+      <c r="C299" s="24"/>
+      <c r="D299" s="30"/>
+      <c r="E299" s="30"/>
       <c r="F299" s="15" t="s">
         <v>172</v>
       </c>
@@ -6926,11 +6932,11 @@
       </c>
     </row>
     <row r="300" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A300" s="24"/>
-      <c r="B300" s="24"/>
-      <c r="C300" s="28"/>
-      <c r="D300" s="24"/>
-      <c r="E300" s="24"/>
+      <c r="A300" s="30"/>
+      <c r="B300" s="30"/>
+      <c r="C300" s="24"/>
+      <c r="D300" s="30"/>
+      <c r="E300" s="30"/>
       <c r="F300" s="12" t="s">
         <v>258</v>
       </c>
@@ -6942,11 +6948,11 @@
       </c>
     </row>
     <row r="301" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A301" s="24"/>
-      <c r="B301" s="24"/>
-      <c r="C301" s="28"/>
-      <c r="D301" s="24"/>
-      <c r="E301" s="24"/>
+      <c r="A301" s="30"/>
+      <c r="B301" s="30"/>
+      <c r="C301" s="24"/>
+      <c r="D301" s="30"/>
+      <c r="E301" s="30"/>
       <c r="F301" s="15" t="s">
         <v>173</v>
       </c>
@@ -6958,11 +6964,11 @@
       </c>
     </row>
     <row r="302" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A302" s="24"/>
-      <c r="B302" s="24"/>
-      <c r="C302" s="28"/>
-      <c r="D302" s="24"/>
-      <c r="E302" s="24"/>
+      <c r="A302" s="30"/>
+      <c r="B302" s="30"/>
+      <c r="C302" s="24"/>
+      <c r="D302" s="30"/>
+      <c r="E302" s="30"/>
       <c r="F302" s="15" t="s">
         <v>273</v>
       </c>
@@ -6974,11 +6980,11 @@
       </c>
     </row>
     <row r="303" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A303" s="24"/>
-      <c r="B303" s="24"/>
-      <c r="C303" s="28"/>
-      <c r="D303" s="24"/>
-      <c r="E303" s="24"/>
+      <c r="A303" s="30"/>
+      <c r="B303" s="30"/>
+      <c r="C303" s="24"/>
+      <c r="D303" s="30"/>
+      <c r="E303" s="30"/>
       <c r="F303" s="15" t="s">
         <v>206</v>
       </c>
@@ -6990,11 +6996,11 @@
       </c>
     </row>
     <row r="304" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A304" s="24"/>
-      <c r="B304" s="24"/>
-      <c r="C304" s="28"/>
-      <c r="D304" s="24"/>
-      <c r="E304" s="24"/>
+      <c r="A304" s="30"/>
+      <c r="B304" s="30"/>
+      <c r="C304" s="24"/>
+      <c r="D304" s="30"/>
+      <c r="E304" s="30"/>
       <c r="F304" s="15" t="s">
         <v>79</v>
       </c>
@@ -7006,29 +7012,29 @@
       </c>
     </row>
     <row r="305" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A305" s="24"/>
-      <c r="B305" s="24"/>
-      <c r="C305" s="28"/>
-      <c r="D305" s="24"/>
-      <c r="E305" s="24"/>
+      <c r="A305" s="30"/>
+      <c r="B305" s="30"/>
+      <c r="C305" s="24"/>
+      <c r="D305" s="30"/>
+      <c r="E305" s="30"/>
       <c r="F305" s="15" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G305" s="15" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H305" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="306" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A306" s="24"/>
-      <c r="B306" s="24"/>
-      <c r="C306" s="28"/>
-      <c r="D306" s="24"/>
-      <c r="E306" s="24"/>
+      <c r="A306" s="30"/>
+      <c r="B306" s="30"/>
+      <c r="C306" s="24"/>
+      <c r="D306" s="30"/>
+      <c r="E306" s="30"/>
       <c r="F306" s="15" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G306" s="15" t="s">
         <v>110</v>
@@ -7038,13 +7044,13 @@
       </c>
     </row>
     <row r="307" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A307" s="25"/>
-      <c r="B307" s="25"/>
-      <c r="C307" s="29"/>
-      <c r="D307" s="25"/>
-      <c r="E307" s="25"/>
+      <c r="A307" s="31"/>
+      <c r="B307" s="31"/>
+      <c r="C307" s="25"/>
+      <c r="D307" s="31"/>
+      <c r="E307" s="31"/>
       <c r="F307" s="15" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G307" s="15" t="s">
         <v>111</v>
@@ -7054,19 +7060,19 @@
       </c>
     </row>
     <row r="308" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A308" s="26">
+      <c r="A308" s="23">
         <v>39</v>
       </c>
-      <c r="B308" s="26" t="s">
-        <v>354</v>
-      </c>
-      <c r="C308" s="26" t="s">
+      <c r="B308" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="C308" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="D308" s="26" t="s">
-        <v>353</v>
-      </c>
-      <c r="E308" s="26" t="s">
+      <c r="D308" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="E308" s="23" t="s">
         <v>66</v>
       </c>
       <c r="F308" s="12" t="s">
@@ -7080,11 +7086,11 @@
       </c>
     </row>
     <row r="309" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A309" s="24"/>
-      <c r="B309" s="24"/>
-      <c r="C309" s="28"/>
-      <c r="D309" s="24"/>
-      <c r="E309" s="24"/>
+      <c r="A309" s="30"/>
+      <c r="B309" s="30"/>
+      <c r="C309" s="24"/>
+      <c r="D309" s="30"/>
+      <c r="E309" s="30"/>
       <c r="F309" s="15" t="s">
         <v>172</v>
       </c>
@@ -7096,11 +7102,11 @@
       </c>
     </row>
     <row r="310" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A310" s="24"/>
-      <c r="B310" s="24"/>
-      <c r="C310" s="28"/>
-      <c r="D310" s="24"/>
-      <c r="E310" s="24"/>
+      <c r="A310" s="30"/>
+      <c r="B310" s="30"/>
+      <c r="C310" s="24"/>
+      <c r="D310" s="30"/>
+      <c r="E310" s="30"/>
       <c r="F310" s="12" t="s">
         <v>258</v>
       </c>
@@ -7112,11 +7118,11 @@
       </c>
     </row>
     <row r="311" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A311" s="24"/>
-      <c r="B311" s="24"/>
-      <c r="C311" s="28"/>
-      <c r="D311" s="24"/>
-      <c r="E311" s="24"/>
+      <c r="A311" s="30"/>
+      <c r="B311" s="30"/>
+      <c r="C311" s="24"/>
+      <c r="D311" s="30"/>
+      <c r="E311" s="30"/>
       <c r="F311" s="15" t="s">
         <v>173</v>
       </c>
@@ -7128,11 +7134,11 @@
       </c>
     </row>
     <row r="312" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A312" s="24"/>
-      <c r="B312" s="24"/>
-      <c r="C312" s="28"/>
-      <c r="D312" s="24"/>
-      <c r="E312" s="24"/>
+      <c r="A312" s="30"/>
+      <c r="B312" s="30"/>
+      <c r="C312" s="24"/>
+      <c r="D312" s="30"/>
+      <c r="E312" s="30"/>
       <c r="F312" s="15" t="s">
         <v>273</v>
       </c>
@@ -7144,11 +7150,11 @@
       </c>
     </row>
     <row r="313" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A313" s="24"/>
-      <c r="B313" s="24"/>
-      <c r="C313" s="28"/>
-      <c r="D313" s="24"/>
-      <c r="E313" s="24"/>
+      <c r="A313" s="30"/>
+      <c r="B313" s="30"/>
+      <c r="C313" s="24"/>
+      <c r="D313" s="30"/>
+      <c r="E313" s="30"/>
       <c r="F313" s="15" t="s">
         <v>206</v>
       </c>
@@ -7160,11 +7166,11 @@
       </c>
     </row>
     <row r="314" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A314" s="24"/>
-      <c r="B314" s="24"/>
-      <c r="C314" s="28"/>
-      <c r="D314" s="24"/>
-      <c r="E314" s="24"/>
+      <c r="A314" s="30"/>
+      <c r="B314" s="30"/>
+      <c r="C314" s="24"/>
+      <c r="D314" s="30"/>
+      <c r="E314" s="30"/>
       <c r="F314" s="15" t="s">
         <v>79</v>
       </c>
@@ -7176,29 +7182,29 @@
       </c>
     </row>
     <row r="315" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A315" s="24"/>
-      <c r="B315" s="24"/>
-      <c r="C315" s="28"/>
-      <c r="D315" s="24"/>
-      <c r="E315" s="24"/>
+      <c r="A315" s="30"/>
+      <c r="B315" s="30"/>
+      <c r="C315" s="24"/>
+      <c r="D315" s="30"/>
+      <c r="E315" s="30"/>
       <c r="F315" s="15" t="s">
         <v>112</v>
       </c>
       <c r="G315" s="15" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H315" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="316" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A316" s="25"/>
-      <c r="B316" s="25"/>
-      <c r="C316" s="29"/>
-      <c r="D316" s="25"/>
-      <c r="E316" s="25"/>
+      <c r="A316" s="31"/>
+      <c r="B316" s="31"/>
+      <c r="C316" s="25"/>
+      <c r="D316" s="31"/>
+      <c r="E316" s="31"/>
       <c r="F316" s="19" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G316" s="19" t="s">
         <v>113</v>
@@ -7208,19 +7214,19 @@
       </c>
     </row>
     <row r="317" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A317" s="26">
+      <c r="A317" s="23">
         <v>40</v>
       </c>
-      <c r="B317" s="26" t="s">
+      <c r="B317" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="C317" s="26" t="s">
+      <c r="C317" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="D317" s="26" t="s">
-        <v>356</v>
-      </c>
-      <c r="E317" s="26" t="s">
+      <c r="D317" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="E317" s="23" t="s">
         <v>66</v>
       </c>
       <c r="F317" s="12" t="s">
@@ -7234,11 +7240,11 @@
       </c>
     </row>
     <row r="318" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A318" s="24"/>
-      <c r="B318" s="24"/>
-      <c r="C318" s="28"/>
-      <c r="D318" s="24"/>
-      <c r="E318" s="24"/>
+      <c r="A318" s="30"/>
+      <c r="B318" s="30"/>
+      <c r="C318" s="24"/>
+      <c r="D318" s="30"/>
+      <c r="E318" s="30"/>
       <c r="F318" s="15" t="s">
         <v>172</v>
       </c>
@@ -7250,11 +7256,11 @@
       </c>
     </row>
     <row r="319" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A319" s="24"/>
-      <c r="B319" s="24"/>
-      <c r="C319" s="28"/>
-      <c r="D319" s="24"/>
-      <c r="E319" s="24"/>
+      <c r="A319" s="30"/>
+      <c r="B319" s="30"/>
+      <c r="C319" s="24"/>
+      <c r="D319" s="30"/>
+      <c r="E319" s="30"/>
       <c r="F319" s="12" t="s">
         <v>258</v>
       </c>
@@ -7266,11 +7272,11 @@
       </c>
     </row>
     <row r="320" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A320" s="24"/>
-      <c r="B320" s="24"/>
-      <c r="C320" s="28"/>
-      <c r="D320" s="24"/>
-      <c r="E320" s="24"/>
+      <c r="A320" s="30"/>
+      <c r="B320" s="30"/>
+      <c r="C320" s="24"/>
+      <c r="D320" s="30"/>
+      <c r="E320" s="30"/>
       <c r="F320" s="15" t="s">
         <v>173</v>
       </c>
@@ -7282,11 +7288,11 @@
       </c>
     </row>
     <row r="321" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A321" s="24"/>
-      <c r="B321" s="24"/>
-      <c r="C321" s="28"/>
-      <c r="D321" s="24"/>
-      <c r="E321" s="24"/>
+      <c r="A321" s="30"/>
+      <c r="B321" s="30"/>
+      <c r="C321" s="24"/>
+      <c r="D321" s="30"/>
+      <c r="E321" s="30"/>
       <c r="F321" s="15" t="s">
         <v>273</v>
       </c>
@@ -7298,11 +7304,11 @@
       </c>
     </row>
     <row r="322" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A322" s="24"/>
-      <c r="B322" s="24"/>
-      <c r="C322" s="28"/>
-      <c r="D322" s="24"/>
-      <c r="E322" s="24"/>
+      <c r="A322" s="30"/>
+      <c r="B322" s="30"/>
+      <c r="C322" s="24"/>
+      <c r="D322" s="30"/>
+      <c r="E322" s="30"/>
       <c r="F322" s="15" t="s">
         <v>206</v>
       </c>
@@ -7314,11 +7320,11 @@
       </c>
     </row>
     <row r="323" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A323" s="24"/>
-      <c r="B323" s="24"/>
-      <c r="C323" s="28"/>
-      <c r="D323" s="24"/>
-      <c r="E323" s="24"/>
+      <c r="A323" s="30"/>
+      <c r="B323" s="30"/>
+      <c r="C323" s="24"/>
+      <c r="D323" s="30"/>
+      <c r="E323" s="30"/>
       <c r="F323" s="15" t="s">
         <v>79</v>
       </c>
@@ -7330,11 +7336,11 @@
       </c>
     </row>
     <row r="324" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A324" s="24"/>
-      <c r="B324" s="24"/>
-      <c r="C324" s="28"/>
-      <c r="D324" s="24"/>
-      <c r="E324" s="24"/>
+      <c r="A324" s="30"/>
+      <c r="B324" s="30"/>
+      <c r="C324" s="24"/>
+      <c r="D324" s="30"/>
+      <c r="E324" s="30"/>
       <c r="F324" s="15" t="s">
         <v>293</v>
       </c>
@@ -7346,11 +7352,11 @@
       </c>
     </row>
     <row r="325" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A325" s="24"/>
-      <c r="B325" s="24"/>
-      <c r="C325" s="28"/>
-      <c r="D325" s="24"/>
-      <c r="E325" s="24"/>
+      <c r="A325" s="30"/>
+      <c r="B325" s="30"/>
+      <c r="C325" s="24"/>
+      <c r="D325" s="30"/>
+      <c r="E325" s="30"/>
       <c r="F325" s="15" t="s">
         <v>317</v>
       </c>
@@ -7362,29 +7368,29 @@
       </c>
     </row>
     <row r="326" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A326" s="24"/>
-      <c r="B326" s="24"/>
-      <c r="C326" s="28"/>
-      <c r="D326" s="24"/>
-      <c r="E326" s="24"/>
+      <c r="A326" s="30"/>
+      <c r="B326" s="30"/>
+      <c r="C326" s="24"/>
+      <c r="D326" s="30"/>
+      <c r="E326" s="30"/>
       <c r="F326" s="15" t="s">
         <v>109</v>
       </c>
       <c r="G326" s="15" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H326" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="327" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A327" s="24"/>
-      <c r="B327" s="24"/>
-      <c r="C327" s="28"/>
-      <c r="D327" s="24"/>
-      <c r="E327" s="24"/>
+      <c r="A327" s="30"/>
+      <c r="B327" s="30"/>
+      <c r="C327" s="24"/>
+      <c r="D327" s="30"/>
+      <c r="E327" s="30"/>
       <c r="F327" s="15" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G327" s="15" t="s">
         <v>83</v>
@@ -7394,11 +7400,11 @@
       </c>
     </row>
     <row r="328" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A328" s="24"/>
-      <c r="B328" s="24"/>
-      <c r="C328" s="28"/>
-      <c r="D328" s="24"/>
-      <c r="E328" s="24"/>
+      <c r="A328" s="30"/>
+      <c r="B328" s="30"/>
+      <c r="C328" s="24"/>
+      <c r="D328" s="30"/>
+      <c r="E328" s="30"/>
       <c r="F328" s="15" t="s">
         <v>297</v>
       </c>
@@ -7410,27 +7416,27 @@
       </c>
     </row>
     <row r="329" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A329" s="24"/>
-      <c r="B329" s="24"/>
-      <c r="C329" s="28"/>
-      <c r="D329" s="24"/>
-      <c r="E329" s="24"/>
+      <c r="A329" s="30"/>
+      <c r="B329" s="30"/>
+      <c r="C329" s="24"/>
+      <c r="D329" s="30"/>
+      <c r="E329" s="30"/>
       <c r="F329" s="15" t="s">
         <v>115</v>
       </c>
       <c r="G329" s="15" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H329" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="330" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A330" s="24"/>
-      <c r="B330" s="24"/>
-      <c r="C330" s="28"/>
-      <c r="D330" s="24"/>
-      <c r="E330" s="24"/>
+      <c r="A330" s="30"/>
+      <c r="B330" s="30"/>
+      <c r="C330" s="24"/>
+      <c r="D330" s="30"/>
+      <c r="E330" s="30"/>
       <c r="F330" s="15" t="s">
         <v>300</v>
       </c>
@@ -7442,77 +7448,77 @@
       </c>
     </row>
     <row r="331" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A331" s="24"/>
-      <c r="B331" s="24"/>
-      <c r="C331" s="28"/>
-      <c r="D331" s="24"/>
-      <c r="E331" s="24"/>
+      <c r="A331" s="30"/>
+      <c r="B331" s="30"/>
+      <c r="C331" s="24"/>
+      <c r="D331" s="30"/>
+      <c r="E331" s="30"/>
       <c r="F331" s="15" t="s">
         <v>302</v>
       </c>
       <c r="G331" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="H331" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A332" s="30"/>
+      <c r="B332" s="30"/>
+      <c r="C332" s="24"/>
+      <c r="D332" s="30"/>
+      <c r="E332" s="30"/>
+      <c r="F332" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="G332" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="H332" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A333" s="30"/>
+      <c r="B333" s="30"/>
+      <c r="C333" s="24"/>
+      <c r="D333" s="30"/>
+      <c r="E333" s="30"/>
+      <c r="F333" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="G333" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="H331" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A332" s="24"/>
-      <c r="B332" s="24"/>
-      <c r="C332" s="28"/>
-      <c r="D332" s="24"/>
-      <c r="E332" s="24"/>
-      <c r="F332" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="G332" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="H332" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A333" s="24"/>
-      <c r="B333" s="24"/>
-      <c r="C333" s="28"/>
-      <c r="D333" s="24"/>
-      <c r="E333" s="24"/>
-      <c r="F333" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="G333" s="15" t="s">
-        <v>361</v>
-      </c>
       <c r="H333" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="334" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A334" s="24"/>
-      <c r="B334" s="24"/>
-      <c r="C334" s="28"/>
-      <c r="D334" s="24"/>
-      <c r="E334" s="24"/>
+      <c r="A334" s="30"/>
+      <c r="B334" s="30"/>
+      <c r="C334" s="24"/>
+      <c r="D334" s="30"/>
+      <c r="E334" s="30"/>
       <c r="F334" s="15" t="s">
         <v>308</v>
       </c>
       <c r="G334" s="15" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H334" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="335" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A335" s="24"/>
-      <c r="B335" s="24"/>
-      <c r="C335" s="28"/>
-      <c r="D335" s="24"/>
-      <c r="E335" s="24"/>
+      <c r="A335" s="30"/>
+      <c r="B335" s="30"/>
+      <c r="C335" s="24"/>
+      <c r="D335" s="30"/>
+      <c r="E335" s="30"/>
       <c r="F335" s="15" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G335" s="15" t="s">
         <v>85</v>
@@ -7522,51 +7528,51 @@
       </c>
     </row>
     <row r="336" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A336" s="24"/>
-      <c r="B336" s="24"/>
-      <c r="C336" s="28"/>
-      <c r="D336" s="24"/>
-      <c r="E336" s="24"/>
+      <c r="A336" s="30"/>
+      <c r="B336" s="30"/>
+      <c r="C336" s="24"/>
+      <c r="D336" s="30"/>
+      <c r="E336" s="30"/>
       <c r="F336" s="12" t="s">
         <v>311</v>
       </c>
       <c r="G336" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="H336" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A337" s="31"/>
+      <c r="B337" s="31"/>
+      <c r="C337" s="25"/>
+      <c r="D337" s="31"/>
+      <c r="E337" s="31"/>
+      <c r="F337" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="G337" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="H336" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A337" s="25"/>
-      <c r="B337" s="25"/>
-      <c r="C337" s="29"/>
-      <c r="D337" s="25"/>
-      <c r="E337" s="25"/>
-      <c r="F337" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="G337" s="15" t="s">
-        <v>368</v>
-      </c>
       <c r="H337" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="338" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A338" s="26">
+      <c r="A338" s="23">
         <v>41</v>
       </c>
-      <c r="B338" s="26" t="s">
+      <c r="B338" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="C338" s="26" t="s">
+      <c r="C338" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="D338" s="26" t="s">
+      <c r="D338" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="E338" s="26" t="s">
+      <c r="E338" s="23" t="s">
         <v>66</v>
       </c>
       <c r="F338" s="12" t="s">
@@ -7580,11 +7586,11 @@
       </c>
     </row>
     <row r="339" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A339" s="24"/>
-      <c r="B339" s="24"/>
-      <c r="C339" s="28"/>
-      <c r="D339" s="24"/>
-      <c r="E339" s="24"/>
+      <c r="A339" s="30"/>
+      <c r="B339" s="30"/>
+      <c r="C339" s="24"/>
+      <c r="D339" s="30"/>
+      <c r="E339" s="30"/>
       <c r="F339" s="15" t="s">
         <v>172</v>
       </c>
@@ -7596,11 +7602,11 @@
       </c>
     </row>
     <row r="340" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A340" s="24"/>
-      <c r="B340" s="24"/>
-      <c r="C340" s="28"/>
-      <c r="D340" s="24"/>
-      <c r="E340" s="24"/>
+      <c r="A340" s="30"/>
+      <c r="B340" s="30"/>
+      <c r="C340" s="24"/>
+      <c r="D340" s="30"/>
+      <c r="E340" s="30"/>
       <c r="F340" s="12" t="s">
         <v>258</v>
       </c>
@@ -7612,11 +7618,11 @@
       </c>
     </row>
     <row r="341" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A341" s="24"/>
-      <c r="B341" s="24"/>
-      <c r="C341" s="28"/>
-      <c r="D341" s="24"/>
-      <c r="E341" s="24"/>
+      <c r="A341" s="30"/>
+      <c r="B341" s="30"/>
+      <c r="C341" s="24"/>
+      <c r="D341" s="30"/>
+      <c r="E341" s="30"/>
       <c r="F341" s="15" t="s">
         <v>173</v>
       </c>
@@ -7628,11 +7634,11 @@
       </c>
     </row>
     <row r="342" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A342" s="24"/>
-      <c r="B342" s="24"/>
-      <c r="C342" s="28"/>
-      <c r="D342" s="24"/>
-      <c r="E342" s="24"/>
+      <c r="A342" s="30"/>
+      <c r="B342" s="30"/>
+      <c r="C342" s="24"/>
+      <c r="D342" s="30"/>
+      <c r="E342" s="30"/>
       <c r="F342" s="15" t="s">
         <v>273</v>
       </c>
@@ -7644,11 +7650,11 @@
       </c>
     </row>
     <row r="343" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A343" s="24"/>
-      <c r="B343" s="24"/>
-      <c r="C343" s="28"/>
-      <c r="D343" s="24"/>
-      <c r="E343" s="24"/>
+      <c r="A343" s="30"/>
+      <c r="B343" s="30"/>
+      <c r="C343" s="24"/>
+      <c r="D343" s="30"/>
+      <c r="E343" s="30"/>
       <c r="F343" s="15" t="s">
         <v>206</v>
       </c>
@@ -7660,11 +7666,11 @@
       </c>
     </row>
     <row r="344" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A344" s="25"/>
-      <c r="B344" s="25"/>
-      <c r="C344" s="29"/>
-      <c r="D344" s="25"/>
-      <c r="E344" s="25"/>
+      <c r="A344" s="31"/>
+      <c r="B344" s="31"/>
+      <c r="C344" s="25"/>
+      <c r="D344" s="31"/>
+      <c r="E344" s="31"/>
       <c r="F344" s="15" t="s">
         <v>118</v>
       </c>
@@ -7676,19 +7682,19 @@
       </c>
     </row>
     <row r="345" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A345" s="26">
+      <c r="A345" s="23">
         <v>42</v>
       </c>
-      <c r="B345" s="26" t="s">
+      <c r="B345" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="C345" s="26" t="s">
+      <c r="C345" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="D345" s="26" t="s">
-        <v>388</v>
-      </c>
-      <c r="E345" s="26" t="s">
+      <c r="D345" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="E345" s="23" t="s">
         <v>66</v>
       </c>
       <c r="F345" s="12" t="s">
@@ -7702,11 +7708,11 @@
       </c>
     </row>
     <row r="346" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A346" s="24"/>
-      <c r="B346" s="24"/>
-      <c r="C346" s="28"/>
-      <c r="D346" s="24"/>
-      <c r="E346" s="24"/>
+      <c r="A346" s="30"/>
+      <c r="B346" s="30"/>
+      <c r="C346" s="24"/>
+      <c r="D346" s="30"/>
+      <c r="E346" s="30"/>
       <c r="F346" s="15" t="s">
         <v>172</v>
       </c>
@@ -7718,11 +7724,11 @@
       </c>
     </row>
     <row r="347" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A347" s="24"/>
-      <c r="B347" s="24"/>
-      <c r="C347" s="28"/>
-      <c r="D347" s="24"/>
-      <c r="E347" s="24"/>
+      <c r="A347" s="30"/>
+      <c r="B347" s="30"/>
+      <c r="C347" s="24"/>
+      <c r="D347" s="30"/>
+      <c r="E347" s="30"/>
       <c r="F347" s="12" t="s">
         <v>258</v>
       </c>
@@ -7734,11 +7740,11 @@
       </c>
     </row>
     <row r="348" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A348" s="24"/>
-      <c r="B348" s="24"/>
-      <c r="C348" s="28"/>
-      <c r="D348" s="24"/>
-      <c r="E348" s="24"/>
+      <c r="A348" s="30"/>
+      <c r="B348" s="30"/>
+      <c r="C348" s="24"/>
+      <c r="D348" s="30"/>
+      <c r="E348" s="30"/>
       <c r="F348" s="15" t="s">
         <v>173</v>
       </c>
@@ -7750,11 +7756,11 @@
       </c>
     </row>
     <row r="349" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A349" s="24"/>
-      <c r="B349" s="24"/>
-      <c r="C349" s="28"/>
-      <c r="D349" s="24"/>
-      <c r="E349" s="24"/>
+      <c r="A349" s="30"/>
+      <c r="B349" s="30"/>
+      <c r="C349" s="24"/>
+      <c r="D349" s="30"/>
+      <c r="E349" s="30"/>
       <c r="F349" s="15" t="s">
         <v>273</v>
       </c>
@@ -7766,11 +7772,11 @@
       </c>
     </row>
     <row r="350" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A350" s="24"/>
-      <c r="B350" s="24"/>
-      <c r="C350" s="28"/>
-      <c r="D350" s="24"/>
-      <c r="E350" s="24"/>
+      <c r="A350" s="30"/>
+      <c r="B350" s="30"/>
+      <c r="C350" s="24"/>
+      <c r="D350" s="30"/>
+      <c r="E350" s="30"/>
       <c r="F350" s="15" t="s">
         <v>206</v>
       </c>
@@ -7782,29 +7788,29 @@
       </c>
     </row>
     <row r="351" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A351" s="24"/>
-      <c r="B351" s="24"/>
-      <c r="C351" s="28"/>
-      <c r="D351" s="24"/>
-      <c r="E351" s="24"/>
+      <c r="A351" s="30"/>
+      <c r="B351" s="30"/>
+      <c r="C351" s="24"/>
+      <c r="D351" s="30"/>
+      <c r="E351" s="30"/>
       <c r="F351" s="15" t="s">
         <v>121</v>
       </c>
       <c r="G351" s="15" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H351" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="352" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A352" s="24"/>
-      <c r="B352" s="24"/>
-      <c r="C352" s="28"/>
-      <c r="D352" s="24"/>
-      <c r="E352" s="24"/>
+      <c r="A352" s="30"/>
+      <c r="B352" s="30"/>
+      <c r="C352" s="24"/>
+      <c r="D352" s="30"/>
+      <c r="E352" s="30"/>
       <c r="F352" s="15" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G352" s="15" t="s">
         <v>122</v>
@@ -7814,147 +7820,147 @@
       </c>
     </row>
     <row r="353" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A353" s="24"/>
-      <c r="B353" s="24"/>
-      <c r="C353" s="28"/>
-      <c r="D353" s="24"/>
-      <c r="E353" s="24"/>
+      <c r="A353" s="30"/>
+      <c r="B353" s="30"/>
+      <c r="C353" s="24"/>
+      <c r="D353" s="30"/>
+      <c r="E353" s="30"/>
       <c r="F353" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="G353" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="G353" s="15" t="s">
+      <c r="H353" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A354" s="30"/>
+      <c r="B354" s="30"/>
+      <c r="C354" s="24"/>
+      <c r="D354" s="30"/>
+      <c r="E354" s="30"/>
+      <c r="F354" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="G354" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="H353" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="354" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A354" s="24"/>
-      <c r="B354" s="24"/>
-      <c r="C354" s="28"/>
-      <c r="D354" s="24"/>
-      <c r="E354" s="24"/>
-      <c r="F354" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="G354" s="15" t="s">
+      <c r="H354" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A355" s="30"/>
+      <c r="B355" s="30"/>
+      <c r="C355" s="24"/>
+      <c r="D355" s="30"/>
+      <c r="E355" s="30"/>
+      <c r="F355" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="G355" s="15" t="s">
         <v>375</v>
       </c>
-      <c r="H354" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="355" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A355" s="24"/>
-      <c r="B355" s="24"/>
-      <c r="C355" s="28"/>
-      <c r="D355" s="24"/>
-      <c r="E355" s="24"/>
-      <c r="F355" s="15" t="s">
+      <c r="H355" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A356" s="30"/>
+      <c r="B356" s="30"/>
+      <c r="C356" s="24"/>
+      <c r="D356" s="30"/>
+      <c r="E356" s="30"/>
+      <c r="F356" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="G356" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="H356" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A357" s="30"/>
+      <c r="B357" s="30"/>
+      <c r="C357" s="24"/>
+      <c r="D357" s="30"/>
+      <c r="E357" s="30"/>
+      <c r="F357" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="G355" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="H355" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="356" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A356" s="24"/>
-      <c r="B356" s="24"/>
-      <c r="C356" s="28"/>
-      <c r="D356" s="24"/>
-      <c r="E356" s="24"/>
-      <c r="F356" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="G356" s="15" t="s">
+      <c r="G357" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="H356" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="357" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A357" s="24"/>
-      <c r="B357" s="24"/>
-      <c r="C357" s="28"/>
-      <c r="D357" s="24"/>
-      <c r="E357" s="24"/>
-      <c r="F357" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="G357" s="15" t="s">
-        <v>381</v>
-      </c>
       <c r="H357" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="358" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A358" s="24"/>
-      <c r="B358" s="24"/>
-      <c r="C358" s="28"/>
-      <c r="D358" s="24"/>
-      <c r="E358" s="24"/>
+      <c r="A358" s="30"/>
+      <c r="B358" s="30"/>
+      <c r="C358" s="24"/>
+      <c r="D358" s="30"/>
+      <c r="E358" s="30"/>
       <c r="F358" s="15" t="s">
         <v>123</v>
       </c>
       <c r="G358" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="H358" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A359" s="30"/>
+      <c r="B359" s="30"/>
+      <c r="C359" s="24"/>
+      <c r="D359" s="30"/>
+      <c r="E359" s="30"/>
+      <c r="F359" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="G359" s="15" t="s">
         <v>382</v>
       </c>
-      <c r="H358" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="359" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A359" s="24"/>
-      <c r="B359" s="24"/>
-      <c r="C359" s="28"/>
-      <c r="D359" s="24"/>
-      <c r="E359" s="24"/>
-      <c r="F359" s="15" t="s">
+      <c r="H359" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A360" s="31"/>
+      <c r="B360" s="31"/>
+      <c r="C360" s="25"/>
+      <c r="D360" s="31"/>
+      <c r="E360" s="31"/>
+      <c r="F360" s="15" t="s">
         <v>383</v>
       </c>
-      <c r="G359" s="15" t="s">
+      <c r="G360" s="15" t="s">
         <v>384</v>
       </c>
-      <c r="H359" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="360" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A360" s="25"/>
-      <c r="B360" s="25"/>
-      <c r="C360" s="29"/>
-      <c r="D360" s="25"/>
-      <c r="E360" s="25"/>
-      <c r="F360" s="15" t="s">
+      <c r="H360" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A361" s="23">
+        <v>43</v>
+      </c>
+      <c r="B361" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C361" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="D361" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="G360" s="15" t="s">
-        <v>386</v>
-      </c>
-      <c r="H360" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="361" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A361" s="26">
-        <v>43</v>
-      </c>
-      <c r="B361" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="C361" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="D361" s="26" t="s">
-        <v>387</v>
-      </c>
-      <c r="E361" s="26" t="s">
+      <c r="E361" s="23" t="s">
         <v>66</v>
       </c>
       <c r="F361" s="12" t="s">
@@ -7968,11 +7974,11 @@
       </c>
     </row>
     <row r="362" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A362" s="24"/>
-      <c r="B362" s="24"/>
-      <c r="C362" s="28"/>
-      <c r="D362" s="24"/>
-      <c r="E362" s="24"/>
+      <c r="A362" s="30"/>
+      <c r="B362" s="30"/>
+      <c r="C362" s="24"/>
+      <c r="D362" s="30"/>
+      <c r="E362" s="30"/>
       <c r="F362" s="15" t="s">
         <v>172</v>
       </c>
@@ -7984,11 +7990,11 @@
       </c>
     </row>
     <row r="363" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A363" s="24"/>
-      <c r="B363" s="24"/>
-      <c r="C363" s="28"/>
-      <c r="D363" s="24"/>
-      <c r="E363" s="24"/>
+      <c r="A363" s="30"/>
+      <c r="B363" s="30"/>
+      <c r="C363" s="24"/>
+      <c r="D363" s="30"/>
+      <c r="E363" s="30"/>
       <c r="F363" s="12" t="s">
         <v>258</v>
       </c>
@@ -8000,11 +8006,11 @@
       </c>
     </row>
     <row r="364" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A364" s="24"/>
-      <c r="B364" s="24"/>
-      <c r="C364" s="28"/>
-      <c r="D364" s="24"/>
-      <c r="E364" s="24"/>
+      <c r="A364" s="30"/>
+      <c r="B364" s="30"/>
+      <c r="C364" s="24"/>
+      <c r="D364" s="30"/>
+      <c r="E364" s="30"/>
       <c r="F364" s="15" t="s">
         <v>173</v>
       </c>
@@ -8016,11 +8022,11 @@
       </c>
     </row>
     <row r="365" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A365" s="24"/>
-      <c r="B365" s="24"/>
-      <c r="C365" s="28"/>
-      <c r="D365" s="24"/>
-      <c r="E365" s="24"/>
+      <c r="A365" s="30"/>
+      <c r="B365" s="30"/>
+      <c r="C365" s="24"/>
+      <c r="D365" s="30"/>
+      <c r="E365" s="30"/>
       <c r="F365" s="15" t="s">
         <v>273</v>
       </c>
@@ -8032,11 +8038,11 @@
       </c>
     </row>
     <row r="366" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A366" s="24"/>
-      <c r="B366" s="24"/>
-      <c r="C366" s="28"/>
-      <c r="D366" s="24"/>
-      <c r="E366" s="24"/>
+      <c r="A366" s="30"/>
+      <c r="B366" s="30"/>
+      <c r="C366" s="24"/>
+      <c r="D366" s="30"/>
+      <c r="E366" s="30"/>
       <c r="F366" s="15" t="s">
         <v>206</v>
       </c>
@@ -8048,147 +8054,147 @@
       </c>
     </row>
     <row r="367" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A367" s="24"/>
-      <c r="B367" s="24"/>
-      <c r="C367" s="28"/>
-      <c r="D367" s="24"/>
-      <c r="E367" s="24"/>
+      <c r="A367" s="30"/>
+      <c r="B367" s="30"/>
+      <c r="C367" s="24"/>
+      <c r="D367" s="30"/>
+      <c r="E367" s="30"/>
       <c r="F367" s="15" t="s">
         <v>121</v>
       </c>
       <c r="G367" s="15" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H367" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="368" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A368" s="24"/>
-      <c r="B368" s="24"/>
-      <c r="C368" s="28"/>
-      <c r="D368" s="24"/>
-      <c r="E368" s="24"/>
+      <c r="A368" s="30"/>
+      <c r="B368" s="30"/>
+      <c r="C368" s="24"/>
+      <c r="D368" s="30"/>
+      <c r="E368" s="30"/>
       <c r="F368" s="15" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G368" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="H368" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A369" s="30"/>
+      <c r="B369" s="30"/>
+      <c r="C369" s="24"/>
+      <c r="D369" s="30"/>
+      <c r="E369" s="30"/>
+      <c r="F369" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="G369" s="15" t="s">
         <v>375</v>
       </c>
-      <c r="H368" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="369" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A369" s="24"/>
-      <c r="B369" s="24"/>
-      <c r="C369" s="28"/>
-      <c r="D369" s="24"/>
-      <c r="E369" s="24"/>
-      <c r="F369" s="15" t="s">
+      <c r="H369" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A370" s="30"/>
+      <c r="B370" s="30"/>
+      <c r="C370" s="24"/>
+      <c r="D370" s="30"/>
+      <c r="E370" s="30"/>
+      <c r="F370" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="G370" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="H370" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A371" s="30"/>
+      <c r="B371" s="30"/>
+      <c r="C371" s="24"/>
+      <c r="D371" s="30"/>
+      <c r="E371" s="30"/>
+      <c r="F371" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="G369" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="H369" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="370" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A370" s="24"/>
-      <c r="B370" s="24"/>
-      <c r="C370" s="28"/>
-      <c r="D370" s="24"/>
-      <c r="E370" s="24"/>
-      <c r="F370" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="G370" s="15" t="s">
+      <c r="G371" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="H370" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="371" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A371" s="24"/>
-      <c r="B371" s="24"/>
-      <c r="C371" s="28"/>
-      <c r="D371" s="24"/>
-      <c r="E371" s="24"/>
-      <c r="F371" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="G371" s="15" t="s">
-        <v>381</v>
-      </c>
       <c r="H371" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="372" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A372" s="24"/>
-      <c r="B372" s="24"/>
-      <c r="C372" s="28"/>
-      <c r="D372" s="24"/>
-      <c r="E372" s="24"/>
+      <c r="A372" s="30"/>
+      <c r="B372" s="30"/>
+      <c r="C372" s="24"/>
+      <c r="D372" s="30"/>
+      <c r="E372" s="30"/>
       <c r="F372" s="15" t="s">
         <v>123</v>
       </c>
       <c r="G372" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="H372" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A373" s="30"/>
+      <c r="B373" s="30"/>
+      <c r="C373" s="24"/>
+      <c r="D373" s="30"/>
+      <c r="E373" s="30"/>
+      <c r="F373" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="G373" s="15" t="s">
         <v>382</v>
       </c>
-      <c r="H372" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="373" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A373" s="24"/>
-      <c r="B373" s="24"/>
-      <c r="C373" s="28"/>
-      <c r="D373" s="24"/>
-      <c r="E373" s="24"/>
-      <c r="F373" s="15" t="s">
-        <v>383</v>
-      </c>
-      <c r="G373" s="15" t="s">
-        <v>384</v>
-      </c>
       <c r="H373" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="374" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A374" s="25"/>
-      <c r="B374" s="25"/>
-      <c r="C374" s="29"/>
-      <c r="D374" s="25"/>
-      <c r="E374" s="25"/>
+      <c r="A374" s="31"/>
+      <c r="B374" s="31"/>
+      <c r="C374" s="25"/>
+      <c r="D374" s="31"/>
+      <c r="E374" s="31"/>
       <c r="F374" s="15" t="s">
         <v>125</v>
       </c>
       <c r="G374" s="15" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H374" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="375" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A375" s="26">
+      <c r="A375" s="23">
         <v>44</v>
       </c>
-      <c r="B375" s="26" t="s">
+      <c r="B375" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="C375" s="26" t="s">
+      <c r="C375" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D375" s="26" t="s">
+      <c r="D375" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="E375" s="26" t="s">
+      <c r="E375" s="23" t="s">
         <v>66</v>
       </c>
       <c r="F375" s="12" t="s">
@@ -8202,11 +8208,11 @@
       </c>
     </row>
     <row r="376" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A376" s="24"/>
-      <c r="B376" s="24"/>
-      <c r="C376" s="28"/>
-      <c r="D376" s="24"/>
-      <c r="E376" s="24"/>
+      <c r="A376" s="30"/>
+      <c r="B376" s="30"/>
+      <c r="C376" s="24"/>
+      <c r="D376" s="30"/>
+      <c r="E376" s="30"/>
       <c r="F376" s="15" t="s">
         <v>172</v>
       </c>
@@ -8218,11 +8224,11 @@
       </c>
     </row>
     <row r="377" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A377" s="24"/>
-      <c r="B377" s="24"/>
-      <c r="C377" s="28"/>
-      <c r="D377" s="24"/>
-      <c r="E377" s="24"/>
+      <c r="A377" s="30"/>
+      <c r="B377" s="30"/>
+      <c r="C377" s="24"/>
+      <c r="D377" s="30"/>
+      <c r="E377" s="30"/>
       <c r="F377" s="12" t="s">
         <v>258</v>
       </c>
@@ -8234,11 +8240,11 @@
       </c>
     </row>
     <row r="378" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A378" s="24"/>
-      <c r="B378" s="24"/>
-      <c r="C378" s="28"/>
-      <c r="D378" s="24"/>
-      <c r="E378" s="24"/>
+      <c r="A378" s="30"/>
+      <c r="B378" s="30"/>
+      <c r="C378" s="24"/>
+      <c r="D378" s="30"/>
+      <c r="E378" s="30"/>
       <c r="F378" s="15" t="s">
         <v>173</v>
       </c>
@@ -8250,11 +8256,11 @@
       </c>
     </row>
     <row r="379" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A379" s="24"/>
-      <c r="B379" s="24"/>
-      <c r="C379" s="28"/>
-      <c r="D379" s="24"/>
-      <c r="E379" s="24"/>
+      <c r="A379" s="30"/>
+      <c r="B379" s="30"/>
+      <c r="C379" s="24"/>
+      <c r="D379" s="30"/>
+      <c r="E379" s="30"/>
       <c r="F379" s="15" t="s">
         <v>273</v>
       </c>
@@ -8266,11 +8272,11 @@
       </c>
     </row>
     <row r="380" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A380" s="24"/>
-      <c r="B380" s="24"/>
-      <c r="C380" s="28"/>
-      <c r="D380" s="24"/>
-      <c r="E380" s="24"/>
+      <c r="A380" s="30"/>
+      <c r="B380" s="30"/>
+      <c r="C380" s="24"/>
+      <c r="D380" s="30"/>
+      <c r="E380" s="30"/>
       <c r="F380" s="15" t="s">
         <v>206</v>
       </c>
@@ -8282,13 +8288,13 @@
       </c>
     </row>
     <row r="381" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A381" s="25"/>
-      <c r="B381" s="25"/>
-      <c r="C381" s="29"/>
-      <c r="D381" s="25"/>
-      <c r="E381" s="25"/>
+      <c r="A381" s="31"/>
+      <c r="B381" s="31"/>
+      <c r="C381" s="25"/>
+      <c r="D381" s="31"/>
+      <c r="E381" s="31"/>
       <c r="F381" s="15" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G381" s="15" t="s">
         <v>128</v>
@@ -8298,19 +8304,19 @@
       </c>
     </row>
     <row r="382" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A382" s="26">
+      <c r="A382" s="23">
         <v>45</v>
       </c>
-      <c r="B382" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="C382" s="26" t="s">
+      <c r="B382" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="C382" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D382" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="E382" s="26" t="s">
+      <c r="D382" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="E382" s="23" t="s">
         <v>66</v>
       </c>
       <c r="F382" s="12" t="s">
@@ -8324,11 +8330,11 @@
       </c>
     </row>
     <row r="383" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A383" s="24"/>
-      <c r="B383" s="24"/>
-      <c r="C383" s="28"/>
-      <c r="D383" s="24"/>
-      <c r="E383" s="24"/>
+      <c r="A383" s="30"/>
+      <c r="B383" s="30"/>
+      <c r="C383" s="24"/>
+      <c r="D383" s="30"/>
+      <c r="E383" s="30"/>
       <c r="F383" s="15" t="s">
         <v>172</v>
       </c>
@@ -8340,11 +8346,11 @@
       </c>
     </row>
     <row r="384" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A384" s="24"/>
-      <c r="B384" s="24"/>
-      <c r="C384" s="28"/>
-      <c r="D384" s="24"/>
-      <c r="E384" s="24"/>
+      <c r="A384" s="30"/>
+      <c r="B384" s="30"/>
+      <c r="C384" s="24"/>
+      <c r="D384" s="30"/>
+      <c r="E384" s="30"/>
       <c r="F384" s="12" t="s">
         <v>258</v>
       </c>
@@ -8356,11 +8362,11 @@
       </c>
     </row>
     <row r="385" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A385" s="24"/>
-      <c r="B385" s="24"/>
-      <c r="C385" s="28"/>
-      <c r="D385" s="24"/>
-      <c r="E385" s="24"/>
+      <c r="A385" s="30"/>
+      <c r="B385" s="30"/>
+      <c r="C385" s="24"/>
+      <c r="D385" s="30"/>
+      <c r="E385" s="30"/>
       <c r="F385" s="15" t="s">
         <v>173</v>
       </c>
@@ -8372,11 +8378,11 @@
       </c>
     </row>
     <row r="386" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A386" s="24"/>
-      <c r="B386" s="24"/>
-      <c r="C386" s="28"/>
-      <c r="D386" s="24"/>
-      <c r="E386" s="24"/>
+      <c r="A386" s="30"/>
+      <c r="B386" s="30"/>
+      <c r="C386" s="24"/>
+      <c r="D386" s="30"/>
+      <c r="E386" s="30"/>
       <c r="F386" s="15" t="s">
         <v>273</v>
       </c>
@@ -8388,29 +8394,29 @@
       </c>
     </row>
     <row r="387" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A387" s="24"/>
-      <c r="B387" s="24"/>
-      <c r="C387" s="28"/>
-      <c r="D387" s="24"/>
-      <c r="E387" s="24"/>
+      <c r="A387" s="30"/>
+      <c r="B387" s="30"/>
+      <c r="C387" s="24"/>
+      <c r="D387" s="30"/>
+      <c r="E387" s="30"/>
       <c r="F387" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="G387" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="H387" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A388" s="30"/>
+      <c r="B388" s="30"/>
+      <c r="C388" s="24"/>
+      <c r="D388" s="30"/>
+      <c r="E388" s="30"/>
+      <c r="F388" s="15" t="s">
         <v>393</v>
-      </c>
-      <c r="G387" s="15" t="s">
-        <v>394</v>
-      </c>
-      <c r="H387" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="388" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A388" s="24"/>
-      <c r="B388" s="24"/>
-      <c r="C388" s="28"/>
-      <c r="D388" s="24"/>
-      <c r="E388" s="24"/>
-      <c r="F388" s="15" t="s">
-        <v>395</v>
       </c>
       <c r="G388" s="15" t="s">
         <v>129</v>
@@ -8420,29 +8426,29 @@
       </c>
     </row>
     <row r="389" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A389" s="24"/>
-      <c r="B389" s="24"/>
-      <c r="C389" s="28"/>
-      <c r="D389" s="24"/>
-      <c r="E389" s="24"/>
+      <c r="A389" s="30"/>
+      <c r="B389" s="30"/>
+      <c r="C389" s="24"/>
+      <c r="D389" s="30"/>
+      <c r="E389" s="30"/>
       <c r="F389" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="G389" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="H389" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A390" s="31"/>
+      <c r="B390" s="31"/>
+      <c r="C390" s="25"/>
+      <c r="D390" s="31"/>
+      <c r="E390" s="31"/>
+      <c r="F390" s="15" t="s">
         <v>396</v>
-      </c>
-      <c r="G389" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="H389" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="390" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A390" s="25"/>
-      <c r="B390" s="25"/>
-      <c r="C390" s="29"/>
-      <c r="D390" s="25"/>
-      <c r="E390" s="25"/>
-      <c r="F390" s="15" t="s">
-        <v>398</v>
       </c>
       <c r="G390" s="15" t="s">
         <v>130</v>
@@ -8452,19 +8458,19 @@
       </c>
     </row>
     <row r="391" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A391" s="26">
+      <c r="A391" s="23">
         <v>46</v>
       </c>
-      <c r="B391" s="26" t="s">
+      <c r="B391" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="C391" s="26" t="s">
+      <c r="C391" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D391" s="26" t="s">
+      <c r="D391" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="E391" s="26" t="s">
+      <c r="E391" s="23" t="s">
         <v>133</v>
       </c>
       <c r="F391" s="12" t="s">
@@ -8478,11 +8484,11 @@
       </c>
     </row>
     <row r="392" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A392" s="24"/>
-      <c r="B392" s="24"/>
-      <c r="C392" s="28"/>
-      <c r="D392" s="24"/>
-      <c r="E392" s="24"/>
+      <c r="A392" s="30"/>
+      <c r="B392" s="30"/>
+      <c r="C392" s="24"/>
+      <c r="D392" s="30"/>
+      <c r="E392" s="30"/>
       <c r="F392" s="15" t="s">
         <v>172</v>
       </c>
@@ -8494,11 +8500,11 @@
       </c>
     </row>
     <row r="393" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A393" s="24"/>
-      <c r="B393" s="24"/>
-      <c r="C393" s="28"/>
-      <c r="D393" s="24"/>
-      <c r="E393" s="24"/>
+      <c r="A393" s="30"/>
+      <c r="B393" s="30"/>
+      <c r="C393" s="24"/>
+      <c r="D393" s="30"/>
+      <c r="E393" s="30"/>
       <c r="F393" s="12" t="s">
         <v>258</v>
       </c>
@@ -8510,11 +8516,11 @@
       </c>
     </row>
     <row r="394" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A394" s="24"/>
-      <c r="B394" s="24"/>
-      <c r="C394" s="28"/>
-      <c r="D394" s="24"/>
-      <c r="E394" s="24"/>
+      <c r="A394" s="30"/>
+      <c r="B394" s="30"/>
+      <c r="C394" s="24"/>
+      <c r="D394" s="30"/>
+      <c r="E394" s="30"/>
       <c r="F394" s="15" t="s">
         <v>173</v>
       </c>
@@ -8526,13 +8532,13 @@
       </c>
     </row>
     <row r="395" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A395" s="24"/>
-      <c r="B395" s="24"/>
-      <c r="C395" s="28"/>
-      <c r="D395" s="24"/>
-      <c r="E395" s="24"/>
+      <c r="A395" s="30"/>
+      <c r="B395" s="30"/>
+      <c r="C395" s="24"/>
+      <c r="D395" s="30"/>
+      <c r="E395" s="30"/>
       <c r="F395" s="15" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G395" s="15" t="s">
         <v>134</v>
@@ -8542,13 +8548,13 @@
       </c>
     </row>
     <row r="396" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A396" s="24"/>
-      <c r="B396" s="24"/>
-      <c r="C396" s="28"/>
-      <c r="D396" s="24"/>
-      <c r="E396" s="24"/>
+      <c r="A396" s="30"/>
+      <c r="B396" s="30"/>
+      <c r="C396" s="24"/>
+      <c r="D396" s="30"/>
+      <c r="E396" s="30"/>
       <c r="F396" s="15" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G396" s="15" t="s">
         <v>135</v>
@@ -8558,67 +8564,67 @@
       </c>
     </row>
     <row r="397" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A397" s="24"/>
-      <c r="B397" s="24"/>
-      <c r="C397" s="28"/>
-      <c r="D397" s="24"/>
-      <c r="E397" s="24"/>
+      <c r="A397" s="30"/>
+      <c r="B397" s="30"/>
+      <c r="C397" s="24"/>
+      <c r="D397" s="30"/>
+      <c r="E397" s="30"/>
       <c r="F397" s="15" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G397" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="H397" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A398" s="30"/>
+      <c r="B398" s="30"/>
+      <c r="C398" s="24"/>
+      <c r="D398" s="30"/>
+      <c r="E398" s="30"/>
+      <c r="F398" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="G398" s="15" t="s">
         <v>401</v>
       </c>
-      <c r="H397" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="398" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A398" s="24"/>
-      <c r="B398" s="24"/>
-      <c r="C398" s="28"/>
-      <c r="D398" s="24"/>
-      <c r="E398" s="24"/>
-      <c r="F398" s="15" t="s">
-        <v>406</v>
-      </c>
-      <c r="G398" s="15" t="s">
-        <v>403</v>
-      </c>
       <c r="H398" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="399" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A399" s="25"/>
-      <c r="B399" s="25"/>
-      <c r="C399" s="29"/>
-      <c r="D399" s="25"/>
-      <c r="E399" s="25"/>
+      <c r="A399" s="31"/>
+      <c r="B399" s="31"/>
+      <c r="C399" s="25"/>
+      <c r="D399" s="31"/>
+      <c r="E399" s="31"/>
       <c r="F399" s="15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G399" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H399" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="400" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A400" s="26">
+      <c r="A400" s="23">
         <v>47</v>
       </c>
-      <c r="B400" s="26" t="s">
+      <c r="B400" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="C400" s="26" t="s">
+      <c r="C400" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D400" s="26" t="s">
-        <v>376</v>
-      </c>
-      <c r="E400" s="26" t="s">
+      <c r="D400" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="E400" s="23" t="s">
         <v>133</v>
       </c>
       <c r="F400" s="12" t="s">
@@ -8632,11 +8638,11 @@
       </c>
     </row>
     <row r="401" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A401" s="24"/>
-      <c r="B401" s="24"/>
-      <c r="C401" s="28"/>
-      <c r="D401" s="24"/>
-      <c r="E401" s="24"/>
+      <c r="A401" s="30"/>
+      <c r="B401" s="30"/>
+      <c r="C401" s="24"/>
+      <c r="D401" s="30"/>
+      <c r="E401" s="30"/>
       <c r="F401" s="15" t="s">
         <v>172</v>
       </c>
@@ -8648,11 +8654,11 @@
       </c>
     </row>
     <row r="402" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A402" s="24"/>
-      <c r="B402" s="24"/>
-      <c r="C402" s="28"/>
-      <c r="D402" s="24"/>
-      <c r="E402" s="24"/>
+      <c r="A402" s="30"/>
+      <c r="B402" s="30"/>
+      <c r="C402" s="24"/>
+      <c r="D402" s="30"/>
+      <c r="E402" s="30"/>
       <c r="F402" s="12" t="s">
         <v>258</v>
       </c>
@@ -8664,11 +8670,11 @@
       </c>
     </row>
     <row r="403" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A403" s="24"/>
-      <c r="B403" s="24"/>
-      <c r="C403" s="28"/>
-      <c r="D403" s="24"/>
-      <c r="E403" s="24"/>
+      <c r="A403" s="30"/>
+      <c r="B403" s="30"/>
+      <c r="C403" s="24"/>
+      <c r="D403" s="30"/>
+      <c r="E403" s="30"/>
       <c r="F403" s="15" t="s">
         <v>173</v>
       </c>
@@ -8680,13 +8686,13 @@
       </c>
     </row>
     <row r="404" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A404" s="24"/>
-      <c r="B404" s="24"/>
-      <c r="C404" s="28"/>
-      <c r="D404" s="24"/>
-      <c r="E404" s="24"/>
+      <c r="A404" s="30"/>
+      <c r="B404" s="30"/>
+      <c r="C404" s="24"/>
+      <c r="D404" s="30"/>
+      <c r="E404" s="30"/>
       <c r="F404" s="15" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G404" s="15" t="s">
         <v>134</v>
@@ -8696,13 +8702,13 @@
       </c>
     </row>
     <row r="405" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A405" s="24"/>
-      <c r="B405" s="24"/>
-      <c r="C405" s="28"/>
-      <c r="D405" s="24"/>
-      <c r="E405" s="24"/>
+      <c r="A405" s="30"/>
+      <c r="B405" s="30"/>
+      <c r="C405" s="24"/>
+      <c r="D405" s="30"/>
+      <c r="E405" s="30"/>
       <c r="F405" s="15" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G405" s="15" t="s">
         <v>135</v>
@@ -8712,524 +8718,629 @@
       </c>
     </row>
     <row r="406" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A406" s="24"/>
-      <c r="B406" s="24"/>
-      <c r="C406" s="28"/>
-      <c r="D406" s="24"/>
-      <c r="E406" s="24"/>
+      <c r="A406" s="30"/>
+      <c r="B406" s="30"/>
+      <c r="C406" s="24"/>
+      <c r="D406" s="30"/>
+      <c r="E406" s="30"/>
       <c r="F406" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="G406" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="H406" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A407" s="30"/>
+      <c r="B407" s="30"/>
+      <c r="C407" s="24"/>
+      <c r="D407" s="30"/>
+      <c r="E407" s="30"/>
+      <c r="F407" s="15" t="s">
         <v>405</v>
       </c>
-      <c r="G406" s="15" t="s">
+      <c r="G407" s="15" t="s">
         <v>401</v>
       </c>
-      <c r="H406" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="407" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A407" s="24"/>
-      <c r="B407" s="24"/>
-      <c r="C407" s="28"/>
-      <c r="D407" s="24"/>
-      <c r="E407" s="24"/>
-      <c r="F407" s="15" t="s">
+      <c r="H407" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A408" s="31"/>
+      <c r="B408" s="31"/>
+      <c r="C408" s="25"/>
+      <c r="D408" s="31"/>
+      <c r="E408" s="31"/>
+      <c r="F408" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="G408" s="15" t="s">
         <v>407</v>
       </c>
-      <c r="G407" s="15" t="s">
-        <v>403</v>
-      </c>
-      <c r="H407" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="408" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A408" s="25"/>
-      <c r="B408" s="25"/>
-      <c r="C408" s="29"/>
-      <c r="D408" s="25"/>
-      <c r="E408" s="25"/>
-      <c r="F408" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="G408" s="15" t="s">
-        <v>409</v>
-      </c>
       <c r="H408" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="409" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A409" s="30"/>
-      <c r="B409" s="30"/>
+      <c r="A409" s="34"/>
+      <c r="B409" s="34"/>
       <c r="C409" s="3"/>
-      <c r="D409" s="30"/>
-      <c r="E409" s="30"/>
+      <c r="D409" s="34"/>
+      <c r="E409" s="34"/>
       <c r="F409" s="16"/>
       <c r="G409" s="16"/>
       <c r="H409" s="17"/>
     </row>
     <row r="410" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A410" s="31"/>
-      <c r="B410" s="31"/>
-      <c r="D410" s="31"/>
-      <c r="E410" s="31"/>
+      <c r="A410" s="35"/>
+      <c r="B410" s="35"/>
+      <c r="D410" s="35"/>
+      <c r="E410" s="35"/>
       <c r="F410" s="2"/>
       <c r="G410" s="2"/>
     </row>
     <row r="411" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A411" s="31"/>
-      <c r="B411" s="31"/>
-      <c r="D411" s="31"/>
-      <c r="E411" s="31"/>
+      <c r="A411" s="35"/>
+      <c r="B411" s="35"/>
+      <c r="D411" s="35"/>
+      <c r="E411" s="35"/>
       <c r="F411" s="2"/>
       <c r="G411" s="2"/>
     </row>
     <row r="412" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A412" s="31"/>
-      <c r="B412" s="31"/>
-      <c r="D412" s="31"/>
-      <c r="E412" s="31"/>
+      <c r="A412" s="35"/>
+      <c r="B412" s="35"/>
+      <c r="D412" s="35"/>
+      <c r="E412" s="35"/>
       <c r="F412" s="2"/>
       <c r="G412" s="2"/>
     </row>
     <row r="413" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A413" s="31"/>
-      <c r="B413" s="31"/>
-      <c r="D413" s="31"/>
-      <c r="E413" s="31"/>
+      <c r="A413" s="35"/>
+      <c r="B413" s="35"/>
+      <c r="D413" s="35"/>
+      <c r="E413" s="35"/>
       <c r="F413" s="2"/>
       <c r="G413" s="2"/>
     </row>
     <row r="414" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A414" s="31"/>
-      <c r="B414" s="31"/>
-      <c r="D414" s="31"/>
-      <c r="E414" s="31"/>
+      <c r="A414" s="35"/>
+      <c r="B414" s="35"/>
+      <c r="D414" s="35"/>
+      <c r="E414" s="35"/>
       <c r="F414" s="2"/>
       <c r="G414" s="2"/>
     </row>
     <row r="415" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A415" s="31"/>
-      <c r="B415" s="31"/>
-      <c r="D415" s="31"/>
-      <c r="E415" s="31"/>
+      <c r="A415" s="35"/>
+      <c r="B415" s="35"/>
+      <c r="D415" s="35"/>
+      <c r="E415" s="35"/>
       <c r="F415" s="2"/>
       <c r="G415" s="2"/>
     </row>
     <row r="416" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A416" s="31"/>
-      <c r="B416" s="31"/>
-      <c r="D416" s="31"/>
-      <c r="E416" s="31"/>
+      <c r="A416" s="35"/>
+      <c r="B416" s="35"/>
+      <c r="D416" s="35"/>
+      <c r="E416" s="35"/>
       <c r="F416" s="2"/>
       <c r="G416" s="2"/>
     </row>
     <row r="417" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A417" s="31"/>
-      <c r="B417" s="31"/>
-      <c r="D417" s="31"/>
-      <c r="E417" s="31"/>
+      <c r="A417" s="35"/>
+      <c r="B417" s="35"/>
+      <c r="D417" s="35"/>
+      <c r="E417" s="35"/>
       <c r="F417" s="2"/>
       <c r="G417" s="2"/>
     </row>
     <row r="418" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A418" s="31"/>
-      <c r="B418" s="31"/>
-      <c r="D418" s="31"/>
-      <c r="E418" s="31"/>
+      <c r="A418" s="35"/>
+      <c r="B418" s="35"/>
+      <c r="D418" s="35"/>
+      <c r="E418" s="35"/>
       <c r="F418" s="2"/>
       <c r="G418" s="2"/>
     </row>
     <row r="419" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A419" s="30"/>
-      <c r="B419" s="30"/>
+      <c r="A419" s="34"/>
+      <c r="B419" s="34"/>
       <c r="C419" s="3"/>
-      <c r="D419" s="30"/>
-      <c r="E419" s="30"/>
+      <c r="D419" s="34"/>
+      <c r="E419" s="34"/>
       <c r="F419" s="2"/>
       <c r="G419" s="2"/>
     </row>
     <row r="420" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A420" s="31"/>
-      <c r="B420" s="31"/>
-      <c r="D420" s="31"/>
-      <c r="E420" s="31"/>
+      <c r="A420" s="35"/>
+      <c r="B420" s="35"/>
+      <c r="D420" s="35"/>
+      <c r="E420" s="35"/>
       <c r="F420" s="2"/>
       <c r="G420" s="2"/>
     </row>
     <row r="421" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A421" s="31"/>
-      <c r="B421" s="31"/>
-      <c r="D421" s="31"/>
-      <c r="E421" s="31"/>
+      <c r="A421" s="35"/>
+      <c r="B421" s="35"/>
+      <c r="D421" s="35"/>
+      <c r="E421" s="35"/>
       <c r="F421" s="2"/>
       <c r="G421" s="2"/>
     </row>
     <row r="422" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A422" s="31"/>
-      <c r="B422" s="31"/>
-      <c r="D422" s="31"/>
-      <c r="E422" s="31"/>
+      <c r="A422" s="35"/>
+      <c r="B422" s="35"/>
+      <c r="D422" s="35"/>
+      <c r="E422" s="35"/>
       <c r="F422" s="2"/>
       <c r="G422" s="2"/>
     </row>
     <row r="423" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A423" s="31"/>
-      <c r="B423" s="31"/>
-      <c r="D423" s="31"/>
-      <c r="E423" s="31"/>
+      <c r="A423" s="35"/>
+      <c r="B423" s="35"/>
+      <c r="D423" s="35"/>
+      <c r="E423" s="35"/>
       <c r="F423" s="2"/>
       <c r="G423" s="2"/>
     </row>
     <row r="424" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A424" s="31"/>
-      <c r="B424" s="31"/>
-      <c r="D424" s="31"/>
-      <c r="E424" s="31"/>
+      <c r="A424" s="35"/>
+      <c r="B424" s="35"/>
+      <c r="D424" s="35"/>
+      <c r="E424" s="35"/>
       <c r="F424" s="2"/>
       <c r="G424" s="2"/>
     </row>
     <row r="425" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A425" s="31"/>
-      <c r="B425" s="31"/>
-      <c r="D425" s="31"/>
-      <c r="E425" s="31"/>
+      <c r="A425" s="35"/>
+      <c r="B425" s="35"/>
+      <c r="D425" s="35"/>
+      <c r="E425" s="35"/>
       <c r="F425" s="2"/>
       <c r="G425" s="2"/>
     </row>
     <row r="426" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A426" s="31"/>
-      <c r="B426" s="31"/>
-      <c r="D426" s="31"/>
-      <c r="E426" s="31"/>
+      <c r="A426" s="35"/>
+      <c r="B426" s="35"/>
+      <c r="D426" s="35"/>
+      <c r="E426" s="35"/>
       <c r="F426" s="2"/>
       <c r="G426" s="2"/>
     </row>
     <row r="427" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A427" s="31"/>
-      <c r="B427" s="31"/>
-      <c r="D427" s="31"/>
-      <c r="E427" s="31"/>
+      <c r="A427" s="35"/>
+      <c r="B427" s="35"/>
+      <c r="D427" s="35"/>
+      <c r="E427" s="35"/>
       <c r="F427" s="2"/>
       <c r="G427" s="2"/>
     </row>
     <row r="428" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A428" s="31"/>
-      <c r="B428" s="31"/>
-      <c r="D428" s="31"/>
-      <c r="E428" s="31"/>
+      <c r="A428" s="35"/>
+      <c r="B428" s="35"/>
+      <c r="D428" s="35"/>
+      <c r="E428" s="35"/>
       <c r="F428" s="2"/>
       <c r="G428" s="2"/>
     </row>
     <row r="429" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A429" s="30"/>
-      <c r="B429" s="30"/>
+      <c r="A429" s="34"/>
+      <c r="B429" s="34"/>
       <c r="C429" s="3"/>
-      <c r="D429" s="30"/>
-      <c r="E429" s="30"/>
+      <c r="D429" s="34"/>
+      <c r="E429" s="34"/>
       <c r="F429" s="2"/>
       <c r="G429" s="2"/>
     </row>
     <row r="430" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A430" s="31"/>
-      <c r="B430" s="31"/>
-      <c r="D430" s="31"/>
-      <c r="E430" s="31"/>
+      <c r="A430" s="35"/>
+      <c r="B430" s="35"/>
+      <c r="D430" s="35"/>
+      <c r="E430" s="35"/>
       <c r="F430" s="2"/>
       <c r="G430" s="2"/>
     </row>
     <row r="431" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A431" s="31"/>
-      <c r="B431" s="31"/>
-      <c r="D431" s="31"/>
-      <c r="E431" s="31"/>
+      <c r="A431" s="35"/>
+      <c r="B431" s="35"/>
+      <c r="D431" s="35"/>
+      <c r="E431" s="35"/>
       <c r="F431" s="2"/>
       <c r="G431" s="2"/>
     </row>
     <row r="432" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A432" s="31"/>
-      <c r="B432" s="31"/>
-      <c r="D432" s="31"/>
-      <c r="E432" s="31"/>
+      <c r="A432" s="35"/>
+      <c r="B432" s="35"/>
+      <c r="D432" s="35"/>
+      <c r="E432" s="35"/>
       <c r="F432" s="2"/>
       <c r="G432" s="2"/>
     </row>
     <row r="433" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A433" s="31"/>
-      <c r="B433" s="31"/>
-      <c r="D433" s="31"/>
-      <c r="E433" s="31"/>
+      <c r="A433" s="35"/>
+      <c r="B433" s="35"/>
+      <c r="D433" s="35"/>
+      <c r="E433" s="35"/>
       <c r="F433" s="2"/>
       <c r="G433" s="2"/>
     </row>
     <row r="434" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A434" s="31"/>
-      <c r="B434" s="31"/>
-      <c r="D434" s="31"/>
-      <c r="E434" s="31"/>
+      <c r="A434" s="35"/>
+      <c r="B434" s="35"/>
+      <c r="D434" s="35"/>
+      <c r="E434" s="35"/>
       <c r="F434" s="2"/>
       <c r="G434" s="2"/>
     </row>
     <row r="435" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A435" s="31"/>
-      <c r="B435" s="31"/>
-      <c r="D435" s="31"/>
-      <c r="E435" s="31"/>
+      <c r="A435" s="35"/>
+      <c r="B435" s="35"/>
+      <c r="D435" s="35"/>
+      <c r="E435" s="35"/>
       <c r="F435" s="2"/>
       <c r="G435" s="2"/>
     </row>
     <row r="436" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A436" s="31"/>
-      <c r="B436" s="31"/>
-      <c r="D436" s="31"/>
-      <c r="E436" s="31"/>
+      <c r="A436" s="35"/>
+      <c r="B436" s="35"/>
+      <c r="D436" s="35"/>
+      <c r="E436" s="35"/>
       <c r="F436" s="2"/>
       <c r="G436" s="2"/>
     </row>
     <row r="437" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A437" s="31"/>
-      <c r="B437" s="31"/>
-      <c r="D437" s="31"/>
-      <c r="E437" s="31"/>
+      <c r="A437" s="35"/>
+      <c r="B437" s="35"/>
+      <c r="D437" s="35"/>
+      <c r="E437" s="35"/>
       <c r="F437" s="2"/>
       <c r="G437" s="2"/>
     </row>
     <row r="438" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A438" s="31"/>
-      <c r="B438" s="31"/>
-      <c r="D438" s="31"/>
-      <c r="E438" s="31"/>
+      <c r="A438" s="35"/>
+      <c r="B438" s="35"/>
+      <c r="D438" s="35"/>
+      <c r="E438" s="35"/>
       <c r="F438" s="2"/>
       <c r="G438" s="2"/>
     </row>
     <row r="439" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A439" s="30"/>
-      <c r="B439" s="30"/>
+      <c r="A439" s="34"/>
+      <c r="B439" s="34"/>
       <c r="C439" s="3"/>
-      <c r="D439" s="30"/>
-      <c r="E439" s="30"/>
+      <c r="D439" s="34"/>
+      <c r="E439" s="34"/>
       <c r="F439" s="2"/>
       <c r="G439" s="2"/>
     </row>
     <row r="440" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A440" s="31"/>
-      <c r="B440" s="31"/>
-      <c r="D440" s="31"/>
-      <c r="E440" s="31"/>
+      <c r="A440" s="35"/>
+      <c r="B440" s="35"/>
+      <c r="D440" s="35"/>
+      <c r="E440" s="35"/>
       <c r="F440" s="2"/>
       <c r="G440" s="2"/>
     </row>
     <row r="441" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A441" s="31"/>
-      <c r="B441" s="31"/>
-      <c r="D441" s="31"/>
-      <c r="E441" s="31"/>
+      <c r="A441" s="35"/>
+      <c r="B441" s="35"/>
+      <c r="D441" s="35"/>
+      <c r="E441" s="35"/>
       <c r="F441" s="2"/>
       <c r="G441" s="2"/>
     </row>
     <row r="442" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A442" s="31"/>
-      <c r="B442" s="31"/>
-      <c r="D442" s="31"/>
-      <c r="E442" s="31"/>
+      <c r="A442" s="35"/>
+      <c r="B442" s="35"/>
+      <c r="D442" s="35"/>
+      <c r="E442" s="35"/>
       <c r="F442" s="2"/>
       <c r="G442" s="2"/>
     </row>
     <row r="443" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A443" s="31"/>
-      <c r="B443" s="31"/>
-      <c r="D443" s="31"/>
-      <c r="E443" s="31"/>
+      <c r="A443" s="35"/>
+      <c r="B443" s="35"/>
+      <c r="D443" s="35"/>
+      <c r="E443" s="35"/>
       <c r="F443" s="2"/>
       <c r="G443" s="2"/>
     </row>
     <row r="444" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A444" s="31"/>
-      <c r="B444" s="31"/>
-      <c r="D444" s="31"/>
-      <c r="E444" s="31"/>
+      <c r="A444" s="35"/>
+      <c r="B444" s="35"/>
+      <c r="D444" s="35"/>
+      <c r="E444" s="35"/>
       <c r="F444" s="2"/>
       <c r="G444" s="2"/>
     </row>
     <row r="445" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A445" s="31"/>
-      <c r="B445" s="31"/>
-      <c r="D445" s="31"/>
-      <c r="E445" s="31"/>
+      <c r="A445" s="35"/>
+      <c r="B445" s="35"/>
+      <c r="D445" s="35"/>
+      <c r="E445" s="35"/>
       <c r="F445" s="2"/>
       <c r="G445" s="2"/>
     </row>
     <row r="446" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A446" s="31"/>
-      <c r="B446" s="31"/>
-      <c r="D446" s="31"/>
-      <c r="E446" s="31"/>
+      <c r="A446" s="35"/>
+      <c r="B446" s="35"/>
+      <c r="D446" s="35"/>
+      <c r="E446" s="35"/>
       <c r="F446" s="2"/>
       <c r="G446" s="2"/>
     </row>
     <row r="447" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A447" s="31"/>
-      <c r="B447" s="31"/>
-      <c r="D447" s="31"/>
-      <c r="E447" s="31"/>
+      <c r="A447" s="35"/>
+      <c r="B447" s="35"/>
+      <c r="D447" s="35"/>
+      <c r="E447" s="35"/>
       <c r="F447" s="2"/>
       <c r="G447" s="2"/>
     </row>
     <row r="448" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A448" s="31"/>
-      <c r="B448" s="31"/>
-      <c r="D448" s="31"/>
-      <c r="E448" s="31"/>
+      <c r="A448" s="35"/>
+      <c r="B448" s="35"/>
+      <c r="D448" s="35"/>
+      <c r="E448" s="35"/>
       <c r="F448" s="2"/>
       <c r="G448" s="2"/>
     </row>
     <row r="449" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A449" s="30"/>
-      <c r="B449" s="30"/>
+      <c r="A449" s="34"/>
+      <c r="B449" s="34"/>
       <c r="C449" s="3"/>
-      <c r="D449" s="30"/>
-      <c r="E449" s="30"/>
+      <c r="D449" s="34"/>
+      <c r="E449" s="34"/>
       <c r="F449" s="2"/>
       <c r="G449" s="2"/>
     </row>
     <row r="450" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A450" s="31"/>
-      <c r="B450" s="31"/>
-      <c r="D450" s="31"/>
-      <c r="E450" s="31"/>
+      <c r="A450" s="35"/>
+      <c r="B450" s="35"/>
+      <c r="D450" s="35"/>
+      <c r="E450" s="35"/>
       <c r="F450" s="2"/>
       <c r="G450" s="2"/>
     </row>
     <row r="451" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A451" s="31"/>
-      <c r="B451" s="31"/>
-      <c r="D451" s="31"/>
-      <c r="E451" s="31"/>
+      <c r="A451" s="35"/>
+      <c r="B451" s="35"/>
+      <c r="D451" s="35"/>
+      <c r="E451" s="35"/>
       <c r="F451" s="2"/>
       <c r="G451" s="2"/>
     </row>
     <row r="452" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A452" s="31"/>
-      <c r="B452" s="31"/>
-      <c r="D452" s="31"/>
-      <c r="E452" s="31"/>
+      <c r="A452" s="35"/>
+      <c r="B452" s="35"/>
+      <c r="D452" s="35"/>
+      <c r="E452" s="35"/>
       <c r="F452" s="2"/>
       <c r="G452" s="2"/>
     </row>
     <row r="453" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A453" s="31"/>
-      <c r="B453" s="31"/>
-      <c r="D453" s="31"/>
-      <c r="E453" s="31"/>
+      <c r="A453" s="35"/>
+      <c r="B453" s="35"/>
+      <c r="D453" s="35"/>
+      <c r="E453" s="35"/>
       <c r="F453" s="2"/>
       <c r="G453" s="2"/>
     </row>
     <row r="454" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A454" s="31"/>
-      <c r="B454" s="31"/>
-      <c r="D454" s="31"/>
-      <c r="E454" s="31"/>
+      <c r="A454" s="35"/>
+      <c r="B454" s="35"/>
+      <c r="D454" s="35"/>
+      <c r="E454" s="35"/>
       <c r="F454" s="2"/>
       <c r="G454" s="2"/>
     </row>
     <row r="455" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A455" s="31"/>
-      <c r="B455" s="31"/>
-      <c r="D455" s="31"/>
-      <c r="E455" s="31"/>
+      <c r="A455" s="35"/>
+      <c r="B455" s="35"/>
+      <c r="D455" s="35"/>
+      <c r="E455" s="35"/>
       <c r="F455" s="2"/>
       <c r="G455" s="2"/>
     </row>
     <row r="456" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A456" s="31"/>
-      <c r="B456" s="31"/>
-      <c r="D456" s="31"/>
-      <c r="E456" s="31"/>
+      <c r="A456" s="35"/>
+      <c r="B456" s="35"/>
+      <c r="D456" s="35"/>
+      <c r="E456" s="35"/>
       <c r="F456" s="2"/>
       <c r="G456" s="2"/>
     </row>
     <row r="457" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A457" s="31"/>
-      <c r="B457" s="31"/>
-      <c r="D457" s="31"/>
-      <c r="E457" s="31"/>
+      <c r="A457" s="35"/>
+      <c r="B457" s="35"/>
+      <c r="D457" s="35"/>
+      <c r="E457" s="35"/>
       <c r="F457" s="2"/>
       <c r="G457" s="2"/>
     </row>
     <row r="458" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A458" s="31"/>
-      <c r="B458" s="31"/>
-      <c r="D458" s="31"/>
-      <c r="E458" s="31"/>
+      <c r="A458" s="35"/>
+      <c r="B458" s="35"/>
+      <c r="D458" s="35"/>
+      <c r="E458" s="35"/>
       <c r="F458" s="2"/>
       <c r="G458" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="255">
-    <mergeCell ref="C45:C50"/>
-    <mergeCell ref="C51:C56"/>
-    <mergeCell ref="C57:C63"/>
-    <mergeCell ref="C64:C71"/>
-    <mergeCell ref="C72:C76"/>
-    <mergeCell ref="C77:C83"/>
-    <mergeCell ref="C84:C91"/>
-    <mergeCell ref="C382:C390"/>
-    <mergeCell ref="C391:C399"/>
-    <mergeCell ref="C211:C222"/>
-    <mergeCell ref="C223:C232"/>
-    <mergeCell ref="C233:C243"/>
-    <mergeCell ref="C244:C257"/>
-    <mergeCell ref="C258:C268"/>
-    <mergeCell ref="C269:C277"/>
-    <mergeCell ref="C278:C297"/>
-    <mergeCell ref="C298:C307"/>
-    <mergeCell ref="C308:C316"/>
-    <mergeCell ref="E258:E268"/>
-    <mergeCell ref="A233:A243"/>
-    <mergeCell ref="A244:A257"/>
-    <mergeCell ref="B244:B257"/>
-    <mergeCell ref="D244:D257"/>
-    <mergeCell ref="E244:E257"/>
-    <mergeCell ref="A258:A268"/>
-    <mergeCell ref="E233:E243"/>
-    <mergeCell ref="B233:B243"/>
-    <mergeCell ref="D233:D243"/>
-    <mergeCell ref="B258:B268"/>
-    <mergeCell ref="D258:D268"/>
-    <mergeCell ref="D167:D174"/>
-    <mergeCell ref="E167:E174"/>
-    <mergeCell ref="D175:D181"/>
-    <mergeCell ref="E175:E181"/>
-    <mergeCell ref="A161:A166"/>
-    <mergeCell ref="B161:B166"/>
-    <mergeCell ref="D161:D166"/>
-    <mergeCell ref="E161:E166"/>
-    <mergeCell ref="B167:B174"/>
-    <mergeCell ref="A167:A174"/>
-    <mergeCell ref="C161:C166"/>
-    <mergeCell ref="C167:C174"/>
-    <mergeCell ref="C175:C181"/>
-    <mergeCell ref="B182:B201"/>
-    <mergeCell ref="D182:D201"/>
-    <mergeCell ref="E182:E201"/>
-    <mergeCell ref="A175:A181"/>
-    <mergeCell ref="B175:B181"/>
-    <mergeCell ref="E211:E222"/>
-    <mergeCell ref="E223:E232"/>
-    <mergeCell ref="A182:A201"/>
-    <mergeCell ref="A202:A210"/>
-    <mergeCell ref="B202:B210"/>
-    <mergeCell ref="D202:D210"/>
-    <mergeCell ref="E202:E210"/>
-    <mergeCell ref="A211:A222"/>
-    <mergeCell ref="B211:B222"/>
-    <mergeCell ref="D211:D222"/>
-    <mergeCell ref="A223:A232"/>
-    <mergeCell ref="B223:B232"/>
-    <mergeCell ref="D223:D232"/>
-    <mergeCell ref="C182:C201"/>
-    <mergeCell ref="C202:C210"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="B57:B63"/>
+    <mergeCell ref="D57:D63"/>
+    <mergeCell ref="E57:E63"/>
+    <mergeCell ref="B64:B71"/>
+    <mergeCell ref="D64:D71"/>
+    <mergeCell ref="E64:E71"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="D72:D76"/>
+    <mergeCell ref="E72:E76"/>
+    <mergeCell ref="A64:A71"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A449:A458"/>
+    <mergeCell ref="B449:B458"/>
+    <mergeCell ref="D449:D458"/>
+    <mergeCell ref="E449:E458"/>
+    <mergeCell ref="B419:B428"/>
+    <mergeCell ref="D419:D428"/>
+    <mergeCell ref="A429:A438"/>
+    <mergeCell ref="B429:B438"/>
+    <mergeCell ref="D429:D438"/>
+    <mergeCell ref="B439:B448"/>
+    <mergeCell ref="D439:D448"/>
+    <mergeCell ref="E419:E428"/>
+    <mergeCell ref="E429:E438"/>
+    <mergeCell ref="E439:E448"/>
+    <mergeCell ref="A400:A408"/>
+    <mergeCell ref="A409:A418"/>
+    <mergeCell ref="B409:B418"/>
+    <mergeCell ref="D409:D418"/>
+    <mergeCell ref="E409:E418"/>
+    <mergeCell ref="A419:A428"/>
+    <mergeCell ref="A439:A448"/>
+    <mergeCell ref="D400:D408"/>
+    <mergeCell ref="B400:B408"/>
+    <mergeCell ref="E400:E408"/>
+    <mergeCell ref="C400:C408"/>
+    <mergeCell ref="D77:D83"/>
+    <mergeCell ref="E77:E83"/>
+    <mergeCell ref="E84:E91"/>
+    <mergeCell ref="E122:E128"/>
+    <mergeCell ref="B122:B128"/>
+    <mergeCell ref="D122:D128"/>
+    <mergeCell ref="A122:A128"/>
+    <mergeCell ref="A116:A121"/>
+    <mergeCell ref="B116:B121"/>
+    <mergeCell ref="D116:D121"/>
+    <mergeCell ref="E116:E121"/>
+    <mergeCell ref="D84:D91"/>
+    <mergeCell ref="A92:A99"/>
+    <mergeCell ref="B92:B99"/>
+    <mergeCell ref="D92:D99"/>
+    <mergeCell ref="E92:E99"/>
+    <mergeCell ref="C92:C99"/>
+    <mergeCell ref="B154:B160"/>
+    <mergeCell ref="D154:D160"/>
+    <mergeCell ref="E154:E160"/>
+    <mergeCell ref="E129:E133"/>
+    <mergeCell ref="E134:E140"/>
+    <mergeCell ref="B134:B140"/>
+    <mergeCell ref="C148:C153"/>
+    <mergeCell ref="C154:C160"/>
+    <mergeCell ref="A391:A399"/>
+    <mergeCell ref="B391:B399"/>
+    <mergeCell ref="D391:D399"/>
+    <mergeCell ref="E391:E399"/>
+    <mergeCell ref="E148:E153"/>
+    <mergeCell ref="B148:B153"/>
+    <mergeCell ref="A148:A153"/>
+    <mergeCell ref="A154:A160"/>
+    <mergeCell ref="B141:B147"/>
+    <mergeCell ref="D141:D147"/>
+    <mergeCell ref="E141:E147"/>
+    <mergeCell ref="D148:D153"/>
+    <mergeCell ref="A134:A140"/>
+    <mergeCell ref="A129:A133"/>
+    <mergeCell ref="B129:B133"/>
+    <mergeCell ref="D129:D133"/>
+    <mergeCell ref="D134:D140"/>
+    <mergeCell ref="A141:A147"/>
+    <mergeCell ref="E100:E107"/>
+    <mergeCell ref="E108:E115"/>
+    <mergeCell ref="A100:A107"/>
+    <mergeCell ref="B100:B107"/>
+    <mergeCell ref="D100:D107"/>
+    <mergeCell ref="B108:B115"/>
+    <mergeCell ref="D108:D115"/>
+    <mergeCell ref="A108:A115"/>
+    <mergeCell ref="C100:C107"/>
+    <mergeCell ref="C108:C115"/>
+    <mergeCell ref="C116:C121"/>
+    <mergeCell ref="C122:C128"/>
+    <mergeCell ref="C129:C133"/>
+    <mergeCell ref="C134:C140"/>
+    <mergeCell ref="C141:C147"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="D25:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="D2:D11"/>
+    <mergeCell ref="E2:E11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="E25:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="D33:D38"/>
+    <mergeCell ref="E33:E38"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="B84:B91"/>
+    <mergeCell ref="A84:A91"/>
+    <mergeCell ref="A77:A83"/>
+    <mergeCell ref="B77:B83"/>
+    <mergeCell ref="E51:E56"/>
+    <mergeCell ref="E39:E44"/>
+    <mergeCell ref="E45:E50"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="D51:D56"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="D39:D44"/>
+    <mergeCell ref="A45:A50"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="D45:D50"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="D308:D316"/>
+    <mergeCell ref="E308:E316"/>
+    <mergeCell ref="D345:D360"/>
+    <mergeCell ref="C317:C337"/>
+    <mergeCell ref="C338:C344"/>
+    <mergeCell ref="A382:A390"/>
+    <mergeCell ref="B382:B390"/>
+    <mergeCell ref="D382:D390"/>
+    <mergeCell ref="E382:E390"/>
+    <mergeCell ref="E375:E381"/>
+    <mergeCell ref="B375:B381"/>
+    <mergeCell ref="D375:D381"/>
+    <mergeCell ref="A345:A360"/>
+    <mergeCell ref="A361:A374"/>
+    <mergeCell ref="B361:B374"/>
+    <mergeCell ref="D361:D374"/>
+    <mergeCell ref="E361:E374"/>
+    <mergeCell ref="A375:A381"/>
+    <mergeCell ref="C345:C360"/>
+    <mergeCell ref="C361:C374"/>
+    <mergeCell ref="C375:C381"/>
     <mergeCell ref="A269:A277"/>
     <mergeCell ref="B269:B277"/>
     <mergeCell ref="D269:D277"/>
@@ -9254,174 +9365,69 @@
     <mergeCell ref="A317:A337"/>
     <mergeCell ref="A308:A316"/>
     <mergeCell ref="B308:B316"/>
-    <mergeCell ref="D308:D316"/>
-    <mergeCell ref="E308:E316"/>
-    <mergeCell ref="D345:D360"/>
-    <mergeCell ref="C317:C337"/>
-    <mergeCell ref="C338:C344"/>
-    <mergeCell ref="A382:A390"/>
-    <mergeCell ref="B382:B390"/>
-    <mergeCell ref="D382:D390"/>
-    <mergeCell ref="E382:E390"/>
-    <mergeCell ref="E375:E381"/>
-    <mergeCell ref="B375:B381"/>
-    <mergeCell ref="D375:D381"/>
-    <mergeCell ref="A345:A360"/>
-    <mergeCell ref="A361:A374"/>
-    <mergeCell ref="B361:B374"/>
-    <mergeCell ref="D361:D374"/>
-    <mergeCell ref="E361:E374"/>
-    <mergeCell ref="A375:A381"/>
-    <mergeCell ref="C345:C360"/>
-    <mergeCell ref="C361:C374"/>
-    <mergeCell ref="C375:C381"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="D33:D38"/>
-    <mergeCell ref="E33:E38"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="B84:B91"/>
-    <mergeCell ref="A84:A91"/>
-    <mergeCell ref="A77:A83"/>
-    <mergeCell ref="B77:B83"/>
-    <mergeCell ref="E51:E56"/>
-    <mergeCell ref="E39:E44"/>
-    <mergeCell ref="E45:E50"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="D51:D56"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="D39:D44"/>
-    <mergeCell ref="A45:A50"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="D45:D50"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="D25:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="D2:D11"/>
-    <mergeCell ref="E2:E11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="E25:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="D134:D140"/>
-    <mergeCell ref="A141:A147"/>
-    <mergeCell ref="E100:E107"/>
-    <mergeCell ref="E108:E115"/>
-    <mergeCell ref="A100:A107"/>
-    <mergeCell ref="B100:B107"/>
-    <mergeCell ref="D100:D107"/>
-    <mergeCell ref="B108:B115"/>
-    <mergeCell ref="D108:D115"/>
-    <mergeCell ref="A108:A115"/>
-    <mergeCell ref="C100:C107"/>
-    <mergeCell ref="C108:C115"/>
-    <mergeCell ref="C116:C121"/>
-    <mergeCell ref="C122:C128"/>
-    <mergeCell ref="C129:C133"/>
-    <mergeCell ref="C134:C140"/>
-    <mergeCell ref="C141:C147"/>
-    <mergeCell ref="B154:B160"/>
-    <mergeCell ref="D154:D160"/>
-    <mergeCell ref="E154:E160"/>
-    <mergeCell ref="E129:E133"/>
-    <mergeCell ref="E134:E140"/>
-    <mergeCell ref="B134:B140"/>
-    <mergeCell ref="C148:C153"/>
-    <mergeCell ref="C154:C160"/>
-    <mergeCell ref="A391:A399"/>
-    <mergeCell ref="B391:B399"/>
-    <mergeCell ref="D391:D399"/>
-    <mergeCell ref="E391:E399"/>
-    <mergeCell ref="E148:E153"/>
-    <mergeCell ref="B148:B153"/>
-    <mergeCell ref="A148:A153"/>
-    <mergeCell ref="A154:A160"/>
-    <mergeCell ref="B141:B147"/>
-    <mergeCell ref="D141:D147"/>
-    <mergeCell ref="E141:E147"/>
-    <mergeCell ref="D148:D153"/>
-    <mergeCell ref="A134:A140"/>
-    <mergeCell ref="A129:A133"/>
-    <mergeCell ref="B129:B133"/>
-    <mergeCell ref="D129:D133"/>
-    <mergeCell ref="D77:D83"/>
-    <mergeCell ref="E77:E83"/>
-    <mergeCell ref="E84:E91"/>
-    <mergeCell ref="E122:E128"/>
-    <mergeCell ref="B122:B128"/>
-    <mergeCell ref="D122:D128"/>
-    <mergeCell ref="A122:A128"/>
-    <mergeCell ref="A116:A121"/>
-    <mergeCell ref="B116:B121"/>
-    <mergeCell ref="D116:D121"/>
-    <mergeCell ref="E116:E121"/>
-    <mergeCell ref="D84:D91"/>
-    <mergeCell ref="A92:A99"/>
-    <mergeCell ref="B92:B99"/>
-    <mergeCell ref="D92:D99"/>
-    <mergeCell ref="E92:E99"/>
-    <mergeCell ref="C92:C99"/>
-    <mergeCell ref="A400:A408"/>
-    <mergeCell ref="A409:A418"/>
-    <mergeCell ref="B409:B418"/>
-    <mergeCell ref="D409:D418"/>
-    <mergeCell ref="E409:E418"/>
-    <mergeCell ref="A419:A428"/>
-    <mergeCell ref="A439:A448"/>
-    <mergeCell ref="D400:D408"/>
-    <mergeCell ref="B400:B408"/>
-    <mergeCell ref="E400:E408"/>
-    <mergeCell ref="C400:C408"/>
-    <mergeCell ref="A449:A458"/>
-    <mergeCell ref="B449:B458"/>
-    <mergeCell ref="D449:D458"/>
-    <mergeCell ref="E449:E458"/>
-    <mergeCell ref="B419:B428"/>
-    <mergeCell ref="D419:D428"/>
-    <mergeCell ref="A429:A438"/>
-    <mergeCell ref="B429:B438"/>
-    <mergeCell ref="D429:D438"/>
-    <mergeCell ref="B439:B448"/>
-    <mergeCell ref="D439:D448"/>
-    <mergeCell ref="E419:E428"/>
-    <mergeCell ref="E429:E438"/>
-    <mergeCell ref="E439:E448"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="A57:A63"/>
-    <mergeCell ref="B57:B63"/>
-    <mergeCell ref="D57:D63"/>
-    <mergeCell ref="E57:E63"/>
-    <mergeCell ref="B64:B71"/>
-    <mergeCell ref="D64:D71"/>
-    <mergeCell ref="E64:E71"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="D72:D76"/>
-    <mergeCell ref="E72:E76"/>
-    <mergeCell ref="A64:A71"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="B182:B201"/>
+    <mergeCell ref="D182:D201"/>
+    <mergeCell ref="E182:E201"/>
+    <mergeCell ref="A175:A181"/>
+    <mergeCell ref="B175:B181"/>
+    <mergeCell ref="E211:E222"/>
+    <mergeCell ref="E223:E232"/>
+    <mergeCell ref="A182:A201"/>
+    <mergeCell ref="A202:A210"/>
+    <mergeCell ref="B202:B210"/>
+    <mergeCell ref="D202:D210"/>
+    <mergeCell ref="E202:E210"/>
+    <mergeCell ref="A211:A222"/>
+    <mergeCell ref="B211:B222"/>
+    <mergeCell ref="D211:D222"/>
+    <mergeCell ref="A223:A232"/>
+    <mergeCell ref="B223:B232"/>
+    <mergeCell ref="D223:D232"/>
+    <mergeCell ref="C182:C201"/>
+    <mergeCell ref="C202:C210"/>
+    <mergeCell ref="D167:D174"/>
+    <mergeCell ref="E167:E174"/>
+    <mergeCell ref="D175:D181"/>
+    <mergeCell ref="E175:E181"/>
+    <mergeCell ref="A161:A166"/>
+    <mergeCell ref="B161:B166"/>
+    <mergeCell ref="D161:D166"/>
+    <mergeCell ref="E161:E166"/>
+    <mergeCell ref="B167:B174"/>
+    <mergeCell ref="A167:A174"/>
+    <mergeCell ref="C161:C166"/>
+    <mergeCell ref="C167:C174"/>
+    <mergeCell ref="C175:C181"/>
+    <mergeCell ref="E258:E268"/>
+    <mergeCell ref="A233:A243"/>
+    <mergeCell ref="A244:A257"/>
+    <mergeCell ref="B244:B257"/>
+    <mergeCell ref="D244:D257"/>
+    <mergeCell ref="E244:E257"/>
+    <mergeCell ref="A258:A268"/>
+    <mergeCell ref="E233:E243"/>
+    <mergeCell ref="B233:B243"/>
+    <mergeCell ref="D233:D243"/>
+    <mergeCell ref="B258:B268"/>
+    <mergeCell ref="D258:D268"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="C51:C56"/>
+    <mergeCell ref="C57:C63"/>
+    <mergeCell ref="C64:C71"/>
+    <mergeCell ref="C72:C76"/>
+    <mergeCell ref="C77:C83"/>
+    <mergeCell ref="C84:C91"/>
+    <mergeCell ref="C382:C390"/>
+    <mergeCell ref="C391:C399"/>
+    <mergeCell ref="C211:C222"/>
+    <mergeCell ref="C223:C232"/>
+    <mergeCell ref="C233:C243"/>
+    <mergeCell ref="C244:C257"/>
+    <mergeCell ref="C258:C268"/>
+    <mergeCell ref="C269:C277"/>
+    <mergeCell ref="C278:C297"/>
+    <mergeCell ref="C298:C307"/>
+    <mergeCell ref="C308:C316"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kotov\Desktop\diplom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09693CFF-B6B2-4754-9B6D-26ACB730EA11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A324DC8-2870-46E0-8F98-DDBD69BE43B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1490,16 +1490,32 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1507,22 +1523,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1743,8 +1743,8 @@
   </sheetPr>
   <dimension ref="A1:H458"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="G231" sqref="G231"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64:E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1786,19 +1786,19 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="31" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="12" t="s">
@@ -1812,11 +1812,11 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
       <c r="F3" s="12" t="s">
         <v>140</v>
       </c>
@@ -1828,11 +1828,11 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
       <c r="F4" s="12" t="s">
         <v>141</v>
       </c>
@@ -1844,11 +1844,11 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="13" t="s">
         <v>144</v>
       </c>
@@ -1860,11 +1860,11 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="13" t="s">
         <v>146</v>
       </c>
@@ -1876,11 +1876,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="20" t="s">
         <v>148</v>
       </c>
@@ -1892,11 +1892,11 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
       <c r="F8" s="13" t="s">
         <v>150</v>
       </c>
@@ -1908,11 +1908,11 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
       <c r="F9" s="20" t="s">
         <v>153</v>
       </c>
@@ -1924,11 +1924,11 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="13" t="s">
         <v>155</v>
       </c>
@@ -1940,11 +1940,11 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
       <c r="F11" s="13" t="s">
         <v>161</v>
       </c>
@@ -1956,19 +1956,19 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33">
+      <c r="A12" s="31">
         <v>2</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="31" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="12" t="s">
@@ -1982,11 +1982,11 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="12" t="s">
         <v>162</v>
       </c>
@@ -1998,11 +1998,11 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
       <c r="F14" s="12" t="s">
         <v>163</v>
       </c>
@@ -2014,11 +2014,11 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="12" t="s">
         <v>166</v>
       </c>
@@ -2030,11 +2030,11 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="12" t="s">
         <v>167</v>
       </c>
@@ -2046,19 +2046,19 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="33">
+      <c r="A17" s="31">
         <v>3</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="31" t="s">
         <v>7</v>
       </c>
       <c r="F17" s="12" t="s">
@@ -2072,11 +2072,11 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
       <c r="F18" s="13" t="s">
         <v>169</v>
       </c>
@@ -2088,11 +2088,11 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
       <c r="F19" s="13" t="s">
         <v>177</v>
       </c>
@@ -2104,11 +2104,11 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
       <c r="F20" s="13" t="s">
         <v>173</v>
       </c>
@@ -2120,19 +2120,19 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="23">
+      <c r="A21" s="26">
         <v>4</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="26" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="13" t="s">
@@ -2146,11 +2146,11 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="21" t="s">
         <v>172</v>
       </c>
@@ -2162,11 +2162,11 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
       <c r="F23" s="13" t="s">
         <v>178</v>
       </c>
@@ -2178,11 +2178,11 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
       <c r="F24" s="13" t="s">
         <v>173</v>
       </c>
@@ -2194,19 +2194,19 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A25" s="23">
+      <c r="A25" s="26">
         <v>5</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="26" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="13" t="s">
@@ -2220,11 +2220,11 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
       <c r="F26" s="21" t="s">
         <v>172</v>
       </c>
@@ -2236,11 +2236,11 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
       <c r="F27" s="13" t="s">
         <v>179</v>
       </c>
@@ -2252,11 +2252,11 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
       <c r="F28" s="21" t="s">
         <v>173</v>
       </c>
@@ -2268,11 +2268,11 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
       <c r="F29" s="15" t="s">
         <v>17</v>
       </c>
@@ -2284,11 +2284,11 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
       <c r="F30" s="21" t="s">
         <v>19</v>
       </c>
@@ -2300,19 +2300,19 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="23">
+      <c r="A31" s="26">
         <v>6</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="26" t="s">
         <v>7</v>
       </c>
       <c r="F31" s="13" t="s">
@@ -2326,11 +2326,11 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
       <c r="F32" s="21" t="s">
         <v>204</v>
       </c>
@@ -2342,19 +2342,19 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="23">
+      <c r="A33" s="26">
         <v>7</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E33" s="23" t="s">
+      <c r="E33" s="26" t="s">
         <v>7</v>
       </c>
       <c r="F33" s="13" t="s">
@@ -2368,11 +2368,11 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
       <c r="F34" s="21" t="s">
         <v>182</v>
       </c>
@@ -2384,11 +2384,11 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
       <c r="F35" s="21" t="s">
         <v>177</v>
       </c>
@@ -2400,11 +2400,11 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="30"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
       <c r="F36" s="21" t="s">
         <v>173</v>
       </c>
@@ -2416,11 +2416,11 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A37" s="30"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
       <c r="F37" s="21" t="s">
         <v>183</v>
       </c>
@@ -2432,11 +2432,11 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
       <c r="F38" s="21" t="s">
         <v>202</v>
       </c>
@@ -2448,19 +2448,19 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A39" s="23">
+      <c r="A39" s="26">
         <v>8</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="23" t="s">
+      <c r="E39" s="26" t="s">
         <v>7</v>
       </c>
       <c r="F39" s="13" t="s">
@@ -2474,11 +2474,11 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
       <c r="F40" s="15" t="s">
         <v>172</v>
       </c>
@@ -2490,11 +2490,11 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
       <c r="F41" s="15" t="s">
         <v>259</v>
       </c>
@@ -2506,11 +2506,11 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
       <c r="F42" s="15" t="s">
         <v>14</v>
       </c>
@@ -2522,11 +2522,11 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
       <c r="F43" s="21" t="s">
         <v>260</v>
       </c>
@@ -2538,11 +2538,11 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
       <c r="F44" s="21" t="s">
         <v>202</v>
       </c>
@@ -2554,19 +2554,19 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A45" s="23">
+      <c r="A45" s="26">
         <v>9</v>
       </c>
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="23" t="s">
+      <c r="C45" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="D45" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E45" s="23" t="s">
+      <c r="E45" s="26" t="s">
         <v>7</v>
       </c>
       <c r="F45" s="15" t="s">
@@ -2580,11 +2580,11 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A46" s="30"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
       <c r="F46" s="21" t="s">
         <v>185</v>
       </c>
@@ -2596,11 +2596,11 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A47" s="30"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
       <c r="F47" s="21" t="s">
         <v>186</v>
       </c>
@@ -2612,11 +2612,11 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A48" s="30"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
       <c r="F48" s="21" t="s">
         <v>187</v>
       </c>
@@ -2628,11 +2628,11 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A49" s="30"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
       <c r="F49" s="21" t="s">
         <v>201</v>
       </c>
@@ -2644,11 +2644,11 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A50" s="31"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
       <c r="F50" s="21" t="s">
         <v>189</v>
       </c>
@@ -2660,19 +2660,19 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A51" s="23">
-        <v>10</v>
-      </c>
-      <c r="B51" s="23" t="s">
+      <c r="A51" s="26">
+        <v>10</v>
+      </c>
+      <c r="B51" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="C51" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="D51" s="23" t="s">
+      <c r="D51" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E51" s="23" t="s">
+      <c r="E51" s="26" t="s">
         <v>7</v>
       </c>
       <c r="F51" s="15" t="s">
@@ -2686,11 +2686,11 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A52" s="30"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
+      <c r="A52" s="24"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
       <c r="F52" s="21" t="s">
         <v>185</v>
       </c>
@@ -2702,11 +2702,11 @@
       </c>
     </row>
     <row r="53" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A53" s="30"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
+      <c r="A53" s="24"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
       <c r="F53" s="21" t="s">
         <v>186</v>
       </c>
@@ -2718,11 +2718,11 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A54" s="30"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
+      <c r="A54" s="24"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
       <c r="F54" s="21" t="s">
         <v>190</v>
       </c>
@@ -2734,11 +2734,11 @@
       </c>
     </row>
     <row r="55" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A55" s="30"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
+      <c r="A55" s="24"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
       <c r="F55" s="21" t="s">
         <v>201</v>
       </c>
@@ -2750,11 +2750,11 @@
       </c>
     </row>
     <row r="56" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A56" s="31"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
       <c r="F56" s="11" t="s">
         <v>189</v>
       </c>
@@ -2766,19 +2766,19 @@
       </c>
     </row>
     <row r="57" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A57" s="23">
+      <c r="A57" s="26">
         <v>11</v>
       </c>
-      <c r="B57" s="26" t="s">
+      <c r="B57" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="C57" s="26" t="s">
+      <c r="C57" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="D57" s="26" t="s">
+      <c r="D57" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E57" s="23" t="s">
+      <c r="E57" s="26" t="s">
         <v>7</v>
       </c>
       <c r="F57" s="21" t="s">
@@ -2792,11 +2792,11 @@
       </c>
     </row>
     <row r="58" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A58" s="30"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
+      <c r="A58" s="24"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
       <c r="F58" s="21" t="s">
         <v>185</v>
       </c>
@@ -2808,11 +2808,11 @@
       </c>
     </row>
     <row r="59" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A59" s="30"/>
-      <c r="B59" s="30"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
+      <c r="A59" s="24"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
       <c r="F59" s="21" t="s">
         <v>186</v>
       </c>
@@ -2824,11 +2824,11 @@
       </c>
     </row>
     <row r="60" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A60" s="30"/>
-      <c r="B60" s="30"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
+      <c r="A60" s="24"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
       <c r="F60" s="21" t="s">
         <v>194</v>
       </c>
@@ -2840,11 +2840,11 @@
       </c>
     </row>
     <row r="61" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A61" s="30"/>
-      <c r="B61" s="30"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
+      <c r="A61" s="24"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
       <c r="F61" s="15" t="s">
         <v>33</v>
       </c>
@@ -2856,11 +2856,11 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A62" s="30"/>
-      <c r="B62" s="30"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="30"/>
+      <c r="A62" s="24"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
       <c r="F62" s="21" t="s">
         <v>197</v>
       </c>
@@ -2872,11 +2872,11 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A63" s="31"/>
-      <c r="B63" s="31"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="31"/>
+      <c r="A63" s="25"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
       <c r="F63" s="21" t="s">
         <v>198</v>
       </c>
@@ -2888,19 +2888,19 @@
       </c>
     </row>
     <row r="64" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A64" s="23">
+      <c r="A64" s="26">
         <v>12</v>
       </c>
-      <c r="B64" s="23" t="s">
+      <c r="B64" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C64" s="23" t="s">
+      <c r="C64" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="D64" s="26" t="s">
+      <c r="D64" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E64" s="23" t="s">
+      <c r="E64" s="26" t="s">
         <v>7</v>
       </c>
       <c r="F64" s="13" t="s">
@@ -2914,11 +2914,11 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A65" s="30"/>
-      <c r="B65" s="30"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
+      <c r="A65" s="24"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
       <c r="F65" s="21" t="s">
         <v>172</v>
       </c>
@@ -2930,11 +2930,11 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A66" s="30"/>
-      <c r="B66" s="30"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
+      <c r="A66" s="24"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
       <c r="F66" s="13" t="s">
         <v>205</v>
       </c>
@@ -2946,11 +2946,11 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A67" s="30"/>
-      <c r="B67" s="30"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="30"/>
+      <c r="A67" s="24"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
       <c r="F67" s="21" t="s">
         <v>173</v>
       </c>
@@ -2962,11 +2962,11 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A68" s="30"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="30"/>
+      <c r="A68" s="24"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
       <c r="F68" s="15" t="s">
         <v>41</v>
       </c>
@@ -2978,11 +2978,11 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A69" s="30"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30"/>
+      <c r="A69" s="24"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
       <c r="F69" s="21" t="s">
         <v>206</v>
       </c>
@@ -2994,11 +2994,11 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="30"/>
-      <c r="B70" s="30"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="30"/>
-      <c r="E70" s="30"/>
+      <c r="A70" s="24"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
       <c r="F70" s="22" t="s">
         <v>208</v>
       </c>
@@ -3010,11 +3010,11 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A71" s="31"/>
-      <c r="B71" s="31"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="31"/>
+      <c r="A71" s="25"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
       <c r="F71" s="21" t="s">
         <v>210</v>
       </c>
@@ -3026,19 +3026,19 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A72" s="23">
+      <c r="A72" s="26">
         <v>13</v>
       </c>
-      <c r="B72" s="26" t="s">
+      <c r="B72" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="C72" s="23" t="s">
+      <c r="C72" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="D72" s="26" t="s">
+      <c r="D72" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="E72" s="23" t="s">
+      <c r="E72" s="26" t="s">
         <v>7</v>
       </c>
       <c r="F72" s="13" t="s">
@@ -3052,11 +3052,11 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A73" s="30"/>
-      <c r="B73" s="30"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="30"/>
+      <c r="A73" s="24"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
       <c r="F73" s="21" t="s">
         <v>172</v>
       </c>
@@ -3068,11 +3068,11 @@
       </c>
     </row>
     <row r="74" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A74" s="30"/>
-      <c r="B74" s="30"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="30"/>
+      <c r="A74" s="24"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
       <c r="F74" s="13" t="s">
         <v>205</v>
       </c>
@@ -3084,11 +3084,11 @@
       </c>
     </row>
     <row r="75" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A75" s="30"/>
-      <c r="B75" s="30"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="30"/>
-      <c r="E75" s="30"/>
+      <c r="A75" s="24"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
       <c r="F75" s="21" t="s">
         <v>173</v>
       </c>
@@ -3100,11 +3100,11 @@
       </c>
     </row>
     <row r="76" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A76" s="31"/>
-      <c r="B76" s="31"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="31"/>
-      <c r="E76" s="31"/>
+      <c r="A76" s="25"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
       <c r="F76" s="21" t="s">
         <v>214</v>
       </c>
@@ -3116,19 +3116,19 @@
       </c>
     </row>
     <row r="77" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A77" s="23">
+      <c r="A77" s="26">
         <v>14</v>
       </c>
-      <c r="B77" s="26" t="s">
+      <c r="B77" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C77" s="23" t="s">
+      <c r="C77" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="D77" s="23" t="s">
+      <c r="D77" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="E77" s="23" t="s">
+      <c r="E77" s="26" t="s">
         <v>7</v>
       </c>
       <c r="F77" s="15" t="s">
@@ -3142,11 +3142,11 @@
       </c>
     </row>
     <row r="78" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A78" s="30"/>
-      <c r="B78" s="30"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="30"/>
-      <c r="E78" s="30"/>
+      <c r="A78" s="24"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
       <c r="F78" s="21" t="s">
         <v>185</v>
       </c>
@@ -3158,11 +3158,11 @@
       </c>
     </row>
     <row r="79" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A79" s="30"/>
-      <c r="B79" s="30"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="30"/>
-      <c r="E79" s="30"/>
+      <c r="A79" s="24"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
       <c r="F79" s="21" t="s">
         <v>218</v>
       </c>
@@ -3174,11 +3174,11 @@
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A80" s="30"/>
-      <c r="B80" s="30"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="30"/>
-      <c r="E80" s="30"/>
+      <c r="A80" s="24"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
       <c r="F80" s="21" t="s">
         <v>216</v>
       </c>
@@ -3190,11 +3190,11 @@
       </c>
     </row>
     <row r="81" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A81" s="30"/>
-      <c r="B81" s="30"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="30"/>
+      <c r="A81" s="24"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
       <c r="F81" s="21" t="s">
         <v>217</v>
       </c>
@@ -3206,11 +3206,11 @@
       </c>
     </row>
     <row r="82" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A82" s="30"/>
-      <c r="B82" s="30"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="30"/>
+      <c r="A82" s="24"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
       <c r="F82" s="21" t="s">
         <v>219</v>
       </c>
@@ -3222,11 +3222,11 @@
       </c>
     </row>
     <row r="83" spans="1:8" ht="66" x14ac:dyDescent="0.25">
-      <c r="A83" s="31"/>
-      <c r="B83" s="31"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
+      <c r="A83" s="25"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
       <c r="F83" s="21" t="s">
         <v>223</v>
       </c>
@@ -3238,19 +3238,19 @@
       </c>
     </row>
     <row r="84" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A84" s="23">
+      <c r="A84" s="26">
         <v>15</v>
       </c>
-      <c r="B84" s="26" t="s">
+      <c r="B84" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="C84" s="23" t="s">
+      <c r="C84" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="D84" s="26" t="s">
+      <c r="D84" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="E84" s="26" t="s">
+      <c r="E84" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F84" s="13" t="s">
@@ -3264,11 +3264,11 @@
       </c>
     </row>
     <row r="85" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A85" s="30"/>
-      <c r="B85" s="30"/>
-      <c r="C85" s="24"/>
-      <c r="D85" s="30"/>
-      <c r="E85" s="30"/>
+      <c r="A85" s="24"/>
+      <c r="B85" s="24"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
       <c r="F85" s="21" t="s">
         <v>172</v>
       </c>
@@ -3280,11 +3280,11 @@
       </c>
     </row>
     <row r="86" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A86" s="30"/>
-      <c r="B86" s="30"/>
-      <c r="C86" s="24"/>
-      <c r="D86" s="30"/>
-      <c r="E86" s="30"/>
+      <c r="A86" s="24"/>
+      <c r="B86" s="24"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
       <c r="F86" s="13" t="s">
         <v>205</v>
       </c>
@@ -3296,11 +3296,11 @@
       </c>
     </row>
     <row r="87" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A87" s="30"/>
-      <c r="B87" s="30"/>
-      <c r="C87" s="24"/>
-      <c r="D87" s="30"/>
-      <c r="E87" s="30"/>
+      <c r="A87" s="24"/>
+      <c r="B87" s="24"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="24"/>
       <c r="F87" s="21" t="s">
         <v>173</v>
       </c>
@@ -3312,11 +3312,11 @@
       </c>
     </row>
     <row r="88" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A88" s="30"/>
-      <c r="B88" s="30"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="30"/>
-      <c r="E88" s="30"/>
+      <c r="A88" s="24"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
       <c r="F88" s="21" t="s">
         <v>227</v>
       </c>
@@ -3328,11 +3328,11 @@
       </c>
     </row>
     <row r="89" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A89" s="30"/>
-      <c r="B89" s="30"/>
-      <c r="C89" s="24"/>
-      <c r="D89" s="30"/>
-      <c r="E89" s="30"/>
+      <c r="A89" s="24"/>
+      <c r="B89" s="24"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
       <c r="F89" s="21" t="s">
         <v>45</v>
       </c>
@@ -3344,11 +3344,11 @@
       </c>
     </row>
     <row r="90" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A90" s="30"/>
-      <c r="B90" s="30"/>
-      <c r="C90" s="24"/>
-      <c r="D90" s="30"/>
-      <c r="E90" s="30"/>
+      <c r="A90" s="24"/>
+      <c r="B90" s="24"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="24"/>
       <c r="F90" s="21" t="s">
         <v>47</v>
       </c>
@@ -3360,11 +3360,11 @@
       </c>
     </row>
     <row r="91" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A91" s="31"/>
-      <c r="B91" s="31"/>
-      <c r="C91" s="25"/>
-      <c r="D91" s="31"/>
-      <c r="E91" s="31"/>
+      <c r="A91" s="25"/>
+      <c r="B91" s="25"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="25"/>
       <c r="F91" s="21" t="s">
         <v>229</v>
       </c>
@@ -3376,19 +3376,19 @@
       </c>
     </row>
     <row r="92" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A92" s="23">
+      <c r="A92" s="26">
         <v>16</v>
       </c>
-      <c r="B92" s="23" t="s">
+      <c r="B92" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C92" s="23" t="s">
+      <c r="C92" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="D92" s="23" t="s">
+      <c r="D92" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="E92" s="23" t="s">
+      <c r="E92" s="26" t="s">
         <v>7</v>
       </c>
       <c r="F92" s="15" t="s">
@@ -3402,11 +3402,11 @@
       </c>
     </row>
     <row r="93" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A93" s="30"/>
-      <c r="B93" s="30"/>
-      <c r="C93" s="24"/>
-      <c r="D93" s="30"/>
-      <c r="E93" s="30"/>
+      <c r="A93" s="24"/>
+      <c r="B93" s="24"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
       <c r="F93" s="15" t="s">
         <v>185</v>
       </c>
@@ -3418,11 +3418,11 @@
       </c>
     </row>
     <row r="94" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A94" s="30"/>
-      <c r="B94" s="30"/>
-      <c r="C94" s="24"/>
-      <c r="D94" s="30"/>
-      <c r="E94" s="30"/>
+      <c r="A94" s="24"/>
+      <c r="B94" s="24"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
       <c r="F94" s="15" t="s">
         <v>232</v>
       </c>
@@ -3434,11 +3434,11 @@
       </c>
     </row>
     <row r="95" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A95" s="30"/>
-      <c r="B95" s="30"/>
-      <c r="C95" s="24"/>
-      <c r="D95" s="30"/>
-      <c r="E95" s="30"/>
+      <c r="A95" s="24"/>
+      <c r="B95" s="24"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="24"/>
       <c r="F95" s="15" t="s">
         <v>233</v>
       </c>
@@ -3450,11 +3450,11 @@
       </c>
     </row>
     <row r="96" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A96" s="30"/>
-      <c r="B96" s="30"/>
-      <c r="C96" s="24"/>
-      <c r="D96" s="30"/>
-      <c r="E96" s="30"/>
+      <c r="A96" s="24"/>
+      <c r="B96" s="24"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
       <c r="F96" s="15" t="s">
         <v>237</v>
       </c>
@@ -3466,11 +3466,11 @@
       </c>
     </row>
     <row r="97" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A97" s="30"/>
-      <c r="B97" s="30"/>
-      <c r="C97" s="24"/>
-      <c r="D97" s="30"/>
-      <c r="E97" s="30"/>
+      <c r="A97" s="24"/>
+      <c r="B97" s="24"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
       <c r="F97" s="15" t="s">
         <v>51</v>
       </c>
@@ -3482,11 +3482,11 @@
       </c>
     </row>
     <row r="98" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A98" s="30"/>
-      <c r="B98" s="30"/>
-      <c r="C98" s="24"/>
-      <c r="D98" s="30"/>
-      <c r="E98" s="30"/>
+      <c r="A98" s="24"/>
+      <c r="B98" s="24"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="24"/>
       <c r="F98" s="15" t="s">
         <v>223</v>
       </c>
@@ -3498,11 +3498,11 @@
       </c>
     </row>
     <row r="99" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A99" s="31"/>
-      <c r="B99" s="31"/>
-      <c r="C99" s="25"/>
-      <c r="D99" s="31"/>
-      <c r="E99" s="31"/>
+      <c r="A99" s="25"/>
+      <c r="B99" s="25"/>
+      <c r="C99" s="30"/>
+      <c r="D99" s="25"/>
+      <c r="E99" s="25"/>
       <c r="F99" s="15" t="s">
         <v>240</v>
       </c>
@@ -3514,19 +3514,19 @@
       </c>
     </row>
     <row r="100" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A100" s="23">
+      <c r="A100" s="26">
         <v>17</v>
       </c>
-      <c r="B100" s="23" t="s">
+      <c r="B100" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C100" s="23" t="s">
+      <c r="C100" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="D100" s="23" t="s">
+      <c r="D100" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="E100" s="23" t="s">
+      <c r="E100" s="26" t="s">
         <v>7</v>
       </c>
       <c r="F100" s="15" t="s">
@@ -3540,11 +3540,11 @@
       </c>
     </row>
     <row r="101" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A101" s="30"/>
-      <c r="B101" s="30"/>
-      <c r="C101" s="24"/>
-      <c r="D101" s="30"/>
-      <c r="E101" s="30"/>
+      <c r="A101" s="24"/>
+      <c r="B101" s="24"/>
+      <c r="C101" s="29"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="24"/>
       <c r="F101" s="15" t="s">
         <v>185</v>
       </c>
@@ -3556,11 +3556,11 @@
       </c>
     </row>
     <row r="102" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A102" s="30"/>
-      <c r="B102" s="30"/>
-      <c r="C102" s="24"/>
-      <c r="D102" s="30"/>
-      <c r="E102" s="30"/>
+      <c r="A102" s="24"/>
+      <c r="B102" s="24"/>
+      <c r="C102" s="29"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
       <c r="F102" s="15" t="s">
         <v>232</v>
       </c>
@@ -3572,11 +3572,11 @@
       </c>
     </row>
     <row r="103" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A103" s="30"/>
-      <c r="B103" s="30"/>
-      <c r="C103" s="24"/>
-      <c r="D103" s="30"/>
-      <c r="E103" s="30"/>
+      <c r="A103" s="24"/>
+      <c r="B103" s="24"/>
+      <c r="C103" s="29"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="24"/>
       <c r="F103" s="15" t="s">
         <v>233</v>
       </c>
@@ -3588,11 +3588,11 @@
       </c>
     </row>
     <row r="104" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A104" s="30"/>
-      <c r="B104" s="30"/>
-      <c r="C104" s="24"/>
-      <c r="D104" s="30"/>
-      <c r="E104" s="30"/>
+      <c r="A104" s="24"/>
+      <c r="B104" s="24"/>
+      <c r="C104" s="29"/>
+      <c r="D104" s="24"/>
+      <c r="E104" s="24"/>
       <c r="F104" s="15" t="s">
         <v>237</v>
       </c>
@@ -3604,11 +3604,11 @@
       </c>
     </row>
     <row r="105" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A105" s="30"/>
-      <c r="B105" s="30"/>
-      <c r="C105" s="24"/>
-      <c r="D105" s="30"/>
-      <c r="E105" s="30"/>
+      <c r="A105" s="24"/>
+      <c r="B105" s="24"/>
+      <c r="C105" s="29"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="24"/>
       <c r="F105" s="15" t="s">
         <v>55</v>
       </c>
@@ -3620,11 +3620,11 @@
       </c>
     </row>
     <row r="106" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A106" s="30"/>
-      <c r="B106" s="30"/>
-      <c r="C106" s="24"/>
-      <c r="D106" s="30"/>
-      <c r="E106" s="30"/>
+      <c r="A106" s="24"/>
+      <c r="B106" s="24"/>
+      <c r="C106" s="29"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="24"/>
       <c r="F106" s="15" t="s">
         <v>223</v>
       </c>
@@ -3636,11 +3636,11 @@
       </c>
     </row>
     <row r="107" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A107" s="31"/>
-      <c r="B107" s="31"/>
-      <c r="C107" s="25"/>
-      <c r="D107" s="31"/>
-      <c r="E107" s="31"/>
+      <c r="A107" s="25"/>
+      <c r="B107" s="25"/>
+      <c r="C107" s="30"/>
+      <c r="D107" s="25"/>
+      <c r="E107" s="25"/>
       <c r="F107" s="15" t="s">
         <v>240</v>
       </c>
@@ -3652,19 +3652,19 @@
       </c>
     </row>
     <row r="108" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A108" s="23">
+      <c r="A108" s="26">
         <v>18</v>
       </c>
-      <c r="B108" s="23" t="s">
+      <c r="B108" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C108" s="23" t="s">
+      <c r="C108" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="D108" s="23" t="s">
+      <c r="D108" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="E108" s="23" t="s">
+      <c r="E108" s="26" t="s">
         <v>7</v>
       </c>
       <c r="F108" s="15" t="s">
@@ -3678,11 +3678,11 @@
       </c>
     </row>
     <row r="109" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A109" s="30"/>
-      <c r="B109" s="30"/>
-      <c r="C109" s="24"/>
-      <c r="D109" s="30"/>
-      <c r="E109" s="30"/>
+      <c r="A109" s="24"/>
+      <c r="B109" s="24"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="24"/>
       <c r="F109" s="15" t="s">
         <v>185</v>
       </c>
@@ -3694,11 +3694,11 @@
       </c>
     </row>
     <row r="110" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A110" s="30"/>
-      <c r="B110" s="30"/>
-      <c r="C110" s="24"/>
-      <c r="D110" s="30"/>
-      <c r="E110" s="30"/>
+      <c r="A110" s="24"/>
+      <c r="B110" s="24"/>
+      <c r="C110" s="29"/>
+      <c r="D110" s="24"/>
+      <c r="E110" s="24"/>
       <c r="F110" s="15" t="s">
         <v>232</v>
       </c>
@@ -3710,11 +3710,11 @@
       </c>
     </row>
     <row r="111" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A111" s="30"/>
-      <c r="B111" s="30"/>
-      <c r="C111" s="24"/>
-      <c r="D111" s="30"/>
-      <c r="E111" s="30"/>
+      <c r="A111" s="24"/>
+      <c r="B111" s="24"/>
+      <c r="C111" s="29"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="24"/>
       <c r="F111" s="15" t="s">
         <v>233</v>
       </c>
@@ -3726,11 +3726,11 @@
       </c>
     </row>
     <row r="112" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A112" s="30"/>
-      <c r="B112" s="30"/>
-      <c r="C112" s="24"/>
-      <c r="D112" s="30"/>
-      <c r="E112" s="30"/>
+      <c r="A112" s="24"/>
+      <c r="B112" s="24"/>
+      <c r="C112" s="29"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="24"/>
       <c r="F112" s="15" t="s">
         <v>237</v>
       </c>
@@ -3742,11 +3742,11 @@
       </c>
     </row>
     <row r="113" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A113" s="30"/>
-      <c r="B113" s="30"/>
-      <c r="C113" s="24"/>
-      <c r="D113" s="30"/>
-      <c r="E113" s="30"/>
+      <c r="A113" s="24"/>
+      <c r="B113" s="24"/>
+      <c r="C113" s="29"/>
+      <c r="D113" s="24"/>
+      <c r="E113" s="24"/>
       <c r="F113" s="15" t="s">
         <v>58</v>
       </c>
@@ -3758,11 +3758,11 @@
       </c>
     </row>
     <row r="114" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A114" s="30"/>
-      <c r="B114" s="30"/>
-      <c r="C114" s="24"/>
-      <c r="D114" s="30"/>
-      <c r="E114" s="30"/>
+      <c r="A114" s="24"/>
+      <c r="B114" s="24"/>
+      <c r="C114" s="29"/>
+      <c r="D114" s="24"/>
+      <c r="E114" s="24"/>
       <c r="F114" s="15" t="s">
         <v>223</v>
       </c>
@@ -3774,11 +3774,11 @@
       </c>
     </row>
     <row r="115" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A115" s="31"/>
-      <c r="B115" s="31"/>
-      <c r="C115" s="25"/>
-      <c r="D115" s="31"/>
-      <c r="E115" s="31"/>
+      <c r="A115" s="25"/>
+      <c r="B115" s="25"/>
+      <c r="C115" s="30"/>
+      <c r="D115" s="25"/>
+      <c r="E115" s="25"/>
       <c r="F115" s="15" t="s">
         <v>240</v>
       </c>
@@ -3790,19 +3790,19 @@
       </c>
     </row>
     <row r="116" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A116" s="23">
+      <c r="A116" s="26">
         <v>19</v>
       </c>
-      <c r="B116" s="23" t="s">
+      <c r="B116" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C116" s="23" t="s">
+      <c r="C116" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="D116" s="23" t="s">
+      <c r="D116" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="E116" s="23" t="s">
+      <c r="E116" s="26" t="s">
         <v>7</v>
       </c>
       <c r="F116" s="15" t="s">
@@ -3816,11 +3816,11 @@
       </c>
     </row>
     <row r="117" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A117" s="30"/>
-      <c r="B117" s="30"/>
-      <c r="C117" s="24"/>
-      <c r="D117" s="30"/>
-      <c r="E117" s="30"/>
+      <c r="A117" s="24"/>
+      <c r="B117" s="24"/>
+      <c r="C117" s="29"/>
+      <c r="D117" s="24"/>
+      <c r="E117" s="24"/>
       <c r="F117" s="15" t="s">
         <v>185</v>
       </c>
@@ -3832,11 +3832,11 @@
       </c>
     </row>
     <row r="118" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A118" s="30"/>
-      <c r="B118" s="30"/>
-      <c r="C118" s="24"/>
-      <c r="D118" s="30"/>
-      <c r="E118" s="30"/>
+      <c r="A118" s="24"/>
+      <c r="B118" s="24"/>
+      <c r="C118" s="29"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="24"/>
       <c r="F118" s="15" t="s">
         <v>232</v>
       </c>
@@ -3848,11 +3848,11 @@
       </c>
     </row>
     <row r="119" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A119" s="30"/>
-      <c r="B119" s="30"/>
-      <c r="C119" s="24"/>
-      <c r="D119" s="30"/>
-      <c r="E119" s="30"/>
+      <c r="A119" s="24"/>
+      <c r="B119" s="24"/>
+      <c r="C119" s="29"/>
+      <c r="D119" s="24"/>
+      <c r="E119" s="24"/>
       <c r="F119" s="15" t="s">
         <v>61</v>
       </c>
@@ -3864,11 +3864,11 @@
       </c>
     </row>
     <row r="120" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A120" s="30"/>
-      <c r="B120" s="30"/>
-      <c r="C120" s="24"/>
-      <c r="D120" s="30"/>
-      <c r="E120" s="30"/>
+      <c r="A120" s="24"/>
+      <c r="B120" s="24"/>
+      <c r="C120" s="29"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="24"/>
       <c r="F120" s="15" t="s">
         <v>33</v>
       </c>
@@ -3880,11 +3880,11 @@
       </c>
     </row>
     <row r="121" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A121" s="31"/>
-      <c r="B121" s="31"/>
-      <c r="C121" s="25"/>
-      <c r="D121" s="31"/>
-      <c r="E121" s="31"/>
+      <c r="A121" s="25"/>
+      <c r="B121" s="25"/>
+      <c r="C121" s="30"/>
+      <c r="D121" s="25"/>
+      <c r="E121" s="25"/>
       <c r="F121" s="15" t="s">
         <v>245</v>
       </c>
@@ -3896,19 +3896,19 @@
       </c>
     </row>
     <row r="122" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A122" s="23">
+      <c r="A122" s="26">
         <v>20</v>
       </c>
-      <c r="B122" s="23" t="s">
+      <c r="B122" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="C122" s="23" t="s">
+      <c r="C122" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="D122" s="23" t="s">
+      <c r="D122" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="E122" s="23" t="s">
+      <c r="E122" s="26" t="s">
         <v>7</v>
       </c>
       <c r="F122" s="15" t="s">
@@ -3922,11 +3922,11 @@
       </c>
     </row>
     <row r="123" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A123" s="30"/>
-      <c r="B123" s="30"/>
-      <c r="C123" s="24"/>
-      <c r="D123" s="30"/>
-      <c r="E123" s="30"/>
+      <c r="A123" s="24"/>
+      <c r="B123" s="24"/>
+      <c r="C123" s="29"/>
+      <c r="D123" s="24"/>
+      <c r="E123" s="24"/>
       <c r="F123" s="15" t="s">
         <v>185</v>
       </c>
@@ -3938,11 +3938,11 @@
       </c>
     </row>
     <row r="124" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A124" s="30"/>
-      <c r="B124" s="30"/>
-      <c r="C124" s="24"/>
-      <c r="D124" s="30"/>
-      <c r="E124" s="30"/>
+      <c r="A124" s="24"/>
+      <c r="B124" s="24"/>
+      <c r="C124" s="29"/>
+      <c r="D124" s="24"/>
+      <c r="E124" s="24"/>
       <c r="F124" s="15" t="s">
         <v>232</v>
       </c>
@@ -3954,11 +3954,11 @@
       </c>
     </row>
     <row r="125" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A125" s="30"/>
-      <c r="B125" s="30"/>
-      <c r="C125" s="24"/>
-      <c r="D125" s="30"/>
-      <c r="E125" s="30"/>
+      <c r="A125" s="24"/>
+      <c r="B125" s="24"/>
+      <c r="C125" s="29"/>
+      <c r="D125" s="24"/>
+      <c r="E125" s="24"/>
       <c r="F125" s="15" t="s">
         <v>248</v>
       </c>
@@ -3970,11 +3970,11 @@
       </c>
     </row>
     <row r="126" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A126" s="30"/>
-      <c r="B126" s="30"/>
-      <c r="C126" s="24"/>
-      <c r="D126" s="30"/>
-      <c r="E126" s="30"/>
+      <c r="A126" s="24"/>
+      <c r="B126" s="24"/>
+      <c r="C126" s="29"/>
+      <c r="D126" s="24"/>
+      <c r="E126" s="24"/>
       <c r="F126" s="15" t="s">
         <v>251</v>
       </c>
@@ -3986,11 +3986,11 @@
       </c>
     </row>
     <row r="127" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A127" s="30"/>
-      <c r="B127" s="30"/>
-      <c r="C127" s="24"/>
-      <c r="D127" s="30"/>
-      <c r="E127" s="30"/>
+      <c r="A127" s="24"/>
+      <c r="B127" s="24"/>
+      <c r="C127" s="29"/>
+      <c r="D127" s="24"/>
+      <c r="E127" s="24"/>
       <c r="F127" s="15" t="s">
         <v>252</v>
       </c>
@@ -4002,11 +4002,11 @@
       </c>
     </row>
     <row r="128" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A128" s="31"/>
-      <c r="B128" s="31"/>
-      <c r="C128" s="25"/>
-      <c r="D128" s="31"/>
-      <c r="E128" s="31"/>
+      <c r="A128" s="25"/>
+      <c r="B128" s="25"/>
+      <c r="C128" s="30"/>
+      <c r="D128" s="25"/>
+      <c r="E128" s="25"/>
       <c r="F128" s="15" t="s">
         <v>223</v>
       </c>
@@ -4018,19 +4018,19 @@
       </c>
     </row>
     <row r="129" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A129" s="23">
+      <c r="A129" s="26">
         <v>21</v>
       </c>
-      <c r="B129" s="23" t="s">
+      <c r="B129" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C129" s="23" t="s">
+      <c r="C129" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="D129" s="23" t="s">
+      <c r="D129" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="E129" s="23" t="s">
+      <c r="E129" s="26" t="s">
         <v>7</v>
       </c>
       <c r="F129" s="15" t="s">
@@ -4044,11 +4044,11 @@
       </c>
     </row>
     <row r="130" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A130" s="30"/>
-      <c r="B130" s="30"/>
-      <c r="C130" s="24"/>
-      <c r="D130" s="30"/>
-      <c r="E130" s="30"/>
+      <c r="A130" s="24"/>
+      <c r="B130" s="24"/>
+      <c r="C130" s="29"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="24"/>
       <c r="F130" s="15" t="s">
         <v>185</v>
       </c>
@@ -4060,11 +4060,11 @@
       </c>
     </row>
     <row r="131" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A131" s="30"/>
-      <c r="B131" s="30"/>
-      <c r="C131" s="24"/>
-      <c r="D131" s="30"/>
-      <c r="E131" s="30"/>
+      <c r="A131" s="24"/>
+      <c r="B131" s="24"/>
+      <c r="C131" s="29"/>
+      <c r="D131" s="24"/>
+      <c r="E131" s="24"/>
       <c r="F131" s="15" t="s">
         <v>232</v>
       </c>
@@ -4076,11 +4076,11 @@
       </c>
     </row>
     <row r="132" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A132" s="30"/>
-      <c r="B132" s="30"/>
-      <c r="C132" s="24"/>
-      <c r="D132" s="30"/>
-      <c r="E132" s="30"/>
+      <c r="A132" s="24"/>
+      <c r="B132" s="24"/>
+      <c r="C132" s="29"/>
+      <c r="D132" s="24"/>
+      <c r="E132" s="24"/>
       <c r="F132" s="15" t="s">
         <v>255</v>
       </c>
@@ -4092,11 +4092,11 @@
       </c>
     </row>
     <row r="133" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A133" s="31"/>
-      <c r="B133" s="31"/>
-      <c r="C133" s="25"/>
-      <c r="D133" s="31"/>
-      <c r="E133" s="31"/>
+      <c r="A133" s="25"/>
+      <c r="B133" s="25"/>
+      <c r="C133" s="30"/>
+      <c r="D133" s="25"/>
+      <c r="E133" s="25"/>
       <c r="F133" s="15" t="s">
         <v>201</v>
       </c>
@@ -4108,19 +4108,19 @@
       </c>
     </row>
     <row r="134" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A134" s="23">
+      <c r="A134" s="26">
         <v>22</v>
       </c>
-      <c r="B134" s="23" t="s">
+      <c r="B134" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="C134" s="23" t="s">
+      <c r="C134" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="D134" s="23" t="s">
+      <c r="D134" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="E134" s="23" t="s">
+      <c r="E134" s="26" t="s">
         <v>7</v>
       </c>
       <c r="F134" s="12" t="s">
@@ -4134,11 +4134,11 @@
       </c>
     </row>
     <row r="135" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A135" s="30"/>
-      <c r="B135" s="30"/>
-      <c r="C135" s="24"/>
-      <c r="D135" s="30"/>
-      <c r="E135" s="30"/>
+      <c r="A135" s="24"/>
+      <c r="B135" s="24"/>
+      <c r="C135" s="29"/>
+      <c r="D135" s="24"/>
+      <c r="E135" s="24"/>
       <c r="F135" s="15" t="s">
         <v>172</v>
       </c>
@@ -4150,11 +4150,11 @@
       </c>
     </row>
     <row r="136" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A136" s="30"/>
-      <c r="B136" s="30"/>
-      <c r="C136" s="24"/>
-      <c r="D136" s="30"/>
-      <c r="E136" s="30"/>
+      <c r="A136" s="24"/>
+      <c r="B136" s="24"/>
+      <c r="C136" s="29"/>
+      <c r="D136" s="24"/>
+      <c r="E136" s="24"/>
       <c r="F136" s="12" t="s">
         <v>258</v>
       </c>
@@ -4166,11 +4166,11 @@
       </c>
     </row>
     <row r="137" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A137" s="30"/>
-      <c r="B137" s="30"/>
-      <c r="C137" s="24"/>
-      <c r="D137" s="30"/>
-      <c r="E137" s="30"/>
+      <c r="A137" s="24"/>
+      <c r="B137" s="24"/>
+      <c r="C137" s="29"/>
+      <c r="D137" s="24"/>
+      <c r="E137" s="24"/>
       <c r="F137" s="15" t="s">
         <v>173</v>
       </c>
@@ -4182,11 +4182,11 @@
       </c>
     </row>
     <row r="138" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A138" s="30"/>
-      <c r="B138" s="30"/>
-      <c r="C138" s="24"/>
-      <c r="D138" s="30"/>
-      <c r="E138" s="30"/>
+      <c r="A138" s="24"/>
+      <c r="B138" s="24"/>
+      <c r="C138" s="29"/>
+      <c r="D138" s="24"/>
+      <c r="E138" s="24"/>
       <c r="F138" s="15" t="s">
         <v>227</v>
       </c>
@@ -4198,11 +4198,11 @@
       </c>
     </row>
     <row r="139" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A139" s="30"/>
-      <c r="B139" s="30"/>
-      <c r="C139" s="24"/>
-      <c r="D139" s="30"/>
-      <c r="E139" s="30"/>
+      <c r="A139" s="24"/>
+      <c r="B139" s="24"/>
+      <c r="C139" s="29"/>
+      <c r="D139" s="24"/>
+      <c r="E139" s="24"/>
       <c r="F139" s="15" t="s">
         <v>263</v>
       </c>
@@ -4214,11 +4214,11 @@
       </c>
     </row>
     <row r="140" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A140" s="31"/>
-      <c r="B140" s="31"/>
-      <c r="C140" s="25"/>
-      <c r="D140" s="31"/>
-      <c r="E140" s="31"/>
+      <c r="A140" s="25"/>
+      <c r="B140" s="25"/>
+      <c r="C140" s="30"/>
+      <c r="D140" s="25"/>
+      <c r="E140" s="25"/>
       <c r="F140" s="15" t="s">
         <v>265</v>
       </c>
@@ -4230,19 +4230,19 @@
       </c>
     </row>
     <row r="141" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A141" s="23">
+      <c r="A141" s="26">
         <v>23</v>
       </c>
-      <c r="B141" s="23" t="s">
+      <c r="B141" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="C141" s="23" t="s">
+      <c r="C141" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="D141" s="23" t="s">
+      <c r="D141" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="E141" s="23" t="s">
+      <c r="E141" s="26" t="s">
         <v>66</v>
       </c>
       <c r="F141" s="12" t="s">
@@ -4256,11 +4256,11 @@
       </c>
     </row>
     <row r="142" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A142" s="30"/>
-      <c r="B142" s="30"/>
-      <c r="C142" s="24"/>
-      <c r="D142" s="30"/>
-      <c r="E142" s="30"/>
+      <c r="A142" s="24"/>
+      <c r="B142" s="24"/>
+      <c r="C142" s="29"/>
+      <c r="D142" s="24"/>
+      <c r="E142" s="24"/>
       <c r="F142" s="15" t="s">
         <v>172</v>
       </c>
@@ -4272,11 +4272,11 @@
       </c>
     </row>
     <row r="143" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A143" s="30"/>
-      <c r="B143" s="30"/>
-      <c r="C143" s="24"/>
-      <c r="D143" s="30"/>
-      <c r="E143" s="30"/>
+      <c r="A143" s="24"/>
+      <c r="B143" s="24"/>
+      <c r="C143" s="29"/>
+      <c r="D143" s="24"/>
+      <c r="E143" s="24"/>
       <c r="F143" s="12" t="s">
         <v>258</v>
       </c>
@@ -4288,11 +4288,11 @@
       </c>
     </row>
     <row r="144" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A144" s="30"/>
-      <c r="B144" s="30"/>
-      <c r="C144" s="24"/>
-      <c r="D144" s="30"/>
-      <c r="E144" s="30"/>
+      <c r="A144" s="24"/>
+      <c r="B144" s="24"/>
+      <c r="C144" s="29"/>
+      <c r="D144" s="24"/>
+      <c r="E144" s="24"/>
       <c r="F144" s="15" t="s">
         <v>173</v>
       </c>
@@ -4304,11 +4304,11 @@
       </c>
     </row>
     <row r="145" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A145" s="30"/>
-      <c r="B145" s="30"/>
-      <c r="C145" s="24"/>
-      <c r="D145" s="30"/>
-      <c r="E145" s="30"/>
+      <c r="A145" s="24"/>
+      <c r="B145" s="24"/>
+      <c r="C145" s="29"/>
+      <c r="D145" s="24"/>
+      <c r="E145" s="24"/>
       <c r="F145" s="15" t="s">
         <v>227</v>
       </c>
@@ -4320,11 +4320,11 @@
       </c>
     </row>
     <row r="146" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A146" s="30"/>
-      <c r="B146" s="30"/>
-      <c r="C146" s="24"/>
-      <c r="D146" s="30"/>
-      <c r="E146" s="30"/>
+      <c r="A146" s="24"/>
+      <c r="B146" s="24"/>
+      <c r="C146" s="29"/>
+      <c r="D146" s="24"/>
+      <c r="E146" s="24"/>
       <c r="F146" s="15" t="s">
         <v>269</v>
       </c>
@@ -4336,11 +4336,11 @@
       </c>
     </row>
     <row r="147" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A147" s="31"/>
-      <c r="B147" s="31"/>
-      <c r="C147" s="25"/>
-      <c r="D147" s="31"/>
-      <c r="E147" s="31"/>
+      <c r="A147" s="25"/>
+      <c r="B147" s="25"/>
+      <c r="C147" s="30"/>
+      <c r="D147" s="25"/>
+      <c r="E147" s="25"/>
       <c r="F147" s="15" t="s">
         <v>271</v>
       </c>
@@ -4352,19 +4352,19 @@
       </c>
     </row>
     <row r="148" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A148" s="23">
+      <c r="A148" s="26">
         <v>24</v>
       </c>
-      <c r="B148" s="23" t="s">
+      <c r="B148" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C148" s="23" t="s">
+      <c r="C148" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="D148" s="23" t="s">
+      <c r="D148" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="E148" s="23" t="s">
+      <c r="E148" s="26" t="s">
         <v>66</v>
       </c>
       <c r="F148" s="12" t="s">
@@ -4378,11 +4378,11 @@
       </c>
     </row>
     <row r="149" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A149" s="30"/>
-      <c r="B149" s="30"/>
-      <c r="C149" s="24"/>
-      <c r="D149" s="30"/>
-      <c r="E149" s="30"/>
+      <c r="A149" s="24"/>
+      <c r="B149" s="24"/>
+      <c r="C149" s="29"/>
+      <c r="D149" s="24"/>
+      <c r="E149" s="24"/>
       <c r="F149" s="15" t="s">
         <v>172</v>
       </c>
@@ -4394,11 +4394,11 @@
       </c>
     </row>
     <row r="150" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A150" s="30"/>
-      <c r="B150" s="30"/>
-      <c r="C150" s="24"/>
-      <c r="D150" s="30"/>
-      <c r="E150" s="30"/>
+      <c r="A150" s="24"/>
+      <c r="B150" s="24"/>
+      <c r="C150" s="29"/>
+      <c r="D150" s="24"/>
+      <c r="E150" s="24"/>
       <c r="F150" s="12" t="s">
         <v>258</v>
       </c>
@@ -4410,11 +4410,11 @@
       </c>
     </row>
     <row r="151" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A151" s="30"/>
-      <c r="B151" s="30"/>
-      <c r="C151" s="24"/>
-      <c r="D151" s="30"/>
-      <c r="E151" s="30"/>
+      <c r="A151" s="24"/>
+      <c r="B151" s="24"/>
+      <c r="C151" s="29"/>
+      <c r="D151" s="24"/>
+      <c r="E151" s="24"/>
       <c r="F151" s="15" t="s">
         <v>173</v>
       </c>
@@ -4426,11 +4426,11 @@
       </c>
     </row>
     <row r="152" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A152" s="30"/>
-      <c r="B152" s="30"/>
-      <c r="C152" s="24"/>
-      <c r="D152" s="30"/>
-      <c r="E152" s="30"/>
+      <c r="A152" s="24"/>
+      <c r="B152" s="24"/>
+      <c r="C152" s="29"/>
+      <c r="D152" s="24"/>
+      <c r="E152" s="24"/>
       <c r="F152" s="15" t="s">
         <v>273</v>
       </c>
@@ -4442,11 +4442,11 @@
       </c>
     </row>
     <row r="153" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A153" s="31"/>
-      <c r="B153" s="31"/>
-      <c r="C153" s="25"/>
-      <c r="D153" s="31"/>
-      <c r="E153" s="31"/>
+      <c r="A153" s="25"/>
+      <c r="B153" s="25"/>
+      <c r="C153" s="30"/>
+      <c r="D153" s="25"/>
+      <c r="E153" s="25"/>
       <c r="F153" s="11" t="s">
         <v>275</v>
       </c>
@@ -4458,19 +4458,19 @@
       </c>
     </row>
     <row r="154" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A154" s="23">
+      <c r="A154" s="26">
         <v>25</v>
       </c>
-      <c r="B154" s="23" t="s">
+      <c r="B154" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C154" s="23" t="s">
+      <c r="C154" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="D154" s="23" t="s">
+      <c r="D154" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="E154" s="23" t="s">
+      <c r="E154" s="26" t="s">
         <v>66</v>
       </c>
       <c r="F154" s="12" t="s">
@@ -4484,11 +4484,11 @@
       </c>
     </row>
     <row r="155" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A155" s="30"/>
-      <c r="B155" s="30"/>
-      <c r="C155" s="24"/>
-      <c r="D155" s="30"/>
-      <c r="E155" s="30"/>
+      <c r="A155" s="24"/>
+      <c r="B155" s="24"/>
+      <c r="C155" s="29"/>
+      <c r="D155" s="24"/>
+      <c r="E155" s="24"/>
       <c r="F155" s="15" t="s">
         <v>172</v>
       </c>
@@ -4500,11 +4500,11 @@
       </c>
     </row>
     <row r="156" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A156" s="30"/>
-      <c r="B156" s="30"/>
-      <c r="C156" s="24"/>
-      <c r="D156" s="30"/>
-      <c r="E156" s="30"/>
+      <c r="A156" s="24"/>
+      <c r="B156" s="24"/>
+      <c r="C156" s="29"/>
+      <c r="D156" s="24"/>
+      <c r="E156" s="24"/>
       <c r="F156" s="12" t="s">
         <v>258</v>
       </c>
@@ -4516,11 +4516,11 @@
       </c>
     </row>
     <row r="157" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A157" s="30"/>
-      <c r="B157" s="30"/>
-      <c r="C157" s="24"/>
-      <c r="D157" s="30"/>
-      <c r="E157" s="30"/>
+      <c r="A157" s="24"/>
+      <c r="B157" s="24"/>
+      <c r="C157" s="29"/>
+      <c r="D157" s="24"/>
+      <c r="E157" s="24"/>
       <c r="F157" s="15" t="s">
         <v>173</v>
       </c>
@@ -4532,11 +4532,11 @@
       </c>
     </row>
     <row r="158" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A158" s="30"/>
-      <c r="B158" s="30"/>
-      <c r="C158" s="24"/>
-      <c r="D158" s="30"/>
-      <c r="E158" s="30"/>
+      <c r="A158" s="24"/>
+      <c r="B158" s="24"/>
+      <c r="C158" s="29"/>
+      <c r="D158" s="24"/>
+      <c r="E158" s="24"/>
       <c r="F158" s="15" t="s">
         <v>273</v>
       </c>
@@ -4548,11 +4548,11 @@
       </c>
     </row>
     <row r="159" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A159" s="30"/>
-      <c r="B159" s="30"/>
-      <c r="C159" s="24"/>
-      <c r="D159" s="30"/>
-      <c r="E159" s="30"/>
+      <c r="A159" s="24"/>
+      <c r="B159" s="24"/>
+      <c r="C159" s="29"/>
+      <c r="D159" s="24"/>
+      <c r="E159" s="24"/>
       <c r="F159" s="15" t="s">
         <v>277</v>
       </c>
@@ -4564,11 +4564,11 @@
       </c>
     </row>
     <row r="160" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A160" s="31"/>
-      <c r="B160" s="31"/>
-      <c r="C160" s="25"/>
-      <c r="D160" s="31"/>
-      <c r="E160" s="31"/>
+      <c r="A160" s="25"/>
+      <c r="B160" s="25"/>
+      <c r="C160" s="30"/>
+      <c r="D160" s="25"/>
+      <c r="E160" s="25"/>
       <c r="F160" s="15" t="s">
         <v>278</v>
       </c>
@@ -4580,19 +4580,19 @@
       </c>
     </row>
     <row r="161" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A161" s="23">
+      <c r="A161" s="26">
         <v>26</v>
       </c>
-      <c r="B161" s="23" t="s">
+      <c r="B161" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="C161" s="23" t="s">
+      <c r="C161" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="D161" s="23" t="s">
+      <c r="D161" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="E161" s="23" t="s">
+      <c r="E161" s="26" t="s">
         <v>66</v>
       </c>
       <c r="F161" s="12" t="s">
@@ -4606,11 +4606,11 @@
       </c>
     </row>
     <row r="162" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A162" s="30"/>
-      <c r="B162" s="30"/>
-      <c r="C162" s="24"/>
-      <c r="D162" s="30"/>
-      <c r="E162" s="30"/>
+      <c r="A162" s="24"/>
+      <c r="B162" s="24"/>
+      <c r="C162" s="29"/>
+      <c r="D162" s="24"/>
+      <c r="E162" s="24"/>
       <c r="F162" s="15" t="s">
         <v>172</v>
       </c>
@@ -4622,11 +4622,11 @@
       </c>
     </row>
     <row r="163" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A163" s="30"/>
-      <c r="B163" s="30"/>
-      <c r="C163" s="24"/>
-      <c r="D163" s="30"/>
-      <c r="E163" s="30"/>
+      <c r="A163" s="24"/>
+      <c r="B163" s="24"/>
+      <c r="C163" s="29"/>
+      <c r="D163" s="24"/>
+      <c r="E163" s="24"/>
       <c r="F163" s="12" t="s">
         <v>258</v>
       </c>
@@ -4638,11 +4638,11 @@
       </c>
     </row>
     <row r="164" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A164" s="30"/>
-      <c r="B164" s="30"/>
-      <c r="C164" s="24"/>
-      <c r="D164" s="30"/>
-      <c r="E164" s="30"/>
+      <c r="A164" s="24"/>
+      <c r="B164" s="24"/>
+      <c r="C164" s="29"/>
+      <c r="D164" s="24"/>
+      <c r="E164" s="24"/>
       <c r="F164" s="15" t="s">
         <v>173</v>
       </c>
@@ -4654,11 +4654,11 @@
       </c>
     </row>
     <row r="165" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A165" s="30"/>
-      <c r="B165" s="30"/>
-      <c r="C165" s="24"/>
-      <c r="D165" s="30"/>
-      <c r="E165" s="30"/>
+      <c r="A165" s="24"/>
+      <c r="B165" s="24"/>
+      <c r="C165" s="29"/>
+      <c r="D165" s="24"/>
+      <c r="E165" s="24"/>
       <c r="F165" s="15" t="s">
         <v>279</v>
       </c>
@@ -4670,11 +4670,11 @@
       </c>
     </row>
     <row r="166" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A166" s="31"/>
-      <c r="B166" s="31"/>
-      <c r="C166" s="25"/>
-      <c r="D166" s="31"/>
-      <c r="E166" s="31"/>
+      <c r="A166" s="25"/>
+      <c r="B166" s="25"/>
+      <c r="C166" s="30"/>
+      <c r="D166" s="25"/>
+      <c r="E166" s="25"/>
       <c r="F166" s="15" t="s">
         <v>74</v>
       </c>
@@ -4686,19 +4686,19 @@
       </c>
     </row>
     <row r="167" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A167" s="23">
+      <c r="A167" s="26">
         <v>27</v>
       </c>
-      <c r="B167" s="23" t="s">
+      <c r="B167" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C167" s="23" t="s">
+      <c r="C167" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="D167" s="23" t="s">
+      <c r="D167" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="E167" s="23" t="s">
+      <c r="E167" s="26" t="s">
         <v>66</v>
       </c>
       <c r="F167" s="12" t="s">
@@ -4712,11 +4712,11 @@
       </c>
     </row>
     <row r="168" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A168" s="30"/>
-      <c r="B168" s="30"/>
-      <c r="C168" s="24"/>
-      <c r="D168" s="30"/>
-      <c r="E168" s="30"/>
+      <c r="A168" s="24"/>
+      <c r="B168" s="24"/>
+      <c r="C168" s="29"/>
+      <c r="D168" s="24"/>
+      <c r="E168" s="24"/>
       <c r="F168" s="15" t="s">
         <v>172</v>
       </c>
@@ -4728,11 +4728,11 @@
       </c>
     </row>
     <row r="169" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A169" s="30"/>
-      <c r="B169" s="30"/>
-      <c r="C169" s="24"/>
-      <c r="D169" s="30"/>
-      <c r="E169" s="30"/>
+      <c r="A169" s="24"/>
+      <c r="B169" s="24"/>
+      <c r="C169" s="29"/>
+      <c r="D169" s="24"/>
+      <c r="E169" s="24"/>
       <c r="F169" s="12" t="s">
         <v>258</v>
       </c>
@@ -4744,11 +4744,11 @@
       </c>
     </row>
     <row r="170" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A170" s="30"/>
-      <c r="B170" s="30"/>
-      <c r="C170" s="24"/>
-      <c r="D170" s="30"/>
-      <c r="E170" s="30"/>
+      <c r="A170" s="24"/>
+      <c r="B170" s="24"/>
+      <c r="C170" s="29"/>
+      <c r="D170" s="24"/>
+      <c r="E170" s="24"/>
       <c r="F170" s="15" t="s">
         <v>173</v>
       </c>
@@ -4760,11 +4760,11 @@
       </c>
     </row>
     <row r="171" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A171" s="30"/>
-      <c r="B171" s="30"/>
-      <c r="C171" s="24"/>
-      <c r="D171" s="30"/>
-      <c r="E171" s="30"/>
+      <c r="A171" s="24"/>
+      <c r="B171" s="24"/>
+      <c r="C171" s="29"/>
+      <c r="D171" s="24"/>
+      <c r="E171" s="24"/>
       <c r="F171" s="15" t="s">
         <v>273</v>
       </c>
@@ -4776,11 +4776,11 @@
       </c>
     </row>
     <row r="172" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A172" s="30"/>
-      <c r="B172" s="30"/>
-      <c r="C172" s="24"/>
-      <c r="D172" s="30"/>
-      <c r="E172" s="30"/>
+      <c r="A172" s="24"/>
+      <c r="B172" s="24"/>
+      <c r="C172" s="29"/>
+      <c r="D172" s="24"/>
+      <c r="E172" s="24"/>
       <c r="F172" s="15" t="s">
         <v>206</v>
       </c>
@@ -4792,11 +4792,11 @@
       </c>
     </row>
     <row r="173" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A173" s="30"/>
-      <c r="B173" s="30"/>
-      <c r="C173" s="24"/>
-      <c r="D173" s="30"/>
-      <c r="E173" s="30"/>
+      <c r="A173" s="24"/>
+      <c r="B173" s="24"/>
+      <c r="C173" s="29"/>
+      <c r="D173" s="24"/>
+      <c r="E173" s="24"/>
       <c r="F173" s="15" t="s">
         <v>285</v>
       </c>
@@ -4808,11 +4808,11 @@
       </c>
     </row>
     <row r="174" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A174" s="31"/>
-      <c r="B174" s="31"/>
-      <c r="C174" s="25"/>
-      <c r="D174" s="31"/>
-      <c r="E174" s="31"/>
+      <c r="A174" s="25"/>
+      <c r="B174" s="25"/>
+      <c r="C174" s="30"/>
+      <c r="D174" s="25"/>
+      <c r="E174" s="25"/>
       <c r="F174" s="15" t="s">
         <v>286</v>
       </c>
@@ -4824,19 +4824,19 @@
       </c>
     </row>
     <row r="175" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A175" s="23">
+      <c r="A175" s="26">
         <v>28</v>
       </c>
-      <c r="B175" s="23" t="s">
+      <c r="B175" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C175" s="23" t="s">
+      <c r="C175" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="D175" s="23" t="s">
+      <c r="D175" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="E175" s="23" t="s">
+      <c r="E175" s="26" t="s">
         <v>66</v>
       </c>
       <c r="F175" s="12" t="s">
@@ -4850,11 +4850,11 @@
       </c>
     </row>
     <row r="176" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A176" s="30"/>
-      <c r="B176" s="30"/>
-      <c r="C176" s="24"/>
-      <c r="D176" s="30"/>
-      <c r="E176" s="30"/>
+      <c r="A176" s="24"/>
+      <c r="B176" s="24"/>
+      <c r="C176" s="29"/>
+      <c r="D176" s="24"/>
+      <c r="E176" s="24"/>
       <c r="F176" s="15" t="s">
         <v>172</v>
       </c>
@@ -4866,11 +4866,11 @@
       </c>
     </row>
     <row r="177" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A177" s="30"/>
-      <c r="B177" s="30"/>
-      <c r="C177" s="24"/>
-      <c r="D177" s="30"/>
-      <c r="E177" s="30"/>
+      <c r="A177" s="24"/>
+      <c r="B177" s="24"/>
+      <c r="C177" s="29"/>
+      <c r="D177" s="24"/>
+      <c r="E177" s="24"/>
       <c r="F177" s="12" t="s">
         <v>258</v>
       </c>
@@ -4882,11 +4882,11 @@
       </c>
     </row>
     <row r="178" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A178" s="30"/>
-      <c r="B178" s="30"/>
-      <c r="C178" s="24"/>
-      <c r="D178" s="30"/>
-      <c r="E178" s="30"/>
+      <c r="A178" s="24"/>
+      <c r="B178" s="24"/>
+      <c r="C178" s="29"/>
+      <c r="D178" s="24"/>
+      <c r="E178" s="24"/>
       <c r="F178" s="15" t="s">
         <v>173</v>
       </c>
@@ -4898,11 +4898,11 @@
       </c>
     </row>
     <row r="179" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A179" s="30"/>
-      <c r="B179" s="30"/>
-      <c r="C179" s="24"/>
-      <c r="D179" s="30"/>
-      <c r="E179" s="30"/>
+      <c r="A179" s="24"/>
+      <c r="B179" s="24"/>
+      <c r="C179" s="29"/>
+      <c r="D179" s="24"/>
+      <c r="E179" s="24"/>
       <c r="F179" s="15" t="s">
         <v>273</v>
       </c>
@@ -4914,11 +4914,11 @@
       </c>
     </row>
     <row r="180" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A180" s="30"/>
-      <c r="B180" s="30"/>
-      <c r="C180" s="24"/>
-      <c r="D180" s="30"/>
-      <c r="E180" s="30"/>
+      <c r="A180" s="24"/>
+      <c r="B180" s="24"/>
+      <c r="C180" s="29"/>
+      <c r="D180" s="24"/>
+      <c r="E180" s="24"/>
       <c r="F180" s="15" t="s">
         <v>206</v>
       </c>
@@ -4930,11 +4930,11 @@
       </c>
     </row>
     <row r="181" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A181" s="31"/>
-      <c r="B181" s="31"/>
-      <c r="C181" s="25"/>
-      <c r="D181" s="31"/>
-      <c r="E181" s="31"/>
+      <c r="A181" s="25"/>
+      <c r="B181" s="25"/>
+      <c r="C181" s="30"/>
+      <c r="D181" s="25"/>
+      <c r="E181" s="25"/>
       <c r="F181" s="15" t="s">
         <v>290</v>
       </c>
@@ -4946,19 +4946,19 @@
       </c>
     </row>
     <row r="182" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A182" s="23">
+      <c r="A182" s="26">
         <v>29</v>
       </c>
-      <c r="B182" s="23" t="s">
+      <c r="B182" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C182" s="23" t="s">
+      <c r="C182" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="D182" s="23" t="s">
+      <c r="D182" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="E182" s="23" t="s">
+      <c r="E182" s="26" t="s">
         <v>66</v>
       </c>
       <c r="F182" s="12" t="s">
@@ -4972,11 +4972,11 @@
       </c>
     </row>
     <row r="183" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A183" s="30"/>
-      <c r="B183" s="30"/>
-      <c r="C183" s="24"/>
-      <c r="D183" s="30"/>
-      <c r="E183" s="30"/>
+      <c r="A183" s="24"/>
+      <c r="B183" s="24"/>
+      <c r="C183" s="29"/>
+      <c r="D183" s="24"/>
+      <c r="E183" s="24"/>
       <c r="F183" s="15" t="s">
         <v>172</v>
       </c>
@@ -4988,11 +4988,11 @@
       </c>
     </row>
     <row r="184" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A184" s="30"/>
-      <c r="B184" s="30"/>
-      <c r="C184" s="24"/>
-      <c r="D184" s="30"/>
-      <c r="E184" s="30"/>
+      <c r="A184" s="24"/>
+      <c r="B184" s="24"/>
+      <c r="C184" s="29"/>
+      <c r="D184" s="24"/>
+      <c r="E184" s="24"/>
       <c r="F184" s="12" t="s">
         <v>258</v>
       </c>
@@ -5004,11 +5004,11 @@
       </c>
     </row>
     <row r="185" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A185" s="30"/>
-      <c r="B185" s="30"/>
-      <c r="C185" s="24"/>
-      <c r="D185" s="30"/>
-      <c r="E185" s="30"/>
+      <c r="A185" s="24"/>
+      <c r="B185" s="24"/>
+      <c r="C185" s="29"/>
+      <c r="D185" s="24"/>
+      <c r="E185" s="24"/>
       <c r="F185" s="15" t="s">
         <v>173</v>
       </c>
@@ -5020,11 +5020,11 @@
       </c>
     </row>
     <row r="186" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A186" s="30"/>
-      <c r="B186" s="30"/>
-      <c r="C186" s="24"/>
-      <c r="D186" s="30"/>
-      <c r="E186" s="30"/>
+      <c r="A186" s="24"/>
+      <c r="B186" s="24"/>
+      <c r="C186" s="29"/>
+      <c r="D186" s="24"/>
+      <c r="E186" s="24"/>
       <c r="F186" s="15" t="s">
         <v>273</v>
       </c>
@@ -5036,11 +5036,11 @@
       </c>
     </row>
     <row r="187" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A187" s="30"/>
-      <c r="B187" s="30"/>
-      <c r="C187" s="24"/>
-      <c r="D187" s="30"/>
-      <c r="E187" s="30"/>
+      <c r="A187" s="24"/>
+      <c r="B187" s="24"/>
+      <c r="C187" s="29"/>
+      <c r="D187" s="24"/>
+      <c r="E187" s="24"/>
       <c r="F187" s="15" t="s">
         <v>206</v>
       </c>
@@ -5052,11 +5052,11 @@
       </c>
     </row>
     <row r="188" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A188" s="30"/>
-      <c r="B188" s="30"/>
-      <c r="C188" s="24"/>
-      <c r="D188" s="30"/>
-      <c r="E188" s="30"/>
+      <c r="A188" s="24"/>
+      <c r="B188" s="24"/>
+      <c r="C188" s="29"/>
+      <c r="D188" s="24"/>
+      <c r="E188" s="24"/>
       <c r="F188" s="15" t="s">
         <v>79</v>
       </c>
@@ -5068,11 +5068,11 @@
       </c>
     </row>
     <row r="189" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A189" s="30"/>
-      <c r="B189" s="30"/>
-      <c r="C189" s="24"/>
-      <c r="D189" s="30"/>
-      <c r="E189" s="30"/>
+      <c r="A189" s="24"/>
+      <c r="B189" s="24"/>
+      <c r="C189" s="29"/>
+      <c r="D189" s="24"/>
+      <c r="E189" s="24"/>
       <c r="F189" s="15" t="s">
         <v>293</v>
       </c>
@@ -5084,11 +5084,11 @@
       </c>
     </row>
     <row r="190" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A190" s="30"/>
-      <c r="B190" s="30"/>
-      <c r="C190" s="24"/>
-      <c r="D190" s="30"/>
-      <c r="E190" s="30"/>
+      <c r="A190" s="24"/>
+      <c r="B190" s="24"/>
+      <c r="C190" s="29"/>
+      <c r="D190" s="24"/>
+      <c r="E190" s="24"/>
       <c r="F190" s="15" t="s">
         <v>295</v>
       </c>
@@ -5100,11 +5100,11 @@
       </c>
     </row>
     <row r="191" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A191" s="30"/>
-      <c r="B191" s="30"/>
-      <c r="C191" s="24"/>
-      <c r="D191" s="30"/>
-      <c r="E191" s="30"/>
+      <c r="A191" s="24"/>
+      <c r="B191" s="24"/>
+      <c r="C191" s="29"/>
+      <c r="D191" s="24"/>
+      <c r="E191" s="24"/>
       <c r="F191" s="15" t="s">
         <v>82</v>
       </c>
@@ -5116,11 +5116,11 @@
       </c>
     </row>
     <row r="192" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A192" s="30"/>
-      <c r="B192" s="30"/>
-      <c r="C192" s="24"/>
-      <c r="D192" s="30"/>
-      <c r="E192" s="30"/>
+      <c r="A192" s="24"/>
+      <c r="B192" s="24"/>
+      <c r="C192" s="29"/>
+      <c r="D192" s="24"/>
+      <c r="E192" s="24"/>
       <c r="F192" s="15" t="s">
         <v>309</v>
       </c>
@@ -5132,11 +5132,11 @@
       </c>
     </row>
     <row r="193" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A193" s="30"/>
-      <c r="B193" s="30"/>
-      <c r="C193" s="24"/>
-      <c r="D193" s="30"/>
-      <c r="E193" s="30"/>
+      <c r="A193" s="24"/>
+      <c r="B193" s="24"/>
+      <c r="C193" s="29"/>
+      <c r="D193" s="24"/>
+      <c r="E193" s="24"/>
       <c r="F193" s="15" t="s">
         <v>297</v>
       </c>
@@ -5148,11 +5148,11 @@
       </c>
     </row>
     <row r="194" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A194" s="30"/>
-      <c r="B194" s="30"/>
-      <c r="C194" s="24"/>
-      <c r="D194" s="30"/>
-      <c r="E194" s="30"/>
+      <c r="A194" s="24"/>
+      <c r="B194" s="24"/>
+      <c r="C194" s="29"/>
+      <c r="D194" s="24"/>
+      <c r="E194" s="24"/>
       <c r="F194" s="15" t="s">
         <v>115</v>
       </c>
@@ -5164,11 +5164,11 @@
       </c>
     </row>
     <row r="195" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A195" s="30"/>
-      <c r="B195" s="30"/>
-      <c r="C195" s="24"/>
-      <c r="D195" s="30"/>
-      <c r="E195" s="30"/>
+      <c r="A195" s="24"/>
+      <c r="B195" s="24"/>
+      <c r="C195" s="29"/>
+      <c r="D195" s="24"/>
+      <c r="E195" s="24"/>
       <c r="F195" s="15" t="s">
         <v>300</v>
       </c>
@@ -5180,11 +5180,11 @@
       </c>
     </row>
     <row r="196" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A196" s="30"/>
-      <c r="B196" s="30"/>
-      <c r="C196" s="24"/>
-      <c r="D196" s="30"/>
-      <c r="E196" s="30"/>
+      <c r="A196" s="24"/>
+      <c r="B196" s="24"/>
+      <c r="C196" s="29"/>
+      <c r="D196" s="24"/>
+      <c r="E196" s="24"/>
       <c r="F196" s="15" t="s">
         <v>302</v>
       </c>
@@ -5196,11 +5196,11 @@
       </c>
     </row>
     <row r="197" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A197" s="30"/>
-      <c r="B197" s="30"/>
-      <c r="C197" s="24"/>
-      <c r="D197" s="30"/>
-      <c r="E197" s="30"/>
+      <c r="A197" s="24"/>
+      <c r="B197" s="24"/>
+      <c r="C197" s="29"/>
+      <c r="D197" s="24"/>
+      <c r="E197" s="24"/>
       <c r="F197" s="15" t="s">
         <v>305</v>
       </c>
@@ -5212,11 +5212,11 @@
       </c>
     </row>
     <row r="198" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A198" s="30"/>
-      <c r="B198" s="30"/>
-      <c r="C198" s="24"/>
-      <c r="D198" s="30"/>
-      <c r="E198" s="30"/>
+      <c r="A198" s="24"/>
+      <c r="B198" s="24"/>
+      <c r="C198" s="29"/>
+      <c r="D198" s="24"/>
+      <c r="E198" s="24"/>
       <c r="F198" s="15" t="s">
         <v>84</v>
       </c>
@@ -5228,11 +5228,11 @@
       </c>
     </row>
     <row r="199" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A199" s="30"/>
-      <c r="B199" s="30"/>
-      <c r="C199" s="24"/>
-      <c r="D199" s="30"/>
-      <c r="E199" s="30"/>
+      <c r="A199" s="24"/>
+      <c r="B199" s="24"/>
+      <c r="C199" s="29"/>
+      <c r="D199" s="24"/>
+      <c r="E199" s="24"/>
       <c r="F199" s="15" t="s">
         <v>308</v>
       </c>
@@ -5244,11 +5244,11 @@
       </c>
     </row>
     <row r="200" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A200" s="30"/>
-      <c r="B200" s="30"/>
-      <c r="C200" s="24"/>
-      <c r="D200" s="30"/>
-      <c r="E200" s="30"/>
+      <c r="A200" s="24"/>
+      <c r="B200" s="24"/>
+      <c r="C200" s="29"/>
+      <c r="D200" s="24"/>
+      <c r="E200" s="24"/>
       <c r="F200" s="15" t="s">
         <v>310</v>
       </c>
@@ -5260,11 +5260,11 @@
       </c>
     </row>
     <row r="201" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A201" s="31"/>
-      <c r="B201" s="31"/>
-      <c r="C201" s="25"/>
-      <c r="D201" s="31"/>
-      <c r="E201" s="31"/>
+      <c r="A201" s="25"/>
+      <c r="B201" s="25"/>
+      <c r="C201" s="30"/>
+      <c r="D201" s="25"/>
+      <c r="E201" s="25"/>
       <c r="F201" s="15" t="s">
         <v>311</v>
       </c>
@@ -5276,19 +5276,19 @@
       </c>
     </row>
     <row r="202" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A202" s="23">
+      <c r="A202" s="26">
         <v>30</v>
       </c>
-      <c r="B202" s="23" t="s">
+      <c r="B202" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="C202" s="23" t="s">
+      <c r="C202" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="D202" s="23" t="s">
+      <c r="D202" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="E202" s="23" t="s">
+      <c r="E202" s="26" t="s">
         <v>66</v>
       </c>
       <c r="F202" s="12" t="s">
@@ -5302,11 +5302,11 @@
       </c>
     </row>
     <row r="203" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A203" s="30"/>
-      <c r="B203" s="30"/>
-      <c r="C203" s="24"/>
-      <c r="D203" s="30"/>
-      <c r="E203" s="30"/>
+      <c r="A203" s="24"/>
+      <c r="B203" s="24"/>
+      <c r="C203" s="29"/>
+      <c r="D203" s="24"/>
+      <c r="E203" s="24"/>
       <c r="F203" s="15" t="s">
         <v>172</v>
       </c>
@@ -5318,11 +5318,11 @@
       </c>
     </row>
     <row r="204" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A204" s="30"/>
-      <c r="B204" s="30"/>
-      <c r="C204" s="24"/>
-      <c r="D204" s="30"/>
-      <c r="E204" s="30"/>
+      <c r="A204" s="24"/>
+      <c r="B204" s="24"/>
+      <c r="C204" s="29"/>
+      <c r="D204" s="24"/>
+      <c r="E204" s="24"/>
       <c r="F204" s="12" t="s">
         <v>258</v>
       </c>
@@ -5334,11 +5334,11 @@
       </c>
     </row>
     <row r="205" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A205" s="30"/>
-      <c r="B205" s="30"/>
-      <c r="C205" s="24"/>
-      <c r="D205" s="30"/>
-      <c r="E205" s="30"/>
+      <c r="A205" s="24"/>
+      <c r="B205" s="24"/>
+      <c r="C205" s="29"/>
+      <c r="D205" s="24"/>
+      <c r="E205" s="24"/>
       <c r="F205" s="15" t="s">
         <v>173</v>
       </c>
@@ -5350,11 +5350,11 @@
       </c>
     </row>
     <row r="206" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A206" s="30"/>
-      <c r="B206" s="30"/>
-      <c r="C206" s="24"/>
-      <c r="D206" s="30"/>
-      <c r="E206" s="30"/>
+      <c r="A206" s="24"/>
+      <c r="B206" s="24"/>
+      <c r="C206" s="29"/>
+      <c r="D206" s="24"/>
+      <c r="E206" s="24"/>
       <c r="F206" s="15" t="s">
         <v>273</v>
       </c>
@@ -5366,11 +5366,11 @@
       </c>
     </row>
     <row r="207" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A207" s="30"/>
-      <c r="B207" s="30"/>
-      <c r="C207" s="24"/>
-      <c r="D207" s="30"/>
-      <c r="E207" s="30"/>
+      <c r="A207" s="24"/>
+      <c r="B207" s="24"/>
+      <c r="C207" s="29"/>
+      <c r="D207" s="24"/>
+      <c r="E207" s="24"/>
       <c r="F207" s="15" t="s">
         <v>206</v>
       </c>
@@ -5382,11 +5382,11 @@
       </c>
     </row>
     <row r="208" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A208" s="30"/>
-      <c r="B208" s="30"/>
-      <c r="C208" s="24"/>
-      <c r="D208" s="30"/>
-      <c r="E208" s="30"/>
+      <c r="A208" s="24"/>
+      <c r="B208" s="24"/>
+      <c r="C208" s="29"/>
+      <c r="D208" s="24"/>
+      <c r="E208" s="24"/>
       <c r="F208" s="15" t="s">
         <v>79</v>
       </c>
@@ -5398,11 +5398,11 @@
       </c>
     </row>
     <row r="209" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A209" s="30"/>
-      <c r="B209" s="30"/>
-      <c r="C209" s="24"/>
-      <c r="D209" s="30"/>
-      <c r="E209" s="30"/>
+      <c r="A209" s="24"/>
+      <c r="B209" s="24"/>
+      <c r="C209" s="29"/>
+      <c r="D209" s="24"/>
+      <c r="E209" s="24"/>
       <c r="F209" s="15" t="s">
         <v>293</v>
       </c>
@@ -5414,11 +5414,11 @@
       </c>
     </row>
     <row r="210" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A210" s="30"/>
-      <c r="B210" s="30"/>
-      <c r="C210" s="24"/>
-      <c r="D210" s="30"/>
-      <c r="E210" s="30"/>
+      <c r="A210" s="24"/>
+      <c r="B210" s="24"/>
+      <c r="C210" s="29"/>
+      <c r="D210" s="24"/>
+      <c r="E210" s="24"/>
       <c r="F210" s="15" t="s">
         <v>313</v>
       </c>
@@ -5430,19 +5430,19 @@
       </c>
     </row>
     <row r="211" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A211" s="23">
+      <c r="A211" s="26">
         <v>31</v>
       </c>
-      <c r="B211" s="23" t="s">
+      <c r="B211" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="C211" s="23" t="s">
+      <c r="C211" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="D211" s="23" t="s">
+      <c r="D211" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="E211" s="23" t="s">
+      <c r="E211" s="26" t="s">
         <v>66</v>
       </c>
       <c r="F211" s="12" t="s">
@@ -5456,11 +5456,11 @@
       </c>
     </row>
     <row r="212" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A212" s="30"/>
-      <c r="B212" s="30"/>
-      <c r="C212" s="24"/>
-      <c r="D212" s="30"/>
-      <c r="E212" s="30"/>
+      <c r="A212" s="24"/>
+      <c r="B212" s="24"/>
+      <c r="C212" s="29"/>
+      <c r="D212" s="24"/>
+      <c r="E212" s="24"/>
       <c r="F212" s="15" t="s">
         <v>172</v>
       </c>
@@ -5472,11 +5472,11 @@
       </c>
     </row>
     <row r="213" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A213" s="30"/>
-      <c r="B213" s="30"/>
-      <c r="C213" s="24"/>
-      <c r="D213" s="30"/>
-      <c r="E213" s="30"/>
+      <c r="A213" s="24"/>
+      <c r="B213" s="24"/>
+      <c r="C213" s="29"/>
+      <c r="D213" s="24"/>
+      <c r="E213" s="24"/>
       <c r="F213" s="12" t="s">
         <v>258</v>
       </c>
@@ -5488,11 +5488,11 @@
       </c>
     </row>
     <row r="214" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A214" s="30"/>
-      <c r="B214" s="30"/>
-      <c r="C214" s="24"/>
-      <c r="D214" s="30"/>
-      <c r="E214" s="30"/>
+      <c r="A214" s="24"/>
+      <c r="B214" s="24"/>
+      <c r="C214" s="29"/>
+      <c r="D214" s="24"/>
+      <c r="E214" s="24"/>
       <c r="F214" s="15" t="s">
         <v>173</v>
       </c>
@@ -5504,11 +5504,11 @@
       </c>
     </row>
     <row r="215" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A215" s="30"/>
-      <c r="B215" s="30"/>
-      <c r="C215" s="24"/>
-      <c r="D215" s="30"/>
-      <c r="E215" s="30"/>
+      <c r="A215" s="24"/>
+      <c r="B215" s="24"/>
+      <c r="C215" s="29"/>
+      <c r="D215" s="24"/>
+      <c r="E215" s="24"/>
       <c r="F215" s="15" t="s">
         <v>273</v>
       </c>
@@ -5520,11 +5520,11 @@
       </c>
     </row>
     <row r="216" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A216" s="30"/>
-      <c r="B216" s="30"/>
-      <c r="C216" s="24"/>
-      <c r="D216" s="30"/>
-      <c r="E216" s="30"/>
+      <c r="A216" s="24"/>
+      <c r="B216" s="24"/>
+      <c r="C216" s="29"/>
+      <c r="D216" s="24"/>
+      <c r="E216" s="24"/>
       <c r="F216" s="15" t="s">
         <v>206</v>
       </c>
@@ -5536,11 +5536,11 @@
       </c>
     </row>
     <row r="217" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A217" s="30"/>
-      <c r="B217" s="30"/>
-      <c r="C217" s="24"/>
-      <c r="D217" s="30"/>
-      <c r="E217" s="30"/>
+      <c r="A217" s="24"/>
+      <c r="B217" s="24"/>
+      <c r="C217" s="29"/>
+      <c r="D217" s="24"/>
+      <c r="E217" s="24"/>
       <c r="F217" s="15" t="s">
         <v>79</v>
       </c>
@@ -5552,11 +5552,11 @@
       </c>
     </row>
     <row r="218" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A218" s="30"/>
-      <c r="B218" s="30"/>
-      <c r="C218" s="24"/>
-      <c r="D218" s="30"/>
-      <c r="E218" s="30"/>
+      <c r="A218" s="24"/>
+      <c r="B218" s="24"/>
+      <c r="C218" s="29"/>
+      <c r="D218" s="24"/>
+      <c r="E218" s="24"/>
       <c r="F218" s="15" t="s">
         <v>293</v>
       </c>
@@ -5568,11 +5568,11 @@
       </c>
     </row>
     <row r="219" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A219" s="30"/>
-      <c r="B219" s="30"/>
-      <c r="C219" s="24"/>
-      <c r="D219" s="30"/>
-      <c r="E219" s="30"/>
+      <c r="A219" s="24"/>
+      <c r="B219" s="24"/>
+      <c r="C219" s="29"/>
+      <c r="D219" s="24"/>
+      <c r="E219" s="24"/>
       <c r="F219" s="15" t="s">
         <v>317</v>
       </c>
@@ -5584,11 +5584,11 @@
       </c>
     </row>
     <row r="220" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A220" s="30"/>
-      <c r="B220" s="30"/>
-      <c r="C220" s="24"/>
-      <c r="D220" s="30"/>
-      <c r="E220" s="30"/>
+      <c r="A220" s="24"/>
+      <c r="B220" s="24"/>
+      <c r="C220" s="29"/>
+      <c r="D220" s="24"/>
+      <c r="E220" s="24"/>
       <c r="F220" s="15" t="s">
         <v>88</v>
       </c>
@@ -5600,11 +5600,11 @@
       </c>
     </row>
     <row r="221" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A221" s="30"/>
-      <c r="B221" s="30"/>
-      <c r="C221" s="24"/>
-      <c r="D221" s="30"/>
-      <c r="E221" s="30"/>
+      <c r="A221" s="24"/>
+      <c r="B221" s="24"/>
+      <c r="C221" s="29"/>
+      <c r="D221" s="24"/>
+      <c r="E221" s="24"/>
       <c r="F221" s="15" t="s">
         <v>89</v>
       </c>
@@ -5616,11 +5616,11 @@
       </c>
     </row>
     <row r="222" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A222" s="31"/>
-      <c r="B222" s="31"/>
-      <c r="C222" s="25"/>
-      <c r="D222" s="31"/>
-      <c r="E222" s="31"/>
+      <c r="A222" s="25"/>
+      <c r="B222" s="25"/>
+      <c r="C222" s="30"/>
+      <c r="D222" s="25"/>
+      <c r="E222" s="25"/>
       <c r="F222" s="11" t="s">
         <v>316</v>
       </c>
@@ -5632,19 +5632,19 @@
       </c>
     </row>
     <row r="223" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A223" s="23">
+      <c r="A223" s="26">
         <v>32</v>
       </c>
-      <c r="B223" s="23" t="s">
+      <c r="B223" s="26" t="s">
         <v>319</v>
       </c>
-      <c r="C223" s="23" t="s">
+      <c r="C223" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="D223" s="23" t="s">
+      <c r="D223" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E223" s="23" t="s">
+      <c r="E223" s="26" t="s">
         <v>66</v>
       </c>
       <c r="F223" s="12" t="s">
@@ -5658,11 +5658,11 @@
       </c>
     </row>
     <row r="224" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A224" s="30"/>
-      <c r="B224" s="30"/>
-      <c r="C224" s="24"/>
-      <c r="D224" s="30"/>
-      <c r="E224" s="30"/>
+      <c r="A224" s="24"/>
+      <c r="B224" s="24"/>
+      <c r="C224" s="29"/>
+      <c r="D224" s="24"/>
+      <c r="E224" s="24"/>
       <c r="F224" s="15" t="s">
         <v>172</v>
       </c>
@@ -5674,11 +5674,11 @@
       </c>
     </row>
     <row r="225" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A225" s="30"/>
-      <c r="B225" s="30"/>
-      <c r="C225" s="24"/>
-      <c r="D225" s="30"/>
-      <c r="E225" s="30"/>
+      <c r="A225" s="24"/>
+      <c r="B225" s="24"/>
+      <c r="C225" s="29"/>
+      <c r="D225" s="24"/>
+      <c r="E225" s="24"/>
       <c r="F225" s="12" t="s">
         <v>258</v>
       </c>
@@ -5690,11 +5690,11 @@
       </c>
     </row>
     <row r="226" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A226" s="30"/>
-      <c r="B226" s="30"/>
-      <c r="C226" s="24"/>
-      <c r="D226" s="30"/>
-      <c r="E226" s="30"/>
+      <c r="A226" s="24"/>
+      <c r="B226" s="24"/>
+      <c r="C226" s="29"/>
+      <c r="D226" s="24"/>
+      <c r="E226" s="24"/>
       <c r="F226" s="15" t="s">
         <v>173</v>
       </c>
@@ -5706,11 +5706,11 @@
       </c>
     </row>
     <row r="227" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A227" s="30"/>
-      <c r="B227" s="30"/>
-      <c r="C227" s="24"/>
-      <c r="D227" s="30"/>
-      <c r="E227" s="30"/>
+      <c r="A227" s="24"/>
+      <c r="B227" s="24"/>
+      <c r="C227" s="29"/>
+      <c r="D227" s="24"/>
+      <c r="E227" s="24"/>
       <c r="F227" s="15" t="s">
         <v>273</v>
       </c>
@@ -5722,11 +5722,11 @@
       </c>
     </row>
     <row r="228" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A228" s="30"/>
-      <c r="B228" s="30"/>
-      <c r="C228" s="24"/>
-      <c r="D228" s="30"/>
-      <c r="E228" s="30"/>
+      <c r="A228" s="24"/>
+      <c r="B228" s="24"/>
+      <c r="C228" s="29"/>
+      <c r="D228" s="24"/>
+      <c r="E228" s="24"/>
       <c r="F228" s="15" t="s">
         <v>206</v>
       </c>
@@ -5738,11 +5738,11 @@
       </c>
     </row>
     <row r="229" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A229" s="30"/>
-      <c r="B229" s="30"/>
-      <c r="C229" s="24"/>
-      <c r="D229" s="30"/>
-      <c r="E229" s="30"/>
+      <c r="A229" s="24"/>
+      <c r="B229" s="24"/>
+      <c r="C229" s="29"/>
+      <c r="D229" s="24"/>
+      <c r="E229" s="24"/>
       <c r="F229" s="15" t="s">
         <v>79</v>
       </c>
@@ -5754,11 +5754,11 @@
       </c>
     </row>
     <row r="230" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A230" s="30"/>
-      <c r="B230" s="30"/>
-      <c r="C230" s="24"/>
-      <c r="D230" s="30"/>
-      <c r="E230" s="30"/>
+      <c r="A230" s="24"/>
+      <c r="B230" s="24"/>
+      <c r="C230" s="29"/>
+      <c r="D230" s="24"/>
+      <c r="E230" s="24"/>
       <c r="F230" s="15" t="s">
         <v>293</v>
       </c>
@@ -5770,11 +5770,11 @@
       </c>
     </row>
     <row r="231" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A231" s="30"/>
-      <c r="B231" s="30"/>
-      <c r="C231" s="24"/>
-      <c r="D231" s="30"/>
-      <c r="E231" s="30"/>
+      <c r="A231" s="24"/>
+      <c r="B231" s="24"/>
+      <c r="C231" s="29"/>
+      <c r="D231" s="24"/>
+      <c r="E231" s="24"/>
       <c r="F231" s="19" t="s">
         <v>408</v>
       </c>
@@ -5786,11 +5786,11 @@
       </c>
     </row>
     <row r="232" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A232" s="31"/>
-      <c r="B232" s="31"/>
-      <c r="C232" s="25"/>
-      <c r="D232" s="31"/>
-      <c r="E232" s="31"/>
+      <c r="A232" s="25"/>
+      <c r="B232" s="25"/>
+      <c r="C232" s="30"/>
+      <c r="D232" s="25"/>
+      <c r="E232" s="25"/>
       <c r="F232" s="15" t="s">
         <v>92</v>
       </c>
@@ -5802,19 +5802,19 @@
       </c>
     </row>
     <row r="233" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A233" s="23">
+      <c r="A233" s="26">
         <v>33</v>
       </c>
-      <c r="B233" s="23" t="s">
+      <c r="B233" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="C233" s="23" t="s">
+      <c r="C233" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="D233" s="23" t="s">
+      <c r="D233" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="E233" s="23" t="s">
+      <c r="E233" s="26" t="s">
         <v>66</v>
       </c>
       <c r="F233" s="12" t="s">
@@ -5828,11 +5828,11 @@
       </c>
     </row>
     <row r="234" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A234" s="30"/>
-      <c r="B234" s="30"/>
-      <c r="C234" s="24"/>
-      <c r="D234" s="30"/>
-      <c r="E234" s="30"/>
+      <c r="A234" s="24"/>
+      <c r="B234" s="24"/>
+      <c r="C234" s="29"/>
+      <c r="D234" s="24"/>
+      <c r="E234" s="24"/>
       <c r="F234" s="15" t="s">
         <v>172</v>
       </c>
@@ -5844,11 +5844,11 @@
       </c>
     </row>
     <row r="235" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A235" s="30"/>
-      <c r="B235" s="30"/>
-      <c r="C235" s="24"/>
-      <c r="D235" s="30"/>
-      <c r="E235" s="30"/>
+      <c r="A235" s="24"/>
+      <c r="B235" s="24"/>
+      <c r="C235" s="29"/>
+      <c r="D235" s="24"/>
+      <c r="E235" s="24"/>
       <c r="F235" s="12" t="s">
         <v>258</v>
       </c>
@@ -5860,11 +5860,11 @@
       </c>
     </row>
     <row r="236" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A236" s="30"/>
-      <c r="B236" s="30"/>
-      <c r="C236" s="24"/>
-      <c r="D236" s="30"/>
-      <c r="E236" s="30"/>
+      <c r="A236" s="24"/>
+      <c r="B236" s="24"/>
+      <c r="C236" s="29"/>
+      <c r="D236" s="24"/>
+      <c r="E236" s="24"/>
       <c r="F236" s="15" t="s">
         <v>173</v>
       </c>
@@ -5876,11 +5876,11 @@
       </c>
     </row>
     <row r="237" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A237" s="30"/>
-      <c r="B237" s="30"/>
-      <c r="C237" s="24"/>
-      <c r="D237" s="30"/>
-      <c r="E237" s="30"/>
+      <c r="A237" s="24"/>
+      <c r="B237" s="24"/>
+      <c r="C237" s="29"/>
+      <c r="D237" s="24"/>
+      <c r="E237" s="24"/>
       <c r="F237" s="15" t="s">
         <v>273</v>
       </c>
@@ -5892,11 +5892,11 @@
       </c>
     </row>
     <row r="238" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A238" s="30"/>
-      <c r="B238" s="30"/>
-      <c r="C238" s="24"/>
-      <c r="D238" s="30"/>
-      <c r="E238" s="30"/>
+      <c r="A238" s="24"/>
+      <c r="B238" s="24"/>
+      <c r="C238" s="29"/>
+      <c r="D238" s="24"/>
+      <c r="E238" s="24"/>
       <c r="F238" s="15" t="s">
         <v>206</v>
       </c>
@@ -5908,11 +5908,11 @@
       </c>
     </row>
     <row r="239" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A239" s="30"/>
-      <c r="B239" s="30"/>
-      <c r="C239" s="24"/>
-      <c r="D239" s="30"/>
-      <c r="E239" s="30"/>
+      <c r="A239" s="24"/>
+      <c r="B239" s="24"/>
+      <c r="C239" s="29"/>
+      <c r="D239" s="24"/>
+      <c r="E239" s="24"/>
       <c r="F239" s="15" t="s">
         <v>79</v>
       </c>
@@ -5924,11 +5924,11 @@
       </c>
     </row>
     <row r="240" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A240" s="30"/>
-      <c r="B240" s="30"/>
-      <c r="C240" s="24"/>
-      <c r="D240" s="30"/>
-      <c r="E240" s="30"/>
+      <c r="A240" s="24"/>
+      <c r="B240" s="24"/>
+      <c r="C240" s="29"/>
+      <c r="D240" s="24"/>
+      <c r="E240" s="24"/>
       <c r="F240" s="15" t="s">
         <v>293</v>
       </c>
@@ -5940,11 +5940,11 @@
       </c>
     </row>
     <row r="241" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A241" s="30"/>
-      <c r="B241" s="30"/>
-      <c r="C241" s="24"/>
-      <c r="D241" s="30"/>
-      <c r="E241" s="30"/>
+      <c r="A241" s="24"/>
+      <c r="B241" s="24"/>
+      <c r="C241" s="29"/>
+      <c r="D241" s="24"/>
+      <c r="E241" s="24"/>
       <c r="F241" s="15" t="s">
         <v>321</v>
       </c>
@@ -5956,11 +5956,11 @@
       </c>
     </row>
     <row r="242" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A242" s="30"/>
-      <c r="B242" s="30"/>
-      <c r="C242" s="24"/>
-      <c r="D242" s="30"/>
-      <c r="E242" s="30"/>
+      <c r="A242" s="24"/>
+      <c r="B242" s="24"/>
+      <c r="C242" s="29"/>
+      <c r="D242" s="24"/>
+      <c r="E242" s="24"/>
       <c r="F242" s="15" t="s">
         <v>322</v>
       </c>
@@ -5972,11 +5972,11 @@
       </c>
     </row>
     <row r="243" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A243" s="31"/>
-      <c r="B243" s="31"/>
-      <c r="C243" s="25"/>
-      <c r="D243" s="31"/>
-      <c r="E243" s="31"/>
+      <c r="A243" s="25"/>
+      <c r="B243" s="25"/>
+      <c r="C243" s="30"/>
+      <c r="D243" s="25"/>
+      <c r="E243" s="25"/>
       <c r="F243" s="15" t="s">
         <v>325</v>
       </c>
@@ -5991,14 +5991,14 @@
       <c r="A244" s="32">
         <v>34</v>
       </c>
-      <c r="B244" s="27" t="s">
+      <c r="B244" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="C244" s="27"/>
-      <c r="D244" s="27" t="s">
+      <c r="C244" s="33"/>
+      <c r="D244" s="33" t="s">
         <v>326</v>
       </c>
-      <c r="E244" s="30" t="s">
+      <c r="E244" s="24" t="s">
         <v>66</v>
       </c>
       <c r="F244" s="12" t="s">
@@ -6012,11 +6012,11 @@
       </c>
     </row>
     <row r="245" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A245" s="30"/>
-      <c r="B245" s="28"/>
-      <c r="C245" s="28"/>
-      <c r="D245" s="28"/>
-      <c r="E245" s="30"/>
+      <c r="A245" s="24"/>
+      <c r="B245" s="34"/>
+      <c r="C245" s="34"/>
+      <c r="D245" s="34"/>
+      <c r="E245" s="24"/>
       <c r="F245" s="15" t="s">
         <v>172</v>
       </c>
@@ -6028,11 +6028,11 @@
       </c>
     </row>
     <row r="246" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A246" s="30"/>
-      <c r="B246" s="28"/>
-      <c r="C246" s="28"/>
-      <c r="D246" s="28"/>
-      <c r="E246" s="30"/>
+      <c r="A246" s="24"/>
+      <c r="B246" s="34"/>
+      <c r="C246" s="34"/>
+      <c r="D246" s="34"/>
+      <c r="E246" s="24"/>
       <c r="F246" s="12" t="s">
         <v>258</v>
       </c>
@@ -6044,11 +6044,11 @@
       </c>
     </row>
     <row r="247" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A247" s="30"/>
-      <c r="B247" s="28"/>
-      <c r="C247" s="28"/>
-      <c r="D247" s="28"/>
-      <c r="E247" s="30"/>
+      <c r="A247" s="24"/>
+      <c r="B247" s="34"/>
+      <c r="C247" s="34"/>
+      <c r="D247" s="34"/>
+      <c r="E247" s="24"/>
       <c r="F247" s="15" t="s">
         <v>173</v>
       </c>
@@ -6060,11 +6060,11 @@
       </c>
     </row>
     <row r="248" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A248" s="30"/>
-      <c r="B248" s="28"/>
-      <c r="C248" s="28"/>
-      <c r="D248" s="28"/>
-      <c r="E248" s="30"/>
+      <c r="A248" s="24"/>
+      <c r="B248" s="34"/>
+      <c r="C248" s="34"/>
+      <c r="D248" s="34"/>
+      <c r="E248" s="24"/>
       <c r="F248" s="15" t="s">
         <v>273</v>
       </c>
@@ -6076,11 +6076,11 @@
       </c>
     </row>
     <row r="249" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A249" s="30"/>
-      <c r="B249" s="28"/>
-      <c r="C249" s="28"/>
-      <c r="D249" s="28"/>
-      <c r="E249" s="30"/>
+      <c r="A249" s="24"/>
+      <c r="B249" s="34"/>
+      <c r="C249" s="34"/>
+      <c r="D249" s="34"/>
+      <c r="E249" s="24"/>
       <c r="F249" s="15" t="s">
         <v>206</v>
       </c>
@@ -6092,11 +6092,11 @@
       </c>
     </row>
     <row r="250" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A250" s="30"/>
-      <c r="B250" s="28"/>
-      <c r="C250" s="28"/>
-      <c r="D250" s="28"/>
-      <c r="E250" s="30"/>
+      <c r="A250" s="24"/>
+      <c r="B250" s="34"/>
+      <c r="C250" s="34"/>
+      <c r="D250" s="34"/>
+      <c r="E250" s="24"/>
       <c r="F250" s="15" t="s">
         <v>79</v>
       </c>
@@ -6108,11 +6108,11 @@
       </c>
     </row>
     <row r="251" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A251" s="30"/>
-      <c r="B251" s="28"/>
-      <c r="C251" s="28"/>
-      <c r="D251" s="28"/>
-      <c r="E251" s="30"/>
+      <c r="A251" s="24"/>
+      <c r="B251" s="34"/>
+      <c r="C251" s="34"/>
+      <c r="D251" s="34"/>
+      <c r="E251" s="24"/>
       <c r="F251" s="15" t="s">
         <v>293</v>
       </c>
@@ -6124,11 +6124,11 @@
       </c>
     </row>
     <row r="252" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A252" s="30"/>
-      <c r="B252" s="28"/>
-      <c r="C252" s="28"/>
-      <c r="D252" s="28"/>
-      <c r="E252" s="30"/>
+      <c r="A252" s="24"/>
+      <c r="B252" s="34"/>
+      <c r="C252" s="34"/>
+      <c r="D252" s="34"/>
+      <c r="E252" s="24"/>
       <c r="F252" s="15" t="s">
         <v>302</v>
       </c>
@@ -6140,11 +6140,11 @@
       </c>
     </row>
     <row r="253" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A253" s="30"/>
-      <c r="B253" s="28"/>
-      <c r="C253" s="28"/>
-      <c r="D253" s="28"/>
-      <c r="E253" s="30"/>
+      <c r="A253" s="24"/>
+      <c r="B253" s="34"/>
+      <c r="C253" s="34"/>
+      <c r="D253" s="34"/>
+      <c r="E253" s="24"/>
       <c r="F253" s="15" t="s">
         <v>98</v>
       </c>
@@ -6156,11 +6156,11 @@
       </c>
     </row>
     <row r="254" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A254" s="30"/>
-      <c r="B254" s="28"/>
-      <c r="C254" s="28"/>
-      <c r="D254" s="28"/>
-      <c r="E254" s="30"/>
+      <c r="A254" s="24"/>
+      <c r="B254" s="34"/>
+      <c r="C254" s="34"/>
+      <c r="D254" s="34"/>
+      <c r="E254" s="24"/>
       <c r="F254" s="15" t="s">
         <v>100</v>
       </c>
@@ -6172,11 +6172,11 @@
       </c>
     </row>
     <row r="255" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A255" s="30"/>
-      <c r="B255" s="28"/>
-      <c r="C255" s="28"/>
-      <c r="D255" s="28"/>
-      <c r="E255" s="30"/>
+      <c r="A255" s="24"/>
+      <c r="B255" s="34"/>
+      <c r="C255" s="34"/>
+      <c r="D255" s="34"/>
+      <c r="E255" s="24"/>
       <c r="F255" s="15" t="s">
         <v>328</v>
       </c>
@@ -6188,11 +6188,11 @@
       </c>
     </row>
     <row r="256" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A256" s="30"/>
-      <c r="B256" s="28"/>
-      <c r="C256" s="28"/>
-      <c r="D256" s="28"/>
-      <c r="E256" s="30"/>
+      <c r="A256" s="24"/>
+      <c r="B256" s="34"/>
+      <c r="C256" s="34"/>
+      <c r="D256" s="34"/>
+      <c r="E256" s="24"/>
       <c r="F256" s="15" t="s">
         <v>329</v>
       </c>
@@ -6204,11 +6204,11 @@
       </c>
     </row>
     <row r="257" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A257" s="31"/>
-      <c r="B257" s="29"/>
-      <c r="C257" s="29"/>
-      <c r="D257" s="29"/>
-      <c r="E257" s="31"/>
+      <c r="A257" s="25"/>
+      <c r="B257" s="35"/>
+      <c r="C257" s="35"/>
+      <c r="D257" s="35"/>
+      <c r="E257" s="25"/>
       <c r="F257" s="15" t="s">
         <v>300</v>
       </c>
@@ -6220,19 +6220,19 @@
       </c>
     </row>
     <row r="258" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A258" s="23">
+      <c r="A258" s="26">
         <v>35</v>
       </c>
-      <c r="B258" s="23" t="s">
+      <c r="B258" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="C258" s="23" t="s">
+      <c r="C258" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="D258" s="23" t="s">
+      <c r="D258" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="E258" s="23" t="s">
+      <c r="E258" s="26" t="s">
         <v>66</v>
       </c>
       <c r="F258" s="12" t="s">
@@ -6246,11 +6246,11 @@
       </c>
     </row>
     <row r="259" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A259" s="30"/>
-      <c r="B259" s="30"/>
-      <c r="C259" s="24"/>
-      <c r="D259" s="30"/>
-      <c r="E259" s="30"/>
+      <c r="A259" s="24"/>
+      <c r="B259" s="24"/>
+      <c r="C259" s="29"/>
+      <c r="D259" s="24"/>
+      <c r="E259" s="24"/>
       <c r="F259" s="15" t="s">
         <v>172</v>
       </c>
@@ -6262,11 +6262,11 @@
       </c>
     </row>
     <row r="260" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A260" s="30"/>
-      <c r="B260" s="30"/>
-      <c r="C260" s="24"/>
-      <c r="D260" s="30"/>
-      <c r="E260" s="30"/>
+      <c r="A260" s="24"/>
+      <c r="B260" s="24"/>
+      <c r="C260" s="29"/>
+      <c r="D260" s="24"/>
+      <c r="E260" s="24"/>
       <c r="F260" s="12" t="s">
         <v>258</v>
       </c>
@@ -6278,11 +6278,11 @@
       </c>
     </row>
     <row r="261" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A261" s="30"/>
-      <c r="B261" s="30"/>
-      <c r="C261" s="24"/>
-      <c r="D261" s="30"/>
-      <c r="E261" s="30"/>
+      <c r="A261" s="24"/>
+      <c r="B261" s="24"/>
+      <c r="C261" s="29"/>
+      <c r="D261" s="24"/>
+      <c r="E261" s="24"/>
       <c r="F261" s="15" t="s">
         <v>173</v>
       </c>
@@ -6294,11 +6294,11 @@
       </c>
     </row>
     <row r="262" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A262" s="30"/>
-      <c r="B262" s="30"/>
-      <c r="C262" s="24"/>
-      <c r="D262" s="30"/>
-      <c r="E262" s="30"/>
+      <c r="A262" s="24"/>
+      <c r="B262" s="24"/>
+      <c r="C262" s="29"/>
+      <c r="D262" s="24"/>
+      <c r="E262" s="24"/>
       <c r="F262" s="15" t="s">
         <v>273</v>
       </c>
@@ -6310,11 +6310,11 @@
       </c>
     </row>
     <row r="263" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A263" s="30"/>
-      <c r="B263" s="30"/>
-      <c r="C263" s="24"/>
-      <c r="D263" s="30"/>
-      <c r="E263" s="30"/>
+      <c r="A263" s="24"/>
+      <c r="B263" s="24"/>
+      <c r="C263" s="29"/>
+      <c r="D263" s="24"/>
+      <c r="E263" s="24"/>
       <c r="F263" s="15" t="s">
         <v>206</v>
       </c>
@@ -6326,11 +6326,11 @@
       </c>
     </row>
     <row r="264" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A264" s="30"/>
-      <c r="B264" s="30"/>
-      <c r="C264" s="24"/>
-      <c r="D264" s="30"/>
-      <c r="E264" s="30"/>
+      <c r="A264" s="24"/>
+      <c r="B264" s="24"/>
+      <c r="C264" s="29"/>
+      <c r="D264" s="24"/>
+      <c r="E264" s="24"/>
       <c r="F264" s="15" t="s">
         <v>79</v>
       </c>
@@ -6342,11 +6342,11 @@
       </c>
     </row>
     <row r="265" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A265" s="30"/>
-      <c r="B265" s="30"/>
-      <c r="C265" s="24"/>
-      <c r="D265" s="30"/>
-      <c r="E265" s="30"/>
+      <c r="A265" s="24"/>
+      <c r="B265" s="24"/>
+      <c r="C265" s="29"/>
+      <c r="D265" s="24"/>
+      <c r="E265" s="24"/>
       <c r="F265" s="15" t="s">
         <v>293</v>
       </c>
@@ -6358,11 +6358,11 @@
       </c>
     </row>
     <row r="266" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A266" s="30"/>
-      <c r="B266" s="30"/>
-      <c r="C266" s="24"/>
-      <c r="D266" s="30"/>
-      <c r="E266" s="30"/>
+      <c r="A266" s="24"/>
+      <c r="B266" s="24"/>
+      <c r="C266" s="29"/>
+      <c r="D266" s="24"/>
+      <c r="E266" s="24"/>
       <c r="F266" s="15" t="s">
         <v>302</v>
       </c>
@@ -6374,11 +6374,11 @@
       </c>
     </row>
     <row r="267" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A267" s="30"/>
-      <c r="B267" s="30"/>
-      <c r="C267" s="24"/>
-      <c r="D267" s="30"/>
-      <c r="E267" s="30"/>
+      <c r="A267" s="24"/>
+      <c r="B267" s="24"/>
+      <c r="C267" s="29"/>
+      <c r="D267" s="24"/>
+      <c r="E267" s="24"/>
       <c r="F267" s="15" t="s">
         <v>104</v>
       </c>
@@ -6390,11 +6390,11 @@
       </c>
     </row>
     <row r="268" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A268" s="31"/>
-      <c r="B268" s="31"/>
-      <c r="C268" s="25"/>
-      <c r="D268" s="31"/>
-      <c r="E268" s="31"/>
+      <c r="A268" s="25"/>
+      <c r="B268" s="25"/>
+      <c r="C268" s="30"/>
+      <c r="D268" s="25"/>
+      <c r="E268" s="25"/>
       <c r="F268" s="15" t="s">
         <v>105</v>
       </c>
@@ -6406,19 +6406,19 @@
       </c>
     </row>
     <row r="269" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A269" s="23">
+      <c r="A269" s="26">
         <v>36</v>
       </c>
-      <c r="B269" s="23" t="s">
+      <c r="B269" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="C269" s="23" t="s">
+      <c r="C269" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="D269" s="23" t="s">
+      <c r="D269" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="E269" s="23" t="s">
+      <c r="E269" s="26" t="s">
         <v>66</v>
       </c>
       <c r="F269" s="12" t="s">
@@ -6432,11 +6432,11 @@
       </c>
     </row>
     <row r="270" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A270" s="30"/>
-      <c r="B270" s="30"/>
-      <c r="C270" s="24"/>
-      <c r="D270" s="30"/>
-      <c r="E270" s="30"/>
+      <c r="A270" s="24"/>
+      <c r="B270" s="24"/>
+      <c r="C270" s="29"/>
+      <c r="D270" s="24"/>
+      <c r="E270" s="24"/>
       <c r="F270" s="15" t="s">
         <v>172</v>
       </c>
@@ -6448,11 +6448,11 @@
       </c>
     </row>
     <row r="271" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A271" s="30"/>
-      <c r="B271" s="30"/>
-      <c r="C271" s="24"/>
-      <c r="D271" s="30"/>
-      <c r="E271" s="30"/>
+      <c r="A271" s="24"/>
+      <c r="B271" s="24"/>
+      <c r="C271" s="29"/>
+      <c r="D271" s="24"/>
+      <c r="E271" s="24"/>
       <c r="F271" s="12" t="s">
         <v>258</v>
       </c>
@@ -6464,11 +6464,11 @@
       </c>
     </row>
     <row r="272" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A272" s="30"/>
-      <c r="B272" s="30"/>
-      <c r="C272" s="24"/>
-      <c r="D272" s="30"/>
-      <c r="E272" s="30"/>
+      <c r="A272" s="24"/>
+      <c r="B272" s="24"/>
+      <c r="C272" s="29"/>
+      <c r="D272" s="24"/>
+      <c r="E272" s="24"/>
       <c r="F272" s="15" t="s">
         <v>173</v>
       </c>
@@ -6480,11 +6480,11 @@
       </c>
     </row>
     <row r="273" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A273" s="30"/>
-      <c r="B273" s="30"/>
-      <c r="C273" s="24"/>
-      <c r="D273" s="30"/>
-      <c r="E273" s="30"/>
+      <c r="A273" s="24"/>
+      <c r="B273" s="24"/>
+      <c r="C273" s="29"/>
+      <c r="D273" s="24"/>
+      <c r="E273" s="24"/>
       <c r="F273" s="15" t="s">
         <v>273</v>
       </c>
@@ -6496,11 +6496,11 @@
       </c>
     </row>
     <row r="274" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A274" s="30"/>
-      <c r="B274" s="30"/>
-      <c r="C274" s="24"/>
-      <c r="D274" s="30"/>
-      <c r="E274" s="30"/>
+      <c r="A274" s="24"/>
+      <c r="B274" s="24"/>
+      <c r="C274" s="29"/>
+      <c r="D274" s="24"/>
+      <c r="E274" s="24"/>
       <c r="F274" s="15" t="s">
         <v>206</v>
       </c>
@@ -6512,11 +6512,11 @@
       </c>
     </row>
     <row r="275" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A275" s="30"/>
-      <c r="B275" s="30"/>
-      <c r="C275" s="24"/>
-      <c r="D275" s="30"/>
-      <c r="E275" s="30"/>
+      <c r="A275" s="24"/>
+      <c r="B275" s="24"/>
+      <c r="C275" s="29"/>
+      <c r="D275" s="24"/>
+      <c r="E275" s="24"/>
       <c r="F275" s="15" t="s">
         <v>79</v>
       </c>
@@ -6528,11 +6528,11 @@
       </c>
     </row>
     <row r="276" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A276" s="30"/>
-      <c r="B276" s="30"/>
-      <c r="C276" s="24"/>
-      <c r="D276" s="30"/>
-      <c r="E276" s="30"/>
+      <c r="A276" s="24"/>
+      <c r="B276" s="24"/>
+      <c r="C276" s="29"/>
+      <c r="D276" s="24"/>
+      <c r="E276" s="24"/>
       <c r="F276" s="15" t="s">
         <v>293</v>
       </c>
@@ -6544,11 +6544,11 @@
       </c>
     </row>
     <row r="277" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A277" s="31"/>
-      <c r="B277" s="31"/>
-      <c r="C277" s="25"/>
-      <c r="D277" s="31"/>
-      <c r="E277" s="31"/>
+      <c r="A277" s="25"/>
+      <c r="B277" s="25"/>
+      <c r="C277" s="30"/>
+      <c r="D277" s="25"/>
+      <c r="E277" s="25"/>
       <c r="F277" s="15" t="s">
         <v>409</v>
       </c>
@@ -6560,19 +6560,19 @@
       </c>
     </row>
     <row r="278" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A278" s="23">
+      <c r="A278" s="26">
         <v>37</v>
       </c>
-      <c r="B278" s="23" t="s">
+      <c r="B278" s="26" t="s">
         <v>334</v>
       </c>
-      <c r="C278" s="23" t="s">
+      <c r="C278" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="D278" s="23" t="s">
+      <c r="D278" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="E278" s="23" t="s">
+      <c r="E278" s="26" t="s">
         <v>66</v>
       </c>
       <c r="F278" s="12" t="s">
@@ -6586,11 +6586,11 @@
       </c>
     </row>
     <row r="279" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A279" s="30"/>
-      <c r="B279" s="30"/>
-      <c r="C279" s="24"/>
-      <c r="D279" s="30"/>
-      <c r="E279" s="30"/>
+      <c r="A279" s="24"/>
+      <c r="B279" s="24"/>
+      <c r="C279" s="29"/>
+      <c r="D279" s="24"/>
+      <c r="E279" s="24"/>
       <c r="F279" s="15" t="s">
         <v>172</v>
       </c>
@@ -6602,11 +6602,11 @@
       </c>
     </row>
     <row r="280" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A280" s="30"/>
-      <c r="B280" s="30"/>
-      <c r="C280" s="24"/>
-      <c r="D280" s="30"/>
-      <c r="E280" s="30"/>
+      <c r="A280" s="24"/>
+      <c r="B280" s="24"/>
+      <c r="C280" s="29"/>
+      <c r="D280" s="24"/>
+      <c r="E280" s="24"/>
       <c r="F280" s="12" t="s">
         <v>258</v>
       </c>
@@ -6618,11 +6618,11 @@
       </c>
     </row>
     <row r="281" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A281" s="30"/>
-      <c r="B281" s="30"/>
-      <c r="C281" s="24"/>
-      <c r="D281" s="30"/>
-      <c r="E281" s="30"/>
+      <c r="A281" s="24"/>
+      <c r="B281" s="24"/>
+      <c r="C281" s="29"/>
+      <c r="D281" s="24"/>
+      <c r="E281" s="24"/>
       <c r="F281" s="15" t="s">
         <v>173</v>
       </c>
@@ -6634,11 +6634,11 @@
       </c>
     </row>
     <row r="282" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A282" s="30"/>
-      <c r="B282" s="30"/>
-      <c r="C282" s="24"/>
-      <c r="D282" s="30"/>
-      <c r="E282" s="30"/>
+      <c r="A282" s="24"/>
+      <c r="B282" s="24"/>
+      <c r="C282" s="29"/>
+      <c r="D282" s="24"/>
+      <c r="E282" s="24"/>
       <c r="F282" s="15" t="s">
         <v>273</v>
       </c>
@@ -6650,11 +6650,11 @@
       </c>
     </row>
     <row r="283" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A283" s="30"/>
-      <c r="B283" s="30"/>
-      <c r="C283" s="24"/>
-      <c r="D283" s="30"/>
-      <c r="E283" s="30"/>
+      <c r="A283" s="24"/>
+      <c r="B283" s="24"/>
+      <c r="C283" s="29"/>
+      <c r="D283" s="24"/>
+      <c r="E283" s="24"/>
       <c r="F283" s="15" t="s">
         <v>206</v>
       </c>
@@ -6666,11 +6666,11 @@
       </c>
     </row>
     <row r="284" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A284" s="30"/>
-      <c r="B284" s="30"/>
-      <c r="C284" s="24"/>
-      <c r="D284" s="30"/>
-      <c r="E284" s="30"/>
+      <c r="A284" s="24"/>
+      <c r="B284" s="24"/>
+      <c r="C284" s="29"/>
+      <c r="D284" s="24"/>
+      <c r="E284" s="24"/>
       <c r="F284" s="15" t="s">
         <v>79</v>
       </c>
@@ -6682,11 +6682,11 @@
       </c>
     </row>
     <row r="285" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A285" s="30"/>
-      <c r="B285" s="30"/>
-      <c r="C285" s="24"/>
-      <c r="D285" s="30"/>
-      <c r="E285" s="30"/>
+      <c r="A285" s="24"/>
+      <c r="B285" s="24"/>
+      <c r="C285" s="29"/>
+      <c r="D285" s="24"/>
+      <c r="E285" s="24"/>
       <c r="F285" s="15" t="s">
         <v>293</v>
       </c>
@@ -6698,11 +6698,11 @@
       </c>
     </row>
     <row r="286" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A286" s="30"/>
-      <c r="B286" s="30"/>
-      <c r="C286" s="24"/>
-      <c r="D286" s="30"/>
-      <c r="E286" s="30"/>
+      <c r="A286" s="24"/>
+      <c r="B286" s="24"/>
+      <c r="C286" s="29"/>
+      <c r="D286" s="24"/>
+      <c r="E286" s="24"/>
       <c r="F286" s="15" t="s">
         <v>317</v>
       </c>
@@ -6714,11 +6714,11 @@
       </c>
     </row>
     <row r="287" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A287" s="30"/>
-      <c r="B287" s="30"/>
-      <c r="C287" s="24"/>
-      <c r="D287" s="30"/>
-      <c r="E287" s="30"/>
+      <c r="A287" s="24"/>
+      <c r="B287" s="24"/>
+      <c r="C287" s="29"/>
+      <c r="D287" s="24"/>
+      <c r="E287" s="24"/>
       <c r="F287" s="15" t="s">
         <v>109</v>
       </c>
@@ -6730,11 +6730,11 @@
       </c>
     </row>
     <row r="288" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A288" s="30"/>
-      <c r="B288" s="30"/>
-      <c r="C288" s="24"/>
-      <c r="D288" s="30"/>
-      <c r="E288" s="30"/>
+      <c r="A288" s="24"/>
+      <c r="B288" s="24"/>
+      <c r="C288" s="29"/>
+      <c r="D288" s="24"/>
+      <c r="E288" s="24"/>
       <c r="F288" s="15" t="s">
         <v>343</v>
       </c>
@@ -6746,11 +6746,11 @@
       </c>
     </row>
     <row r="289" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A289" s="30"/>
-      <c r="B289" s="30"/>
-      <c r="C289" s="24"/>
-      <c r="D289" s="30"/>
-      <c r="E289" s="30"/>
+      <c r="A289" s="24"/>
+      <c r="B289" s="24"/>
+      <c r="C289" s="29"/>
+      <c r="D289" s="24"/>
+      <c r="E289" s="24"/>
       <c r="F289" s="15" t="s">
         <v>297</v>
       </c>
@@ -6762,11 +6762,11 @@
       </c>
     </row>
     <row r="290" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A290" s="30"/>
-      <c r="B290" s="30"/>
-      <c r="C290" s="24"/>
-      <c r="D290" s="30"/>
-      <c r="E290" s="30"/>
+      <c r="A290" s="24"/>
+      <c r="B290" s="24"/>
+      <c r="C290" s="29"/>
+      <c r="D290" s="24"/>
+      <c r="E290" s="24"/>
       <c r="F290" s="15" t="s">
         <v>356</v>
       </c>
@@ -6778,11 +6778,11 @@
       </c>
     </row>
     <row r="291" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A291" s="30"/>
-      <c r="B291" s="30"/>
-      <c r="C291" s="24"/>
-      <c r="D291" s="30"/>
-      <c r="E291" s="30"/>
+      <c r="A291" s="24"/>
+      <c r="B291" s="24"/>
+      <c r="C291" s="29"/>
+      <c r="D291" s="24"/>
+      <c r="E291" s="24"/>
       <c r="F291" s="15" t="s">
         <v>300</v>
       </c>
@@ -6794,11 +6794,11 @@
       </c>
     </row>
     <row r="292" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A292" s="30"/>
-      <c r="B292" s="30"/>
-      <c r="C292" s="24"/>
-      <c r="D292" s="30"/>
-      <c r="E292" s="30"/>
+      <c r="A292" s="24"/>
+      <c r="B292" s="24"/>
+      <c r="C292" s="29"/>
+      <c r="D292" s="24"/>
+      <c r="E292" s="24"/>
       <c r="F292" s="15" t="s">
         <v>302</v>
       </c>
@@ -6810,11 +6810,11 @@
       </c>
     </row>
     <row r="293" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A293" s="30"/>
-      <c r="B293" s="30"/>
-      <c r="C293" s="24"/>
-      <c r="D293" s="30"/>
-      <c r="E293" s="30"/>
+      <c r="A293" s="24"/>
+      <c r="B293" s="24"/>
+      <c r="C293" s="29"/>
+      <c r="D293" s="24"/>
+      <c r="E293" s="24"/>
       <c r="F293" s="15" t="s">
         <v>339</v>
       </c>
@@ -6826,11 +6826,11 @@
       </c>
     </row>
     <row r="294" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A294" s="30"/>
-      <c r="B294" s="30"/>
-      <c r="C294" s="24"/>
-      <c r="D294" s="30"/>
-      <c r="E294" s="30"/>
+      <c r="A294" s="24"/>
+      <c r="B294" s="24"/>
+      <c r="C294" s="29"/>
+      <c r="D294" s="24"/>
+      <c r="E294" s="24"/>
       <c r="F294" s="15" t="s">
         <v>340</v>
       </c>
@@ -6842,11 +6842,11 @@
       </c>
     </row>
     <row r="295" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A295" s="30"/>
-      <c r="B295" s="30"/>
-      <c r="C295" s="24"/>
-      <c r="D295" s="30"/>
-      <c r="E295" s="30"/>
+      <c r="A295" s="24"/>
+      <c r="B295" s="24"/>
+      <c r="C295" s="29"/>
+      <c r="D295" s="24"/>
+      <c r="E295" s="24"/>
       <c r="F295" s="15" t="s">
         <v>308</v>
       </c>
@@ -6858,11 +6858,11 @@
       </c>
     </row>
     <row r="296" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A296" s="30"/>
-      <c r="B296" s="30"/>
-      <c r="C296" s="24"/>
-      <c r="D296" s="30"/>
-      <c r="E296" s="30"/>
+      <c r="A296" s="24"/>
+      <c r="B296" s="24"/>
+      <c r="C296" s="29"/>
+      <c r="D296" s="24"/>
+      <c r="E296" s="24"/>
       <c r="F296" s="15" t="s">
         <v>342</v>
       </c>
@@ -6874,11 +6874,11 @@
       </c>
     </row>
     <row r="297" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A297" s="31"/>
-      <c r="B297" s="31"/>
-      <c r="C297" s="25"/>
-      <c r="D297" s="31"/>
-      <c r="E297" s="31"/>
+      <c r="A297" s="25"/>
+      <c r="B297" s="25"/>
+      <c r="C297" s="30"/>
+      <c r="D297" s="25"/>
+      <c r="E297" s="25"/>
       <c r="F297" s="12" t="s">
         <v>311</v>
       </c>
@@ -6890,19 +6890,19 @@
       </c>
     </row>
     <row r="298" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A298" s="23">
+      <c r="A298" s="26">
         <v>38</v>
       </c>
-      <c r="B298" s="23" t="s">
+      <c r="B298" s="26" t="s">
         <v>345</v>
       </c>
-      <c r="C298" s="23" t="s">
+      <c r="C298" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="D298" s="23" t="s">
+      <c r="D298" s="26" t="s">
         <v>346</v>
       </c>
-      <c r="E298" s="23" t="s">
+      <c r="E298" s="26" t="s">
         <v>66</v>
       </c>
       <c r="F298" s="12" t="s">
@@ -6916,11 +6916,11 @@
       </c>
     </row>
     <row r="299" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A299" s="30"/>
-      <c r="B299" s="30"/>
-      <c r="C299" s="24"/>
-      <c r="D299" s="30"/>
-      <c r="E299" s="30"/>
+      <c r="A299" s="24"/>
+      <c r="B299" s="24"/>
+      <c r="C299" s="29"/>
+      <c r="D299" s="24"/>
+      <c r="E299" s="24"/>
       <c r="F299" s="15" t="s">
         <v>172</v>
       </c>
@@ -6932,11 +6932,11 @@
       </c>
     </row>
     <row r="300" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A300" s="30"/>
-      <c r="B300" s="30"/>
-      <c r="C300" s="24"/>
-      <c r="D300" s="30"/>
-      <c r="E300" s="30"/>
+      <c r="A300" s="24"/>
+      <c r="B300" s="24"/>
+      <c r="C300" s="29"/>
+      <c r="D300" s="24"/>
+      <c r="E300" s="24"/>
       <c r="F300" s="12" t="s">
         <v>258</v>
       </c>
@@ -6948,11 +6948,11 @@
       </c>
     </row>
     <row r="301" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A301" s="30"/>
-      <c r="B301" s="30"/>
-      <c r="C301" s="24"/>
-      <c r="D301" s="30"/>
-      <c r="E301" s="30"/>
+      <c r="A301" s="24"/>
+      <c r="B301" s="24"/>
+      <c r="C301" s="29"/>
+      <c r="D301" s="24"/>
+      <c r="E301" s="24"/>
       <c r="F301" s="15" t="s">
         <v>173</v>
       </c>
@@ -6964,11 +6964,11 @@
       </c>
     </row>
     <row r="302" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A302" s="30"/>
-      <c r="B302" s="30"/>
-      <c r="C302" s="24"/>
-      <c r="D302" s="30"/>
-      <c r="E302" s="30"/>
+      <c r="A302" s="24"/>
+      <c r="B302" s="24"/>
+      <c r="C302" s="29"/>
+      <c r="D302" s="24"/>
+      <c r="E302" s="24"/>
       <c r="F302" s="15" t="s">
         <v>273</v>
       </c>
@@ -6980,11 +6980,11 @@
       </c>
     </row>
     <row r="303" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A303" s="30"/>
-      <c r="B303" s="30"/>
-      <c r="C303" s="24"/>
-      <c r="D303" s="30"/>
-      <c r="E303" s="30"/>
+      <c r="A303" s="24"/>
+      <c r="B303" s="24"/>
+      <c r="C303" s="29"/>
+      <c r="D303" s="24"/>
+      <c r="E303" s="24"/>
       <c r="F303" s="15" t="s">
         <v>206</v>
       </c>
@@ -6996,11 +6996,11 @@
       </c>
     </row>
     <row r="304" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A304" s="30"/>
-      <c r="B304" s="30"/>
-      <c r="C304" s="24"/>
-      <c r="D304" s="30"/>
-      <c r="E304" s="30"/>
+      <c r="A304" s="24"/>
+      <c r="B304" s="24"/>
+      <c r="C304" s="29"/>
+      <c r="D304" s="24"/>
+      <c r="E304" s="24"/>
       <c r="F304" s="15" t="s">
         <v>79</v>
       </c>
@@ -7012,11 +7012,11 @@
       </c>
     </row>
     <row r="305" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A305" s="30"/>
-      <c r="B305" s="30"/>
-      <c r="C305" s="24"/>
-      <c r="D305" s="30"/>
-      <c r="E305" s="30"/>
+      <c r="A305" s="24"/>
+      <c r="B305" s="24"/>
+      <c r="C305" s="29"/>
+      <c r="D305" s="24"/>
+      <c r="E305" s="24"/>
       <c r="F305" s="15" t="s">
         <v>349</v>
       </c>
@@ -7028,11 +7028,11 @@
       </c>
     </row>
     <row r="306" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A306" s="30"/>
-      <c r="B306" s="30"/>
-      <c r="C306" s="24"/>
-      <c r="D306" s="30"/>
-      <c r="E306" s="30"/>
+      <c r="A306" s="24"/>
+      <c r="B306" s="24"/>
+      <c r="C306" s="29"/>
+      <c r="D306" s="24"/>
+      <c r="E306" s="24"/>
       <c r="F306" s="15" t="s">
         <v>347</v>
       </c>
@@ -7044,11 +7044,11 @@
       </c>
     </row>
     <row r="307" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A307" s="31"/>
-      <c r="B307" s="31"/>
-      <c r="C307" s="25"/>
-      <c r="D307" s="31"/>
-      <c r="E307" s="31"/>
+      <c r="A307" s="25"/>
+      <c r="B307" s="25"/>
+      <c r="C307" s="30"/>
+      <c r="D307" s="25"/>
+      <c r="E307" s="25"/>
       <c r="F307" s="15" t="s">
         <v>348</v>
       </c>
@@ -7060,19 +7060,19 @@
       </c>
     </row>
     <row r="308" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A308" s="23">
+      <c r="A308" s="26">
         <v>39</v>
       </c>
-      <c r="B308" s="23" t="s">
+      <c r="B308" s="26" t="s">
         <v>352</v>
       </c>
-      <c r="C308" s="23" t="s">
+      <c r="C308" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="D308" s="23" t="s">
+      <c r="D308" s="26" t="s">
         <v>351</v>
       </c>
-      <c r="E308" s="23" t="s">
+      <c r="E308" s="26" t="s">
         <v>66</v>
       </c>
       <c r="F308" s="12" t="s">
@@ -7086,11 +7086,11 @@
       </c>
     </row>
     <row r="309" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A309" s="30"/>
-      <c r="B309" s="30"/>
-      <c r="C309" s="24"/>
-      <c r="D309" s="30"/>
-      <c r="E309" s="30"/>
+      <c r="A309" s="24"/>
+      <c r="B309" s="24"/>
+      <c r="C309" s="29"/>
+      <c r="D309" s="24"/>
+      <c r="E309" s="24"/>
       <c r="F309" s="15" t="s">
         <v>172</v>
       </c>
@@ -7102,11 +7102,11 @@
       </c>
     </row>
     <row r="310" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A310" s="30"/>
-      <c r="B310" s="30"/>
-      <c r="C310" s="24"/>
-      <c r="D310" s="30"/>
-      <c r="E310" s="30"/>
+      <c r="A310" s="24"/>
+      <c r="B310" s="24"/>
+      <c r="C310" s="29"/>
+      <c r="D310" s="24"/>
+      <c r="E310" s="24"/>
       <c r="F310" s="12" t="s">
         <v>258</v>
       </c>
@@ -7118,11 +7118,11 @@
       </c>
     </row>
     <row r="311" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A311" s="30"/>
-      <c r="B311" s="30"/>
-      <c r="C311" s="24"/>
-      <c r="D311" s="30"/>
-      <c r="E311" s="30"/>
+      <c r="A311" s="24"/>
+      <c r="B311" s="24"/>
+      <c r="C311" s="29"/>
+      <c r="D311" s="24"/>
+      <c r="E311" s="24"/>
       <c r="F311" s="15" t="s">
         <v>173</v>
       </c>
@@ -7134,11 +7134,11 @@
       </c>
     </row>
     <row r="312" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A312" s="30"/>
-      <c r="B312" s="30"/>
-      <c r="C312" s="24"/>
-      <c r="D312" s="30"/>
-      <c r="E312" s="30"/>
+      <c r="A312" s="24"/>
+      <c r="B312" s="24"/>
+      <c r="C312" s="29"/>
+      <c r="D312" s="24"/>
+      <c r="E312" s="24"/>
       <c r="F312" s="15" t="s">
         <v>273</v>
       </c>
@@ -7150,11 +7150,11 @@
       </c>
     </row>
     <row r="313" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A313" s="30"/>
-      <c r="B313" s="30"/>
-      <c r="C313" s="24"/>
-      <c r="D313" s="30"/>
-      <c r="E313" s="30"/>
+      <c r="A313" s="24"/>
+      <c r="B313" s="24"/>
+      <c r="C313" s="29"/>
+      <c r="D313" s="24"/>
+      <c r="E313" s="24"/>
       <c r="F313" s="15" t="s">
         <v>206</v>
       </c>
@@ -7166,11 +7166,11 @@
       </c>
     </row>
     <row r="314" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A314" s="30"/>
-      <c r="B314" s="30"/>
-      <c r="C314" s="24"/>
-      <c r="D314" s="30"/>
-      <c r="E314" s="30"/>
+      <c r="A314" s="24"/>
+      <c r="B314" s="24"/>
+      <c r="C314" s="29"/>
+      <c r="D314" s="24"/>
+      <c r="E314" s="24"/>
       <c r="F314" s="15" t="s">
         <v>79</v>
       </c>
@@ -7182,11 +7182,11 @@
       </c>
     </row>
     <row r="315" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A315" s="30"/>
-      <c r="B315" s="30"/>
-      <c r="C315" s="24"/>
-      <c r="D315" s="30"/>
-      <c r="E315" s="30"/>
+      <c r="A315" s="24"/>
+      <c r="B315" s="24"/>
+      <c r="C315" s="29"/>
+      <c r="D315" s="24"/>
+      <c r="E315" s="24"/>
       <c r="F315" s="15" t="s">
         <v>112</v>
       </c>
@@ -7198,11 +7198,11 @@
       </c>
     </row>
     <row r="316" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A316" s="31"/>
-      <c r="B316" s="31"/>
-      <c r="C316" s="25"/>
-      <c r="D316" s="31"/>
-      <c r="E316" s="31"/>
+      <c r="A316" s="25"/>
+      <c r="B316" s="25"/>
+      <c r="C316" s="30"/>
+      <c r="D316" s="25"/>
+      <c r="E316" s="25"/>
       <c r="F316" s="19" t="s">
         <v>353</v>
       </c>
@@ -7214,19 +7214,19 @@
       </c>
     </row>
     <row r="317" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A317" s="23">
+      <c r="A317" s="26">
         <v>40</v>
       </c>
-      <c r="B317" s="23" t="s">
+      <c r="B317" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="C317" s="23" t="s">
+      <c r="C317" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="D317" s="23" t="s">
+      <c r="D317" s="26" t="s">
         <v>354</v>
       </c>
-      <c r="E317" s="23" t="s">
+      <c r="E317" s="26" t="s">
         <v>66</v>
       </c>
       <c r="F317" s="12" t="s">
@@ -7240,11 +7240,11 @@
       </c>
     </row>
     <row r="318" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A318" s="30"/>
-      <c r="B318" s="30"/>
-      <c r="C318" s="24"/>
-      <c r="D318" s="30"/>
-      <c r="E318" s="30"/>
+      <c r="A318" s="24"/>
+      <c r="B318" s="24"/>
+      <c r="C318" s="29"/>
+      <c r="D318" s="24"/>
+      <c r="E318" s="24"/>
       <c r="F318" s="15" t="s">
         <v>172</v>
       </c>
@@ -7256,11 +7256,11 @@
       </c>
     </row>
     <row r="319" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A319" s="30"/>
-      <c r="B319" s="30"/>
-      <c r="C319" s="24"/>
-      <c r="D319" s="30"/>
-      <c r="E319" s="30"/>
+      <c r="A319" s="24"/>
+      <c r="B319" s="24"/>
+      <c r="C319" s="29"/>
+      <c r="D319" s="24"/>
+      <c r="E319" s="24"/>
       <c r="F319" s="12" t="s">
         <v>258</v>
       </c>
@@ -7272,11 +7272,11 @@
       </c>
     </row>
     <row r="320" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A320" s="30"/>
-      <c r="B320" s="30"/>
-      <c r="C320" s="24"/>
-      <c r="D320" s="30"/>
-      <c r="E320" s="30"/>
+      <c r="A320" s="24"/>
+      <c r="B320" s="24"/>
+      <c r="C320" s="29"/>
+      <c r="D320" s="24"/>
+      <c r="E320" s="24"/>
       <c r="F320" s="15" t="s">
         <v>173</v>
       </c>
@@ -7288,11 +7288,11 @@
       </c>
     </row>
     <row r="321" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A321" s="30"/>
-      <c r="B321" s="30"/>
-      <c r="C321" s="24"/>
-      <c r="D321" s="30"/>
-      <c r="E321" s="30"/>
+      <c r="A321" s="24"/>
+      <c r="B321" s="24"/>
+      <c r="C321" s="29"/>
+      <c r="D321" s="24"/>
+      <c r="E321" s="24"/>
       <c r="F321" s="15" t="s">
         <v>273</v>
       </c>
@@ -7304,11 +7304,11 @@
       </c>
     </row>
     <row r="322" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A322" s="30"/>
-      <c r="B322" s="30"/>
-      <c r="C322" s="24"/>
-      <c r="D322" s="30"/>
-      <c r="E322" s="30"/>
+      <c r="A322" s="24"/>
+      <c r="B322" s="24"/>
+      <c r="C322" s="29"/>
+      <c r="D322" s="24"/>
+      <c r="E322" s="24"/>
       <c r="F322" s="15" t="s">
         <v>206</v>
       </c>
@@ -7320,11 +7320,11 @@
       </c>
     </row>
     <row r="323" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A323" s="30"/>
-      <c r="B323" s="30"/>
-      <c r="C323" s="24"/>
-      <c r="D323" s="30"/>
-      <c r="E323" s="30"/>
+      <c r="A323" s="24"/>
+      <c r="B323" s="24"/>
+      <c r="C323" s="29"/>
+      <c r="D323" s="24"/>
+      <c r="E323" s="24"/>
       <c r="F323" s="15" t="s">
         <v>79</v>
       </c>
@@ -7336,11 +7336,11 @@
       </c>
     </row>
     <row r="324" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A324" s="30"/>
-      <c r="B324" s="30"/>
-      <c r="C324" s="24"/>
-      <c r="D324" s="30"/>
-      <c r="E324" s="30"/>
+      <c r="A324" s="24"/>
+      <c r="B324" s="24"/>
+      <c r="C324" s="29"/>
+      <c r="D324" s="24"/>
+      <c r="E324" s="24"/>
       <c r="F324" s="15" t="s">
         <v>293</v>
       </c>
@@ -7352,11 +7352,11 @@
       </c>
     </row>
     <row r="325" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A325" s="30"/>
-      <c r="B325" s="30"/>
-      <c r="C325" s="24"/>
-      <c r="D325" s="30"/>
-      <c r="E325" s="30"/>
+      <c r="A325" s="24"/>
+      <c r="B325" s="24"/>
+      <c r="C325" s="29"/>
+      <c r="D325" s="24"/>
+      <c r="E325" s="24"/>
       <c r="F325" s="15" t="s">
         <v>317</v>
       </c>
@@ -7368,11 +7368,11 @@
       </c>
     </row>
     <row r="326" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A326" s="30"/>
-      <c r="B326" s="30"/>
-      <c r="C326" s="24"/>
-      <c r="D326" s="30"/>
-      <c r="E326" s="30"/>
+      <c r="A326" s="24"/>
+      <c r="B326" s="24"/>
+      <c r="C326" s="29"/>
+      <c r="D326" s="24"/>
+      <c r="E326" s="24"/>
       <c r="F326" s="15" t="s">
         <v>109</v>
       </c>
@@ -7384,11 +7384,11 @@
       </c>
     </row>
     <row r="327" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A327" s="30"/>
-      <c r="B327" s="30"/>
-      <c r="C327" s="24"/>
-      <c r="D327" s="30"/>
-      <c r="E327" s="30"/>
+      <c r="A327" s="24"/>
+      <c r="B327" s="24"/>
+      <c r="C327" s="29"/>
+      <c r="D327" s="24"/>
+      <c r="E327" s="24"/>
       <c r="F327" s="15" t="s">
         <v>355</v>
       </c>
@@ -7400,11 +7400,11 @@
       </c>
     </row>
     <row r="328" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A328" s="30"/>
-      <c r="B328" s="30"/>
-      <c r="C328" s="24"/>
-      <c r="D328" s="30"/>
-      <c r="E328" s="30"/>
+      <c r="A328" s="24"/>
+      <c r="B328" s="24"/>
+      <c r="C328" s="29"/>
+      <c r="D328" s="24"/>
+      <c r="E328" s="24"/>
       <c r="F328" s="15" t="s">
         <v>297</v>
       </c>
@@ -7416,11 +7416,11 @@
       </c>
     </row>
     <row r="329" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A329" s="30"/>
-      <c r="B329" s="30"/>
-      <c r="C329" s="24"/>
-      <c r="D329" s="30"/>
-      <c r="E329" s="30"/>
+      <c r="A329" s="24"/>
+      <c r="B329" s="24"/>
+      <c r="C329" s="29"/>
+      <c r="D329" s="24"/>
+      <c r="E329" s="24"/>
       <c r="F329" s="15" t="s">
         <v>115</v>
       </c>
@@ -7432,11 +7432,11 @@
       </c>
     </row>
     <row r="330" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A330" s="30"/>
-      <c r="B330" s="30"/>
-      <c r="C330" s="24"/>
-      <c r="D330" s="30"/>
-      <c r="E330" s="30"/>
+      <c r="A330" s="24"/>
+      <c r="B330" s="24"/>
+      <c r="C330" s="29"/>
+      <c r="D330" s="24"/>
+      <c r="E330" s="24"/>
       <c r="F330" s="15" t="s">
         <v>300</v>
       </c>
@@ -7448,11 +7448,11 @@
       </c>
     </row>
     <row r="331" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A331" s="30"/>
-      <c r="B331" s="30"/>
-      <c r="C331" s="24"/>
-      <c r="D331" s="30"/>
-      <c r="E331" s="30"/>
+      <c r="A331" s="24"/>
+      <c r="B331" s="24"/>
+      <c r="C331" s="29"/>
+      <c r="D331" s="24"/>
+      <c r="E331" s="24"/>
       <c r="F331" s="15" t="s">
         <v>302</v>
       </c>
@@ -7464,11 +7464,11 @@
       </c>
     </row>
     <row r="332" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A332" s="30"/>
-      <c r="B332" s="30"/>
-      <c r="C332" s="24"/>
-      <c r="D332" s="30"/>
-      <c r="E332" s="30"/>
+      <c r="A332" s="24"/>
+      <c r="B332" s="24"/>
+      <c r="C332" s="29"/>
+      <c r="D332" s="24"/>
+      <c r="E332" s="24"/>
       <c r="F332" s="15" t="s">
         <v>360</v>
       </c>
@@ -7480,11 +7480,11 @@
       </c>
     </row>
     <row r="333" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A333" s="30"/>
-      <c r="B333" s="30"/>
-      <c r="C333" s="24"/>
-      <c r="D333" s="30"/>
-      <c r="E333" s="30"/>
+      <c r="A333" s="24"/>
+      <c r="B333" s="24"/>
+      <c r="C333" s="29"/>
+      <c r="D333" s="24"/>
+      <c r="E333" s="24"/>
       <c r="F333" s="15" t="s">
         <v>361</v>
       </c>
@@ -7496,11 +7496,11 @@
       </c>
     </row>
     <row r="334" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A334" s="30"/>
-      <c r="B334" s="30"/>
-      <c r="C334" s="24"/>
-      <c r="D334" s="30"/>
-      <c r="E334" s="30"/>
+      <c r="A334" s="24"/>
+      <c r="B334" s="24"/>
+      <c r="C334" s="29"/>
+      <c r="D334" s="24"/>
+      <c r="E334" s="24"/>
       <c r="F334" s="15" t="s">
         <v>308</v>
       </c>
@@ -7512,11 +7512,11 @@
       </c>
     </row>
     <row r="335" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A335" s="30"/>
-      <c r="B335" s="30"/>
-      <c r="C335" s="24"/>
-      <c r="D335" s="30"/>
-      <c r="E335" s="30"/>
+      <c r="A335" s="24"/>
+      <c r="B335" s="24"/>
+      <c r="C335" s="29"/>
+      <c r="D335" s="24"/>
+      <c r="E335" s="24"/>
       <c r="F335" s="15" t="s">
         <v>363</v>
       </c>
@@ -7528,11 +7528,11 @@
       </c>
     </row>
     <row r="336" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A336" s="30"/>
-      <c r="B336" s="30"/>
-      <c r="C336" s="24"/>
-      <c r="D336" s="30"/>
-      <c r="E336" s="30"/>
+      <c r="A336" s="24"/>
+      <c r="B336" s="24"/>
+      <c r="C336" s="29"/>
+      <c r="D336" s="24"/>
+      <c r="E336" s="24"/>
       <c r="F336" s="12" t="s">
         <v>311</v>
       </c>
@@ -7544,11 +7544,11 @@
       </c>
     </row>
     <row r="337" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A337" s="31"/>
-      <c r="B337" s="31"/>
-      <c r="C337" s="25"/>
-      <c r="D337" s="31"/>
-      <c r="E337" s="31"/>
+      <c r="A337" s="25"/>
+      <c r="B337" s="25"/>
+      <c r="C337" s="30"/>
+      <c r="D337" s="25"/>
+      <c r="E337" s="25"/>
       <c r="F337" s="15" t="s">
         <v>365</v>
       </c>
@@ -7560,19 +7560,19 @@
       </c>
     </row>
     <row r="338" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A338" s="23">
+      <c r="A338" s="26">
         <v>41</v>
       </c>
-      <c r="B338" s="23" t="s">
+      <c r="B338" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="C338" s="23" t="s">
+      <c r="C338" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="D338" s="23" t="s">
+      <c r="D338" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="E338" s="23" t="s">
+      <c r="E338" s="26" t="s">
         <v>66</v>
       </c>
       <c r="F338" s="12" t="s">
@@ -7586,11 +7586,11 @@
       </c>
     </row>
     <row r="339" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A339" s="30"/>
-      <c r="B339" s="30"/>
-      <c r="C339" s="24"/>
-      <c r="D339" s="30"/>
-      <c r="E339" s="30"/>
+      <c r="A339" s="24"/>
+      <c r="B339" s="24"/>
+      <c r="C339" s="29"/>
+      <c r="D339" s="24"/>
+      <c r="E339" s="24"/>
       <c r="F339" s="15" t="s">
         <v>172</v>
       </c>
@@ -7602,11 +7602,11 @@
       </c>
     </row>
     <row r="340" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A340" s="30"/>
-      <c r="B340" s="30"/>
-      <c r="C340" s="24"/>
-      <c r="D340" s="30"/>
-      <c r="E340" s="30"/>
+      <c r="A340" s="24"/>
+      <c r="B340" s="24"/>
+      <c r="C340" s="29"/>
+      <c r="D340" s="24"/>
+      <c r="E340" s="24"/>
       <c r="F340" s="12" t="s">
         <v>258</v>
       </c>
@@ -7618,11 +7618,11 @@
       </c>
     </row>
     <row r="341" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A341" s="30"/>
-      <c r="B341" s="30"/>
-      <c r="C341" s="24"/>
-      <c r="D341" s="30"/>
-      <c r="E341" s="30"/>
+      <c r="A341" s="24"/>
+      <c r="B341" s="24"/>
+      <c r="C341" s="29"/>
+      <c r="D341" s="24"/>
+      <c r="E341" s="24"/>
       <c r="F341" s="15" t="s">
         <v>173</v>
       </c>
@@ -7634,11 +7634,11 @@
       </c>
     </row>
     <row r="342" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A342" s="30"/>
-      <c r="B342" s="30"/>
-      <c r="C342" s="24"/>
-      <c r="D342" s="30"/>
-      <c r="E342" s="30"/>
+      <c r="A342" s="24"/>
+      <c r="B342" s="24"/>
+      <c r="C342" s="29"/>
+      <c r="D342" s="24"/>
+      <c r="E342" s="24"/>
       <c r="F342" s="15" t="s">
         <v>273</v>
       </c>
@@ -7650,11 +7650,11 @@
       </c>
     </row>
     <row r="343" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A343" s="30"/>
-      <c r="B343" s="30"/>
-      <c r="C343" s="24"/>
-      <c r="D343" s="30"/>
-      <c r="E343" s="30"/>
+      <c r="A343" s="24"/>
+      <c r="B343" s="24"/>
+      <c r="C343" s="29"/>
+      <c r="D343" s="24"/>
+      <c r="E343" s="24"/>
       <c r="F343" s="15" t="s">
         <v>206</v>
       </c>
@@ -7666,11 +7666,11 @@
       </c>
     </row>
     <row r="344" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A344" s="31"/>
-      <c r="B344" s="31"/>
-      <c r="C344" s="25"/>
-      <c r="D344" s="31"/>
-      <c r="E344" s="31"/>
+      <c r="A344" s="25"/>
+      <c r="B344" s="25"/>
+      <c r="C344" s="30"/>
+      <c r="D344" s="25"/>
+      <c r="E344" s="25"/>
       <c r="F344" s="15" t="s">
         <v>118</v>
       </c>
@@ -7682,19 +7682,19 @@
       </c>
     </row>
     <row r="345" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A345" s="23">
+      <c r="A345" s="26">
         <v>42</v>
       </c>
-      <c r="B345" s="23" t="s">
+      <c r="B345" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="C345" s="23" t="s">
+      <c r="C345" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="D345" s="23" t="s">
+      <c r="D345" s="26" t="s">
         <v>386</v>
       </c>
-      <c r="E345" s="23" t="s">
+      <c r="E345" s="26" t="s">
         <v>66</v>
       </c>
       <c r="F345" s="12" t="s">
@@ -7708,11 +7708,11 @@
       </c>
     </row>
     <row r="346" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A346" s="30"/>
-      <c r="B346" s="30"/>
-      <c r="C346" s="24"/>
-      <c r="D346" s="30"/>
-      <c r="E346" s="30"/>
+      <c r="A346" s="24"/>
+      <c r="B346" s="24"/>
+      <c r="C346" s="29"/>
+      <c r="D346" s="24"/>
+      <c r="E346" s="24"/>
       <c r="F346" s="15" t="s">
         <v>172</v>
       </c>
@@ -7724,11 +7724,11 @@
       </c>
     </row>
     <row r="347" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A347" s="30"/>
-      <c r="B347" s="30"/>
-      <c r="C347" s="24"/>
-      <c r="D347" s="30"/>
-      <c r="E347" s="30"/>
+      <c r="A347" s="24"/>
+      <c r="B347" s="24"/>
+      <c r="C347" s="29"/>
+      <c r="D347" s="24"/>
+      <c r="E347" s="24"/>
       <c r="F347" s="12" t="s">
         <v>258</v>
       </c>
@@ -7740,11 +7740,11 @@
       </c>
     </row>
     <row r="348" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A348" s="30"/>
-      <c r="B348" s="30"/>
-      <c r="C348" s="24"/>
-      <c r="D348" s="30"/>
-      <c r="E348" s="30"/>
+      <c r="A348" s="24"/>
+      <c r="B348" s="24"/>
+      <c r="C348" s="29"/>
+      <c r="D348" s="24"/>
+      <c r="E348" s="24"/>
       <c r="F348" s="15" t="s">
         <v>173</v>
       </c>
@@ -7756,11 +7756,11 @@
       </c>
     </row>
     <row r="349" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A349" s="30"/>
-      <c r="B349" s="30"/>
-      <c r="C349" s="24"/>
-      <c r="D349" s="30"/>
-      <c r="E349" s="30"/>
+      <c r="A349" s="24"/>
+      <c r="B349" s="24"/>
+      <c r="C349" s="29"/>
+      <c r="D349" s="24"/>
+      <c r="E349" s="24"/>
       <c r="F349" s="15" t="s">
         <v>273</v>
       </c>
@@ -7772,11 +7772,11 @@
       </c>
     </row>
     <row r="350" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A350" s="30"/>
-      <c r="B350" s="30"/>
-      <c r="C350" s="24"/>
-      <c r="D350" s="30"/>
-      <c r="E350" s="30"/>
+      <c r="A350" s="24"/>
+      <c r="B350" s="24"/>
+      <c r="C350" s="29"/>
+      <c r="D350" s="24"/>
+      <c r="E350" s="24"/>
       <c r="F350" s="15" t="s">
         <v>206</v>
       </c>
@@ -7788,11 +7788,11 @@
       </c>
     </row>
     <row r="351" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A351" s="30"/>
-      <c r="B351" s="30"/>
-      <c r="C351" s="24"/>
-      <c r="D351" s="30"/>
-      <c r="E351" s="30"/>
+      <c r="A351" s="24"/>
+      <c r="B351" s="24"/>
+      <c r="C351" s="29"/>
+      <c r="D351" s="24"/>
+      <c r="E351" s="24"/>
       <c r="F351" s="15" t="s">
         <v>121</v>
       </c>
@@ -7804,11 +7804,11 @@
       </c>
     </row>
     <row r="352" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A352" s="30"/>
-      <c r="B352" s="30"/>
-      <c r="C352" s="24"/>
-      <c r="D352" s="30"/>
-      <c r="E352" s="30"/>
+      <c r="A352" s="24"/>
+      <c r="B352" s="24"/>
+      <c r="C352" s="29"/>
+      <c r="D352" s="24"/>
+      <c r="E352" s="24"/>
       <c r="F352" s="15" t="s">
         <v>368</v>
       </c>
@@ -7820,11 +7820,11 @@
       </c>
     </row>
     <row r="353" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A353" s="30"/>
-      <c r="B353" s="30"/>
-      <c r="C353" s="24"/>
-      <c r="D353" s="30"/>
-      <c r="E353" s="30"/>
+      <c r="A353" s="24"/>
+      <c r="B353" s="24"/>
+      <c r="C353" s="29"/>
+      <c r="D353" s="24"/>
+      <c r="E353" s="24"/>
       <c r="F353" s="15" t="s">
         <v>369</v>
       </c>
@@ -7836,11 +7836,11 @@
       </c>
     </row>
     <row r="354" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A354" s="30"/>
-      <c r="B354" s="30"/>
-      <c r="C354" s="24"/>
-      <c r="D354" s="30"/>
-      <c r="E354" s="30"/>
+      <c r="A354" s="24"/>
+      <c r="B354" s="24"/>
+      <c r="C354" s="29"/>
+      <c r="D354" s="24"/>
+      <c r="E354" s="24"/>
       <c r="F354" s="15" t="s">
         <v>370</v>
       </c>
@@ -7852,11 +7852,11 @@
       </c>
     </row>
     <row r="355" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A355" s="30"/>
-      <c r="B355" s="30"/>
-      <c r="C355" s="24"/>
-      <c r="D355" s="30"/>
-      <c r="E355" s="30"/>
+      <c r="A355" s="24"/>
+      <c r="B355" s="24"/>
+      <c r="C355" s="29"/>
+      <c r="D355" s="24"/>
+      <c r="E355" s="24"/>
       <c r="F355" s="15" t="s">
         <v>376</v>
       </c>
@@ -7868,11 +7868,11 @@
       </c>
     </row>
     <row r="356" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A356" s="30"/>
-      <c r="B356" s="30"/>
-      <c r="C356" s="24"/>
-      <c r="D356" s="30"/>
-      <c r="E356" s="30"/>
+      <c r="A356" s="24"/>
+      <c r="B356" s="24"/>
+      <c r="C356" s="29"/>
+      <c r="D356" s="24"/>
+      <c r="E356" s="24"/>
       <c r="F356" s="15" t="s">
         <v>328</v>
       </c>
@@ -7884,11 +7884,11 @@
       </c>
     </row>
     <row r="357" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A357" s="30"/>
-      <c r="B357" s="30"/>
-      <c r="C357" s="24"/>
-      <c r="D357" s="30"/>
-      <c r="E357" s="30"/>
+      <c r="A357" s="24"/>
+      <c r="B357" s="24"/>
+      <c r="C357" s="29"/>
+      <c r="D357" s="24"/>
+      <c r="E357" s="24"/>
       <c r="F357" s="15" t="s">
         <v>378</v>
       </c>
@@ -7900,11 +7900,11 @@
       </c>
     </row>
     <row r="358" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A358" s="30"/>
-      <c r="B358" s="30"/>
-      <c r="C358" s="24"/>
-      <c r="D358" s="30"/>
-      <c r="E358" s="30"/>
+      <c r="A358" s="24"/>
+      <c r="B358" s="24"/>
+      <c r="C358" s="29"/>
+      <c r="D358" s="24"/>
+      <c r="E358" s="24"/>
       <c r="F358" s="15" t="s">
         <v>123</v>
       </c>
@@ -7916,11 +7916,11 @@
       </c>
     </row>
     <row r="359" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A359" s="30"/>
-      <c r="B359" s="30"/>
-      <c r="C359" s="24"/>
-      <c r="D359" s="30"/>
-      <c r="E359" s="30"/>
+      <c r="A359" s="24"/>
+      <c r="B359" s="24"/>
+      <c r="C359" s="29"/>
+      <c r="D359" s="24"/>
+      <c r="E359" s="24"/>
       <c r="F359" s="15" t="s">
         <v>381</v>
       </c>
@@ -7932,11 +7932,11 @@
       </c>
     </row>
     <row r="360" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A360" s="31"/>
-      <c r="B360" s="31"/>
-      <c r="C360" s="25"/>
-      <c r="D360" s="31"/>
-      <c r="E360" s="31"/>
+      <c r="A360" s="25"/>
+      <c r="B360" s="25"/>
+      <c r="C360" s="30"/>
+      <c r="D360" s="25"/>
+      <c r="E360" s="25"/>
       <c r="F360" s="15" t="s">
         <v>383</v>
       </c>
@@ -7948,19 +7948,19 @@
       </c>
     </row>
     <row r="361" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A361" s="23">
+      <c r="A361" s="26">
         <v>43</v>
       </c>
-      <c r="B361" s="23" t="s">
+      <c r="B361" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="C361" s="23" t="s">
+      <c r="C361" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="D361" s="23" t="s">
+      <c r="D361" s="26" t="s">
         <v>385</v>
       </c>
-      <c r="E361" s="23" t="s">
+      <c r="E361" s="26" t="s">
         <v>66</v>
       </c>
       <c r="F361" s="12" t="s">
@@ -7974,11 +7974,11 @@
       </c>
     </row>
     <row r="362" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A362" s="30"/>
-      <c r="B362" s="30"/>
-      <c r="C362" s="24"/>
-      <c r="D362" s="30"/>
-      <c r="E362" s="30"/>
+      <c r="A362" s="24"/>
+      <c r="B362" s="24"/>
+      <c r="C362" s="29"/>
+      <c r="D362" s="24"/>
+      <c r="E362" s="24"/>
       <c r="F362" s="15" t="s">
         <v>172</v>
       </c>
@@ -7990,11 +7990,11 @@
       </c>
     </row>
     <row r="363" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A363" s="30"/>
-      <c r="B363" s="30"/>
-      <c r="C363" s="24"/>
-      <c r="D363" s="30"/>
-      <c r="E363" s="30"/>
+      <c r="A363" s="24"/>
+      <c r="B363" s="24"/>
+      <c r="C363" s="29"/>
+      <c r="D363" s="24"/>
+      <c r="E363" s="24"/>
       <c r="F363" s="12" t="s">
         <v>258</v>
       </c>
@@ -8006,11 +8006,11 @@
       </c>
     </row>
     <row r="364" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A364" s="30"/>
-      <c r="B364" s="30"/>
-      <c r="C364" s="24"/>
-      <c r="D364" s="30"/>
-      <c r="E364" s="30"/>
+      <c r="A364" s="24"/>
+      <c r="B364" s="24"/>
+      <c r="C364" s="29"/>
+      <c r="D364" s="24"/>
+      <c r="E364" s="24"/>
       <c r="F364" s="15" t="s">
         <v>173</v>
       </c>
@@ -8022,11 +8022,11 @@
       </c>
     </row>
     <row r="365" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A365" s="30"/>
-      <c r="B365" s="30"/>
-      <c r="C365" s="24"/>
-      <c r="D365" s="30"/>
-      <c r="E365" s="30"/>
+      <c r="A365" s="24"/>
+      <c r="B365" s="24"/>
+      <c r="C365" s="29"/>
+      <c r="D365" s="24"/>
+      <c r="E365" s="24"/>
       <c r="F365" s="15" t="s">
         <v>273</v>
       </c>
@@ -8038,11 +8038,11 @@
       </c>
     </row>
     <row r="366" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A366" s="30"/>
-      <c r="B366" s="30"/>
-      <c r="C366" s="24"/>
-      <c r="D366" s="30"/>
-      <c r="E366" s="30"/>
+      <c r="A366" s="24"/>
+      <c r="B366" s="24"/>
+      <c r="C366" s="29"/>
+      <c r="D366" s="24"/>
+      <c r="E366" s="24"/>
       <c r="F366" s="15" t="s">
         <v>206</v>
       </c>
@@ -8054,11 +8054,11 @@
       </c>
     </row>
     <row r="367" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A367" s="30"/>
-      <c r="B367" s="30"/>
-      <c r="C367" s="24"/>
-      <c r="D367" s="30"/>
-      <c r="E367" s="30"/>
+      <c r="A367" s="24"/>
+      <c r="B367" s="24"/>
+      <c r="C367" s="29"/>
+      <c r="D367" s="24"/>
+      <c r="E367" s="24"/>
       <c r="F367" s="15" t="s">
         <v>121</v>
       </c>
@@ -8070,11 +8070,11 @@
       </c>
     </row>
     <row r="368" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A368" s="30"/>
-      <c r="B368" s="30"/>
-      <c r="C368" s="24"/>
-      <c r="D368" s="30"/>
-      <c r="E368" s="30"/>
+      <c r="A368" s="24"/>
+      <c r="B368" s="24"/>
+      <c r="C368" s="29"/>
+      <c r="D368" s="24"/>
+      <c r="E368" s="24"/>
       <c r="F368" s="15" t="s">
         <v>370</v>
       </c>
@@ -8086,11 +8086,11 @@
       </c>
     </row>
     <row r="369" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A369" s="30"/>
-      <c r="B369" s="30"/>
-      <c r="C369" s="24"/>
-      <c r="D369" s="30"/>
-      <c r="E369" s="30"/>
+      <c r="A369" s="24"/>
+      <c r="B369" s="24"/>
+      <c r="C369" s="29"/>
+      <c r="D369" s="24"/>
+      <c r="E369" s="24"/>
       <c r="F369" s="15" t="s">
         <v>376</v>
       </c>
@@ -8102,11 +8102,11 @@
       </c>
     </row>
     <row r="370" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A370" s="30"/>
-      <c r="B370" s="30"/>
-      <c r="C370" s="24"/>
-      <c r="D370" s="30"/>
-      <c r="E370" s="30"/>
+      <c r="A370" s="24"/>
+      <c r="B370" s="24"/>
+      <c r="C370" s="29"/>
+      <c r="D370" s="24"/>
+      <c r="E370" s="24"/>
       <c r="F370" s="15" t="s">
         <v>328</v>
       </c>
@@ -8118,11 +8118,11 @@
       </c>
     </row>
     <row r="371" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A371" s="30"/>
-      <c r="B371" s="30"/>
-      <c r="C371" s="24"/>
-      <c r="D371" s="30"/>
-      <c r="E371" s="30"/>
+      <c r="A371" s="24"/>
+      <c r="B371" s="24"/>
+      <c r="C371" s="29"/>
+      <c r="D371" s="24"/>
+      <c r="E371" s="24"/>
       <c r="F371" s="15" t="s">
         <v>378</v>
       </c>
@@ -8134,11 +8134,11 @@
       </c>
     </row>
     <row r="372" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A372" s="30"/>
-      <c r="B372" s="30"/>
-      <c r="C372" s="24"/>
-      <c r="D372" s="30"/>
-      <c r="E372" s="30"/>
+      <c r="A372" s="24"/>
+      <c r="B372" s="24"/>
+      <c r="C372" s="29"/>
+      <c r="D372" s="24"/>
+      <c r="E372" s="24"/>
       <c r="F372" s="15" t="s">
         <v>123</v>
       </c>
@@ -8150,11 +8150,11 @@
       </c>
     </row>
     <row r="373" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A373" s="30"/>
-      <c r="B373" s="30"/>
-      <c r="C373" s="24"/>
-      <c r="D373" s="30"/>
-      <c r="E373" s="30"/>
+      <c r="A373" s="24"/>
+      <c r="B373" s="24"/>
+      <c r="C373" s="29"/>
+      <c r="D373" s="24"/>
+      <c r="E373" s="24"/>
       <c r="F373" s="15" t="s">
         <v>381</v>
       </c>
@@ -8166,11 +8166,11 @@
       </c>
     </row>
     <row r="374" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A374" s="31"/>
-      <c r="B374" s="31"/>
-      <c r="C374" s="25"/>
-      <c r="D374" s="31"/>
-      <c r="E374" s="31"/>
+      <c r="A374" s="25"/>
+      <c r="B374" s="25"/>
+      <c r="C374" s="30"/>
+      <c r="D374" s="25"/>
+      <c r="E374" s="25"/>
       <c r="F374" s="15" t="s">
         <v>125</v>
       </c>
@@ -8182,19 +8182,19 @@
       </c>
     </row>
     <row r="375" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A375" s="23">
+      <c r="A375" s="26">
         <v>44</v>
       </c>
-      <c r="B375" s="23" t="s">
+      <c r="B375" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="C375" s="23" t="s">
+      <c r="C375" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="D375" s="23" t="s">
+      <c r="D375" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="E375" s="23" t="s">
+      <c r="E375" s="26" t="s">
         <v>66</v>
       </c>
       <c r="F375" s="12" t="s">
@@ -8208,11 +8208,11 @@
       </c>
     </row>
     <row r="376" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A376" s="30"/>
-      <c r="B376" s="30"/>
-      <c r="C376" s="24"/>
-      <c r="D376" s="30"/>
-      <c r="E376" s="30"/>
+      <c r="A376" s="24"/>
+      <c r="B376" s="24"/>
+      <c r="C376" s="29"/>
+      <c r="D376" s="24"/>
+      <c r="E376" s="24"/>
       <c r="F376" s="15" t="s">
         <v>172</v>
       </c>
@@ -8224,11 +8224,11 @@
       </c>
     </row>
     <row r="377" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A377" s="30"/>
-      <c r="B377" s="30"/>
-      <c r="C377" s="24"/>
-      <c r="D377" s="30"/>
-      <c r="E377" s="30"/>
+      <c r="A377" s="24"/>
+      <c r="B377" s="24"/>
+      <c r="C377" s="29"/>
+      <c r="D377" s="24"/>
+      <c r="E377" s="24"/>
       <c r="F377" s="12" t="s">
         <v>258</v>
       </c>
@@ -8240,11 +8240,11 @@
       </c>
     </row>
     <row r="378" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A378" s="30"/>
-      <c r="B378" s="30"/>
-      <c r="C378" s="24"/>
-      <c r="D378" s="30"/>
-      <c r="E378" s="30"/>
+      <c r="A378" s="24"/>
+      <c r="B378" s="24"/>
+      <c r="C378" s="29"/>
+      <c r="D378" s="24"/>
+      <c r="E378" s="24"/>
       <c r="F378" s="15" t="s">
         <v>173</v>
       </c>
@@ -8256,11 +8256,11 @@
       </c>
     </row>
     <row r="379" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A379" s="30"/>
-      <c r="B379" s="30"/>
-      <c r="C379" s="24"/>
-      <c r="D379" s="30"/>
-      <c r="E379" s="30"/>
+      <c r="A379" s="24"/>
+      <c r="B379" s="24"/>
+      <c r="C379" s="29"/>
+      <c r="D379" s="24"/>
+      <c r="E379" s="24"/>
       <c r="F379" s="15" t="s">
         <v>273</v>
       </c>
@@ -8272,11 +8272,11 @@
       </c>
     </row>
     <row r="380" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A380" s="30"/>
-      <c r="B380" s="30"/>
-      <c r="C380" s="24"/>
-      <c r="D380" s="30"/>
-      <c r="E380" s="30"/>
+      <c r="A380" s="24"/>
+      <c r="B380" s="24"/>
+      <c r="C380" s="29"/>
+      <c r="D380" s="24"/>
+      <c r="E380" s="24"/>
       <c r="F380" s="15" t="s">
         <v>206</v>
       </c>
@@ -8288,11 +8288,11 @@
       </c>
     </row>
     <row r="381" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A381" s="31"/>
-      <c r="B381" s="31"/>
-      <c r="C381" s="25"/>
-      <c r="D381" s="31"/>
-      <c r="E381" s="31"/>
+      <c r="A381" s="25"/>
+      <c r="B381" s="25"/>
+      <c r="C381" s="30"/>
+      <c r="D381" s="25"/>
+      <c r="E381" s="25"/>
       <c r="F381" s="15" t="s">
         <v>388</v>
       </c>
@@ -8304,19 +8304,19 @@
       </c>
     </row>
     <row r="382" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A382" s="23">
+      <c r="A382" s="26">
         <v>45</v>
       </c>
-      <c r="B382" s="23" t="s">
+      <c r="B382" s="26" t="s">
         <v>389</v>
       </c>
-      <c r="C382" s="23" t="s">
+      <c r="C382" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="D382" s="23" t="s">
+      <c r="D382" s="26" t="s">
         <v>390</v>
       </c>
-      <c r="E382" s="23" t="s">
+      <c r="E382" s="26" t="s">
         <v>66</v>
       </c>
       <c r="F382" s="12" t="s">
@@ -8330,11 +8330,11 @@
       </c>
     </row>
     <row r="383" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A383" s="30"/>
-      <c r="B383" s="30"/>
-      <c r="C383" s="24"/>
-      <c r="D383" s="30"/>
-      <c r="E383" s="30"/>
+      <c r="A383" s="24"/>
+      <c r="B383" s="24"/>
+      <c r="C383" s="29"/>
+      <c r="D383" s="24"/>
+      <c r="E383" s="24"/>
       <c r="F383" s="15" t="s">
         <v>172</v>
       </c>
@@ -8346,11 +8346,11 @@
       </c>
     </row>
     <row r="384" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A384" s="30"/>
-      <c r="B384" s="30"/>
-      <c r="C384" s="24"/>
-      <c r="D384" s="30"/>
-      <c r="E384" s="30"/>
+      <c r="A384" s="24"/>
+      <c r="B384" s="24"/>
+      <c r="C384" s="29"/>
+      <c r="D384" s="24"/>
+      <c r="E384" s="24"/>
       <c r="F384" s="12" t="s">
         <v>258</v>
       </c>
@@ -8362,11 +8362,11 @@
       </c>
     </row>
     <row r="385" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A385" s="30"/>
-      <c r="B385" s="30"/>
-      <c r="C385" s="24"/>
-      <c r="D385" s="30"/>
-      <c r="E385" s="30"/>
+      <c r="A385" s="24"/>
+      <c r="B385" s="24"/>
+      <c r="C385" s="29"/>
+      <c r="D385" s="24"/>
+      <c r="E385" s="24"/>
       <c r="F385" s="15" t="s">
         <v>173</v>
       </c>
@@ -8378,11 +8378,11 @@
       </c>
     </row>
     <row r="386" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A386" s="30"/>
-      <c r="B386" s="30"/>
-      <c r="C386" s="24"/>
-      <c r="D386" s="30"/>
-      <c r="E386" s="30"/>
+      <c r="A386" s="24"/>
+      <c r="B386" s="24"/>
+      <c r="C386" s="29"/>
+      <c r="D386" s="24"/>
+      <c r="E386" s="24"/>
       <c r="F386" s="15" t="s">
         <v>273</v>
       </c>
@@ -8394,11 +8394,11 @@
       </c>
     </row>
     <row r="387" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A387" s="30"/>
-      <c r="B387" s="30"/>
-      <c r="C387" s="24"/>
-      <c r="D387" s="30"/>
-      <c r="E387" s="30"/>
+      <c r="A387" s="24"/>
+      <c r="B387" s="24"/>
+      <c r="C387" s="29"/>
+      <c r="D387" s="24"/>
+      <c r="E387" s="24"/>
       <c r="F387" s="15" t="s">
         <v>391</v>
       </c>
@@ -8410,11 +8410,11 @@
       </c>
     </row>
     <row r="388" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A388" s="30"/>
-      <c r="B388" s="30"/>
-      <c r="C388" s="24"/>
-      <c r="D388" s="30"/>
-      <c r="E388" s="30"/>
+      <c r="A388" s="24"/>
+      <c r="B388" s="24"/>
+      <c r="C388" s="29"/>
+      <c r="D388" s="24"/>
+      <c r="E388" s="24"/>
       <c r="F388" s="15" t="s">
         <v>393</v>
       </c>
@@ -8426,11 +8426,11 @@
       </c>
     </row>
     <row r="389" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A389" s="30"/>
-      <c r="B389" s="30"/>
-      <c r="C389" s="24"/>
-      <c r="D389" s="30"/>
-      <c r="E389" s="30"/>
+      <c r="A389" s="24"/>
+      <c r="B389" s="24"/>
+      <c r="C389" s="29"/>
+      <c r="D389" s="24"/>
+      <c r="E389" s="24"/>
       <c r="F389" s="15" t="s">
         <v>394</v>
       </c>
@@ -8442,11 +8442,11 @@
       </c>
     </row>
     <row r="390" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A390" s="31"/>
-      <c r="B390" s="31"/>
-      <c r="C390" s="25"/>
-      <c r="D390" s="31"/>
-      <c r="E390" s="31"/>
+      <c r="A390" s="25"/>
+      <c r="B390" s="25"/>
+      <c r="C390" s="30"/>
+      <c r="D390" s="25"/>
+      <c r="E390" s="25"/>
       <c r="F390" s="15" t="s">
         <v>396</v>
       </c>
@@ -8458,19 +8458,19 @@
       </c>
     </row>
     <row r="391" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A391" s="23">
+      <c r="A391" s="26">
         <v>46</v>
       </c>
-      <c r="B391" s="23" t="s">
+      <c r="B391" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="C391" s="23" t="s">
+      <c r="C391" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="D391" s="23" t="s">
+      <c r="D391" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="E391" s="23" t="s">
+      <c r="E391" s="26" t="s">
         <v>133</v>
       </c>
       <c r="F391" s="12" t="s">
@@ -8484,11 +8484,11 @@
       </c>
     </row>
     <row r="392" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A392" s="30"/>
-      <c r="B392" s="30"/>
-      <c r="C392" s="24"/>
-      <c r="D392" s="30"/>
-      <c r="E392" s="30"/>
+      <c r="A392" s="24"/>
+      <c r="B392" s="24"/>
+      <c r="C392" s="29"/>
+      <c r="D392" s="24"/>
+      <c r="E392" s="24"/>
       <c r="F392" s="15" t="s">
         <v>172</v>
       </c>
@@ -8500,11 +8500,11 @@
       </c>
     </row>
     <row r="393" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A393" s="30"/>
-      <c r="B393" s="30"/>
-      <c r="C393" s="24"/>
-      <c r="D393" s="30"/>
-      <c r="E393" s="30"/>
+      <c r="A393" s="24"/>
+      <c r="B393" s="24"/>
+      <c r="C393" s="29"/>
+      <c r="D393" s="24"/>
+      <c r="E393" s="24"/>
       <c r="F393" s="12" t="s">
         <v>258</v>
       </c>
@@ -8516,11 +8516,11 @@
       </c>
     </row>
     <row r="394" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A394" s="30"/>
-      <c r="B394" s="30"/>
-      <c r="C394" s="24"/>
-      <c r="D394" s="30"/>
-      <c r="E394" s="30"/>
+      <c r="A394" s="24"/>
+      <c r="B394" s="24"/>
+      <c r="C394" s="29"/>
+      <c r="D394" s="24"/>
+      <c r="E394" s="24"/>
       <c r="F394" s="15" t="s">
         <v>173</v>
       </c>
@@ -8532,11 +8532,11 @@
       </c>
     </row>
     <row r="395" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A395" s="30"/>
-      <c r="B395" s="30"/>
-      <c r="C395" s="24"/>
-      <c r="D395" s="30"/>
-      <c r="E395" s="30"/>
+      <c r="A395" s="24"/>
+      <c r="B395" s="24"/>
+      <c r="C395" s="29"/>
+      <c r="D395" s="24"/>
+      <c r="E395" s="24"/>
       <c r="F395" s="15" t="s">
         <v>397</v>
       </c>
@@ -8548,11 +8548,11 @@
       </c>
     </row>
     <row r="396" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A396" s="30"/>
-      <c r="B396" s="30"/>
-      <c r="C396" s="24"/>
-      <c r="D396" s="30"/>
-      <c r="E396" s="30"/>
+      <c r="A396" s="24"/>
+      <c r="B396" s="24"/>
+      <c r="C396" s="29"/>
+      <c r="D396" s="24"/>
+      <c r="E396" s="24"/>
       <c r="F396" s="15" t="s">
         <v>398</v>
       </c>
@@ -8564,11 +8564,11 @@
       </c>
     </row>
     <row r="397" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A397" s="30"/>
-      <c r="B397" s="30"/>
-      <c r="C397" s="24"/>
-      <c r="D397" s="30"/>
-      <c r="E397" s="30"/>
+      <c r="A397" s="24"/>
+      <c r="B397" s="24"/>
+      <c r="C397" s="29"/>
+      <c r="D397" s="24"/>
+      <c r="E397" s="24"/>
       <c r="F397" s="15" t="s">
         <v>403</v>
       </c>
@@ -8580,11 +8580,11 @@
       </c>
     </row>
     <row r="398" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A398" s="30"/>
-      <c r="B398" s="30"/>
-      <c r="C398" s="24"/>
-      <c r="D398" s="30"/>
-      <c r="E398" s="30"/>
+      <c r="A398" s="24"/>
+      <c r="B398" s="24"/>
+      <c r="C398" s="29"/>
+      <c r="D398" s="24"/>
+      <c r="E398" s="24"/>
       <c r="F398" s="15" t="s">
         <v>404</v>
       </c>
@@ -8596,11 +8596,11 @@
       </c>
     </row>
     <row r="399" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A399" s="31"/>
-      <c r="B399" s="31"/>
-      <c r="C399" s="25"/>
-      <c r="D399" s="31"/>
-      <c r="E399" s="31"/>
+      <c r="A399" s="25"/>
+      <c r="B399" s="25"/>
+      <c r="C399" s="30"/>
+      <c r="D399" s="25"/>
+      <c r="E399" s="25"/>
       <c r="F399" s="15" t="s">
         <v>402</v>
       </c>
@@ -8612,19 +8612,19 @@
       </c>
     </row>
     <row r="400" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A400" s="23">
+      <c r="A400" s="26">
         <v>47</v>
       </c>
-      <c r="B400" s="23" t="s">
+      <c r="B400" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="C400" s="23" t="s">
+      <c r="C400" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="D400" s="23" t="s">
+      <c r="D400" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="E400" s="23" t="s">
+      <c r="E400" s="26" t="s">
         <v>133</v>
       </c>
       <c r="F400" s="12" t="s">
@@ -8638,11 +8638,11 @@
       </c>
     </row>
     <row r="401" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A401" s="30"/>
-      <c r="B401" s="30"/>
-      <c r="C401" s="24"/>
-      <c r="D401" s="30"/>
-      <c r="E401" s="30"/>
+      <c r="A401" s="24"/>
+      <c r="B401" s="24"/>
+      <c r="C401" s="29"/>
+      <c r="D401" s="24"/>
+      <c r="E401" s="24"/>
       <c r="F401" s="15" t="s">
         <v>172</v>
       </c>
@@ -8654,11 +8654,11 @@
       </c>
     </row>
     <row r="402" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A402" s="30"/>
-      <c r="B402" s="30"/>
-      <c r="C402" s="24"/>
-      <c r="D402" s="30"/>
-      <c r="E402" s="30"/>
+      <c r="A402" s="24"/>
+      <c r="B402" s="24"/>
+      <c r="C402" s="29"/>
+      <c r="D402" s="24"/>
+      <c r="E402" s="24"/>
       <c r="F402" s="12" t="s">
         <v>258</v>
       </c>
@@ -8670,11 +8670,11 @@
       </c>
     </row>
     <row r="403" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A403" s="30"/>
-      <c r="B403" s="30"/>
-      <c r="C403" s="24"/>
-      <c r="D403" s="30"/>
-      <c r="E403" s="30"/>
+      <c r="A403" s="24"/>
+      <c r="B403" s="24"/>
+      <c r="C403" s="29"/>
+      <c r="D403" s="24"/>
+      <c r="E403" s="24"/>
       <c r="F403" s="15" t="s">
         <v>173</v>
       </c>
@@ -8686,11 +8686,11 @@
       </c>
     </row>
     <row r="404" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A404" s="30"/>
-      <c r="B404" s="30"/>
-      <c r="C404" s="24"/>
-      <c r="D404" s="30"/>
-      <c r="E404" s="30"/>
+      <c r="A404" s="24"/>
+      <c r="B404" s="24"/>
+      <c r="C404" s="29"/>
+      <c r="D404" s="24"/>
+      <c r="E404" s="24"/>
       <c r="F404" s="15" t="s">
         <v>397</v>
       </c>
@@ -8702,11 +8702,11 @@
       </c>
     </row>
     <row r="405" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A405" s="30"/>
-      <c r="B405" s="30"/>
-      <c r="C405" s="24"/>
-      <c r="D405" s="30"/>
-      <c r="E405" s="30"/>
+      <c r="A405" s="24"/>
+      <c r="B405" s="24"/>
+      <c r="C405" s="29"/>
+      <c r="D405" s="24"/>
+      <c r="E405" s="24"/>
       <c r="F405" s="15" t="s">
         <v>398</v>
       </c>
@@ -8718,11 +8718,11 @@
       </c>
     </row>
     <row r="406" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A406" s="30"/>
-      <c r="B406" s="30"/>
-      <c r="C406" s="24"/>
-      <c r="D406" s="30"/>
-      <c r="E406" s="30"/>
+      <c r="A406" s="24"/>
+      <c r="B406" s="24"/>
+      <c r="C406" s="29"/>
+      <c r="D406" s="24"/>
+      <c r="E406" s="24"/>
       <c r="F406" s="15" t="s">
         <v>403</v>
       </c>
@@ -8734,11 +8734,11 @@
       </c>
     </row>
     <row r="407" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A407" s="30"/>
-      <c r="B407" s="30"/>
-      <c r="C407" s="24"/>
-      <c r="D407" s="30"/>
-      <c r="E407" s="30"/>
+      <c r="A407" s="24"/>
+      <c r="B407" s="24"/>
+      <c r="C407" s="29"/>
+      <c r="D407" s="24"/>
+      <c r="E407" s="24"/>
       <c r="F407" s="15" t="s">
         <v>405</v>
       </c>
@@ -8750,11 +8750,11 @@
       </c>
     </row>
     <row r="408" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A408" s="31"/>
-      <c r="B408" s="31"/>
-      <c r="C408" s="25"/>
-      <c r="D408" s="31"/>
-      <c r="E408" s="31"/>
+      <c r="A408" s="25"/>
+      <c r="B408" s="25"/>
+      <c r="C408" s="30"/>
+      <c r="D408" s="25"/>
+      <c r="E408" s="25"/>
       <c r="F408" s="15" t="s">
         <v>406</v>
       </c>
@@ -8766,424 +8766,620 @@
       </c>
     </row>
     <row r="409" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A409" s="34"/>
-      <c r="B409" s="34"/>
+      <c r="A409" s="27"/>
+      <c r="B409" s="27"/>
       <c r="C409" s="3"/>
-      <c r="D409" s="34"/>
-      <c r="E409" s="34"/>
+      <c r="D409" s="27"/>
+      <c r="E409" s="27"/>
       <c r="F409" s="16"/>
       <c r="G409" s="16"/>
       <c r="H409" s="17"/>
     </row>
     <row r="410" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A410" s="35"/>
-      <c r="B410" s="35"/>
-      <c r="D410" s="35"/>
-      <c r="E410" s="35"/>
+      <c r="A410" s="28"/>
+      <c r="B410" s="28"/>
+      <c r="D410" s="28"/>
+      <c r="E410" s="28"/>
       <c r="F410" s="2"/>
       <c r="G410" s="2"/>
     </row>
     <row r="411" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A411" s="35"/>
-      <c r="B411" s="35"/>
-      <c r="D411" s="35"/>
-      <c r="E411" s="35"/>
+      <c r="A411" s="28"/>
+      <c r="B411" s="28"/>
+      <c r="D411" s="28"/>
+      <c r="E411" s="28"/>
       <c r="F411" s="2"/>
       <c r="G411" s="2"/>
     </row>
     <row r="412" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A412" s="35"/>
-      <c r="B412" s="35"/>
-      <c r="D412" s="35"/>
-      <c r="E412" s="35"/>
+      <c r="A412" s="28"/>
+      <c r="B412" s="28"/>
+      <c r="D412" s="28"/>
+      <c r="E412" s="28"/>
       <c r="F412" s="2"/>
       <c r="G412" s="2"/>
     </row>
     <row r="413" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A413" s="35"/>
-      <c r="B413" s="35"/>
-      <c r="D413" s="35"/>
-      <c r="E413" s="35"/>
+      <c r="A413" s="28"/>
+      <c r="B413" s="28"/>
+      <c r="D413" s="28"/>
+      <c r="E413" s="28"/>
       <c r="F413" s="2"/>
       <c r="G413" s="2"/>
     </row>
     <row r="414" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A414" s="35"/>
-      <c r="B414" s="35"/>
-      <c r="D414" s="35"/>
-      <c r="E414" s="35"/>
+      <c r="A414" s="28"/>
+      <c r="B414" s="28"/>
+      <c r="D414" s="28"/>
+      <c r="E414" s="28"/>
       <c r="F414" s="2"/>
       <c r="G414" s="2"/>
     </row>
     <row r="415" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A415" s="35"/>
-      <c r="B415" s="35"/>
-      <c r="D415" s="35"/>
-      <c r="E415" s="35"/>
+      <c r="A415" s="28"/>
+      <c r="B415" s="28"/>
+      <c r="D415" s="28"/>
+      <c r="E415" s="28"/>
       <c r="F415" s="2"/>
       <c r="G415" s="2"/>
     </row>
     <row r="416" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A416" s="35"/>
-      <c r="B416" s="35"/>
-      <c r="D416" s="35"/>
-      <c r="E416" s="35"/>
+      <c r="A416" s="28"/>
+      <c r="B416" s="28"/>
+      <c r="D416" s="28"/>
+      <c r="E416" s="28"/>
       <c r="F416" s="2"/>
       <c r="G416" s="2"/>
     </row>
     <row r="417" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A417" s="35"/>
-      <c r="B417" s="35"/>
-      <c r="D417" s="35"/>
-      <c r="E417" s="35"/>
+      <c r="A417" s="28"/>
+      <c r="B417" s="28"/>
+      <c r="D417" s="28"/>
+      <c r="E417" s="28"/>
       <c r="F417" s="2"/>
       <c r="G417" s="2"/>
     </row>
     <row r="418" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A418" s="35"/>
-      <c r="B418" s="35"/>
-      <c r="D418" s="35"/>
-      <c r="E418" s="35"/>
+      <c r="A418" s="28"/>
+      <c r="B418" s="28"/>
+      <c r="D418" s="28"/>
+      <c r="E418" s="28"/>
       <c r="F418" s="2"/>
       <c r="G418" s="2"/>
     </row>
     <row r="419" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A419" s="34"/>
-      <c r="B419" s="34"/>
+      <c r="A419" s="27"/>
+      <c r="B419" s="27"/>
       <c r="C419" s="3"/>
-      <c r="D419" s="34"/>
-      <c r="E419" s="34"/>
+      <c r="D419" s="27"/>
+      <c r="E419" s="27"/>
       <c r="F419" s="2"/>
       <c r="G419" s="2"/>
     </row>
     <row r="420" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A420" s="35"/>
-      <c r="B420" s="35"/>
-      <c r="D420" s="35"/>
-      <c r="E420" s="35"/>
+      <c r="A420" s="28"/>
+      <c r="B420" s="28"/>
+      <c r="D420" s="28"/>
+      <c r="E420" s="28"/>
       <c r="F420" s="2"/>
       <c r="G420" s="2"/>
     </row>
     <row r="421" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A421" s="35"/>
-      <c r="B421" s="35"/>
-      <c r="D421" s="35"/>
-      <c r="E421" s="35"/>
+      <c r="A421" s="28"/>
+      <c r="B421" s="28"/>
+      <c r="D421" s="28"/>
+      <c r="E421" s="28"/>
       <c r="F421" s="2"/>
       <c r="G421" s="2"/>
     </row>
     <row r="422" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A422" s="35"/>
-      <c r="B422" s="35"/>
-      <c r="D422" s="35"/>
-      <c r="E422" s="35"/>
+      <c r="A422" s="28"/>
+      <c r="B422" s="28"/>
+      <c r="D422" s="28"/>
+      <c r="E422" s="28"/>
       <c r="F422" s="2"/>
       <c r="G422" s="2"/>
     </row>
     <row r="423" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A423" s="35"/>
-      <c r="B423" s="35"/>
-      <c r="D423" s="35"/>
-      <c r="E423" s="35"/>
+      <c r="A423" s="28"/>
+      <c r="B423" s="28"/>
+      <c r="D423" s="28"/>
+      <c r="E423" s="28"/>
       <c r="F423" s="2"/>
       <c r="G423" s="2"/>
     </row>
     <row r="424" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A424" s="35"/>
-      <c r="B424" s="35"/>
-      <c r="D424" s="35"/>
-      <c r="E424" s="35"/>
+      <c r="A424" s="28"/>
+      <c r="B424" s="28"/>
+      <c r="D424" s="28"/>
+      <c r="E424" s="28"/>
       <c r="F424" s="2"/>
       <c r="G424" s="2"/>
     </row>
     <row r="425" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A425" s="35"/>
-      <c r="B425" s="35"/>
-      <c r="D425" s="35"/>
-      <c r="E425" s="35"/>
+      <c r="A425" s="28"/>
+      <c r="B425" s="28"/>
+      <c r="D425" s="28"/>
+      <c r="E425" s="28"/>
       <c r="F425" s="2"/>
       <c r="G425" s="2"/>
     </row>
     <row r="426" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A426" s="35"/>
-      <c r="B426" s="35"/>
-      <c r="D426" s="35"/>
-      <c r="E426" s="35"/>
+      <c r="A426" s="28"/>
+      <c r="B426" s="28"/>
+      <c r="D426" s="28"/>
+      <c r="E426" s="28"/>
       <c r="F426" s="2"/>
       <c r="G426" s="2"/>
     </row>
     <row r="427" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A427" s="35"/>
-      <c r="B427" s="35"/>
-      <c r="D427" s="35"/>
-      <c r="E427" s="35"/>
+      <c r="A427" s="28"/>
+      <c r="B427" s="28"/>
+      <c r="D427" s="28"/>
+      <c r="E427" s="28"/>
       <c r="F427" s="2"/>
       <c r="G427" s="2"/>
     </row>
     <row r="428" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A428" s="35"/>
-      <c r="B428" s="35"/>
-      <c r="D428" s="35"/>
-      <c r="E428" s="35"/>
+      <c r="A428" s="28"/>
+      <c r="B428" s="28"/>
+      <c r="D428" s="28"/>
+      <c r="E428" s="28"/>
       <c r="F428" s="2"/>
       <c r="G428" s="2"/>
     </row>
     <row r="429" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A429" s="34"/>
-      <c r="B429" s="34"/>
+      <c r="A429" s="27"/>
+      <c r="B429" s="27"/>
       <c r="C429" s="3"/>
-      <c r="D429" s="34"/>
-      <c r="E429" s="34"/>
+      <c r="D429" s="27"/>
+      <c r="E429" s="27"/>
       <c r="F429" s="2"/>
       <c r="G429" s="2"/>
     </row>
     <row r="430" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A430" s="35"/>
-      <c r="B430" s="35"/>
-      <c r="D430" s="35"/>
-      <c r="E430" s="35"/>
+      <c r="A430" s="28"/>
+      <c r="B430" s="28"/>
+      <c r="D430" s="28"/>
+      <c r="E430" s="28"/>
       <c r="F430" s="2"/>
       <c r="G430" s="2"/>
     </row>
     <row r="431" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A431" s="35"/>
-      <c r="B431" s="35"/>
-      <c r="D431" s="35"/>
-      <c r="E431" s="35"/>
+      <c r="A431" s="28"/>
+      <c r="B431" s="28"/>
+      <c r="D431" s="28"/>
+      <c r="E431" s="28"/>
       <c r="F431" s="2"/>
       <c r="G431" s="2"/>
     </row>
     <row r="432" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A432" s="35"/>
-      <c r="B432" s="35"/>
-      <c r="D432" s="35"/>
-      <c r="E432" s="35"/>
+      <c r="A432" s="28"/>
+      <c r="B432" s="28"/>
+      <c r="D432" s="28"/>
+      <c r="E432" s="28"/>
       <c r="F432" s="2"/>
       <c r="G432" s="2"/>
     </row>
     <row r="433" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A433" s="35"/>
-      <c r="B433" s="35"/>
-      <c r="D433" s="35"/>
-      <c r="E433" s="35"/>
+      <c r="A433" s="28"/>
+      <c r="B433" s="28"/>
+      <c r="D433" s="28"/>
+      <c r="E433" s="28"/>
       <c r="F433" s="2"/>
       <c r="G433" s="2"/>
     </row>
     <row r="434" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A434" s="35"/>
-      <c r="B434" s="35"/>
-      <c r="D434" s="35"/>
-      <c r="E434" s="35"/>
+      <c r="A434" s="28"/>
+      <c r="B434" s="28"/>
+      <c r="D434" s="28"/>
+      <c r="E434" s="28"/>
       <c r="F434" s="2"/>
       <c r="G434" s="2"/>
     </row>
     <row r="435" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A435" s="35"/>
-      <c r="B435" s="35"/>
-      <c r="D435" s="35"/>
-      <c r="E435" s="35"/>
+      <c r="A435" s="28"/>
+      <c r="B435" s="28"/>
+      <c r="D435" s="28"/>
+      <c r="E435" s="28"/>
       <c r="F435" s="2"/>
       <c r="G435" s="2"/>
     </row>
     <row r="436" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A436" s="35"/>
-      <c r="B436" s="35"/>
-      <c r="D436" s="35"/>
-      <c r="E436" s="35"/>
+      <c r="A436" s="28"/>
+      <c r="B436" s="28"/>
+      <c r="D436" s="28"/>
+      <c r="E436" s="28"/>
       <c r="F436" s="2"/>
       <c r="G436" s="2"/>
     </row>
     <row r="437" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A437" s="35"/>
-      <c r="B437" s="35"/>
-      <c r="D437" s="35"/>
-      <c r="E437" s="35"/>
+      <c r="A437" s="28"/>
+      <c r="B437" s="28"/>
+      <c r="D437" s="28"/>
+      <c r="E437" s="28"/>
       <c r="F437" s="2"/>
       <c r="G437" s="2"/>
     </row>
     <row r="438" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A438" s="35"/>
-      <c r="B438" s="35"/>
-      <c r="D438" s="35"/>
-      <c r="E438" s="35"/>
+      <c r="A438" s="28"/>
+      <c r="B438" s="28"/>
+      <c r="D438" s="28"/>
+      <c r="E438" s="28"/>
       <c r="F438" s="2"/>
       <c r="G438" s="2"/>
     </row>
     <row r="439" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A439" s="34"/>
-      <c r="B439" s="34"/>
+      <c r="A439" s="27"/>
+      <c r="B439" s="27"/>
       <c r="C439" s="3"/>
-      <c r="D439" s="34"/>
-      <c r="E439" s="34"/>
+      <c r="D439" s="27"/>
+      <c r="E439" s="27"/>
       <c r="F439" s="2"/>
       <c r="G439" s="2"/>
     </row>
     <row r="440" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A440" s="35"/>
-      <c r="B440" s="35"/>
-      <c r="D440" s="35"/>
-      <c r="E440" s="35"/>
+      <c r="A440" s="28"/>
+      <c r="B440" s="28"/>
+      <c r="D440" s="28"/>
+      <c r="E440" s="28"/>
       <c r="F440" s="2"/>
       <c r="G440" s="2"/>
     </row>
     <row r="441" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A441" s="35"/>
-      <c r="B441" s="35"/>
-      <c r="D441" s="35"/>
-      <c r="E441" s="35"/>
+      <c r="A441" s="28"/>
+      <c r="B441" s="28"/>
+      <c r="D441" s="28"/>
+      <c r="E441" s="28"/>
       <c r="F441" s="2"/>
       <c r="G441" s="2"/>
     </row>
     <row r="442" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A442" s="35"/>
-      <c r="B442" s="35"/>
-      <c r="D442" s="35"/>
-      <c r="E442" s="35"/>
+      <c r="A442" s="28"/>
+      <c r="B442" s="28"/>
+      <c r="D442" s="28"/>
+      <c r="E442" s="28"/>
       <c r="F442" s="2"/>
       <c r="G442" s="2"/>
     </row>
     <row r="443" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A443" s="35"/>
-      <c r="B443" s="35"/>
-      <c r="D443" s="35"/>
-      <c r="E443" s="35"/>
+      <c r="A443" s="28"/>
+      <c r="B443" s="28"/>
+      <c r="D443" s="28"/>
+      <c r="E443" s="28"/>
       <c r="F443" s="2"/>
       <c r="G443" s="2"/>
     </row>
     <row r="444" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A444" s="35"/>
-      <c r="B444" s="35"/>
-      <c r="D444" s="35"/>
-      <c r="E444" s="35"/>
+      <c r="A444" s="28"/>
+      <c r="B444" s="28"/>
+      <c r="D444" s="28"/>
+      <c r="E444" s="28"/>
       <c r="F444" s="2"/>
       <c r="G444" s="2"/>
     </row>
     <row r="445" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A445" s="35"/>
-      <c r="B445" s="35"/>
-      <c r="D445" s="35"/>
-      <c r="E445" s="35"/>
+      <c r="A445" s="28"/>
+      <c r="B445" s="28"/>
+      <c r="D445" s="28"/>
+      <c r="E445" s="28"/>
       <c r="F445" s="2"/>
       <c r="G445" s="2"/>
     </row>
     <row r="446" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A446" s="35"/>
-      <c r="B446" s="35"/>
-      <c r="D446" s="35"/>
-      <c r="E446" s="35"/>
+      <c r="A446" s="28"/>
+      <c r="B446" s="28"/>
+      <c r="D446" s="28"/>
+      <c r="E446" s="28"/>
       <c r="F446" s="2"/>
       <c r="G446" s="2"/>
     </row>
     <row r="447" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A447" s="35"/>
-      <c r="B447" s="35"/>
-      <c r="D447" s="35"/>
-      <c r="E447" s="35"/>
+      <c r="A447" s="28"/>
+      <c r="B447" s="28"/>
+      <c r="D447" s="28"/>
+      <c r="E447" s="28"/>
       <c r="F447" s="2"/>
       <c r="G447" s="2"/>
     </row>
     <row r="448" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A448" s="35"/>
-      <c r="B448" s="35"/>
-      <c r="D448" s="35"/>
-      <c r="E448" s="35"/>
+      <c r="A448" s="28"/>
+      <c r="B448" s="28"/>
+      <c r="D448" s="28"/>
+      <c r="E448" s="28"/>
       <c r="F448" s="2"/>
       <c r="G448" s="2"/>
     </row>
     <row r="449" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A449" s="34"/>
-      <c r="B449" s="34"/>
+      <c r="A449" s="27"/>
+      <c r="B449" s="27"/>
       <c r="C449" s="3"/>
-      <c r="D449" s="34"/>
-      <c r="E449" s="34"/>
+      <c r="D449" s="27"/>
+      <c r="E449" s="27"/>
       <c r="F449" s="2"/>
       <c r="G449" s="2"/>
     </row>
     <row r="450" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A450" s="35"/>
-      <c r="B450" s="35"/>
-      <c r="D450" s="35"/>
-      <c r="E450" s="35"/>
+      <c r="A450" s="28"/>
+      <c r="B450" s="28"/>
+      <c r="D450" s="28"/>
+      <c r="E450" s="28"/>
       <c r="F450" s="2"/>
       <c r="G450" s="2"/>
     </row>
     <row r="451" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A451" s="35"/>
-      <c r="B451" s="35"/>
-      <c r="D451" s="35"/>
-      <c r="E451" s="35"/>
+      <c r="A451" s="28"/>
+      <c r="B451" s="28"/>
+      <c r="D451" s="28"/>
+      <c r="E451" s="28"/>
       <c r="F451" s="2"/>
       <c r="G451" s="2"/>
     </row>
     <row r="452" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A452" s="35"/>
-      <c r="B452" s="35"/>
-      <c r="D452" s="35"/>
-      <c r="E452" s="35"/>
+      <c r="A452" s="28"/>
+      <c r="B452" s="28"/>
+      <c r="D452" s="28"/>
+      <c r="E452" s="28"/>
       <c r="F452" s="2"/>
       <c r="G452" s="2"/>
     </row>
     <row r="453" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A453" s="35"/>
-      <c r="B453" s="35"/>
-      <c r="D453" s="35"/>
-      <c r="E453" s="35"/>
+      <c r="A453" s="28"/>
+      <c r="B453" s="28"/>
+      <c r="D453" s="28"/>
+      <c r="E453" s="28"/>
       <c r="F453" s="2"/>
       <c r="G453" s="2"/>
     </row>
     <row r="454" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A454" s="35"/>
-      <c r="B454" s="35"/>
-      <c r="D454" s="35"/>
-      <c r="E454" s="35"/>
+      <c r="A454" s="28"/>
+      <c r="B454" s="28"/>
+      <c r="D454" s="28"/>
+      <c r="E454" s="28"/>
       <c r="F454" s="2"/>
       <c r="G454" s="2"/>
     </row>
     <row r="455" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A455" s="35"/>
-      <c r="B455" s="35"/>
-      <c r="D455" s="35"/>
-      <c r="E455" s="35"/>
+      <c r="A455" s="28"/>
+      <c r="B455" s="28"/>
+      <c r="D455" s="28"/>
+      <c r="E455" s="28"/>
       <c r="F455" s="2"/>
       <c r="G455" s="2"/>
     </row>
     <row r="456" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A456" s="35"/>
-      <c r="B456" s="35"/>
-      <c r="D456" s="35"/>
-      <c r="E456" s="35"/>
+      <c r="A456" s="28"/>
+      <c r="B456" s="28"/>
+      <c r="D456" s="28"/>
+      <c r="E456" s="28"/>
       <c r="F456" s="2"/>
       <c r="G456" s="2"/>
     </row>
     <row r="457" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A457" s="35"/>
-      <c r="B457" s="35"/>
-      <c r="D457" s="35"/>
-      <c r="E457" s="35"/>
+      <c r="A457" s="28"/>
+      <c r="B457" s="28"/>
+      <c r="D457" s="28"/>
+      <c r="E457" s="28"/>
       <c r="F457" s="2"/>
       <c r="G457" s="2"/>
     </row>
     <row r="458" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A458" s="35"/>
-      <c r="B458" s="35"/>
-      <c r="D458" s="35"/>
-      <c r="E458" s="35"/>
+      <c r="A458" s="28"/>
+      <c r="B458" s="28"/>
+      <c r="D458" s="28"/>
+      <c r="E458" s="28"/>
       <c r="F458" s="2"/>
       <c r="G458" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="255">
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="A57:A63"/>
-    <mergeCell ref="B57:B63"/>
-    <mergeCell ref="D57:D63"/>
-    <mergeCell ref="E57:E63"/>
-    <mergeCell ref="B64:B71"/>
-    <mergeCell ref="D64:D71"/>
-    <mergeCell ref="E64:E71"/>
+    <mergeCell ref="C72:C76"/>
+    <mergeCell ref="C77:C83"/>
+    <mergeCell ref="C84:C91"/>
+    <mergeCell ref="C382:C390"/>
+    <mergeCell ref="C391:C399"/>
+    <mergeCell ref="C211:C222"/>
+    <mergeCell ref="C223:C232"/>
+    <mergeCell ref="C233:C243"/>
+    <mergeCell ref="C244:C257"/>
+    <mergeCell ref="C258:C268"/>
+    <mergeCell ref="C269:C277"/>
+    <mergeCell ref="C278:C297"/>
+    <mergeCell ref="C298:C307"/>
+    <mergeCell ref="C308:C316"/>
+    <mergeCell ref="E258:E268"/>
+    <mergeCell ref="A233:A243"/>
+    <mergeCell ref="A244:A257"/>
+    <mergeCell ref="B244:B257"/>
+    <mergeCell ref="D244:D257"/>
+    <mergeCell ref="E244:E257"/>
+    <mergeCell ref="A258:A268"/>
+    <mergeCell ref="E233:E243"/>
+    <mergeCell ref="B233:B243"/>
+    <mergeCell ref="D233:D243"/>
+    <mergeCell ref="B258:B268"/>
+    <mergeCell ref="D258:D268"/>
+    <mergeCell ref="D167:D174"/>
+    <mergeCell ref="E167:E174"/>
+    <mergeCell ref="D175:D181"/>
+    <mergeCell ref="E175:E181"/>
+    <mergeCell ref="A161:A166"/>
+    <mergeCell ref="B161:B166"/>
+    <mergeCell ref="D161:D166"/>
+    <mergeCell ref="E161:E166"/>
+    <mergeCell ref="B167:B174"/>
+    <mergeCell ref="A167:A174"/>
+    <mergeCell ref="C161:C166"/>
+    <mergeCell ref="C167:C174"/>
+    <mergeCell ref="C175:C181"/>
+    <mergeCell ref="B182:B201"/>
+    <mergeCell ref="D182:D201"/>
+    <mergeCell ref="E182:E201"/>
+    <mergeCell ref="A175:A181"/>
+    <mergeCell ref="B175:B181"/>
+    <mergeCell ref="E211:E222"/>
+    <mergeCell ref="E223:E232"/>
+    <mergeCell ref="A182:A201"/>
+    <mergeCell ref="A202:A210"/>
+    <mergeCell ref="B202:B210"/>
+    <mergeCell ref="D202:D210"/>
+    <mergeCell ref="E202:E210"/>
+    <mergeCell ref="A211:A222"/>
+    <mergeCell ref="B211:B222"/>
+    <mergeCell ref="D211:D222"/>
+    <mergeCell ref="A223:A232"/>
+    <mergeCell ref="B223:B232"/>
+    <mergeCell ref="D223:D232"/>
+    <mergeCell ref="C182:C201"/>
+    <mergeCell ref="C202:C210"/>
+    <mergeCell ref="A269:A277"/>
+    <mergeCell ref="B269:B277"/>
+    <mergeCell ref="D269:D277"/>
+    <mergeCell ref="E269:E277"/>
+    <mergeCell ref="B345:B360"/>
+    <mergeCell ref="E345:E360"/>
+    <mergeCell ref="A338:A344"/>
+    <mergeCell ref="B338:B344"/>
+    <mergeCell ref="D338:D344"/>
+    <mergeCell ref="E338:E344"/>
+    <mergeCell ref="D298:D307"/>
+    <mergeCell ref="A278:A297"/>
+    <mergeCell ref="B278:B297"/>
+    <mergeCell ref="D278:D297"/>
+    <mergeCell ref="E278:E297"/>
+    <mergeCell ref="B298:B307"/>
+    <mergeCell ref="E298:E307"/>
+    <mergeCell ref="B317:B337"/>
+    <mergeCell ref="D317:D337"/>
+    <mergeCell ref="E317:E337"/>
+    <mergeCell ref="A298:A307"/>
+    <mergeCell ref="A317:A337"/>
+    <mergeCell ref="A308:A316"/>
+    <mergeCell ref="B308:B316"/>
+    <mergeCell ref="D308:D316"/>
+    <mergeCell ref="E308:E316"/>
+    <mergeCell ref="D345:D360"/>
+    <mergeCell ref="C317:C337"/>
+    <mergeCell ref="C338:C344"/>
+    <mergeCell ref="A382:A390"/>
+    <mergeCell ref="B382:B390"/>
+    <mergeCell ref="D382:D390"/>
+    <mergeCell ref="E382:E390"/>
+    <mergeCell ref="E375:E381"/>
+    <mergeCell ref="B375:B381"/>
+    <mergeCell ref="D375:D381"/>
+    <mergeCell ref="A345:A360"/>
+    <mergeCell ref="A361:A374"/>
+    <mergeCell ref="B361:B374"/>
+    <mergeCell ref="D361:D374"/>
+    <mergeCell ref="E361:E374"/>
+    <mergeCell ref="A375:A381"/>
+    <mergeCell ref="C345:C360"/>
+    <mergeCell ref="C361:C374"/>
+    <mergeCell ref="C375:C381"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="B84:B91"/>
+    <mergeCell ref="A84:A91"/>
+    <mergeCell ref="A77:A83"/>
+    <mergeCell ref="B77:B83"/>
+    <mergeCell ref="E51:E56"/>
+    <mergeCell ref="E39:E44"/>
+    <mergeCell ref="E45:E50"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="D51:D56"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="D39:D44"/>
+    <mergeCell ref="A45:A50"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="D45:D50"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="C51:C56"/>
+    <mergeCell ref="C57:C63"/>
+    <mergeCell ref="C64:C71"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="D2:D11"/>
+    <mergeCell ref="E2:E11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="A141:A147"/>
+    <mergeCell ref="E100:E107"/>
+    <mergeCell ref="E108:E115"/>
+    <mergeCell ref="A100:A107"/>
+    <mergeCell ref="B100:B107"/>
+    <mergeCell ref="D100:D107"/>
+    <mergeCell ref="B108:B115"/>
+    <mergeCell ref="D108:D115"/>
+    <mergeCell ref="A108:A115"/>
+    <mergeCell ref="C100:C107"/>
+    <mergeCell ref="C108:C115"/>
+    <mergeCell ref="C116:C121"/>
+    <mergeCell ref="C122:C128"/>
+    <mergeCell ref="C129:C133"/>
+    <mergeCell ref="C134:C140"/>
+    <mergeCell ref="C141:C147"/>
+    <mergeCell ref="D154:D160"/>
+    <mergeCell ref="E154:E160"/>
+    <mergeCell ref="E129:E133"/>
+    <mergeCell ref="E134:E140"/>
+    <mergeCell ref="B134:B140"/>
+    <mergeCell ref="C148:C153"/>
+    <mergeCell ref="C154:C160"/>
+    <mergeCell ref="A391:A399"/>
+    <mergeCell ref="B391:B399"/>
+    <mergeCell ref="D391:D399"/>
+    <mergeCell ref="E391:E399"/>
+    <mergeCell ref="E148:E153"/>
+    <mergeCell ref="B148:B153"/>
+    <mergeCell ref="A148:A153"/>
+    <mergeCell ref="A154:A160"/>
+    <mergeCell ref="B141:B147"/>
+    <mergeCell ref="D141:D147"/>
+    <mergeCell ref="E141:E147"/>
+    <mergeCell ref="D148:D153"/>
+    <mergeCell ref="A134:A140"/>
+    <mergeCell ref="A129:A133"/>
+    <mergeCell ref="B129:B133"/>
+    <mergeCell ref="D129:D133"/>
+    <mergeCell ref="D134:D140"/>
+    <mergeCell ref="A419:A428"/>
+    <mergeCell ref="A439:A448"/>
+    <mergeCell ref="D400:D408"/>
+    <mergeCell ref="B400:B408"/>
+    <mergeCell ref="E400:E408"/>
+    <mergeCell ref="C400:C408"/>
+    <mergeCell ref="D77:D83"/>
+    <mergeCell ref="E77:E83"/>
+    <mergeCell ref="E84:E91"/>
+    <mergeCell ref="E122:E128"/>
+    <mergeCell ref="B122:B128"/>
+    <mergeCell ref="D122:D128"/>
+    <mergeCell ref="A122:A128"/>
+    <mergeCell ref="A116:A121"/>
+    <mergeCell ref="B116:B121"/>
+    <mergeCell ref="D116:D121"/>
+    <mergeCell ref="E116:E121"/>
+    <mergeCell ref="D84:D91"/>
+    <mergeCell ref="A92:A99"/>
+    <mergeCell ref="B92:B99"/>
+    <mergeCell ref="D92:D99"/>
+    <mergeCell ref="E92:E99"/>
+    <mergeCell ref="C92:C99"/>
+    <mergeCell ref="B154:B160"/>
     <mergeCell ref="B72:B76"/>
     <mergeCell ref="D72:D76"/>
     <mergeCell ref="E72:E76"/>
@@ -9208,226 +9404,30 @@
     <mergeCell ref="B409:B418"/>
     <mergeCell ref="D409:D418"/>
     <mergeCell ref="E409:E418"/>
-    <mergeCell ref="A419:A428"/>
-    <mergeCell ref="A439:A448"/>
-    <mergeCell ref="D400:D408"/>
-    <mergeCell ref="B400:B408"/>
-    <mergeCell ref="E400:E408"/>
-    <mergeCell ref="C400:C408"/>
-    <mergeCell ref="D77:D83"/>
-    <mergeCell ref="E77:E83"/>
-    <mergeCell ref="E84:E91"/>
-    <mergeCell ref="E122:E128"/>
-    <mergeCell ref="B122:B128"/>
-    <mergeCell ref="D122:D128"/>
-    <mergeCell ref="A122:A128"/>
-    <mergeCell ref="A116:A121"/>
-    <mergeCell ref="B116:B121"/>
-    <mergeCell ref="D116:D121"/>
-    <mergeCell ref="E116:E121"/>
-    <mergeCell ref="D84:D91"/>
-    <mergeCell ref="A92:A99"/>
-    <mergeCell ref="B92:B99"/>
-    <mergeCell ref="D92:D99"/>
-    <mergeCell ref="E92:E99"/>
-    <mergeCell ref="C92:C99"/>
-    <mergeCell ref="B154:B160"/>
-    <mergeCell ref="D154:D160"/>
-    <mergeCell ref="E154:E160"/>
-    <mergeCell ref="E129:E133"/>
-    <mergeCell ref="E134:E140"/>
-    <mergeCell ref="B134:B140"/>
-    <mergeCell ref="C148:C153"/>
-    <mergeCell ref="C154:C160"/>
-    <mergeCell ref="A391:A399"/>
-    <mergeCell ref="B391:B399"/>
-    <mergeCell ref="D391:D399"/>
-    <mergeCell ref="E391:E399"/>
-    <mergeCell ref="E148:E153"/>
-    <mergeCell ref="B148:B153"/>
-    <mergeCell ref="A148:A153"/>
-    <mergeCell ref="A154:A160"/>
-    <mergeCell ref="B141:B147"/>
-    <mergeCell ref="D141:D147"/>
-    <mergeCell ref="E141:E147"/>
-    <mergeCell ref="D148:D153"/>
-    <mergeCell ref="A134:A140"/>
-    <mergeCell ref="A129:A133"/>
-    <mergeCell ref="B129:B133"/>
-    <mergeCell ref="D129:D133"/>
-    <mergeCell ref="D134:D140"/>
-    <mergeCell ref="A141:A147"/>
-    <mergeCell ref="E100:E107"/>
-    <mergeCell ref="E108:E115"/>
-    <mergeCell ref="A100:A107"/>
-    <mergeCell ref="B100:B107"/>
-    <mergeCell ref="D100:D107"/>
-    <mergeCell ref="B108:B115"/>
-    <mergeCell ref="D108:D115"/>
-    <mergeCell ref="A108:A115"/>
-    <mergeCell ref="C100:C107"/>
-    <mergeCell ref="C108:C115"/>
-    <mergeCell ref="C116:C121"/>
-    <mergeCell ref="C122:C128"/>
-    <mergeCell ref="C129:C133"/>
-    <mergeCell ref="C134:C140"/>
-    <mergeCell ref="C141:C147"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="B57:B63"/>
+    <mergeCell ref="D57:D63"/>
+    <mergeCell ref="E57:E63"/>
+    <mergeCell ref="B64:B71"/>
+    <mergeCell ref="D64:D71"/>
+    <mergeCell ref="E64:E71"/>
     <mergeCell ref="B25:B30"/>
     <mergeCell ref="D25:D30"/>
     <mergeCell ref="D31:D32"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="D2:D11"/>
-    <mergeCell ref="E2:E11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="E12:E16"/>
     <mergeCell ref="E25:E30"/>
     <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E17:E20"/>
     <mergeCell ref="E21:E24"/>
     <mergeCell ref="C21:C24"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="D17:D20"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A33:A38"/>
     <mergeCell ref="B33:B38"/>
     <mergeCell ref="D33:D38"/>
     <mergeCell ref="E33:E38"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="B84:B91"/>
-    <mergeCell ref="A84:A91"/>
-    <mergeCell ref="A77:A83"/>
-    <mergeCell ref="B77:B83"/>
-    <mergeCell ref="E51:E56"/>
-    <mergeCell ref="E39:E44"/>
-    <mergeCell ref="E45:E50"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="D51:D56"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="D39:D44"/>
-    <mergeCell ref="A45:A50"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="D45:D50"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="D308:D316"/>
-    <mergeCell ref="E308:E316"/>
-    <mergeCell ref="D345:D360"/>
-    <mergeCell ref="C317:C337"/>
-    <mergeCell ref="C338:C344"/>
-    <mergeCell ref="A382:A390"/>
-    <mergeCell ref="B382:B390"/>
-    <mergeCell ref="D382:D390"/>
-    <mergeCell ref="E382:E390"/>
-    <mergeCell ref="E375:E381"/>
-    <mergeCell ref="B375:B381"/>
-    <mergeCell ref="D375:D381"/>
-    <mergeCell ref="A345:A360"/>
-    <mergeCell ref="A361:A374"/>
-    <mergeCell ref="B361:B374"/>
-    <mergeCell ref="D361:D374"/>
-    <mergeCell ref="E361:E374"/>
-    <mergeCell ref="A375:A381"/>
-    <mergeCell ref="C345:C360"/>
-    <mergeCell ref="C361:C374"/>
-    <mergeCell ref="C375:C381"/>
-    <mergeCell ref="A269:A277"/>
-    <mergeCell ref="B269:B277"/>
-    <mergeCell ref="D269:D277"/>
-    <mergeCell ref="E269:E277"/>
-    <mergeCell ref="B345:B360"/>
-    <mergeCell ref="E345:E360"/>
-    <mergeCell ref="A338:A344"/>
-    <mergeCell ref="B338:B344"/>
-    <mergeCell ref="D338:D344"/>
-    <mergeCell ref="E338:E344"/>
-    <mergeCell ref="D298:D307"/>
-    <mergeCell ref="A278:A297"/>
-    <mergeCell ref="B278:B297"/>
-    <mergeCell ref="D278:D297"/>
-    <mergeCell ref="E278:E297"/>
-    <mergeCell ref="B298:B307"/>
-    <mergeCell ref="E298:E307"/>
-    <mergeCell ref="B317:B337"/>
-    <mergeCell ref="D317:D337"/>
-    <mergeCell ref="E317:E337"/>
-    <mergeCell ref="A298:A307"/>
-    <mergeCell ref="A317:A337"/>
-    <mergeCell ref="A308:A316"/>
-    <mergeCell ref="B308:B316"/>
-    <mergeCell ref="B182:B201"/>
-    <mergeCell ref="D182:D201"/>
-    <mergeCell ref="E182:E201"/>
-    <mergeCell ref="A175:A181"/>
-    <mergeCell ref="B175:B181"/>
-    <mergeCell ref="E211:E222"/>
-    <mergeCell ref="E223:E232"/>
-    <mergeCell ref="A182:A201"/>
-    <mergeCell ref="A202:A210"/>
-    <mergeCell ref="B202:B210"/>
-    <mergeCell ref="D202:D210"/>
-    <mergeCell ref="E202:E210"/>
-    <mergeCell ref="A211:A222"/>
-    <mergeCell ref="B211:B222"/>
-    <mergeCell ref="D211:D222"/>
-    <mergeCell ref="A223:A232"/>
-    <mergeCell ref="B223:B232"/>
-    <mergeCell ref="D223:D232"/>
-    <mergeCell ref="C182:C201"/>
-    <mergeCell ref="C202:C210"/>
-    <mergeCell ref="D167:D174"/>
-    <mergeCell ref="E167:E174"/>
-    <mergeCell ref="D175:D181"/>
-    <mergeCell ref="E175:E181"/>
-    <mergeCell ref="A161:A166"/>
-    <mergeCell ref="B161:B166"/>
-    <mergeCell ref="D161:D166"/>
-    <mergeCell ref="E161:E166"/>
-    <mergeCell ref="B167:B174"/>
-    <mergeCell ref="A167:A174"/>
-    <mergeCell ref="C161:C166"/>
-    <mergeCell ref="C167:C174"/>
-    <mergeCell ref="C175:C181"/>
-    <mergeCell ref="E258:E268"/>
-    <mergeCell ref="A233:A243"/>
-    <mergeCell ref="A244:A257"/>
-    <mergeCell ref="B244:B257"/>
-    <mergeCell ref="D244:D257"/>
-    <mergeCell ref="E244:E257"/>
-    <mergeCell ref="A258:A268"/>
-    <mergeCell ref="E233:E243"/>
-    <mergeCell ref="B233:B243"/>
-    <mergeCell ref="D233:D243"/>
-    <mergeCell ref="B258:B268"/>
-    <mergeCell ref="D258:D268"/>
-    <mergeCell ref="C45:C50"/>
-    <mergeCell ref="C51:C56"/>
-    <mergeCell ref="C57:C63"/>
-    <mergeCell ref="C64:C71"/>
-    <mergeCell ref="C72:C76"/>
-    <mergeCell ref="C77:C83"/>
-    <mergeCell ref="C84:C91"/>
-    <mergeCell ref="C382:C390"/>
-    <mergeCell ref="C391:C399"/>
-    <mergeCell ref="C211:C222"/>
-    <mergeCell ref="C223:C232"/>
-    <mergeCell ref="C233:C243"/>
-    <mergeCell ref="C244:C257"/>
-    <mergeCell ref="C258:C268"/>
-    <mergeCell ref="C269:C277"/>
-    <mergeCell ref="C278:C297"/>
-    <mergeCell ref="C298:C307"/>
-    <mergeCell ref="C308:C316"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
